--- a/설계및정의서/기능리스트_AR 레이싱 게임 v0.1.xlsx
+++ b/설계및정의서/기능리스트_AR 레이싱 게임 v0.1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kindc\Desktop\비트캠프_멘토서류\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\BitCamp_AR\설계및정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3EBA69-189A-4C5C-B220-B1402B2B6F73}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,13 +23,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
     <author>kosta</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="H1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,13 +107,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
     <author>kosta</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{83143C8E-FAD8-402B-8415-87E50A50E5C1}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -170,7 +169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1" shapeId="0" xr:uid="{1D5C3B34-4C47-4DEA-AC3F-9D99660F6FCD}">
+    <comment ref="H1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1496,7 +1495,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d"/>
   </numFmts>
@@ -2120,83 +2119,83 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2227,7 +2226,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -2319,23 +2318,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2371,23 +2353,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2563,7 +2528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K195"/>
   <sheetViews>
     <sheetView topLeftCell="A85" workbookViewId="0">
@@ -4350,7 +4315,7 @@
       <c r="F195" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="G1:H1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="G1:H1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
@@ -4359,11 +4324,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4408,69 +4373,69 @@
       <c r="A2" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="71"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="70"/>
     </row>
     <row r="3" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="65" t="s">
         <v>261</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="72" t="s">
+      <c r="B3" s="88"/>
+      <c r="C3" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="75"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="74"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="65" t="s">
         <v>263</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="72" t="s">
+      <c r="B4" s="88"/>
+      <c r="C4" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="73" t="s">
+      <c r="D4" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="75"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="74"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="65" t="s">
         <v>264</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="87" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="71" t="s">
         <v>111</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="80"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="78"/>
       <c r="I5" s="56"/>
       <c r="J5" s="55"/>
       <c r="K5" s="55"/>
@@ -4479,17 +4444,17 @@
       <c r="A6" s="65" t="s">
         <v>265</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="67" t="s">
+      <c r="B6" s="87"/>
+      <c r="C6" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="68" t="s">
+      <c r="D6" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="80"/>
+      <c r="E6" s="73"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="78"/>
       <c r="I6" s="56"/>
       <c r="J6" s="55"/>
       <c r="K6" s="55"/>
@@ -4498,17 +4463,17 @@
       <c r="A7" s="65" t="s">
         <v>266</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="67" t="s">
+      <c r="B7" s="87"/>
+      <c r="C7" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="67" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="74"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="80"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="78"/>
       <c r="I7" s="55"/>
       <c r="J7" s="55"/>
       <c r="K7" s="55"/>
@@ -4517,17 +4482,17 @@
       <c r="A8" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="72" t="s">
+      <c r="B8" s="87"/>
+      <c r="C8" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="73" t="s">
+      <c r="D8" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="74"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="80"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="78"/>
       <c r="I8" s="55"/>
       <c r="J8" s="55"/>
       <c r="K8" s="55"/>
@@ -4536,17 +4501,17 @@
       <c r="A9" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="72" t="s">
+      <c r="B9" s="87"/>
+      <c r="C9" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="D9" s="73" t="s">
+      <c r="D9" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="E9" s="74"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="80"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="78"/>
       <c r="I9" s="55"/>
       <c r="J9" s="55"/>
       <c r="K9" s="55"/>
@@ -4555,17 +4520,17 @@
       <c r="A10" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="67" t="s">
+      <c r="B10" s="87"/>
+      <c r="C10" s="66" t="s">
         <v>181</v>
       </c>
       <c r="D10" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="E10" s="74"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="80"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="78"/>
       <c r="I10" s="55"/>
       <c r="J10" s="55"/>
       <c r="K10" s="55"/>
@@ -4574,19 +4539,19 @@
       <c r="A11" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="87" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="E11" s="74"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="80"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="78"/>
       <c r="I11" s="55"/>
       <c r="J11" s="55"/>
       <c r="K11" s="55"/>
@@ -4595,17 +4560,17 @@
       <c r="A12" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="72" t="s">
+      <c r="B12" s="87"/>
+      <c r="C12" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="D12" s="73" t="s">
+      <c r="D12" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="E12" s="74"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="80"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="78"/>
       <c r="I12" s="55"/>
       <c r="J12" s="55"/>
       <c r="K12" s="55"/>
@@ -4614,1095 +4579,1095 @@
       <c r="A13" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="72" t="s">
+      <c r="B13" s="87"/>
+      <c r="C13" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="75"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="74"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="72" t="s">
+      <c r="B14" s="87"/>
+      <c r="C14" s="71" t="s">
         <v>150</v>
       </c>
-      <c r="D14" s="73" t="s">
+      <c r="D14" s="72" t="s">
         <v>151</v>
       </c>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="75"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="76"/>
-      <c r="C15" s="67" t="s">
+      <c r="B15" s="87"/>
+      <c r="C15" s="66" t="s">
         <v>181</v>
       </c>
       <c r="D15" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="75"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="74"/>
     </row>
     <row r="16" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="73" t="s">
+      <c r="D16" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="75"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="74"/>
     </row>
     <row r="17" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A17" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="72" t="s">
+      <c r="B17" s="87"/>
+      <c r="C17" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="D17" s="73" t="s">
+      <c r="D17" s="72" t="s">
         <v>324</v>
       </c>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="75"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="74"/>
     </row>
     <row r="18" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="76"/>
-      <c r="C18" s="72" t="s">
+      <c r="B18" s="87"/>
+      <c r="C18" s="71" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="73" t="s">
+      <c r="D18" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="75"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="74"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="76"/>
-      <c r="C19" s="72" t="s">
+      <c r="B19" s="87"/>
+      <c r="C19" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="D19" s="73" t="s">
+      <c r="D19" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="74"/>
-      <c r="H19" s="75"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="74"/>
     </row>
     <row r="20" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="76"/>
-      <c r="C20" s="72" t="s">
+      <c r="B20" s="87"/>
+      <c r="C20" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="D20" s="73" t="s">
+      <c r="D20" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="75"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="74"/>
     </row>
     <row r="21" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="76"/>
-      <c r="C21" s="72" t="s">
+      <c r="B21" s="87"/>
+      <c r="C21" s="71" t="s">
         <v>154</v>
       </c>
-      <c r="D21" s="73" t="s">
+      <c r="D21" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="74"/>
-      <c r="H21" s="75"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="74"/>
     </row>
     <row r="22" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="76"/>
-      <c r="C22" s="67" t="s">
+      <c r="B22" s="87"/>
+      <c r="C22" s="66" t="s">
         <v>181</v>
       </c>
       <c r="D22" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="74"/>
-      <c r="H22" s="75"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="74"/>
     </row>
     <row r="23" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="68" t="s">
+      <c r="D23" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="75"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="74"/>
     </row>
     <row r="24" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="76"/>
-      <c r="C24" s="67" t="s">
+      <c r="B24" s="87"/>
+      <c r="C24" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="D24" s="68" t="s">
+      <c r="D24" s="67" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="75"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="74"/>
     </row>
     <row r="25" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="76"/>
-      <c r="C25" s="72" t="s">
+      <c r="B25" s="87"/>
+      <c r="C25" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="73" t="s">
+      <c r="D25" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="75"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="74"/>
     </row>
     <row r="26" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="76"/>
-      <c r="C26" s="72" t="s">
+      <c r="B26" s="87"/>
+      <c r="C26" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="73" t="s">
+      <c r="D26" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="75"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="74"/>
     </row>
     <row r="27" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="76"/>
-      <c r="C27" s="72" t="s">
+      <c r="B27" s="87"/>
+      <c r="C27" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="D27" s="73" t="s">
+      <c r="D27" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="75"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="74"/>
     </row>
     <row r="28" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="76"/>
-      <c r="C28" s="67" t="s">
+      <c r="B28" s="87"/>
+      <c r="C28" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="D28" s="77" t="s">
+      <c r="D28" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="75"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="74"/>
     </row>
     <row r="29" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="76"/>
-      <c r="C29" s="67" t="s">
+      <c r="B29" s="87"/>
+      <c r="C29" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="D29" s="77" t="s">
+      <c r="D29" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="75"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="74"/>
     </row>
     <row r="30" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="76"/>
-      <c r="C30" s="67" t="s">
+      <c r="B30" s="87"/>
+      <c r="C30" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="D30" s="77" t="s">
+      <c r="D30" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="75"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="74"/>
     </row>
     <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="76"/>
-      <c r="C31" s="67" t="s">
+      <c r="B31" s="87"/>
+      <c r="C31" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="77" t="s">
+      <c r="D31" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="75"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="74"/>
     </row>
     <row r="32" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="76"/>
-      <c r="C32" s="67" t="s">
+      <c r="B32" s="87"/>
+      <c r="C32" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="D32" s="77" t="s">
+      <c r="D32" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="75"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="74"/>
     </row>
     <row r="33" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="76"/>
-      <c r="C33" s="67" t="s">
+      <c r="B33" s="87"/>
+      <c r="C33" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="D33" s="77" t="s">
+      <c r="D33" s="75" t="s">
         <v>136</v>
       </c>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="75"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="74"/>
     </row>
     <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="76"/>
-      <c r="C34" s="67" t="s">
+      <c r="B34" s="87"/>
+      <c r="C34" s="66" t="s">
         <v>138</v>
       </c>
-      <c r="D34" s="77" t="s">
+      <c r="D34" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="E34" s="74"/>
-      <c r="F34" s="74"/>
-      <c r="G34" s="74"/>
-      <c r="H34" s="75"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="74"/>
     </row>
     <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="65" t="s">
         <v>267</v>
       </c>
-      <c r="B35" s="76"/>
-      <c r="C35" s="67" t="s">
+      <c r="B35" s="87"/>
+      <c r="C35" s="66" t="s">
         <v>181</v>
       </c>
       <c r="D35" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="E35" s="74"/>
-      <c r="F35" s="74"/>
-      <c r="G35" s="74"/>
-      <c r="H35" s="75"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="74"/>
     </row>
     <row r="36" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="B36" s="76" t="s">
+      <c r="B36" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="67" t="s">
+      <c r="C36" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="68" t="s">
+      <c r="D36" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="E36" s="74"/>
-      <c r="F36" s="74"/>
-      <c r="G36" s="74"/>
-      <c r="H36" s="75"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="74"/>
     </row>
     <row r="37" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="B37" s="76"/>
-      <c r="C37" s="72" t="s">
+      <c r="B37" s="87"/>
+      <c r="C37" s="71" t="s">
         <v>225</v>
       </c>
-      <c r="D37" s="81" t="s">
+      <c r="D37" s="79" t="s">
         <v>226</v>
       </c>
-      <c r="E37" s="74"/>
-      <c r="F37" s="74"/>
-      <c r="G37" s="74"/>
-      <c r="H37" s="75"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="74"/>
     </row>
     <row r="38" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A38" s="65" t="s">
         <v>270</v>
       </c>
-      <c r="B38" s="76"/>
-      <c r="C38" s="72" t="s">
+      <c r="B38" s="87"/>
+      <c r="C38" s="71" t="s">
         <v>227</v>
       </c>
-      <c r="D38" s="81" t="s">
+      <c r="D38" s="79" t="s">
         <v>228</v>
       </c>
-      <c r="E38" s="74"/>
-      <c r="F38" s="74"/>
-      <c r="G38" s="74"/>
-      <c r="H38" s="75"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="74"/>
     </row>
     <row r="39" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="65" t="s">
         <v>271</v>
       </c>
-      <c r="B39" s="76"/>
-      <c r="C39" s="72" t="s">
+      <c r="B39" s="87"/>
+      <c r="C39" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="D39" s="81" t="s">
+      <c r="D39" s="79" t="s">
         <v>231</v>
       </c>
-      <c r="E39" s="83"/>
-      <c r="F39" s="83"/>
-      <c r="G39" s="83"/>
-      <c r="H39" s="84"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="82"/>
     </row>
     <row r="40" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="65" t="s">
         <v>272</v>
       </c>
-      <c r="B40" s="76"/>
-      <c r="C40" s="72" t="s">
+      <c r="B40" s="87"/>
+      <c r="C40" s="71" t="s">
         <v>230</v>
       </c>
-      <c r="D40" s="81" t="s">
+      <c r="D40" s="79" t="s">
         <v>232</v>
       </c>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="84"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="82"/>
     </row>
     <row r="41" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="65" t="s">
         <v>273</v>
       </c>
-      <c r="B41" s="76"/>
-      <c r="C41" s="72" t="s">
+      <c r="B41" s="87"/>
+      <c r="C41" s="71" t="s">
         <v>233</v>
       </c>
-      <c r="D41" s="81" t="s">
+      <c r="D41" s="79" t="s">
         <v>234</v>
       </c>
-      <c r="E41" s="83"/>
-      <c r="F41" s="83"/>
-      <c r="G41" s="83"/>
-      <c r="H41" s="84"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="82"/>
     </row>
     <row r="42" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="65" t="s">
         <v>274</v>
       </c>
-      <c r="B42" s="76"/>
-      <c r="C42" s="67" t="s">
+      <c r="B42" s="87"/>
+      <c r="C42" s="66" t="s">
         <v>325</v>
       </c>
-      <c r="D42" s="77" t="s">
+      <c r="D42" s="75" t="s">
         <v>326</v>
       </c>
-      <c r="E42" s="83"/>
-      <c r="F42" s="83"/>
-      <c r="G42" s="83"/>
-      <c r="H42" s="84"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="82"/>
     </row>
     <row r="43" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="65" t="s">
         <v>275</v>
       </c>
-      <c r="B43" s="76"/>
-      <c r="C43" s="82" t="s">
+      <c r="B43" s="87"/>
+      <c r="C43" s="80" t="s">
         <v>327</v>
       </c>
-      <c r="D43" s="77" t="s">
+      <c r="D43" s="75" t="s">
         <v>328</v>
       </c>
-      <c r="E43" s="83"/>
-      <c r="F43" s="83"/>
-      <c r="G43" s="83"/>
-      <c r="H43" s="84"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="82"/>
     </row>
     <row r="44" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="65" t="s">
         <v>276</v>
       </c>
-      <c r="B44" s="85" t="s">
+      <c r="B44" s="89" t="s">
         <v>262</v>
       </c>
-      <c r="C44" s="67" t="s">
+      <c r="C44" s="66" t="s">
         <v>188</v>
       </c>
       <c r="D44" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="E44" s="83"/>
-      <c r="F44" s="83"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="84"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="82"/>
     </row>
     <row r="45" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="65" t="s">
         <v>277</v>
       </c>
-      <c r="B45" s="85"/>
-      <c r="C45" s="67" t="s">
+      <c r="B45" s="89"/>
+      <c r="C45" s="66" t="s">
         <v>181</v>
       </c>
       <c r="D45" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="E45" s="83"/>
-      <c r="F45" s="83"/>
-      <c r="G45" s="83"/>
-      <c r="H45" s="84"/>
+      <c r="E45" s="81"/>
+      <c r="F45" s="81"/>
+      <c r="G45" s="81"/>
+      <c r="H45" s="82"/>
     </row>
     <row r="46" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="65" t="s">
         <v>278</v>
       </c>
-      <c r="B46" s="85"/>
-      <c r="C46" s="67" t="s">
+      <c r="B46" s="89"/>
+      <c r="C46" s="66" t="s">
         <v>189</v>
       </c>
       <c r="D46" s="57" t="s">
         <v>193</v>
       </c>
-      <c r="E46" s="83"/>
-      <c r="F46" s="83"/>
-      <c r="G46" s="83"/>
-      <c r="H46" s="84"/>
+      <c r="E46" s="81"/>
+      <c r="F46" s="81"/>
+      <c r="G46" s="81"/>
+      <c r="H46" s="82"/>
     </row>
     <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="65" t="s">
         <v>279</v>
       </c>
-      <c r="B47" s="85"/>
-      <c r="C47" s="67" t="s">
+      <c r="B47" s="89"/>
+      <c r="C47" s="66" t="s">
         <v>190</v>
       </c>
       <c r="D47" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="E47" s="83"/>
-      <c r="F47" s="83"/>
-      <c r="G47" s="83"/>
-      <c r="H47" s="84"/>
+      <c r="E47" s="81"/>
+      <c r="F47" s="81"/>
+      <c r="G47" s="81"/>
+      <c r="H47" s="82"/>
     </row>
     <row r="48" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="65" t="s">
         <v>280</v>
       </c>
-      <c r="B48" s="85" t="s">
+      <c r="B48" s="89" t="s">
         <v>206</v>
       </c>
-      <c r="C48" s="82" t="s">
+      <c r="C48" s="80" t="s">
         <v>207</v>
       </c>
-      <c r="D48" s="77" t="s">
+      <c r="D48" s="75" t="s">
         <v>312</v>
       </c>
-      <c r="E48" s="83"/>
-      <c r="F48" s="83"/>
-      <c r="G48" s="83"/>
-      <c r="H48" s="84"/>
+      <c r="E48" s="81"/>
+      <c r="F48" s="81"/>
+      <c r="G48" s="81"/>
+      <c r="H48" s="82"/>
     </row>
     <row r="49" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="65" t="s">
         <v>281</v>
       </c>
-      <c r="B49" s="85"/>
-      <c r="C49" s="82" t="s">
+      <c r="B49" s="89"/>
+      <c r="C49" s="80" t="s">
         <v>209</v>
       </c>
-      <c r="D49" s="77" t="s">
+      <c r="D49" s="75" t="s">
         <v>313</v>
       </c>
-      <c r="E49" s="83"/>
-      <c r="F49" s="83"/>
-      <c r="G49" s="83"/>
-      <c r="H49" s="84"/>
+      <c r="E49" s="81"/>
+      <c r="F49" s="81"/>
+      <c r="G49" s="81"/>
+      <c r="H49" s="82"/>
     </row>
     <row r="50" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="65" t="s">
         <v>282</v>
       </c>
-      <c r="B50" s="85"/>
-      <c r="C50" s="82"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="83"/>
-      <c r="F50" s="83"/>
-      <c r="G50" s="83"/>
-      <c r="H50" s="84"/>
+      <c r="B50" s="89"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="81"/>
+      <c r="F50" s="81"/>
+      <c r="G50" s="81"/>
+      <c r="H50" s="82"/>
     </row>
     <row r="51" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A51" s="65" t="s">
         <v>283</v>
       </c>
-      <c r="B51" s="85"/>
-      <c r="C51" s="67" t="s">
+      <c r="B51" s="89"/>
+      <c r="C51" s="66" t="s">
         <v>260</v>
       </c>
-      <c r="D51" s="68" t="s">
+      <c r="D51" s="67" t="s">
         <v>314</v>
       </c>
-      <c r="E51" s="83"/>
-      <c r="F51" s="83"/>
-      <c r="G51" s="83"/>
-      <c r="H51" s="84"/>
+      <c r="E51" s="81"/>
+      <c r="F51" s="81"/>
+      <c r="G51" s="81"/>
+      <c r="H51" s="82"/>
     </row>
     <row r="52" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="65" t="s">
         <v>284</v>
       </c>
-      <c r="B52" s="85"/>
-      <c r="C52" s="67" t="s">
+      <c r="B52" s="89"/>
+      <c r="C52" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D52" s="77" t="s">
+      <c r="D52" s="75" t="s">
         <v>257</v>
       </c>
-      <c r="E52" s="83"/>
-      <c r="F52" s="83"/>
-      <c r="G52" s="83"/>
-      <c r="H52" s="84"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="81"/>
+      <c r="H52" s="82"/>
     </row>
     <row r="53" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="65" t="s">
         <v>285</v>
       </c>
-      <c r="B53" s="85"/>
-      <c r="C53" s="67" t="s">
+      <c r="B53" s="89"/>
+      <c r="C53" s="66" t="s">
         <v>217</v>
       </c>
-      <c r="D53" s="77" t="s">
+      <c r="D53" s="75" t="s">
         <v>258</v>
       </c>
-      <c r="E53" s="83"/>
-      <c r="F53" s="83"/>
-      <c r="G53" s="83"/>
-      <c r="H53" s="84"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="81"/>
+      <c r="H53" s="82"/>
     </row>
     <row r="54" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="65" t="s">
         <v>286</v>
       </c>
-      <c r="B54" s="85"/>
-      <c r="C54" s="67" t="s">
+      <c r="B54" s="89"/>
+      <c r="C54" s="66" t="s">
         <v>218</v>
       </c>
-      <c r="D54" s="77" t="s">
+      <c r="D54" s="75" t="s">
         <v>259</v>
       </c>
-      <c r="E54" s="83"/>
-      <c r="F54" s="83"/>
-      <c r="G54" s="83"/>
-      <c r="H54" s="84"/>
+      <c r="E54" s="81"/>
+      <c r="F54" s="81"/>
+      <c r="G54" s="81"/>
+      <c r="H54" s="82"/>
     </row>
     <row r="55" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="65" t="s">
         <v>287</v>
       </c>
-      <c r="B55" s="85" t="s">
+      <c r="B55" s="89" t="s">
         <v>235</v>
       </c>
-      <c r="C55" s="82" t="s">
+      <c r="C55" s="80" t="s">
         <v>244</v>
       </c>
-      <c r="D55" s="77" t="s">
+      <c r="D55" s="75" t="s">
         <v>323</v>
       </c>
-      <c r="E55" s="83"/>
-      <c r="F55" s="83"/>
-      <c r="G55" s="83"/>
-      <c r="H55" s="84"/>
+      <c r="E55" s="81"/>
+      <c r="F55" s="81"/>
+      <c r="G55" s="81"/>
+      <c r="H55" s="82"/>
     </row>
     <row r="56" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="65" t="s">
         <v>288</v>
       </c>
-      <c r="B56" s="85"/>
-      <c r="C56" s="82" t="s">
+      <c r="B56" s="89"/>
+      <c r="C56" s="80" t="s">
         <v>236</v>
       </c>
-      <c r="D56" s="77" t="s">
+      <c r="D56" s="75" t="s">
         <v>322</v>
       </c>
-      <c r="E56" s="83"/>
-      <c r="F56" s="83"/>
-      <c r="G56" s="83"/>
-      <c r="H56" s="84"/>
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
+      <c r="G56" s="81"/>
+      <c r="H56" s="82"/>
     </row>
     <row r="57" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A57" s="65" t="s">
         <v>289</v>
       </c>
-      <c r="B57" s="85"/>
-      <c r="C57" s="82" t="s">
+      <c r="B57" s="89"/>
+      <c r="C57" s="80" t="s">
         <v>181</v>
       </c>
-      <c r="D57" s="77" t="s">
+      <c r="D57" s="75" t="s">
         <v>238</v>
       </c>
-      <c r="E57" s="83"/>
-      <c r="F57" s="83"/>
-      <c r="G57" s="83"/>
-      <c r="H57" s="84"/>
+      <c r="E57" s="81"/>
+      <c r="F57" s="81"/>
+      <c r="G57" s="81"/>
+      <c r="H57" s="82"/>
     </row>
     <row r="58" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="65" t="s">
         <v>290</v>
       </c>
-      <c r="B58" s="85"/>
-      <c r="C58" s="82" t="s">
+      <c r="B58" s="89"/>
+      <c r="C58" s="80" t="s">
         <v>239</v>
       </c>
-      <c r="D58" s="77" t="s">
+      <c r="D58" s="75" t="s">
         <v>321</v>
       </c>
-      <c r="E58" s="83"/>
-      <c r="F58" s="83"/>
-      <c r="G58" s="83"/>
-      <c r="H58" s="84"/>
+      <c r="E58" s="81"/>
+      <c r="F58" s="81"/>
+      <c r="G58" s="81"/>
+      <c r="H58" s="82"/>
     </row>
     <row r="59" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="65" t="s">
         <v>291</v>
       </c>
-      <c r="B59" s="85"/>
-      <c r="C59" s="82" t="s">
+      <c r="B59" s="89"/>
+      <c r="C59" s="80" t="s">
         <v>240</v>
       </c>
-      <c r="D59" s="77" t="s">
+      <c r="D59" s="75" t="s">
         <v>320</v>
       </c>
-      <c r="E59" s="83"/>
-      <c r="F59" s="83"/>
-      <c r="G59" s="83"/>
-      <c r="H59" s="84"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="81"/>
+      <c r="G59" s="81"/>
+      <c r="H59" s="82"/>
     </row>
     <row r="60" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="65" t="s">
         <v>292</v>
       </c>
-      <c r="B60" s="85"/>
-      <c r="C60" s="82" t="s">
+      <c r="B60" s="89"/>
+      <c r="C60" s="80" t="s">
         <v>241</v>
       </c>
-      <c r="D60" s="77" t="s">
+      <c r="D60" s="75" t="s">
         <v>242</v>
       </c>
-      <c r="E60" s="83"/>
-      <c r="F60" s="83"/>
-      <c r="G60" s="83"/>
-      <c r="H60" s="84"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
+      <c r="G60" s="81"/>
+      <c r="H60" s="82"/>
     </row>
     <row r="61" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A61" s="65" t="s">
         <v>293</v>
       </c>
-      <c r="B61" s="85"/>
-      <c r="C61" s="82" t="s">
+      <c r="B61" s="89"/>
+      <c r="C61" s="80" t="s">
         <v>245</v>
       </c>
-      <c r="D61" s="77" t="s">
+      <c r="D61" s="75" t="s">
         <v>246</v>
       </c>
-      <c r="E61" s="83"/>
-      <c r="F61" s="83"/>
-      <c r="G61" s="83"/>
-      <c r="H61" s="84"/>
+      <c r="E61" s="81"/>
+      <c r="F61" s="81"/>
+      <c r="G61" s="81"/>
+      <c r="H61" s="82"/>
     </row>
     <row r="62" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="65" t="s">
         <v>294</v>
       </c>
-      <c r="B62" s="85"/>
-      <c r="C62" s="82" t="s">
+      <c r="B62" s="89"/>
+      <c r="C62" s="80" t="s">
         <v>248</v>
       </c>
-      <c r="D62" s="77" t="s">
+      <c r="D62" s="75" t="s">
         <v>319</v>
       </c>
-      <c r="E62" s="83"/>
-      <c r="F62" s="83"/>
-      <c r="G62" s="83"/>
-      <c r="H62" s="84"/>
+      <c r="E62" s="81"/>
+      <c r="F62" s="81"/>
+      <c r="G62" s="81"/>
+      <c r="H62" s="82"/>
     </row>
     <row r="63" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="65" t="s">
         <v>295</v>
       </c>
-      <c r="B63" s="85"/>
-      <c r="C63" s="82" t="s">
+      <c r="B63" s="89"/>
+      <c r="C63" s="80" t="s">
         <v>249</v>
       </c>
-      <c r="D63" s="77" t="s">
+      <c r="D63" s="75" t="s">
         <v>318</v>
       </c>
-      <c r="E63" s="83"/>
-      <c r="F63" s="83"/>
-      <c r="G63" s="83"/>
-      <c r="H63" s="84"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="81"/>
+      <c r="G63" s="81"/>
+      <c r="H63" s="82"/>
     </row>
     <row r="64" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="65" t="s">
         <v>296</v>
       </c>
-      <c r="B64" s="85"/>
-      <c r="C64" s="82" t="s">
+      <c r="B64" s="89"/>
+      <c r="C64" s="80" t="s">
         <v>251</v>
       </c>
-      <c r="D64" s="77" t="s">
+      <c r="D64" s="75" t="s">
         <v>252</v>
       </c>
-      <c r="E64" s="83"/>
-      <c r="F64" s="83"/>
-      <c r="G64" s="83"/>
-      <c r="H64" s="84"/>
+      <c r="E64" s="81"/>
+      <c r="F64" s="81"/>
+      <c r="G64" s="81"/>
+      <c r="H64" s="82"/>
     </row>
     <row r="65" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="65" t="s">
         <v>297</v>
       </c>
-      <c r="B65" s="85"/>
-      <c r="C65" s="82" t="s">
+      <c r="B65" s="89"/>
+      <c r="C65" s="80" t="s">
         <v>253</v>
       </c>
-      <c r="D65" s="77" t="s">
+      <c r="D65" s="75" t="s">
         <v>317</v>
       </c>
-      <c r="E65" s="83"/>
-      <c r="F65" s="83"/>
-      <c r="G65" s="83"/>
-      <c r="H65" s="84"/>
+      <c r="E65" s="81"/>
+      <c r="F65" s="81"/>
+      <c r="G65" s="81"/>
+      <c r="H65" s="82"/>
     </row>
     <row r="66" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="65" t="s">
         <v>298</v>
       </c>
-      <c r="B66" s="85"/>
-      <c r="C66" s="82" t="s">
+      <c r="B66" s="89"/>
+      <c r="C66" s="80" t="s">
         <v>254</v>
       </c>
-      <c r="D66" s="77" t="s">
+      <c r="D66" s="75" t="s">
         <v>316</v>
       </c>
-      <c r="E66" s="83"/>
-      <c r="F66" s="83"/>
-      <c r="G66" s="83"/>
-      <c r="H66" s="84"/>
+      <c r="E66" s="81"/>
+      <c r="F66" s="81"/>
+      <c r="G66" s="81"/>
+      <c r="H66" s="82"/>
     </row>
     <row r="67" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="65" t="s">
         <v>299</v>
       </c>
-      <c r="B67" s="85" t="s">
+      <c r="B67" s="89" t="s">
         <v>176</v>
       </c>
-      <c r="C67" s="67" t="s">
+      <c r="C67" s="66" t="s">
         <v>177</v>
       </c>
       <c r="D67" t="s">
         <v>182</v>
       </c>
-      <c r="E67" s="83"/>
-      <c r="F67" s="83"/>
-      <c r="G67" s="83"/>
-      <c r="H67" s="84"/>
+      <c r="E67" s="81"/>
+      <c r="F67" s="81"/>
+      <c r="G67" s="81"/>
+      <c r="H67" s="82"/>
     </row>
     <row r="68" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="65" t="s">
         <v>300</v>
       </c>
-      <c r="B68" s="85"/>
-      <c r="C68" s="67" t="s">
+      <c r="B68" s="89"/>
+      <c r="C68" s="66" t="s">
         <v>178</v>
       </c>
       <c r="D68" t="s">
         <v>183</v>
       </c>
-      <c r="E68" s="83"/>
-      <c r="F68" s="83"/>
-      <c r="G68" s="83"/>
-      <c r="H68" s="84"/>
+      <c r="E68" s="81"/>
+      <c r="F68" s="81"/>
+      <c r="G68" s="81"/>
+      <c r="H68" s="82"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="65" t="s">
         <v>301</v>
       </c>
-      <c r="B69" s="85"/>
-      <c r="C69" s="67" t="s">
+      <c r="B69" s="89"/>
+      <c r="C69" s="66" t="s">
         <v>179</v>
       </c>
       <c r="D69" t="s">
         <v>184</v>
       </c>
-      <c r="E69" s="83"/>
-      <c r="F69" s="83"/>
-      <c r="G69" s="83"/>
-      <c r="H69" s="84"/>
+      <c r="E69" s="81"/>
+      <c r="F69" s="81"/>
+      <c r="G69" s="81"/>
+      <c r="H69" s="82"/>
     </row>
     <row r="70" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="65" t="s">
         <v>302</v>
       </c>
-      <c r="B70" s="85"/>
-      <c r="C70" s="67" t="s">
+      <c r="B70" s="89"/>
+      <c r="C70" s="66" t="s">
         <v>180</v>
       </c>
       <c r="D70" t="s">
         <v>185</v>
       </c>
-      <c r="E70" s="83"/>
-      <c r="F70" s="83"/>
-      <c r="G70" s="83"/>
-      <c r="H70" s="84"/>
+      <c r="E70" s="81"/>
+      <c r="F70" s="81"/>
+      <c r="G70" s="81"/>
+      <c r="H70" s="82"/>
     </row>
     <row r="71" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A71" s="65" t="s">
         <v>303</v>
       </c>
-      <c r="B71" s="85"/>
-      <c r="C71" s="67" t="s">
+      <c r="B71" s="89"/>
+      <c r="C71" s="66" t="s">
         <v>181</v>
       </c>
       <c r="D71" t="s">
         <v>186</v>
       </c>
-      <c r="E71" s="83"/>
-      <c r="F71" s="83"/>
-      <c r="G71" s="83"/>
-      <c r="H71" s="84"/>
+      <c r="E71" s="81"/>
+      <c r="F71" s="81"/>
+      <c r="G71" s="81"/>
+      <c r="H71" s="82"/>
     </row>
     <row r="72" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A72" s="65" t="s">
         <v>304</v>
       </c>
-      <c r="B72" s="86" t="s">
+      <c r="B72" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="87" t="s">
+      <c r="C72" s="83" t="s">
         <v>195</v>
       </c>
-      <c r="D72" s="88" t="s">
+      <c r="D72" s="84" t="s">
         <v>222</v>
       </c>
-      <c r="E72" s="83"/>
-      <c r="F72" s="83"/>
-      <c r="G72" s="83"/>
-      <c r="H72" s="84"/>
+      <c r="E72" s="81"/>
+      <c r="F72" s="81"/>
+      <c r="G72" s="81"/>
+      <c r="H72" s="82"/>
     </row>
     <row r="73" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="65" t="s">
         <v>305</v>
       </c>
-      <c r="B73" s="86"/>
-      <c r="C73" s="67" t="s">
+      <c r="B73" s="90"/>
+      <c r="C73" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="D73" s="68" t="s">
+      <c r="D73" s="67" t="s">
         <v>197</v>
       </c>
-      <c r="E73" s="83"/>
-      <c r="F73" s="83"/>
-      <c r="G73" s="83"/>
-      <c r="H73" s="84"/>
+      <c r="E73" s="81"/>
+      <c r="F73" s="81"/>
+      <c r="G73" s="81"/>
+      <c r="H73" s="82"/>
     </row>
     <row r="74" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A74" s="65" t="s">
         <v>306</v>
       </c>
-      <c r="B74" s="86"/>
-      <c r="C74" s="87" t="s">
+      <c r="B74" s="90"/>
+      <c r="C74" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="D74" s="88" t="s">
+      <c r="D74" s="84" t="s">
         <v>223</v>
       </c>
-      <c r="E74" s="83"/>
-      <c r="F74" s="83"/>
-      <c r="G74" s="83"/>
-      <c r="H74" s="84"/>
+      <c r="E74" s="81"/>
+      <c r="F74" s="81"/>
+      <c r="G74" s="81"/>
+      <c r="H74" s="82"/>
     </row>
     <row r="75" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A75" s="65" t="s">
         <v>307</v>
       </c>
-      <c r="B75" s="86"/>
-      <c r="C75" s="87" t="s">
+      <c r="B75" s="90"/>
+      <c r="C75" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="D75" s="88" t="s">
+      <c r="D75" s="84" t="s">
         <v>224</v>
       </c>
-      <c r="E75" s="83"/>
-      <c r="F75" s="83"/>
-      <c r="G75" s="83"/>
-      <c r="H75" s="84"/>
+      <c r="E75" s="81"/>
+      <c r="F75" s="81"/>
+      <c r="G75" s="81"/>
+      <c r="H75" s="82"/>
     </row>
     <row r="76" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="65" t="s">
         <v>308</v>
       </c>
-      <c r="B76" s="86"/>
-      <c r="C76" s="67" t="s">
+      <c r="B76" s="90"/>
+      <c r="C76" s="66" t="s">
         <v>198</v>
       </c>
-      <c r="D76" s="68" t="s">
+      <c r="D76" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="E76" s="83"/>
-      <c r="F76" s="83"/>
-      <c r="G76" s="83"/>
-      <c r="H76" s="84"/>
+      <c r="E76" s="81"/>
+      <c r="F76" s="81"/>
+      <c r="G76" s="81"/>
+      <c r="H76" s="82"/>
     </row>
     <row r="77" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="65" t="s">
         <v>309</v>
       </c>
-      <c r="B77" s="86"/>
-      <c r="C77" s="67" t="s">
+      <c r="B77" s="90"/>
+      <c r="C77" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="D77" s="68" t="s">
+      <c r="D77" s="67" t="s">
         <v>200</v>
       </c>
-      <c r="E77" s="83"/>
-      <c r="F77" s="83"/>
-      <c r="G77" s="83"/>
-      <c r="H77" s="84"/>
+      <c r="E77" s="81"/>
+      <c r="F77" s="81"/>
+      <c r="G77" s="81"/>
+      <c r="H77" s="82"/>
     </row>
     <row r="78" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="65" t="s">
         <v>310</v>
       </c>
-      <c r="B78" s="86"/>
-      <c r="C78" s="67" t="s">
+      <c r="B78" s="90"/>
+      <c r="C78" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="D78" s="68" t="s">
+      <c r="D78" s="67" t="s">
         <v>315</v>
       </c>
-      <c r="E78" s="83"/>
-      <c r="F78" s="83"/>
-      <c r="G78" s="83"/>
-      <c r="H78" s="84"/>
+      <c r="E78" s="81"/>
+      <c r="F78" s="81"/>
+      <c r="G78" s="81"/>
+      <c r="H78" s="82"/>
     </row>
     <row r="79" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="65" t="s">
         <v>311</v>
       </c>
-      <c r="B79" s="86"/>
-      <c r="C79" s="67" t="s">
+      <c r="B79" s="90"/>
+      <c r="C79" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="D79" s="68" t="s">
+      <c r="D79" s="67" t="s">
         <v>202</v>
       </c>
-      <c r="E79" s="83"/>
-      <c r="F79" s="83"/>
-      <c r="G79" s="83"/>
-      <c r="H79" s="84"/>
+      <c r="E79" s="81"/>
+      <c r="F79" s="81"/>
+      <c r="G79" s="81"/>
+      <c r="H79" s="82"/>
     </row>
     <row r="80" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="65" t="s">
         <v>329</v>
       </c>
-      <c r="B80" s="86"/>
-      <c r="C80" s="67" t="s">
+      <c r="B80" s="90"/>
+      <c r="C80" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="D80" s="68" t="s">
+      <c r="D80" s="67" t="s">
         <v>96</v>
       </c>
       <c r="E80" s="57"/>
@@ -5714,11 +5679,11 @@
       <c r="A81" s="65" t="s">
         <v>330</v>
       </c>
-      <c r="B81" s="86"/>
-      <c r="C81" s="67" t="s">
+      <c r="B81" s="90"/>
+      <c r="C81" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="D81" s="68" t="s">
+      <c r="D81" s="67" t="s">
         <v>204</v>
       </c>
       <c r="E81" s="57"/>
@@ -5730,11 +5695,11 @@
       <c r="A82" s="65" t="s">
         <v>331</v>
       </c>
-      <c r="B82" s="86"/>
-      <c r="C82" s="67" t="s">
+      <c r="B82" s="90"/>
+      <c r="C82" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="D82" s="68" t="s">
+      <c r="D82" s="67" t="s">
         <v>98</v>
       </c>
       <c r="E82" s="57"/>
@@ -5746,11 +5711,11 @@
       <c r="A83" s="65" t="s">
         <v>332</v>
       </c>
-      <c r="B83" s="89"/>
-      <c r="C83" s="90" t="s">
+      <c r="B83" s="91"/>
+      <c r="C83" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="D83" s="91" t="s">
+      <c r="D83" s="86" t="s">
         <v>205</v>
       </c>
       <c r="E83" s="59"/>
@@ -5760,17 +5725,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B72:B83"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="B48:B54"/>
+    <mergeCell ref="B55:B66"/>
+    <mergeCell ref="B67:B71"/>
     <mergeCell ref="B5:B10"/>
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="B16:B22"/>
     <mergeCell ref="B23:B35"/>
     <mergeCell ref="B36:B43"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B48:B54"/>
-    <mergeCell ref="B55:B66"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="B72:B83"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/설계및정의서/기능리스트_AR 레이싱 게임 v0.1.xlsx
+++ b/설계및정의서/기능리스트_AR 레이싱 게임 v0.1.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$H$1</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="395">
   <si>
     <t>화면명</t>
   </si>
@@ -1412,27 +1412,295 @@
     <t>SRS-078</t>
   </si>
   <si>
+    <t>화면 하단 중앙에 참여하기 버튼을 생성한다 원하는 방을 클릭하고 참여하기 버튼을 누르게 되면 해당 방으로 참여한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면 우측 상단에 트랙수를 전시한다. Ex) 1/3 앞에 있는 숫자는 현재 트랙이 몇번째 인지 의미하고, 뒤에 있는 숫자는 완주해야하는 총 트랙 수를 의미한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시작버튼은 방장만 보이게 함 모든 유저가 준비버튼을 누른상태에서 활성화 그이외의 조건일경우 비활성화시킴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참여 인원은 4명으로 정함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방장의 닉네임은 무조건 첫번째 칸에 위치 하며 따로 표기하지않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어가 중간에 나가면 닉네임 목록이 사라지는 기능 유저가 소유하고있던 유저목록은 비어있는 상태이며 유저들의 배치가 변동하지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른쪽 하단에 방장이 선택한 맵 표시 기능..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">가운데 하단에 Ready 버튼 설정 AR게임이 실행가능한 상태가 된다면 레디버튼이 활성화 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4칸을 만들고 각각의 칸에 방에 참여한 유저의 닉네임을 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스에 있는 아이디과 아이디 입력 텍스트필드에 입력한 아이디가 같으면 새 비밀번호 입력 텍스트 필드와 새 비밀번호 재입력 텍스트 필드, 다르면 아이디 불일치 안내 라벨을 보여줌,새 비밀번호 설정완료 후 확인버튼 누를시 비밀번호 일치여부 확인후 일치하면 데이터베이스에 저장 후 로그인화면으로 전환 불일치하면 불일치 안내 라벨 보여줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 차량 하단부분에 유저의 닉네임을 표기함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRS-079</t>
+  </si>
+  <si>
+    <t>SRS-080</t>
+  </si>
+  <si>
+    <t>SRS-081</t>
+  </si>
+  <si>
+    <t>SRS-082</t>
+  </si>
+  <si>
+    <t>비밀 번호 찾기 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 입력 텍스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 입력 텍스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 입력 텍스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 라벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 불일치 안내 라벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 불일치 안내 라벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새 비밀번호 입력 텍스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새 비밀번호 재입력 텍스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 불일치 안내 라벨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 중복체크 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임 중복체크 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 확인 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시작 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 제작화면으로 이동하는 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 표시 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 접근 상태 활성화,비활성화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 현황 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤로가기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 목록 현황 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준비 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤로가기 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 방이 진행할 맵 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어가 방에 접속할 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방장유저 표기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방장유저가 방에서 나갈 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방에 접속할 수 있는 유저 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임시작버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 맵 보여주는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 맵을 맵리스트의 오른쪽목록으로 이동하는 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시작 카운트 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 표시 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 화면으로 전환 기존의 화면위에 그려짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 화면을 보여줌 기존의 화면위에 그려짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력한 아이디와 비밀번호를 데이터베이스에 있는 정보와 비교하여 같을시 게임내부화면으로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분실한 아이디를 찾기 위한 이메일 인증방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분실한 비밀번호를 찾기 위한 아이디 및 2차비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 아이디를 입력할 수 있는 텍스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽 상단에 뒤로가기 버튼이 있으며 해당 버튼 클릭시 이전화면으로 돌아감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽 상단에 뒤로가기 버튼이 있으며 해당 버튼 클릭시 이전화면으로 돌아감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 아이디를 입력할 수 있는 텍스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 비밀번호를 입력할 수 있는 텍스트 입력시 입력한 텍스트를 *로 대체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보를 입력하는 UI를 만든뒤 UI에 입력한 텍스트 값을 데이터 베이스에 저장.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입에 필요한 닉네임을 입력할 수 있는 텍스트필드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입에 필요한 비밀번호를 입력할 수 있는 텍스트필드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차 부품 &amp; 외형 디자인 목록을 화면 우측에 전시한다. 차는 좌측에 전시하여 품목을 선택하면 미리보기 기능을 제공한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본적으로 내 차량은 3D로 보여지게되고 AR버튼 클릭시 해당 차량이 AR로 보여지게 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차외관 Ex)승용차,버스,트레일러,덤프,경운기,자전거,보드 등을 사용자가 취사선택하여 자신의 차량에 적용할 수 있음.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시작 버튼을(위치 미정) 누르게 될 경우 방을 참여하거나 방을 만들 수 있는 화면으로 이동.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽 상단에 뒤로가기 버튼이 있으며 해당 버튼 클릭시 이전화면으로 돌아감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 클릭시 방 제작화면으로 이동하게됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 클릭시 방 참여화면으로 이동하게됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>화면 상단 중앙에 현재 생성되어있는 방을 나열한다. 방을 만든사람의 닉네임과 현재 인원수를 표시한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>화면 하단 중앙에 참여하기 버튼을 생성한다 원하는 방을 클릭하고 참여하기 버튼을 누르게 되면 해당 방으로 참여한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>현재 방에 접속할 수 있는 상태(현재 접근하려는 방에 접속할 수 있는 유저수와 현재 접속해 있는 유저수가 같지 않는 상태)라면 방에 접근할수 있도록 하며 그러한 상태가 아니라접근할 수 없도록 방을 비활성화.(방은 버튼으로 진행되어 있으며 버튼을 활성화 혹은 비활성화)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>화면 우측 상단에 트랙수를 전시한다. Ex) 1/3 앞에 있는 숫자는 현재 트랙이 몇번째 인지 의미하고, 뒤에 있는 숫자는 완주해야하는 총 트랙 수를 의미한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 시작버튼은 방장만 보이게 함 모든 유저가 준비버튼을 누른상태에서 활성화 그이외의 조건일경우 비활성화시킴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참여 인원은 4명으로 정함.</t>
+    <t>방을 보여주는 목록중 우측 부분에 현재 해당방에 접속해 있는 유저의 수를 보여주어서 다른 유저들이 해당방에 접근할 수 있는지 없는지에 관해 안내</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1440,56 +1708,36 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방장의 닉네임은 무조건 첫번째 칸에 위치 하며 따로 표기하지않음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어가 중간에 나가면 닉네임 목록이 사라지는 기능 유저가 소유하고있던 유저목록은 비어있는 상태이며 유저들의 배치가 변동하지 않음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오른쪽 하단에 방장이 선택한 맵 표시 기능..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">가운데 하단에 Ready 버튼 설정 AR게임이 실행가능한 상태가 된다면 레디버튼이 활성화 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4칸을 만들고 각각의 칸에 방에 참여한 유저의 닉네임을 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터베이스에 있는 아이디과 아이디 입력 텍스트필드에 입력한 아이디가 같으면 새 비밀번호 입력 텍스트 필드와 새 비밀번호 재입력 텍스트 필드, 다르면 아이디 불일치 안내 라벨을 보여줌,새 비밀번호 설정완료 후 확인버튼 누를시 비밀번호 일치여부 확인후 일치하면 데이터베이스에 저장 후 로그인화면으로 전환 불일치하면 불일치 안내 라벨 보여줌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>닉네임 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자의 차량 하단부분에 유저의 닉네임을 표기함.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 시작 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 시작 버튼을(위치 미정) 누르게 될 경우 방을 참여하거나 방을 만들 수 있는 화면으로 이동.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SRS-079</t>
-  </si>
-  <si>
-    <t>SRS-080</t>
-  </si>
-  <si>
-    <t>SRS-081</t>
-  </si>
-  <si>
-    <t>SRS-082</t>
+    <t>방장을 제외한 또다른 유저가 있어야 하며 모든 유저가 준비버튼을 누른상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 선택되어진 맵을 보여지게 하는 부분 화면의 중앙에 현재 선택되어진 맵이 보여지게됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 목록중에서 현재 선택된맵의 이전맵을 보여주는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방제작화면을 종료시키고 이전화면으로 돌아가는 버튼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시작후 3초의 준비시간을 부여한다. 화면 상단 중앙에 표시되며, 3,2,1 이 순서대로 나타나고 "START!" 를 출력한다. 준비시간에는 조이스틱 컨트롤은 가능하나 차량은 움직이지 않도록 하고, "START!" 가 나오는 순간부터 차량이동이 가능해 진다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵의 특정한 곳에 일(一)자로 START라인을 표시한다. 게임 시작 전 플레이어 전원이 START라인에 일렬로 나란히 대기한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵에 생성된 아이템과 접촉하면 획득하도록 한다. 획득한 아이템은 화면 좌측 상단에 획득한 아이템에 해당하는 이미지를 보여준다 아이템은 랜덤하게 획득하도록 한다. 아이템을 다시 획득하여도 기존 아이템이 있다면 아이템을 획득하여도 기존의 아이템은 유지된 상태.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3초 카운트 다운이 끝난 이후 부터 흘러가는 시간을  트랙 표시 아래에 전시한다 00:00:00 형태로 표시되며 순서대로 (분,초,밀리초)이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2182,7 +2430,10 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2191,10 +2442,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4327,8 +4575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="D70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4373,7 +4621,7 @@
       <c r="A2" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="89" t="s">
         <v>110</v>
       </c>
       <c r="C2" s="66" t="s">
@@ -4391,12 +4639,12 @@
       <c r="A3" s="65" t="s">
         <v>261</v>
       </c>
-      <c r="B3" s="88"/>
+      <c r="B3" s="89"/>
       <c r="C3" s="71" t="s">
         <v>111</v>
       </c>
       <c r="D3" s="72" t="s">
-        <v>113</v>
+        <v>363</v>
       </c>
       <c r="E3" s="73"/>
       <c r="F3" s="73"/>
@@ -4407,12 +4655,12 @@
       <c r="A4" s="65" t="s">
         <v>263</v>
       </c>
-      <c r="B4" s="88"/>
+      <c r="B4" s="89"/>
       <c r="C4" s="71" t="s">
         <v>112</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>114</v>
+        <v>364</v>
       </c>
       <c r="E4" s="73"/>
       <c r="F4" s="73"/>
@@ -4423,14 +4671,14 @@
       <c r="A5" s="65" t="s">
         <v>264</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="91" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="71" t="s">
         <v>111</v>
       </c>
       <c r="D5" s="75" t="s">
-        <v>117</v>
+        <v>365</v>
       </c>
       <c r="E5" s="73"/>
       <c r="F5" s="76"/>
@@ -4444,12 +4692,12 @@
       <c r="A6" s="65" t="s">
         <v>265</v>
       </c>
-      <c r="B6" s="87"/>
+      <c r="B6" s="91"/>
       <c r="C6" s="66" t="s">
         <v>77</v>
       </c>
       <c r="D6" s="67" t="s">
-        <v>80</v>
+        <v>366</v>
       </c>
       <c r="E6" s="73"/>
       <c r="F6" s="76"/>
@@ -4463,12 +4711,12 @@
       <c r="A7" s="65" t="s">
         <v>266</v>
       </c>
-      <c r="B7" s="87"/>
+      <c r="B7" s="91"/>
       <c r="C7" s="66" t="s">
-        <v>78</v>
+        <v>327</v>
       </c>
       <c r="D7" s="67" t="s">
-        <v>81</v>
+        <v>367</v>
       </c>
       <c r="E7" s="73"/>
       <c r="F7" s="76"/>
@@ -4482,12 +4730,12 @@
       <c r="A8" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="87"/>
+      <c r="B8" s="91"/>
       <c r="C8" s="71" t="s">
-        <v>115</v>
+        <v>328</v>
       </c>
       <c r="D8" s="72" t="s">
-        <v>118</v>
+        <v>368</v>
       </c>
       <c r="E8" s="73"/>
       <c r="F8" s="76"/>
@@ -4501,9 +4749,9 @@
       <c r="A9" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="87"/>
+      <c r="B9" s="91"/>
       <c r="C9" s="71" t="s">
-        <v>116</v>
+        <v>329</v>
       </c>
       <c r="D9" s="72" t="s">
         <v>119</v>
@@ -4520,12 +4768,12 @@
       <c r="A10" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="87"/>
+      <c r="B10" s="91"/>
       <c r="C10" s="66" t="s">
         <v>181</v>
       </c>
       <c r="D10" s="57" t="s">
-        <v>238</v>
+        <v>369</v>
       </c>
       <c r="E10" s="73"/>
       <c r="F10" s="76"/>
@@ -4539,11 +4787,11 @@
       <c r="A11" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="91" t="s">
         <v>140</v>
       </c>
       <c r="C11" s="71" t="s">
-        <v>141</v>
+        <v>330</v>
       </c>
       <c r="D11" s="72" t="s">
         <v>143</v>
@@ -4560,9 +4808,9 @@
       <c r="A12" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="87"/>
+      <c r="B12" s="91"/>
       <c r="C12" s="71" t="s">
-        <v>142</v>
+        <v>331</v>
       </c>
       <c r="D12" s="72" t="s">
         <v>145</v>
@@ -4579,9 +4827,9 @@
       <c r="A13" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="87"/>
+      <c r="B13" s="91"/>
       <c r="C13" s="71" t="s">
-        <v>144</v>
+        <v>332</v>
       </c>
       <c r="D13" s="72" t="s">
         <v>149</v>
@@ -4595,9 +4843,9 @@
       <c r="A14" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="87"/>
+      <c r="B14" s="91"/>
       <c r="C14" s="71" t="s">
-        <v>150</v>
+        <v>333</v>
       </c>
       <c r="D14" s="72" t="s">
         <v>151</v>
@@ -4611,12 +4859,12 @@
       <c r="A15" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="87"/>
+      <c r="B15" s="91"/>
       <c r="C15" s="66" t="s">
         <v>181</v>
       </c>
       <c r="D15" s="57" t="s">
-        <v>238</v>
+        <v>370</v>
       </c>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
@@ -4627,14 +4875,14 @@
       <c r="A16" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="87" t="s">
+      <c r="B16" s="91" t="s">
         <v>146</v>
       </c>
       <c r="C16" s="71" t="s">
         <v>115</v>
       </c>
       <c r="D16" s="72" t="s">
-        <v>118</v>
+        <v>371</v>
       </c>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
@@ -4645,12 +4893,12 @@
       <c r="A17" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="87"/>
+      <c r="B17" s="91"/>
       <c r="C17" s="71" t="s">
-        <v>142</v>
+        <v>334</v>
       </c>
       <c r="D17" s="72" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
@@ -4661,9 +4909,9 @@
       <c r="A18" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="87"/>
+      <c r="B18" s="91"/>
       <c r="C18" s="71" t="s">
-        <v>152</v>
+        <v>335</v>
       </c>
       <c r="D18" s="72" t="s">
         <v>153</v>
@@ -4677,12 +4925,12 @@
       <c r="A19" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="87"/>
+      <c r="B19" s="91"/>
       <c r="C19" s="71" t="s">
-        <v>147</v>
+        <v>336</v>
       </c>
       <c r="D19" s="72" t="s">
-        <v>119</v>
+        <v>372</v>
       </c>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
@@ -4693,9 +4941,9 @@
       <c r="A20" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="87"/>
+      <c r="B20" s="91"/>
       <c r="C20" s="71" t="s">
-        <v>148</v>
+        <v>337</v>
       </c>
       <c r="D20" s="72" t="s">
         <v>119</v>
@@ -4709,9 +4957,9 @@
       <c r="A21" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="87"/>
+      <c r="B21" s="91"/>
       <c r="C21" s="71" t="s">
-        <v>154</v>
+        <v>338</v>
       </c>
       <c r="D21" s="72" t="s">
         <v>155</v>
@@ -4725,7 +4973,7 @@
       <c r="A22" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="87"/>
+      <c r="B22" s="91"/>
       <c r="C22" s="66" t="s">
         <v>181</v>
       </c>
@@ -4741,14 +4989,14 @@
       <c r="A23" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="87" t="s">
+      <c r="B23" s="91" t="s">
         <v>79</v>
       </c>
       <c r="C23" s="66" t="s">
-        <v>82</v>
+        <v>339</v>
       </c>
       <c r="D23" s="67" t="s">
-        <v>84</v>
+        <v>373</v>
       </c>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
@@ -4759,7 +5007,7 @@
       <c r="A24" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="87"/>
+      <c r="B24" s="91"/>
       <c r="C24" s="66" t="s">
         <v>83</v>
       </c>
@@ -4775,9 +5023,9 @@
       <c r="A25" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="87"/>
+      <c r="B25" s="91"/>
       <c r="C25" s="71" t="s">
-        <v>120</v>
+        <v>340</v>
       </c>
       <c r="D25" s="72" t="s">
         <v>128</v>
@@ -4791,9 +5039,9 @@
       <c r="A26" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="87"/>
+      <c r="B26" s="91"/>
       <c r="C26" s="71" t="s">
-        <v>121</v>
+        <v>341</v>
       </c>
       <c r="D26" s="72" t="s">
         <v>129</v>
@@ -4807,9 +5055,9 @@
       <c r="A27" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="87"/>
+      <c r="B27" s="91"/>
       <c r="C27" s="71" t="s">
-        <v>122</v>
+        <v>342</v>
       </c>
       <c r="D27" s="72" t="s">
         <v>130</v>
@@ -4823,7 +5071,7 @@
       <c r="A28" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="87"/>
+      <c r="B28" s="91"/>
       <c r="C28" s="66" t="s">
         <v>123</v>
       </c>
@@ -4839,7 +5087,7 @@
       <c r="A29" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="87"/>
+      <c r="B29" s="91"/>
       <c r="C29" s="66" t="s">
         <v>124</v>
       </c>
@@ -4855,12 +5103,12 @@
       <c r="A30" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="87"/>
+      <c r="B30" s="91"/>
       <c r="C30" s="66" t="s">
         <v>125</v>
       </c>
       <c r="D30" s="75" t="s">
-        <v>132</v>
+        <v>374</v>
       </c>
       <c r="E30" s="73"/>
       <c r="F30" s="73"/>
@@ -4871,12 +5119,12 @@
       <c r="A31" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="87"/>
+      <c r="B31" s="91"/>
       <c r="C31" s="66" t="s">
         <v>126</v>
       </c>
       <c r="D31" s="75" t="s">
-        <v>133</v>
+        <v>375</v>
       </c>
       <c r="E31" s="73"/>
       <c r="F31" s="73"/>
@@ -4887,7 +5135,7 @@
       <c r="A32" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="87"/>
+      <c r="B32" s="91"/>
       <c r="C32" s="66" t="s">
         <v>127</v>
       </c>
@@ -4903,7 +5151,7 @@
       <c r="A33" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="87"/>
+      <c r="B33" s="91"/>
       <c r="C33" s="66" t="s">
         <v>135</v>
       </c>
@@ -4919,7 +5167,7 @@
       <c r="A34" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="87"/>
+      <c r="B34" s="91"/>
       <c r="C34" s="66" t="s">
         <v>138</v>
       </c>
@@ -4935,7 +5183,7 @@
       <c r="A35" s="65" t="s">
         <v>267</v>
       </c>
-      <c r="B35" s="87"/>
+      <c r="B35" s="91"/>
       <c r="C35" s="66" t="s">
         <v>181</v>
       </c>
@@ -4951,14 +5199,14 @@
       <c r="A36" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="B36" s="87" t="s">
+      <c r="B36" s="91" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="66" t="s">
         <v>45</v>
       </c>
       <c r="D36" s="67" t="s">
-        <v>100</v>
+        <v>376</v>
       </c>
       <c r="E36" s="73"/>
       <c r="F36" s="73"/>
@@ -4969,12 +5217,12 @@
       <c r="A37" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="B37" s="87"/>
+      <c r="B37" s="91"/>
       <c r="C37" s="71" t="s">
         <v>225</v>
       </c>
       <c r="D37" s="79" t="s">
-        <v>226</v>
+        <v>377</v>
       </c>
       <c r="E37" s="73"/>
       <c r="F37" s="73"/>
@@ -4985,7 +5233,7 @@
       <c r="A38" s="65" t="s">
         <v>270</v>
       </c>
-      <c r="B38" s="87"/>
+      <c r="B38" s="91"/>
       <c r="C38" s="71" t="s">
         <v>227</v>
       </c>
@@ -5001,7 +5249,7 @@
       <c r="A39" s="65" t="s">
         <v>271</v>
       </c>
-      <c r="B39" s="87"/>
+      <c r="B39" s="91"/>
       <c r="C39" s="71" t="s">
         <v>229</v>
       </c>
@@ -5017,12 +5265,12 @@
       <c r="A40" s="65" t="s">
         <v>272</v>
       </c>
-      <c r="B40" s="87"/>
+      <c r="B40" s="91"/>
       <c r="C40" s="71" t="s">
         <v>230</v>
       </c>
       <c r="D40" s="79" t="s">
-        <v>232</v>
+        <v>378</v>
       </c>
       <c r="E40" s="81"/>
       <c r="F40" s="81"/>
@@ -5033,7 +5281,7 @@
       <c r="A41" s="65" t="s">
         <v>273</v>
       </c>
-      <c r="B41" s="87"/>
+      <c r="B41" s="91"/>
       <c r="C41" s="71" t="s">
         <v>233</v>
       </c>
@@ -5049,12 +5297,12 @@
       <c r="A42" s="65" t="s">
         <v>274</v>
       </c>
-      <c r="B42" s="87"/>
+      <c r="B42" s="91"/>
       <c r="C42" s="66" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="D42" s="75" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E42" s="81"/>
       <c r="F42" s="81"/>
@@ -5065,12 +5313,12 @@
       <c r="A43" s="65" t="s">
         <v>275</v>
       </c>
-      <c r="B43" s="87"/>
+      <c r="B43" s="91"/>
       <c r="C43" s="80" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="D43" s="75" t="s">
-        <v>328</v>
+        <v>379</v>
       </c>
       <c r="E43" s="81"/>
       <c r="F43" s="81"/>
@@ -5081,7 +5329,7 @@
       <c r="A44" s="65" t="s">
         <v>276</v>
       </c>
-      <c r="B44" s="89" t="s">
+      <c r="B44" s="90" t="s">
         <v>262</v>
       </c>
       <c r="C44" s="66" t="s">
@@ -5099,12 +5347,12 @@
       <c r="A45" s="65" t="s">
         <v>277</v>
       </c>
-      <c r="B45" s="89"/>
+      <c r="B45" s="90"/>
       <c r="C45" s="66" t="s">
         <v>181</v>
       </c>
       <c r="D45" s="57" t="s">
-        <v>238</v>
+        <v>380</v>
       </c>
       <c r="E45" s="81"/>
       <c r="F45" s="81"/>
@@ -5115,12 +5363,12 @@
       <c r="A46" s="65" t="s">
         <v>278</v>
       </c>
-      <c r="B46" s="89"/>
+      <c r="B46" s="90"/>
       <c r="C46" s="66" t="s">
-        <v>189</v>
+        <v>345</v>
       </c>
       <c r="D46" s="57" t="s">
-        <v>193</v>
+        <v>381</v>
       </c>
       <c r="E46" s="81"/>
       <c r="F46" s="81"/>
@@ -5131,12 +5379,12 @@
       <c r="A47" s="65" t="s">
         <v>279</v>
       </c>
-      <c r="B47" s="89"/>
+      <c r="B47" s="90"/>
       <c r="C47" s="66" t="s">
         <v>190</v>
       </c>
       <c r="D47" s="57" t="s">
-        <v>194</v>
+        <v>382</v>
       </c>
       <c r="E47" s="81"/>
       <c r="F47" s="81"/>
@@ -5147,14 +5395,14 @@
       <c r="A48" s="65" t="s">
         <v>280</v>
       </c>
-      <c r="B48" s="89" t="s">
+      <c r="B48" s="90" t="s">
         <v>206</v>
       </c>
       <c r="C48" s="80" t="s">
-        <v>207</v>
+        <v>346</v>
       </c>
       <c r="D48" s="75" t="s">
-        <v>312</v>
+        <v>383</v>
       </c>
       <c r="E48" s="81"/>
       <c r="F48" s="81"/>
@@ -5165,12 +5413,12 @@
       <c r="A49" s="65" t="s">
         <v>281</v>
       </c>
-      <c r="B49" s="89"/>
+      <c r="B49" s="90"/>
       <c r="C49" s="80" t="s">
         <v>209</v>
       </c>
       <c r="D49" s="75" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E49" s="81"/>
       <c r="F49" s="81"/>
@@ -5181,7 +5429,7 @@
       <c r="A50" s="65" t="s">
         <v>282</v>
       </c>
-      <c r="B50" s="89"/>
+      <c r="B50" s="90"/>
       <c r="C50" s="80"/>
       <c r="D50" s="75"/>
       <c r="E50" s="81"/>
@@ -5193,12 +5441,12 @@
       <c r="A51" s="65" t="s">
         <v>283</v>
       </c>
-      <c r="B51" s="89"/>
+      <c r="B51" s="90"/>
       <c r="C51" s="66" t="s">
-        <v>260</v>
+        <v>347</v>
       </c>
       <c r="D51" s="67" t="s">
-        <v>314</v>
+        <v>384</v>
       </c>
       <c r="E51" s="81"/>
       <c r="F51" s="81"/>
@@ -5209,12 +5457,12 @@
       <c r="A52" s="65" t="s">
         <v>284</v>
       </c>
-      <c r="B52" s="89"/>
+      <c r="B52" s="90"/>
       <c r="C52" s="66" t="s">
-        <v>216</v>
+        <v>348</v>
       </c>
       <c r="D52" s="75" t="s">
-        <v>257</v>
+        <v>385</v>
       </c>
       <c r="E52" s="81"/>
       <c r="F52" s="81"/>
@@ -5225,9 +5473,9 @@
       <c r="A53" s="65" t="s">
         <v>285</v>
       </c>
-      <c r="B53" s="89"/>
+      <c r="B53" s="90"/>
       <c r="C53" s="66" t="s">
-        <v>217</v>
+        <v>349</v>
       </c>
       <c r="D53" s="75" t="s">
         <v>258</v>
@@ -5241,9 +5489,9 @@
       <c r="A54" s="65" t="s">
         <v>286</v>
       </c>
-      <c r="B54" s="89"/>
+      <c r="B54" s="90"/>
       <c r="C54" s="66" t="s">
-        <v>218</v>
+        <v>350</v>
       </c>
       <c r="D54" s="75" t="s">
         <v>259</v>
@@ -5257,14 +5505,14 @@
       <c r="A55" s="65" t="s">
         <v>287</v>
       </c>
-      <c r="B55" s="89" t="s">
+      <c r="B55" s="90" t="s">
         <v>235</v>
       </c>
       <c r="C55" s="80" t="s">
         <v>244</v>
       </c>
       <c r="D55" s="75" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E55" s="81"/>
       <c r="F55" s="81"/>
@@ -5275,12 +5523,12 @@
       <c r="A56" s="65" t="s">
         <v>288</v>
       </c>
-      <c r="B56" s="89"/>
+      <c r="B56" s="90"/>
       <c r="C56" s="80" t="s">
-        <v>236</v>
+        <v>351</v>
       </c>
       <c r="D56" s="75" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E56" s="81"/>
       <c r="F56" s="81"/>
@@ -5291,9 +5539,9 @@
       <c r="A57" s="65" t="s">
         <v>289</v>
       </c>
-      <c r="B57" s="89"/>
+      <c r="B57" s="90"/>
       <c r="C57" s="80" t="s">
-        <v>181</v>
+        <v>352</v>
       </c>
       <c r="D57" s="75" t="s">
         <v>238</v>
@@ -5307,12 +5555,12 @@
       <c r="A58" s="65" t="s">
         <v>290</v>
       </c>
-      <c r="B58" s="89"/>
+      <c r="B58" s="90"/>
       <c r="C58" s="80" t="s">
-        <v>239</v>
+        <v>353</v>
       </c>
       <c r="D58" s="75" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E58" s="81"/>
       <c r="F58" s="81"/>
@@ -5323,12 +5571,12 @@
       <c r="A59" s="65" t="s">
         <v>291</v>
       </c>
-      <c r="B59" s="89"/>
+      <c r="B59" s="90"/>
       <c r="C59" s="80" t="s">
         <v>240</v>
       </c>
       <c r="D59" s="75" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E59" s="81"/>
       <c r="F59" s="81"/>
@@ -5339,9 +5587,9 @@
       <c r="A60" s="65" t="s">
         <v>292</v>
       </c>
-      <c r="B60" s="89"/>
+      <c r="B60" s="90"/>
       <c r="C60" s="80" t="s">
-        <v>241</v>
+        <v>354</v>
       </c>
       <c r="D60" s="75" t="s">
         <v>242</v>
@@ -5355,7 +5603,7 @@
       <c r="A61" s="65" t="s">
         <v>293</v>
       </c>
-      <c r="B61" s="89"/>
+      <c r="B61" s="90"/>
       <c r="C61" s="80" t="s">
         <v>245</v>
       </c>
@@ -5371,12 +5619,12 @@
       <c r="A62" s="65" t="s">
         <v>294</v>
       </c>
-      <c r="B62" s="89"/>
+      <c r="B62" s="90"/>
       <c r="C62" s="80" t="s">
-        <v>248</v>
+        <v>355</v>
       </c>
       <c r="D62" s="75" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E62" s="81"/>
       <c r="F62" s="81"/>
@@ -5387,12 +5635,12 @@
       <c r="A63" s="65" t="s">
         <v>295</v>
       </c>
-      <c r="B63" s="89"/>
+      <c r="B63" s="90"/>
       <c r="C63" s="80" t="s">
-        <v>249</v>
+        <v>356</v>
       </c>
       <c r="D63" s="75" t="s">
-        <v>318</v>
+        <v>386</v>
       </c>
       <c r="E63" s="81"/>
       <c r="F63" s="81"/>
@@ -5403,12 +5651,12 @@
       <c r="A64" s="65" t="s">
         <v>296</v>
       </c>
-      <c r="B64" s="89"/>
+      <c r="B64" s="90"/>
       <c r="C64" s="80" t="s">
         <v>251</v>
       </c>
       <c r="D64" s="75" t="s">
-        <v>252</v>
+        <v>387</v>
       </c>
       <c r="E64" s="81"/>
       <c r="F64" s="81"/>
@@ -5419,12 +5667,12 @@
       <c r="A65" s="65" t="s">
         <v>297</v>
       </c>
-      <c r="B65" s="89"/>
+      <c r="B65" s="90"/>
       <c r="C65" s="80" t="s">
-        <v>253</v>
+        <v>357</v>
       </c>
       <c r="D65" s="75" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E65" s="81"/>
       <c r="F65" s="81"/>
@@ -5435,12 +5683,12 @@
       <c r="A66" s="65" t="s">
         <v>298</v>
       </c>
-      <c r="B66" s="89"/>
+      <c r="B66" s="90"/>
       <c r="C66" s="80" t="s">
-        <v>254</v>
+        <v>358</v>
       </c>
       <c r="D66" s="75" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E66" s="81"/>
       <c r="F66" s="81"/>
@@ -5451,14 +5699,14 @@
       <c r="A67" s="65" t="s">
         <v>299</v>
       </c>
-      <c r="B67" s="89" t="s">
+      <c r="B67" s="90" t="s">
         <v>176</v>
       </c>
       <c r="C67" s="66" t="s">
-        <v>177</v>
+        <v>359</v>
       </c>
       <c r="D67" t="s">
-        <v>182</v>
+        <v>388</v>
       </c>
       <c r="E67" s="81"/>
       <c r="F67" s="81"/>
@@ -5469,12 +5717,12 @@
       <c r="A68" s="65" t="s">
         <v>300</v>
       </c>
-      <c r="B68" s="89"/>
+      <c r="B68" s="90"/>
       <c r="C68" s="66" t="s">
         <v>178</v>
       </c>
       <c r="D68" t="s">
-        <v>183</v>
+        <v>389</v>
       </c>
       <c r="E68" s="81"/>
       <c r="F68" s="81"/>
@@ -5485,9 +5733,9 @@
       <c r="A69" s="65" t="s">
         <v>301</v>
       </c>
-      <c r="B69" s="89"/>
+      <c r="B69" s="90"/>
       <c r="C69" s="66" t="s">
-        <v>179</v>
+        <v>360</v>
       </c>
       <c r="D69" t="s">
         <v>184</v>
@@ -5501,7 +5749,7 @@
       <c r="A70" s="65" t="s">
         <v>302</v>
       </c>
-      <c r="B70" s="89"/>
+      <c r="B70" s="90"/>
       <c r="C70" s="66" t="s">
         <v>180</v>
       </c>
@@ -5517,12 +5765,12 @@
       <c r="A71" s="65" t="s">
         <v>303</v>
       </c>
-      <c r="B71" s="89"/>
+      <c r="B71" s="90"/>
       <c r="C71" s="66" t="s">
         <v>181</v>
       </c>
       <c r="D71" t="s">
-        <v>186</v>
+        <v>390</v>
       </c>
       <c r="E71" s="81"/>
       <c r="F71" s="81"/>
@@ -5533,14 +5781,14 @@
       <c r="A72" s="65" t="s">
         <v>304</v>
       </c>
-      <c r="B72" s="90" t="s">
+      <c r="B72" s="87" t="s">
         <v>31</v>
       </c>
       <c r="C72" s="83" t="s">
-        <v>195</v>
+        <v>361</v>
       </c>
       <c r="D72" s="84" t="s">
-        <v>222</v>
+        <v>391</v>
       </c>
       <c r="E72" s="81"/>
       <c r="F72" s="81"/>
@@ -5551,12 +5799,12 @@
       <c r="A73" s="65" t="s">
         <v>305</v>
       </c>
-      <c r="B73" s="90"/>
+      <c r="B73" s="87"/>
       <c r="C73" s="66" t="s">
         <v>196</v>
       </c>
       <c r="D73" s="67" t="s">
-        <v>197</v>
+        <v>392</v>
       </c>
       <c r="E73" s="81"/>
       <c r="F73" s="81"/>
@@ -5567,7 +5815,7 @@
       <c r="A74" s="65" t="s">
         <v>306</v>
       </c>
-      <c r="B74" s="90"/>
+      <c r="B74" s="87"/>
       <c r="C74" s="83" t="s">
         <v>33</v>
       </c>
@@ -5583,12 +5831,12 @@
       <c r="A75" s="65" t="s">
         <v>307</v>
       </c>
-      <c r="B75" s="90"/>
+      <c r="B75" s="87"/>
       <c r="C75" s="83" t="s">
         <v>34</v>
       </c>
       <c r="D75" s="84" t="s">
-        <v>224</v>
+        <v>393</v>
       </c>
       <c r="E75" s="81"/>
       <c r="F75" s="81"/>
@@ -5599,7 +5847,7 @@
       <c r="A76" s="65" t="s">
         <v>308</v>
       </c>
-      <c r="B76" s="90"/>
+      <c r="B76" s="87"/>
       <c r="C76" s="66" t="s">
         <v>198</v>
       </c>
@@ -5615,7 +5863,7 @@
       <c r="A77" s="65" t="s">
         <v>309</v>
       </c>
-      <c r="B77" s="90"/>
+      <c r="B77" s="87"/>
       <c r="C77" s="66" t="s">
         <v>37</v>
       </c>
@@ -5631,12 +5879,12 @@
       <c r="A78" s="65" t="s">
         <v>310</v>
       </c>
-      <c r="B78" s="90"/>
+      <c r="B78" s="87"/>
       <c r="C78" s="66" t="s">
         <v>38</v>
       </c>
       <c r="D78" s="67" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E78" s="81"/>
       <c r="F78" s="81"/>
@@ -5647,12 +5895,12 @@
       <c r="A79" s="65" t="s">
         <v>311</v>
       </c>
-      <c r="B79" s="90"/>
+      <c r="B79" s="87"/>
       <c r="C79" s="66" t="s">
         <v>39</v>
       </c>
       <c r="D79" s="67" t="s">
-        <v>202</v>
+        <v>394</v>
       </c>
       <c r="E79" s="81"/>
       <c r="F79" s="81"/>
@@ -5661,11 +5909,11 @@
     </row>
     <row r="80" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="65" t="s">
-        <v>329</v>
-      </c>
-      <c r="B80" s="90"/>
+        <v>323</v>
+      </c>
+      <c r="B80" s="87"/>
       <c r="C80" s="66" t="s">
-        <v>40</v>
+        <v>362</v>
       </c>
       <c r="D80" s="67" t="s">
         <v>96</v>
@@ -5677,9 +5925,9 @@
     </row>
     <row r="81" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="65" t="s">
-        <v>330</v>
-      </c>
-      <c r="B81" s="90"/>
+        <v>324</v>
+      </c>
+      <c r="B81" s="87"/>
       <c r="C81" s="66" t="s">
         <v>203</v>
       </c>
@@ -5693,9 +5941,9 @@
     </row>
     <row r="82" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="65" t="s">
-        <v>331</v>
-      </c>
-      <c r="B82" s="90"/>
+        <v>325</v>
+      </c>
+      <c r="B82" s="87"/>
       <c r="C82" s="66" t="s">
         <v>42</v>
       </c>
@@ -5709,9 +5957,9 @@
     </row>
     <row r="83" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="65" t="s">
-        <v>332</v>
-      </c>
-      <c r="B83" s="91"/>
+        <v>326</v>
+      </c>
+      <c r="B83" s="88"/>
       <c r="C83" s="85" t="s">
         <v>43</v>
       </c>

--- a/설계및정의서/기능리스트_AR 레이싱 게임 v0.1.xlsx
+++ b/설계및정의서/기능리스트_AR 레이싱 게임 v0.1.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\BitCamp_AR\설계및정의서\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
@@ -18,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$H$1</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -29,7 +24,7 @@
     <author>kosta</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -85,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1" shapeId="0">
+    <comment ref="H1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -113,7 +108,7 @@
     <author>kosta</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -169,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1" shapeId="0">
+    <comment ref="H1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -191,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="420">
   <si>
     <t>화면명</t>
   </si>
@@ -1420,42 +1415,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>게임 시작버튼은 방장만 보이게 함 모든 유저가 준비버튼을 누른상태에서 활성화 그이외의 조건일경우 비활성화시킴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참여 인원은 4명으로 정함.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방장의 닉네임은 무조건 첫번째 칸에 위치 하며 따로 표기하지않음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어가 중간에 나가면 닉네임 목록이 사라지는 기능 유저가 소유하고있던 유저목록은 비어있는 상태이며 유저들의 배치가 변동하지 않음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오른쪽 하단에 방장이 선택한 맵 표시 기능..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">가운데 하단에 Ready 버튼 설정 AR게임이 실행가능한 상태가 된다면 레디버튼이 활성화 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4칸을 만들고 각각의 칸에 방에 참여한 유저의 닉네임을 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터베이스에 있는 아이디과 아이디 입력 텍스트필드에 입력한 아이디가 같으면 새 비밀번호 입력 텍스트 필드와 새 비밀번호 재입력 텍스트 필드, 다르면 아이디 불일치 안내 라벨을 보여줌,새 비밀번호 설정완료 후 확인버튼 누를시 비밀번호 일치여부 확인후 일치하면 데이터베이스에 저장 후 로그인화면으로 전환 불일치하면 불일치 안내 라벨 보여줌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자의 차량 하단부분에 유저의 닉네임을 표기함.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SRS-079</t>
   </si>
   <si>
@@ -1468,10 +1427,6 @@
     <t>SRS-082</t>
   </si>
   <si>
-    <t>비밀 번호 찾기 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>아이디 입력 텍스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1580,18 +1535,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방장유저 표기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방장유저가 방에서 나갈 경우</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방에 접속할 수 있는 유저 수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>게임시작버튼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1612,58 +1559,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로그인 화면으로 전환 기존의 화면위에 그려짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 화면을 보여줌 기존의 화면위에 그려짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력한 아이디와 비밀번호를 데이터베이스에 있는 정보와 비교하여 같을시 게임내부화면으로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분실한 아이디를 찾기 위한 이메일 인증방법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분실한 비밀번호를 찾기 위한 아이디 및 2차비밀번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자의 아이디를 입력할 수 있는 텍스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왼쪽 상단에 뒤로가기 버튼이 있으며 해당 버튼 클릭시 이전화면으로 돌아감</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왼쪽 상단에 뒤로가기 버튼이 있으며 해당 버튼 클릭시 이전화면으로 돌아감</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자의 아이디를 입력할 수 있는 텍스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자의 비밀번호를 입력할 수 있는 텍스트 입력시 입력한 텍스트를 *로 대체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원정보를 입력하는 UI를 만든뒤 UI에 입력한 텍스트 값을 데이터 베이스에 저장.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입에 필요한 닉네임을 입력할 수 있는 텍스트필드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입에 필요한 비밀번호를 입력할 수 있는 텍스트필드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>차 부품 &amp; 외형 디자인 목록을 화면 우측에 전시한다. 차는 좌측에 전시하여 품목을 선택하면 미리보기 기능을 제공한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1672,58 +1567,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>차외관 Ex)승용차,버스,트레일러,덤프,경운기,자전거,보드 등을 사용자가 취사선택하여 자신의 차량에 적용할 수 있음.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 시작 버튼을(위치 미정) 누르게 될 경우 방을 참여하거나 방을 만들 수 있는 화면으로 이동.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왼쪽 상단에 뒤로가기 버튼이 있으며 해당 버튼 클릭시 이전화면으로 돌아감</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버튼 클릭시 방 제작화면으로 이동하게됨.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버튼 클릭시 방 참여화면으로 이동하게됨.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>화면 상단 중앙에 현재 생성되어있는 방을 나열한다. 방을 만든사람의 닉네임과 현재 인원수를 표시한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>현재 방에 접속할 수 있는 상태(현재 접근하려는 방에 접속할 수 있는 유저수와 현재 접속해 있는 유저수가 같지 않는 상태)라면 방에 접근할수 있도록 하며 그러한 상태가 아니라접근할 수 없도록 방을 비활성화.(방은 버튼으로 진행되어 있으며 버튼을 활성화 혹은 비활성화)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방을 보여주는 목록중 우측 부분에 현재 해당방에 접속해 있는 유저의 수를 보여주어서 다른 유저들이 해당방에 접근할 수 있는지 없는지에 관해 안내</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방장이 나가면 방에있는 인원중 랜덤1인이 방장의 권한을 가지게 되며 방장의 자리에 있게됨.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방장을 제외한 또다른 유저가 있어야 하며 모든 유저가 준비버튼을 누른상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 선택되어진 맵을 보여지게 하는 부분 화면의 중앙에 현재 선택되어진 맵이 보여지게됨.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맵 목록중에서 현재 선택된맵의 이전맵을 보여주는 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방제작화면을 종료시키고 이전화면으로 돌아가는 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>게임 시작후 3초의 준비시간을 부여한다. 화면 상단 중앙에 표시되며, 3,2,1 이 순서대로 나타나고 "START!" 를 출력한다. 준비시간에는 조이스틱 컨트롤은 가능하나 차량은 움직이지 않도록 하고, "START!" 가 나오는 순간부터 차량이동이 가능해 진다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1732,22 +1579,267 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>맵에 생성된 아이템과 접촉하면 획득하도록 한다. 획득한 아이템은 화면 좌측 상단에 획득한 아이템에 해당하는 이미지를 보여준다 아이템은 랜덤하게 획득하도록 한다. 아이템을 다시 획득하여도 기존 아이템이 있다면 아이템을 획득하여도 기존의 아이템은 유지된 상태.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3초 카운트 다운이 끝난 이후 부터 흘러가는 시간을  트랙 표시 아래에 전시한다 00:00:00 형태로 표시되며 순서대로 (분,초,밀리초)이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 접속시 유저 표현 기능</t>
+  </si>
+  <si>
+    <t>방장 로그아웃시 방 상태변환 기능</t>
+  </si>
+  <si>
+    <t>방에 접속가능한 최대 인원수 조정 기능</t>
+  </si>
+  <si>
+    <t>맵에 생성된 아이템과 접촉하면 획득하도록 한다. 획득한 아이템은 화면 좌측 상단에 획득한 아이템에 해당하는 이미지를 보여준다 아이템은 랜덤하게 획득하도록 한다. 아이템을 다시 획득하여도 기존 아이템이 있다면 아이템을 획득하여도 기존의 아이템은 유지된 상태 이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 선택된 맵을 기준으로 방을 생성시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방제작화면을 종료시키고 이전화면으로 돌아간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 목록중에서 현재 선택된맵의 다음맵을 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 목록중에서 현재 선택된맵의 이전맵을 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 선택되어진 맵을 보여지게 하는 부분 화면의 중앙에 현재 선택되어진 맵이 보여지게 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시작버튼은 방장만 보이게 함 모든 유저가 준비버튼을 누른상태에서 활성화 그이외의 조건일경우 비활성화시킨다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참여 인원은 4명으로 정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방장을 제외한 또다른 유저가 있어야 하며 모든 유저가 준비버튼을 눌렀을때 로 정한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방장이 나가면 방에있는 인원중 랜덤1인이 방장의 권한을 가지게 되며 방장의 자리에 있게된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방장의 닉네임은 무조건 첫번째 칸에 위치 하며 따로 표기하지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 표현되는 항목에 유저의 차량이 자연스러운 모습으로 보여짐 여기서 자연스러운 모습이라 함은 유저가 게임에 사용할 차량을 3D모습으로 닉네임상단에 표시. Idle와 같은 모습의 애니메이션이 작동중인상태 이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어가 접속하면 비어있는 유저칸에 접속한 유저의 이름을 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어가 중간에 나가면 닉네임 목록이 사라지는 기능 유저가 소유하고있던 유저목록은 비어있는 상태이며 유저들의 배치가 변동하지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른쪽 하단에 방장이 선택한 맵 을 표시해 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽 상단에 뒤로가기 버튼이 있으며 해당 버튼 클릭시 이전화면으로 돌아간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가운데 하단에 Ready 버튼 설정 AR게임이 실행가능한 상태가 된다면 레디버튼이 활성화 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4칸을 만들고 각각의 칸에 방에 참여한 유저의 닉네임을 표시 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽 상단부분에 뒤로가기 버튼이 있으며 해당 버튼을 누르면 이전의화면으로 이동 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방을 보여주는 목록중 우측 부분에 현재 해당방에 접속해 있는 유저의 수를 보여주어서 다른 유저들이 해당방에 접근할 수 있는지 없는지에 관해 안내 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 방에 접속할 수 있는 상태 를 보여준다.(현재 접근하려는 방에 접속할 수 있는 유저수와 현재 접속해 있는 유저수가 같지 않는 상태)라면 방에 접근할수 있도록 하며 그러한 상태가 아니라접근할 수 없도록 방을 비활성화.(방은 버튼으로 진행되어 있으며 버튼을 활성화 혹은 비활성화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 클릭시 방 참여화면으로 이동하게된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 클릭시 방 제작화면으로 이동하게된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저의 차량이 보여지게 되며 화면 좌측부근에 보여지게 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시작 버튼을(위치 미정) 누르게 될 경우 방을 참여하거나 방을 만들 수 있는 화면으로 이동 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 차량 하단부분에 유저의 닉네임을 표기한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 취사선택할 목록이 많을경우 스크롤을 위아래로 움직여서 아이템 목록을 확인할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차외관 Ex)승용차,버스,트레일러,덤프,경운기,자전거,보드 등을 사용자가 취사선택하여 자신의 차량에 적용할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바퀴의 변형된 모양을 사용자가 취사선택할 수 있으며 바퀴의 색상또한 가능하도록 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 종료할건지에 대한 팝업창이 뜨게되며 해당 팝업창에는 '정말 종료하시겠습니까?' 와 유사한 메시지가 등장하며 예,아니오 라는 버튼이 존재하고 예를누를경우 게임이 종료 아니오를 누를경우 메인창으로 복귀 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입에 필요한 이메일을 입력할 수 있는 텍스트필드 이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 재입력 텍스트에 입력된 비밀번호와 비밀번호 텍스트에 입력된 내용이 같은지 다른지 알려준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입에 필요한 비밀번호를 입력할 수 있는 텍스트필드 비밀번호를 입력하였을때 회원가입 비밀번호 텍스트에 입력된 내용과 비교하여 같은지 다른지 알려준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입에 필요한 비밀번호를 입력할 수 있는 텍스트필드 이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입에 필요한 닉네임을 입력할 수 있는 텍스트필드 이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입에 필요한 아이디를 입력할 수 있는 텍스트필드 이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 화면을 종료 후 "로그인X회원가입" 화면으로 이동 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입에 필요한 정보 입력 이후 입력된 데이터를 데이터베이스에 저장 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 닉네임 텍스트에 입력된 내용과 데이터베이스의 닉네임과 중복이되는지 유무 확인 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트에 입력된 아이디와 데이터베이스에 저장된 아이디를 비교하여 중복되어있는지 유무 확인 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력한 아이디와 닉네임을 데이터베이스에 있는 닉네임,아이디와 비교하여 같은지 중복 체크 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보를 입력하는 UI를 만든뒤 UI에 입력한 텍스트 값을 데이터 베이스에 저장 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호가 불일치 한다는 라벨을 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 비밀번호를 입력할 수 있는 텍스트 입력시 입력한 텍스트를 *로 대체한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디가 불일치 한다는 라벨을 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스에 있는 아이디과 아이디 입력 텍스트필드에 입력한 아이디가 같으면 새 비밀번호 입력 텍스트 필드와 새 비밀번호 재입력 텍스트 필드, 다르면 아이디 불일치 안내 라벨을 보여줌,새 비밀번호 설정완료 후 확인버튼 누를시 비밀번호 일치여부 확인후 일치하면 데이터베이스에 저장 후 로그인화면으로 전환 불일치하면 불일치 안내 라벨 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 아이디를 입력할 수 있는 텍스트 이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일이 불일치 한다는 라벨을 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스에 있는 이메일과 이메일 입력 텍스트필드에 입력한 이메일이 같을 시 아이디를 보여주는 라벨 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스에 있는 이메일과 이메일 입력 텍스트필드에 입력한 이메일을 같으면 아이디 라벨에 아이디 표시, 다르면 이메일 불일치 안내 메시지 팝업창 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일을 입력할 수 있는 텍스트필드 이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호를 분실하였을 경우 비밀번호를 재 설정하기 위해 아이디와 이메일주소를 기입하여 비밀번호를 재 설정하는 기능이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀 번호 재설정 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력한 아이디와 비밀번호를 데이터베이스에 있는 정보와 비교하여 같을시 게임내부화면으로 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 화면을 보여줌 기존의 화면위에 그려진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 화면으로 전환 기존의 화면위에 그려진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1등이 3바퀴를 돌게되면 10초 후 종료되도록한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 표시 위치 아래에 플레이어의 이름을 순위로 나타낸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어의 차량이 어떤 것인지, 이동방향이 어딘지 알 수 있도록 차량에 표시를 해준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분실한 아이디를 찾기 위해서 회원가입할적에 입력한 이메일을입력하여 해당 이메일로 분실한 아이디를 보내준다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1914,6 +2006,15 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2168,7 +2269,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2443,6 +2544,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2533,7 +2637,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2568,7 +2672,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4575,8 +4679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4644,7 +4748,7 @@
         <v>111</v>
       </c>
       <c r="D3" s="72" t="s">
-        <v>363</v>
+        <v>415</v>
       </c>
       <c r="E3" s="73"/>
       <c r="F3" s="73"/>
@@ -4660,7 +4764,7 @@
         <v>112</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>364</v>
+        <v>414</v>
       </c>
       <c r="E4" s="73"/>
       <c r="F4" s="73"/>
@@ -4678,7 +4782,7 @@
         <v>111</v>
       </c>
       <c r="D5" s="75" t="s">
-        <v>365</v>
+        <v>413</v>
       </c>
       <c r="E5" s="73"/>
       <c r="F5" s="76"/>
@@ -4697,7 +4801,7 @@
         <v>77</v>
       </c>
       <c r="D6" s="67" t="s">
-        <v>366</v>
+        <v>419</v>
       </c>
       <c r="E6" s="73"/>
       <c r="F6" s="76"/>
@@ -4713,10 +4817,10 @@
       </c>
       <c r="B7" s="91"/>
       <c r="C7" s="66" t="s">
-        <v>327</v>
+        <v>412</v>
       </c>
       <c r="D7" s="67" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
       <c r="E7" s="73"/>
       <c r="F7" s="76"/>
@@ -4732,10 +4836,10 @@
       </c>
       <c r="B8" s="91"/>
       <c r="C8" s="71" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="D8" s="72" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="E8" s="73"/>
       <c r="F8" s="76"/>
@@ -4751,10 +4855,10 @@
       </c>
       <c r="B9" s="91"/>
       <c r="C9" s="71" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="D9" s="72" t="s">
-        <v>119</v>
+        <v>403</v>
       </c>
       <c r="E9" s="73"/>
       <c r="F9" s="76"/>
@@ -4773,7 +4877,7 @@
         <v>181</v>
       </c>
       <c r="D10" s="57" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="E10" s="73"/>
       <c r="F10" s="76"/>
@@ -4791,10 +4895,10 @@
         <v>140</v>
       </c>
       <c r="C11" s="71" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="D11" s="72" t="s">
-        <v>143</v>
+        <v>410</v>
       </c>
       <c r="E11" s="73"/>
       <c r="F11" s="76"/>
@@ -4810,10 +4914,10 @@
       </c>
       <c r="B12" s="91"/>
       <c r="C12" s="71" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="D12" s="72" t="s">
-        <v>145</v>
+        <v>409</v>
       </c>
       <c r="E12" s="73"/>
       <c r="F12" s="76"/>
@@ -4829,10 +4933,10 @@
       </c>
       <c r="B13" s="91"/>
       <c r="C13" s="71" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="D13" s="72" t="s">
-        <v>149</v>
+        <v>408</v>
       </c>
       <c r="E13" s="73"/>
       <c r="F13" s="73"/>
@@ -4845,10 +4949,10 @@
       </c>
       <c r="B14" s="91"/>
       <c r="C14" s="71" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="D14" s="72" t="s">
-        <v>151</v>
+        <v>407</v>
       </c>
       <c r="E14" s="73"/>
       <c r="F14" s="73"/>
@@ -4864,7 +4968,7 @@
         <v>181</v>
       </c>
       <c r="D15" s="57" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
@@ -4882,23 +4986,23 @@
         <v>115</v>
       </c>
       <c r="D16" s="72" t="s">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="73"/>
       <c r="H16" s="74"/>
     </row>
-    <row r="17" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A17" s="65" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="91"/>
       <c r="C17" s="71" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="D17" s="72" t="s">
-        <v>321</v>
+        <v>405</v>
       </c>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
@@ -4911,10 +5015,10 @@
       </c>
       <c r="B18" s="91"/>
       <c r="C18" s="71" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="D18" s="72" t="s">
-        <v>153</v>
+        <v>404</v>
       </c>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
@@ -4927,10 +5031,10 @@
       </c>
       <c r="B19" s="91"/>
       <c r="C19" s="71" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="D19" s="72" t="s">
-        <v>372</v>
+        <v>403</v>
       </c>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
@@ -4943,10 +5047,10 @@
       </c>
       <c r="B20" s="91"/>
       <c r="C20" s="71" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="D20" s="72" t="s">
-        <v>119</v>
+        <v>403</v>
       </c>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
@@ -4959,10 +5063,10 @@
       </c>
       <c r="B21" s="91"/>
       <c r="C21" s="71" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="D21" s="72" t="s">
-        <v>155</v>
+        <v>402</v>
       </c>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
@@ -4978,7 +5082,7 @@
         <v>181</v>
       </c>
       <c r="D22" s="57" t="s">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
@@ -4993,10 +5097,10 @@
         <v>79</v>
       </c>
       <c r="C23" s="66" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="D23" s="67" t="s">
-        <v>373</v>
+        <v>401</v>
       </c>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
@@ -5012,7 +5116,7 @@
         <v>83</v>
       </c>
       <c r="D24" s="67" t="s">
-        <v>85</v>
+        <v>400</v>
       </c>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
@@ -5025,10 +5129,10 @@
       </c>
       <c r="B25" s="91"/>
       <c r="C25" s="71" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="D25" s="72" t="s">
-        <v>128</v>
+        <v>399</v>
       </c>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
@@ -5041,10 +5145,10 @@
       </c>
       <c r="B26" s="91"/>
       <c r="C26" s="71" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="D26" s="72" t="s">
-        <v>129</v>
+        <v>398</v>
       </c>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
@@ -5057,10 +5161,10 @@
       </c>
       <c r="B27" s="91"/>
       <c r="C27" s="71" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="D27" s="72" t="s">
-        <v>130</v>
+        <v>397</v>
       </c>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
@@ -5076,7 +5180,7 @@
         <v>123</v>
       </c>
       <c r="D28" s="75" t="s">
-        <v>137</v>
+        <v>396</v>
       </c>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
@@ -5092,7 +5196,7 @@
         <v>124</v>
       </c>
       <c r="D29" s="75" t="s">
-        <v>131</v>
+        <v>395</v>
       </c>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
@@ -5108,7 +5212,7 @@
         <v>125</v>
       </c>
       <c r="D30" s="75" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="E30" s="73"/>
       <c r="F30" s="73"/>
@@ -5124,7 +5228,7 @@
         <v>126</v>
       </c>
       <c r="D31" s="75" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="E31" s="73"/>
       <c r="F31" s="73"/>
@@ -5140,7 +5244,7 @@
         <v>127</v>
       </c>
       <c r="D32" s="75" t="s">
-        <v>134</v>
+        <v>392</v>
       </c>
       <c r="E32" s="73"/>
       <c r="F32" s="73"/>
@@ -5156,7 +5260,7 @@
         <v>135</v>
       </c>
       <c r="D33" s="75" t="s">
-        <v>136</v>
+        <v>391</v>
       </c>
       <c r="E33" s="73"/>
       <c r="F33" s="73"/>
@@ -5172,7 +5276,7 @@
         <v>138</v>
       </c>
       <c r="D34" s="75" t="s">
-        <v>139</v>
+        <v>390</v>
       </c>
       <c r="E34" s="73"/>
       <c r="F34" s="73"/>
@@ -5188,7 +5292,7 @@
         <v>181</v>
       </c>
       <c r="D35" s="57" t="s">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="E35" s="73"/>
       <c r="F35" s="73"/>
@@ -5206,7 +5310,7 @@
         <v>45</v>
       </c>
       <c r="D36" s="67" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="E36" s="73"/>
       <c r="F36" s="73"/>
@@ -5222,7 +5326,7 @@
         <v>225</v>
       </c>
       <c r="D37" s="79" t="s">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="E37" s="73"/>
       <c r="F37" s="73"/>
@@ -5238,7 +5342,7 @@
         <v>227</v>
       </c>
       <c r="D38" s="79" t="s">
-        <v>228</v>
+        <v>389</v>
       </c>
       <c r="E38" s="73"/>
       <c r="F38" s="73"/>
@@ -5254,7 +5358,7 @@
         <v>229</v>
       </c>
       <c r="D39" s="79" t="s">
-        <v>231</v>
+        <v>388</v>
       </c>
       <c r="E39" s="81"/>
       <c r="F39" s="81"/>
@@ -5270,7 +5374,7 @@
         <v>230</v>
       </c>
       <c r="D40" s="79" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="E40" s="81"/>
       <c r="F40" s="81"/>
@@ -5286,7 +5390,7 @@
         <v>233</v>
       </c>
       <c r="D41" s="79" t="s">
-        <v>234</v>
+        <v>386</v>
       </c>
       <c r="E41" s="81"/>
       <c r="F41" s="81"/>
@@ -5299,10 +5403,10 @@
       </c>
       <c r="B42" s="91"/>
       <c r="C42" s="66" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="D42" s="75" t="s">
-        <v>322</v>
+        <v>385</v>
       </c>
       <c r="E42" s="81"/>
       <c r="F42" s="81"/>
@@ -5315,10 +5419,10 @@
       </c>
       <c r="B43" s="91"/>
       <c r="C43" s="80" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="D43" s="75" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="E43" s="81"/>
       <c r="F43" s="81"/>
@@ -5336,7 +5440,7 @@
         <v>188</v>
       </c>
       <c r="D44" s="57" t="s">
-        <v>191</v>
+        <v>383</v>
       </c>
       <c r="E44" s="81"/>
       <c r="F44" s="81"/>
@@ -5352,7 +5456,7 @@
         <v>181</v>
       </c>
       <c r="D45" s="57" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E45" s="81"/>
       <c r="F45" s="81"/>
@@ -5365,10 +5469,10 @@
       </c>
       <c r="B46" s="90"/>
       <c r="C46" s="66" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="D46" s="57" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E46" s="81"/>
       <c r="F46" s="81"/>
@@ -5384,7 +5488,7 @@
         <v>190</v>
       </c>
       <c r="D47" s="57" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E47" s="81"/>
       <c r="F47" s="81"/>
@@ -5399,10 +5503,10 @@
         <v>206</v>
       </c>
       <c r="C48" s="80" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D48" s="75" t="s">
-        <v>383</v>
+        <v>353</v>
       </c>
       <c r="E48" s="81"/>
       <c r="F48" s="81"/>
@@ -5443,10 +5547,10 @@
       </c>
       <c r="B51" s="90"/>
       <c r="C51" s="66" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="D51" s="67" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E51" s="81"/>
       <c r="F51" s="81"/>
@@ -5459,10 +5563,10 @@
       </c>
       <c r="B52" s="90"/>
       <c r="C52" s="66" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="D52" s="75" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E52" s="81"/>
       <c r="F52" s="81"/>
@@ -5475,10 +5579,10 @@
       </c>
       <c r="B53" s="90"/>
       <c r="C53" s="66" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="D53" s="75" t="s">
-        <v>258</v>
+        <v>378</v>
       </c>
       <c r="E53" s="81"/>
       <c r="F53" s="81"/>
@@ -5491,7 +5595,7 @@
       </c>
       <c r="B54" s="90"/>
       <c r="C54" s="66" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="D54" s="75" t="s">
         <v>259</v>
@@ -5512,7 +5616,7 @@
         <v>244</v>
       </c>
       <c r="D55" s="75" t="s">
-        <v>320</v>
+        <v>377</v>
       </c>
       <c r="E55" s="81"/>
       <c r="F55" s="81"/>
@@ -5525,10 +5629,10 @@
       </c>
       <c r="B56" s="90"/>
       <c r="C56" s="80" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="D56" s="75" t="s">
-        <v>319</v>
+        <v>376</v>
       </c>
       <c r="E56" s="81"/>
       <c r="F56" s="81"/>
@@ -5541,10 +5645,10 @@
       </c>
       <c r="B57" s="90"/>
       <c r="C57" s="80" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="D57" s="75" t="s">
-        <v>238</v>
+        <v>375</v>
       </c>
       <c r="E57" s="81"/>
       <c r="F57" s="81"/>
@@ -5557,10 +5661,10 @@
       </c>
       <c r="B58" s="90"/>
       <c r="C58" s="80" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="D58" s="75" t="s">
-        <v>318</v>
+        <v>374</v>
       </c>
       <c r="E58" s="81"/>
       <c r="F58" s="81"/>
@@ -5572,11 +5676,11 @@
         <v>291</v>
       </c>
       <c r="B59" s="90"/>
-      <c r="C59" s="80" t="s">
-        <v>240</v>
+      <c r="C59" s="92" t="s">
+        <v>357</v>
       </c>
       <c r="D59" s="75" t="s">
-        <v>317</v>
+        <v>373</v>
       </c>
       <c r="E59" s="81"/>
       <c r="F59" s="81"/>
@@ -5589,10 +5693,10 @@
       </c>
       <c r="B60" s="90"/>
       <c r="C60" s="80" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="D60" s="75" t="s">
-        <v>242</v>
+        <v>372</v>
       </c>
       <c r="E60" s="81"/>
       <c r="F60" s="81"/>
@@ -5608,7 +5712,7 @@
         <v>245</v>
       </c>
       <c r="D61" s="75" t="s">
-        <v>246</v>
+        <v>371</v>
       </c>
       <c r="E61" s="81"/>
       <c r="F61" s="81"/>
@@ -5620,11 +5724,11 @@
         <v>294</v>
       </c>
       <c r="B62" s="90"/>
-      <c r="C62" s="80" t="s">
-        <v>355</v>
+      <c r="C62" s="92" t="s">
+        <v>358</v>
       </c>
       <c r="D62" s="75" t="s">
-        <v>316</v>
+        <v>370</v>
       </c>
       <c r="E62" s="81"/>
       <c r="F62" s="81"/>
@@ -5637,10 +5741,10 @@
       </c>
       <c r="B63" s="90"/>
       <c r="C63" s="80" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="D63" s="75" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="E63" s="81"/>
       <c r="F63" s="81"/>
@@ -5656,7 +5760,7 @@
         <v>251</v>
       </c>
       <c r="D64" s="75" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="E64" s="81"/>
       <c r="F64" s="81"/>
@@ -5668,11 +5772,11 @@
         <v>297</v>
       </c>
       <c r="B65" s="90"/>
-      <c r="C65" s="80" t="s">
-        <v>357</v>
+      <c r="C65" s="92" t="s">
+        <v>359</v>
       </c>
       <c r="D65" s="75" t="s">
-        <v>315</v>
+        <v>367</v>
       </c>
       <c r="E65" s="81"/>
       <c r="F65" s="81"/>
@@ -5685,10 +5789,10 @@
       </c>
       <c r="B66" s="90"/>
       <c r="C66" s="80" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="D66" s="75" t="s">
-        <v>314</v>
+        <v>366</v>
       </c>
       <c r="E66" s="81"/>
       <c r="F66" s="81"/>
@@ -5703,10 +5807,10 @@
         <v>176</v>
       </c>
       <c r="C67" s="66" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="D67" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
       <c r="E67" s="81"/>
       <c r="F67" s="81"/>
@@ -5722,7 +5826,7 @@
         <v>178</v>
       </c>
       <c r="D68" t="s">
-        <v>389</v>
+        <v>364</v>
       </c>
       <c r="E68" s="81"/>
       <c r="F68" s="81"/>
@@ -5735,10 +5839,10 @@
       </c>
       <c r="B69" s="90"/>
       <c r="C69" s="66" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="D69" t="s">
-        <v>184</v>
+        <v>363</v>
       </c>
       <c r="E69" s="81"/>
       <c r="F69" s="81"/>
@@ -5754,7 +5858,7 @@
         <v>180</v>
       </c>
       <c r="D70" t="s">
-        <v>185</v>
+        <v>361</v>
       </c>
       <c r="E70" s="81"/>
       <c r="F70" s="81"/>
@@ -5770,7 +5874,7 @@
         <v>181</v>
       </c>
       <c r="D71" t="s">
-        <v>390</v>
+        <v>362</v>
       </c>
       <c r="E71" s="81"/>
       <c r="F71" s="81"/>
@@ -5785,10 +5889,10 @@
         <v>31</v>
       </c>
       <c r="C72" s="83" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="D72" s="84" t="s">
-        <v>391</v>
+        <v>354</v>
       </c>
       <c r="E72" s="81"/>
       <c r="F72" s="81"/>
@@ -5804,7 +5908,7 @@
         <v>196</v>
       </c>
       <c r="D73" s="67" t="s">
-        <v>392</v>
+        <v>355</v>
       </c>
       <c r="E73" s="81"/>
       <c r="F73" s="81"/>
@@ -5836,7 +5940,7 @@
         <v>34</v>
       </c>
       <c r="D75" s="84" t="s">
-        <v>393</v>
+        <v>360</v>
       </c>
       <c r="E75" s="81"/>
       <c r="F75" s="81"/>
@@ -5900,7 +6004,7 @@
         <v>39</v>
       </c>
       <c r="D79" s="67" t="s">
-        <v>394</v>
+        <v>356</v>
       </c>
       <c r="E79" s="81"/>
       <c r="F79" s="81"/>
@@ -5909,11 +6013,11 @@
     </row>
     <row r="80" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="65" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="B80" s="87"/>
       <c r="C80" s="66" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="D80" s="67" t="s">
         <v>96</v>
@@ -5925,14 +6029,14 @@
     </row>
     <row r="81" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="65" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B81" s="87"/>
       <c r="C81" s="66" t="s">
         <v>203</v>
       </c>
       <c r="D81" s="67" t="s">
-        <v>204</v>
+        <v>418</v>
       </c>
       <c r="E81" s="57"/>
       <c r="F81" s="57"/>
@@ -5941,14 +6045,14 @@
     </row>
     <row r="82" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="65" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B82" s="87"/>
       <c r="C82" s="66" t="s">
         <v>42</v>
       </c>
       <c r="D82" s="67" t="s">
-        <v>98</v>
+        <v>417</v>
       </c>
       <c r="E82" s="57"/>
       <c r="F82" s="57"/>
@@ -5957,14 +6061,14 @@
     </row>
     <row r="83" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="65" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B83" s="88"/>
       <c r="C83" s="85" t="s">
         <v>43</v>
       </c>
       <c r="D83" s="86" t="s">
-        <v>205</v>
+        <v>416</v>
       </c>
       <c r="E83" s="59"/>
       <c r="F83" s="59"/>

--- a/설계및정의서/기능리스트_AR 레이싱 게임 v0.1.xlsx
+++ b/설계및정의서/기능리스트_AR 레이싱 게임 v0.1.xlsx
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="440">
   <si>
     <t>화면명</t>
   </si>
@@ -1427,130 +1427,14 @@
     <t>SRS-082</t>
   </si>
   <si>
-    <t>아이디 입력 텍스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 입력 텍스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일 입력 텍스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 라벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일 불일치 안내 라벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 불일치 안내 라벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새 비밀번호 입력 텍스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새 비밀번호 재입력 텍스트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 불일치 안내 라벨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원정보 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 중복체크 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>닉네임 중복체크 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 확인 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>닉네임 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 시작 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방 제작화면으로 이동하는 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>방 표시 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방 접근 상태 활성화,비활성화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어 현황 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뒤로가기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방 목록 현황 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>준비 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뒤로가기 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 방이 진행할 맵 표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어가 방에 접속할 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방장유저가 방에서 나갈 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임시작버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>현재 맵 보여주는 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>현재 맵을 맵리스트의 오른쪽목록으로 이동하는 버튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>게임 시작 카운트 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1583,15 +1467,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>방 접속시 유저 표현 기능</t>
-  </si>
-  <si>
-    <t>방장 로그아웃시 방 상태변환 기능</t>
-  </si>
-  <si>
-    <t>방에 접속가능한 최대 인원수 조정 기능</t>
-  </si>
-  <si>
     <t>맵에 생성된 아이템과 접촉하면 획득하도록 한다. 획득한 아이템은 화면 좌측 상단에 획득한 아이템에 해당하는 이미지를 보여준다 아이템은 랜덤하게 획득하도록 한다. 아이템을 다시 획득하여도 기존 아이템이 있다면 아이템을 획득하여도 기존의 아이템은 유지된 상태 이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1829,6 +1704,214 @@
   </si>
   <si>
     <t>분실한 아이디를 찾기 위해서 회원가입할적에 입력한 이메일을입력하여 해당 이메일로 분실한 아이디를 보내준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 입력 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 입력 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤로가기 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 입력 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디가 보여지는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 불일치 안내 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 불일치 안내 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새 비밀번호 입력 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새 비밀번호 재입력 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 불일치 안내 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 입력 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 ,닉네임 중복 체크 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 중복체크 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임 중복체크 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 확인 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 취소 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 아이디 텍스트 입력 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 닉네임 텍스트 입력 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 비밀번호 텍스트 입력 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 비밀번호 재입력 텍스트 입력 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 확인 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤로가기 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR,3D전환 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜닝 화면 기능(튜닝 탭_바퀴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜닝 화면 기능(튜닝_탭_차모양)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임 표시 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시작 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 제작화면으로 이동하는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 참여하는 화면으로 이동하는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 참여 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 접근 상태 활성화,비활성화 표시 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 이메일 텍스트 입력 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 접속시 유저 수 표현 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준비 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 방이 진행할 맵 표시 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어가 방에 접속할 경우 설정된 닉네임이 보여지는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저의 차량을 보여주는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방장유저가 방에서 나갈 경우 상태 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시작 조건 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임시작기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 맵을 맵리스트의 왼쪽목록으로 이동하는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 맵을 맵리스트의 오른쪽목록으로 이동하는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방을 제작할 맵을 선택하는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 사용 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 현황 표시 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 목록 현황 표시 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방에 접속한 플레이어의 퇴장 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방장 표시 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방에 접속가능한 최대 인원수 설정 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2531,6 +2614,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2544,9 +2630,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4679,8 +4762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="C49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4725,7 +4808,7 @@
       <c r="A2" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="90" t="s">
         <v>110</v>
       </c>
       <c r="C2" s="66" t="s">
@@ -4743,12 +4826,12 @@
       <c r="A3" s="65" t="s">
         <v>261</v>
       </c>
-      <c r="B3" s="89"/>
+      <c r="B3" s="90"/>
       <c r="C3" s="71" t="s">
-        <v>111</v>
+        <v>389</v>
       </c>
       <c r="D3" s="72" t="s">
-        <v>415</v>
+        <v>383</v>
       </c>
       <c r="E3" s="73"/>
       <c r="F3" s="73"/>
@@ -4759,12 +4842,12 @@
       <c r="A4" s="65" t="s">
         <v>263</v>
       </c>
-      <c r="B4" s="89"/>
+      <c r="B4" s="90"/>
       <c r="C4" s="71" t="s">
-        <v>112</v>
+        <v>388</v>
       </c>
       <c r="D4" s="72" t="s">
-        <v>414</v>
+        <v>382</v>
       </c>
       <c r="E4" s="73"/>
       <c r="F4" s="73"/>
@@ -4775,14 +4858,14 @@
       <c r="A5" s="65" t="s">
         <v>264</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="92" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="71" t="s">
-        <v>111</v>
+        <v>389</v>
       </c>
       <c r="D5" s="75" t="s">
-        <v>413</v>
+        <v>381</v>
       </c>
       <c r="E5" s="73"/>
       <c r="F5" s="76"/>
@@ -4796,12 +4879,12 @@
       <c r="A6" s="65" t="s">
         <v>265</v>
       </c>
-      <c r="B6" s="91"/>
+      <c r="B6" s="92"/>
       <c r="C6" s="66" t="s">
         <v>77</v>
       </c>
       <c r="D6" s="67" t="s">
-        <v>419</v>
+        <v>387</v>
       </c>
       <c r="E6" s="73"/>
       <c r="F6" s="76"/>
@@ -4815,12 +4898,12 @@
       <c r="A7" s="65" t="s">
         <v>266</v>
       </c>
-      <c r="B7" s="91"/>
+      <c r="B7" s="92"/>
       <c r="C7" s="66" t="s">
-        <v>412</v>
+        <v>380</v>
       </c>
       <c r="D7" s="67" t="s">
-        <v>411</v>
+        <v>379</v>
       </c>
       <c r="E7" s="73"/>
       <c r="F7" s="76"/>
@@ -4834,12 +4917,12 @@
       <c r="A8" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="91"/>
+      <c r="B8" s="92"/>
       <c r="C8" s="71" t="s">
-        <v>318</v>
+        <v>390</v>
       </c>
       <c r="D8" s="72" t="s">
-        <v>406</v>
+        <v>374</v>
       </c>
       <c r="E8" s="73"/>
       <c r="F8" s="76"/>
@@ -4853,12 +4936,12 @@
       <c r="A9" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="91"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="71" t="s">
-        <v>319</v>
+        <v>391</v>
       </c>
       <c r="D9" s="72" t="s">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="E9" s="73"/>
       <c r="F9" s="76"/>
@@ -4872,12 +4955,12 @@
       <c r="A10" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="91"/>
+      <c r="B10" s="92"/>
       <c r="C10" s="66" t="s">
-        <v>181</v>
+        <v>392</v>
       </c>
       <c r="D10" s="57" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="E10" s="73"/>
       <c r="F10" s="76"/>
@@ -4891,14 +4974,14 @@
       <c r="A11" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="92" t="s">
         <v>140</v>
       </c>
       <c r="C11" s="71" t="s">
-        <v>320</v>
+        <v>394</v>
       </c>
       <c r="D11" s="72" t="s">
-        <v>410</v>
+        <v>378</v>
       </c>
       <c r="E11" s="73"/>
       <c r="F11" s="76"/>
@@ -4912,12 +4995,12 @@
       <c r="A12" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="91"/>
+      <c r="B12" s="92"/>
       <c r="C12" s="71" t="s">
-        <v>321</v>
+        <v>393</v>
       </c>
       <c r="D12" s="72" t="s">
-        <v>409</v>
+        <v>377</v>
       </c>
       <c r="E12" s="73"/>
       <c r="F12" s="76"/>
@@ -4931,12 +5014,12 @@
       <c r="A13" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="91"/>
+      <c r="B13" s="92"/>
       <c r="C13" s="71" t="s">
-        <v>322</v>
+        <v>395</v>
       </c>
       <c r="D13" s="72" t="s">
-        <v>408</v>
+        <v>376</v>
       </c>
       <c r="E13" s="73"/>
       <c r="F13" s="73"/>
@@ -4947,12 +5030,12 @@
       <c r="A14" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="91"/>
+      <c r="B14" s="92"/>
       <c r="C14" s="71" t="s">
-        <v>323</v>
+        <v>396</v>
       </c>
       <c r="D14" s="72" t="s">
-        <v>407</v>
+        <v>375</v>
       </c>
       <c r="E14" s="73"/>
       <c r="F14" s="73"/>
@@ -4963,12 +5046,12 @@
       <c r="A15" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="91"/>
+      <c r="B15" s="92"/>
       <c r="C15" s="66" t="s">
-        <v>181</v>
+        <v>392</v>
       </c>
       <c r="D15" s="57" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
@@ -4979,14 +5062,14 @@
       <c r="A16" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="92" t="s">
         <v>146</v>
       </c>
       <c r="C16" s="71" t="s">
-        <v>115</v>
+        <v>390</v>
       </c>
       <c r="D16" s="72" t="s">
-        <v>406</v>
+        <v>374</v>
       </c>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
@@ -4997,12 +5080,12 @@
       <c r="A17" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="91"/>
+      <c r="B17" s="92"/>
       <c r="C17" s="71" t="s">
-        <v>324</v>
+        <v>393</v>
       </c>
       <c r="D17" s="72" t="s">
-        <v>405</v>
+        <v>373</v>
       </c>
       <c r="E17" s="73"/>
       <c r="F17" s="73"/>
@@ -5013,12 +5096,12 @@
       <c r="A18" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="91"/>
+      <c r="B18" s="92"/>
       <c r="C18" s="71" t="s">
-        <v>325</v>
+        <v>397</v>
       </c>
       <c r="D18" s="72" t="s">
-        <v>404</v>
+        <v>372</v>
       </c>
       <c r="E18" s="73"/>
       <c r="F18" s="73"/>
@@ -5029,12 +5112,12 @@
       <c r="A19" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="91"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="71" t="s">
-        <v>326</v>
+        <v>398</v>
       </c>
       <c r="D19" s="72" t="s">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="E19" s="73"/>
       <c r="F19" s="73"/>
@@ -5045,12 +5128,12 @@
       <c r="A20" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="91"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="71" t="s">
-        <v>327</v>
+        <v>399</v>
       </c>
       <c r="D20" s="72" t="s">
-        <v>403</v>
+        <v>371</v>
       </c>
       <c r="E20" s="73"/>
       <c r="F20" s="73"/>
@@ -5061,12 +5144,12 @@
       <c r="A21" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="91"/>
+      <c r="B21" s="92"/>
       <c r="C21" s="71" t="s">
-        <v>328</v>
+        <v>400</v>
       </c>
       <c r="D21" s="72" t="s">
-        <v>402</v>
+        <v>370</v>
       </c>
       <c r="E21" s="73"/>
       <c r="F21" s="73"/>
@@ -5077,12 +5160,12 @@
       <c r="A22" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="91"/>
+      <c r="B22" s="92"/>
       <c r="C22" s="66" t="s">
-        <v>181</v>
+        <v>392</v>
       </c>
       <c r="D22" s="57" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="E22" s="73"/>
       <c r="F22" s="73"/>
@@ -5093,14 +5176,14 @@
       <c r="A23" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="91" t="s">
+      <c r="B23" s="92" t="s">
         <v>79</v>
       </c>
       <c r="C23" s="66" t="s">
-        <v>329</v>
+        <v>401</v>
       </c>
       <c r="D23" s="67" t="s">
-        <v>401</v>
+        <v>369</v>
       </c>
       <c r="E23" s="73"/>
       <c r="F23" s="73"/>
@@ -5111,12 +5194,12 @@
       <c r="A24" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="91"/>
+      <c r="B24" s="92"/>
       <c r="C24" s="66" t="s">
-        <v>83</v>
+        <v>402</v>
       </c>
       <c r="D24" s="67" t="s">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="E24" s="73"/>
       <c r="F24" s="73"/>
@@ -5127,12 +5210,12 @@
       <c r="A25" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="91"/>
+      <c r="B25" s="92"/>
       <c r="C25" s="71" t="s">
-        <v>330</v>
+        <v>403</v>
       </c>
       <c r="D25" s="72" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
       <c r="E25" s="73"/>
       <c r="F25" s="73"/>
@@ -5143,12 +5226,12 @@
       <c r="A26" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="91"/>
+      <c r="B26" s="92"/>
       <c r="C26" s="71" t="s">
-        <v>331</v>
+        <v>404</v>
       </c>
       <c r="D26" s="72" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
       <c r="E26" s="73"/>
       <c r="F26" s="73"/>
@@ -5159,12 +5242,12 @@
       <c r="A27" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="91"/>
+      <c r="B27" s="92"/>
       <c r="C27" s="71" t="s">
-        <v>332</v>
+        <v>405</v>
       </c>
       <c r="D27" s="72" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
       <c r="E27" s="73"/>
       <c r="F27" s="73"/>
@@ -5175,12 +5258,12 @@
       <c r="A28" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="91"/>
+      <c r="B28" s="92"/>
       <c r="C28" s="66" t="s">
-        <v>123</v>
+        <v>406</v>
       </c>
       <c r="D28" s="75" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
       <c r="E28" s="73"/>
       <c r="F28" s="73"/>
@@ -5191,12 +5274,12 @@
       <c r="A29" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="91"/>
+      <c r="B29" s="92"/>
       <c r="C29" s="66" t="s">
-        <v>124</v>
+        <v>407</v>
       </c>
       <c r="D29" s="75" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
       <c r="E29" s="73"/>
       <c r="F29" s="73"/>
@@ -5207,12 +5290,12 @@
       <c r="A30" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="91"/>
+      <c r="B30" s="92"/>
       <c r="C30" s="66" t="s">
-        <v>125</v>
+        <v>408</v>
       </c>
       <c r="D30" s="75" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
       <c r="E30" s="73"/>
       <c r="F30" s="73"/>
@@ -5223,12 +5306,12 @@
       <c r="A31" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="91"/>
+      <c r="B31" s="92"/>
       <c r="C31" s="66" t="s">
-        <v>126</v>
+        <v>409</v>
       </c>
       <c r="D31" s="75" t="s">
-        <v>393</v>
+        <v>361</v>
       </c>
       <c r="E31" s="73"/>
       <c r="F31" s="73"/>
@@ -5239,12 +5322,12 @@
       <c r="A32" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="91"/>
+      <c r="B32" s="92"/>
       <c r="C32" s="66" t="s">
-        <v>127</v>
+        <v>410</v>
       </c>
       <c r="D32" s="75" t="s">
-        <v>392</v>
+        <v>360</v>
       </c>
       <c r="E32" s="73"/>
       <c r="F32" s="73"/>
@@ -5255,12 +5338,12 @@
       <c r="A33" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="91"/>
+      <c r="B33" s="92"/>
       <c r="C33" s="66" t="s">
-        <v>135</v>
+        <v>411</v>
       </c>
       <c r="D33" s="75" t="s">
-        <v>391</v>
+        <v>359</v>
       </c>
       <c r="E33" s="73"/>
       <c r="F33" s="73"/>
@@ -5271,12 +5354,12 @@
       <c r="A34" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="91"/>
+      <c r="B34" s="92"/>
       <c r="C34" s="66" t="s">
-        <v>138</v>
+        <v>422</v>
       </c>
       <c r="D34" s="75" t="s">
-        <v>390</v>
+        <v>358</v>
       </c>
       <c r="E34" s="73"/>
       <c r="F34" s="73"/>
@@ -5287,12 +5370,12 @@
       <c r="A35" s="65" t="s">
         <v>267</v>
       </c>
-      <c r="B35" s="91"/>
+      <c r="B35" s="92"/>
       <c r="C35" s="66" t="s">
-        <v>181</v>
+        <v>412</v>
       </c>
       <c r="D35" s="57" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="E35" s="73"/>
       <c r="F35" s="73"/>
@@ -5303,14 +5386,14 @@
       <c r="A36" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="B36" s="91" t="s">
+      <c r="B36" s="92" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="66" t="s">
         <v>45</v>
       </c>
       <c r="D36" s="67" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="E36" s="73"/>
       <c r="F36" s="73"/>
@@ -5321,12 +5404,12 @@
       <c r="A37" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="B37" s="91"/>
+      <c r="B37" s="92"/>
       <c r="C37" s="71" t="s">
-        <v>225</v>
+        <v>413</v>
       </c>
       <c r="D37" s="79" t="s">
-        <v>352</v>
+        <v>323</v>
       </c>
       <c r="E37" s="73"/>
       <c r="F37" s="73"/>
@@ -5337,12 +5420,12 @@
       <c r="A38" s="65" t="s">
         <v>270</v>
       </c>
-      <c r="B38" s="91"/>
+      <c r="B38" s="92"/>
       <c r="C38" s="71" t="s">
-        <v>227</v>
+        <v>392</v>
       </c>
       <c r="D38" s="79" t="s">
-        <v>389</v>
+        <v>357</v>
       </c>
       <c r="E38" s="73"/>
       <c r="F38" s="73"/>
@@ -5353,12 +5436,12 @@
       <c r="A39" s="65" t="s">
         <v>271</v>
       </c>
-      <c r="B39" s="91"/>
+      <c r="B39" s="92"/>
       <c r="C39" s="71" t="s">
-        <v>229</v>
+        <v>414</v>
       </c>
       <c r="D39" s="79" t="s">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="E39" s="81"/>
       <c r="F39" s="81"/>
@@ -5369,12 +5452,12 @@
       <c r="A40" s="65" t="s">
         <v>272</v>
       </c>
-      <c r="B40" s="91"/>
+      <c r="B40" s="92"/>
       <c r="C40" s="71" t="s">
-        <v>230</v>
+        <v>415</v>
       </c>
       <c r="D40" s="79" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="E40" s="81"/>
       <c r="F40" s="81"/>
@@ -5385,12 +5468,12 @@
       <c r="A41" s="65" t="s">
         <v>273</v>
       </c>
-      <c r="B41" s="91"/>
+      <c r="B41" s="92"/>
       <c r="C41" s="71" t="s">
         <v>233</v>
       </c>
       <c r="D41" s="79" t="s">
-        <v>386</v>
+        <v>354</v>
       </c>
       <c r="E41" s="81"/>
       <c r="F41" s="81"/>
@@ -5401,12 +5484,12 @@
       <c r="A42" s="65" t="s">
         <v>274</v>
       </c>
-      <c r="B42" s="91"/>
+      <c r="B42" s="92"/>
       <c r="C42" s="66" t="s">
-        <v>333</v>
+        <v>416</v>
       </c>
       <c r="D42" s="75" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="E42" s="81"/>
       <c r="F42" s="81"/>
@@ -5417,12 +5500,12 @@
       <c r="A43" s="65" t="s">
         <v>275</v>
       </c>
-      <c r="B43" s="91"/>
+      <c r="B43" s="92"/>
       <c r="C43" s="80" t="s">
-        <v>334</v>
+        <v>417</v>
       </c>
       <c r="D43" s="75" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="E43" s="81"/>
       <c r="F43" s="81"/>
@@ -5433,14 +5516,14 @@
       <c r="A44" s="65" t="s">
         <v>276</v>
       </c>
-      <c r="B44" s="90" t="s">
+      <c r="B44" s="91" t="s">
         <v>262</v>
       </c>
       <c r="C44" s="66" t="s">
         <v>188</v>
       </c>
       <c r="D44" s="57" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="E44" s="81"/>
       <c r="F44" s="81"/>
@@ -5451,12 +5534,12 @@
       <c r="A45" s="65" t="s">
         <v>277</v>
       </c>
-      <c r="B45" s="90"/>
+      <c r="B45" s="91"/>
       <c r="C45" s="66" t="s">
-        <v>181</v>
+        <v>392</v>
       </c>
       <c r="D45" s="57" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="E45" s="81"/>
       <c r="F45" s="81"/>
@@ -5467,12 +5550,12 @@
       <c r="A46" s="65" t="s">
         <v>278</v>
       </c>
-      <c r="B46" s="90"/>
+      <c r="B46" s="91"/>
       <c r="C46" s="66" t="s">
-        <v>335</v>
+        <v>418</v>
       </c>
       <c r="D46" s="57" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="E46" s="81"/>
       <c r="F46" s="81"/>
@@ -5483,12 +5566,12 @@
       <c r="A47" s="65" t="s">
         <v>279</v>
       </c>
-      <c r="B47" s="90"/>
+      <c r="B47" s="91"/>
       <c r="C47" s="66" t="s">
-        <v>190</v>
+        <v>419</v>
       </c>
       <c r="D47" s="57" t="s">
-        <v>381</v>
+        <v>349</v>
       </c>
       <c r="E47" s="81"/>
       <c r="F47" s="81"/>
@@ -5499,14 +5582,14 @@
       <c r="A48" s="65" t="s">
         <v>280</v>
       </c>
-      <c r="B48" s="90" t="s">
+      <c r="B48" s="91" t="s">
         <v>206</v>
       </c>
       <c r="C48" s="80" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="D48" s="75" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="E48" s="81"/>
       <c r="F48" s="81"/>
@@ -5517,9 +5600,9 @@
       <c r="A49" s="65" t="s">
         <v>281</v>
       </c>
-      <c r="B49" s="90"/>
+      <c r="B49" s="91"/>
       <c r="C49" s="80" t="s">
-        <v>209</v>
+        <v>420</v>
       </c>
       <c r="D49" s="75" t="s">
         <v>312</v>
@@ -5533,7 +5616,7 @@
       <c r="A50" s="65" t="s">
         <v>282</v>
       </c>
-      <c r="B50" s="90"/>
+      <c r="B50" s="91"/>
       <c r="C50" s="80"/>
       <c r="D50" s="75"/>
       <c r="E50" s="81"/>
@@ -5545,12 +5628,12 @@
       <c r="A51" s="65" t="s">
         <v>283</v>
       </c>
-      <c r="B51" s="90"/>
+      <c r="B51" s="91"/>
       <c r="C51" s="66" t="s">
-        <v>337</v>
+        <v>421</v>
       </c>
       <c r="D51" s="67" t="s">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="E51" s="81"/>
       <c r="F51" s="81"/>
@@ -5561,12 +5644,12 @@
       <c r="A52" s="65" t="s">
         <v>284</v>
       </c>
-      <c r="B52" s="90"/>
+      <c r="B52" s="91"/>
       <c r="C52" s="66" t="s">
-        <v>338</v>
+        <v>435</v>
       </c>
       <c r="D52" s="75" t="s">
-        <v>379</v>
+        <v>347</v>
       </c>
       <c r="E52" s="81"/>
       <c r="F52" s="81"/>
@@ -5577,12 +5660,12 @@
       <c r="A53" s="65" t="s">
         <v>285</v>
       </c>
-      <c r="B53" s="90"/>
+      <c r="B53" s="91"/>
       <c r="C53" s="66" t="s">
-        <v>339</v>
+        <v>392</v>
       </c>
       <c r="D53" s="75" t="s">
-        <v>378</v>
+        <v>346</v>
       </c>
       <c r="E53" s="81"/>
       <c r="F53" s="81"/>
@@ -5593,9 +5676,9 @@
       <c r="A54" s="65" t="s">
         <v>286</v>
       </c>
-      <c r="B54" s="90"/>
+      <c r="B54" s="91"/>
       <c r="C54" s="66" t="s">
-        <v>340</v>
+        <v>436</v>
       </c>
       <c r="D54" s="75" t="s">
         <v>259</v>
@@ -5609,14 +5692,14 @@
       <c r="A55" s="65" t="s">
         <v>287</v>
       </c>
-      <c r="B55" s="90" t="s">
+      <c r="B55" s="91" t="s">
         <v>235</v>
       </c>
       <c r="C55" s="80" t="s">
-        <v>244</v>
+        <v>423</v>
       </c>
       <c r="D55" s="75" t="s">
-        <v>377</v>
+        <v>345</v>
       </c>
       <c r="E55" s="81"/>
       <c r="F55" s="81"/>
@@ -5627,12 +5710,12 @@
       <c r="A56" s="65" t="s">
         <v>288</v>
       </c>
-      <c r="B56" s="90"/>
+      <c r="B56" s="91"/>
       <c r="C56" s="80" t="s">
-        <v>341</v>
+        <v>424</v>
       </c>
       <c r="D56" s="75" t="s">
-        <v>376</v>
+        <v>344</v>
       </c>
       <c r="E56" s="81"/>
       <c r="F56" s="81"/>
@@ -5643,12 +5726,12 @@
       <c r="A57" s="65" t="s">
         <v>289</v>
       </c>
-      <c r="B57" s="90"/>
+      <c r="B57" s="91"/>
       <c r="C57" s="80" t="s">
-        <v>342</v>
+        <v>392</v>
       </c>
       <c r="D57" s="75" t="s">
-        <v>375</v>
+        <v>343</v>
       </c>
       <c r="E57" s="81"/>
       <c r="F57" s="81"/>
@@ -5659,12 +5742,12 @@
       <c r="A58" s="65" t="s">
         <v>290</v>
       </c>
-      <c r="B58" s="90"/>
+      <c r="B58" s="91"/>
       <c r="C58" s="80" t="s">
-        <v>343</v>
+        <v>425</v>
       </c>
       <c r="D58" s="75" t="s">
-        <v>374</v>
+        <v>342</v>
       </c>
       <c r="E58" s="81"/>
       <c r="F58" s="81"/>
@@ -5675,12 +5758,12 @@
       <c r="A59" s="65" t="s">
         <v>291</v>
       </c>
-      <c r="B59" s="90"/>
-      <c r="C59" s="92" t="s">
-        <v>357</v>
+      <c r="B59" s="91"/>
+      <c r="C59" s="87" t="s">
+        <v>437</v>
       </c>
       <c r="D59" s="75" t="s">
-        <v>373</v>
+        <v>341</v>
       </c>
       <c r="E59" s="81"/>
       <c r="F59" s="81"/>
@@ -5691,12 +5774,12 @@
       <c r="A60" s="65" t="s">
         <v>292</v>
       </c>
-      <c r="B60" s="90"/>
+      <c r="B60" s="91"/>
       <c r="C60" s="80" t="s">
-        <v>344</v>
+        <v>426</v>
       </c>
       <c r="D60" s="75" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="E60" s="81"/>
       <c r="F60" s="81"/>
@@ -5707,12 +5790,12 @@
       <c r="A61" s="65" t="s">
         <v>293</v>
       </c>
-      <c r="B61" s="90"/>
+      <c r="B61" s="91"/>
       <c r="C61" s="80" t="s">
-        <v>245</v>
+        <v>427</v>
       </c>
       <c r="D61" s="75" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="E61" s="81"/>
       <c r="F61" s="81"/>
@@ -5723,12 +5806,12 @@
       <c r="A62" s="65" t="s">
         <v>294</v>
       </c>
-      <c r="B62" s="90"/>
-      <c r="C62" s="92" t="s">
-        <v>358</v>
+      <c r="B62" s="91"/>
+      <c r="C62" s="87" t="s">
+        <v>438</v>
       </c>
       <c r="D62" s="75" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="E62" s="81"/>
       <c r="F62" s="81"/>
@@ -5739,12 +5822,12 @@
       <c r="A63" s="65" t="s">
         <v>295</v>
       </c>
-      <c r="B63" s="90"/>
+      <c r="B63" s="91"/>
       <c r="C63" s="80" t="s">
-        <v>345</v>
+        <v>428</v>
       </c>
       <c r="D63" s="75" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="E63" s="81"/>
       <c r="F63" s="81"/>
@@ -5755,12 +5838,12 @@
       <c r="A64" s="65" t="s">
         <v>296</v>
       </c>
-      <c r="B64" s="90"/>
+      <c r="B64" s="91"/>
       <c r="C64" s="80" t="s">
-        <v>251</v>
+        <v>429</v>
       </c>
       <c r="D64" s="75" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="E64" s="81"/>
       <c r="F64" s="81"/>
@@ -5771,12 +5854,12 @@
       <c r="A65" s="65" t="s">
         <v>297</v>
       </c>
-      <c r="B65" s="90"/>
-      <c r="C65" s="92" t="s">
-        <v>359</v>
+      <c r="B65" s="91"/>
+      <c r="C65" s="87" t="s">
+        <v>439</v>
       </c>
       <c r="D65" s="75" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="E65" s="81"/>
       <c r="F65" s="81"/>
@@ -5787,12 +5870,12 @@
       <c r="A66" s="65" t="s">
         <v>298</v>
       </c>
-      <c r="B66" s="90"/>
+      <c r="B66" s="91"/>
       <c r="C66" s="80" t="s">
-        <v>346</v>
+        <v>430</v>
       </c>
       <c r="D66" s="75" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="E66" s="81"/>
       <c r="F66" s="81"/>
@@ -5803,14 +5886,14 @@
       <c r="A67" s="65" t="s">
         <v>299</v>
       </c>
-      <c r="B67" s="90" t="s">
+      <c r="B67" s="91" t="s">
         <v>176</v>
       </c>
       <c r="C67" s="66" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="D67" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="E67" s="81"/>
       <c r="F67" s="81"/>
@@ -5821,12 +5904,12 @@
       <c r="A68" s="65" t="s">
         <v>300</v>
       </c>
-      <c r="B68" s="90"/>
+      <c r="B68" s="91"/>
       <c r="C68" s="66" t="s">
-        <v>178</v>
+        <v>431</v>
       </c>
       <c r="D68" t="s">
-        <v>364</v>
+        <v>332</v>
       </c>
       <c r="E68" s="81"/>
       <c r="F68" s="81"/>
@@ -5837,12 +5920,12 @@
       <c r="A69" s="65" t="s">
         <v>301</v>
       </c>
-      <c r="B69" s="90"/>
+      <c r="B69" s="91"/>
       <c r="C69" s="66" t="s">
-        <v>348</v>
+        <v>432</v>
       </c>
       <c r="D69" t="s">
-        <v>363</v>
+        <v>331</v>
       </c>
       <c r="E69" s="81"/>
       <c r="F69" s="81"/>
@@ -5853,12 +5936,12 @@
       <c r="A70" s="65" t="s">
         <v>302</v>
       </c>
-      <c r="B70" s="90"/>
+      <c r="B70" s="91"/>
       <c r="C70" s="66" t="s">
-        <v>180</v>
+        <v>433</v>
       </c>
       <c r="D70" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="E70" s="81"/>
       <c r="F70" s="81"/>
@@ -5869,12 +5952,12 @@
       <c r="A71" s="65" t="s">
         <v>303</v>
       </c>
-      <c r="B71" s="90"/>
+      <c r="B71" s="91"/>
       <c r="C71" s="66" t="s">
-        <v>181</v>
+        <v>392</v>
       </c>
       <c r="D71" t="s">
-        <v>362</v>
+        <v>330</v>
       </c>
       <c r="E71" s="81"/>
       <c r="F71" s="81"/>
@@ -5885,14 +5968,14 @@
       <c r="A72" s="65" t="s">
         <v>304</v>
       </c>
-      <c r="B72" s="87" t="s">
+      <c r="B72" s="88" t="s">
         <v>31</v>
       </c>
       <c r="C72" s="83" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="D72" s="84" t="s">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="E72" s="81"/>
       <c r="F72" s="81"/>
@@ -5903,12 +5986,12 @@
       <c r="A73" s="65" t="s">
         <v>305</v>
       </c>
-      <c r="B73" s="87"/>
+      <c r="B73" s="88"/>
       <c r="C73" s="66" t="s">
         <v>196</v>
       </c>
       <c r="D73" s="67" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="E73" s="81"/>
       <c r="F73" s="81"/>
@@ -5919,7 +6002,7 @@
       <c r="A74" s="65" t="s">
         <v>306</v>
       </c>
-      <c r="B74" s="87"/>
+      <c r="B74" s="88"/>
       <c r="C74" s="83" t="s">
         <v>33</v>
       </c>
@@ -5935,12 +6018,12 @@
       <c r="A75" s="65" t="s">
         <v>307</v>
       </c>
-      <c r="B75" s="87"/>
+      <c r="B75" s="88"/>
       <c r="C75" s="83" t="s">
         <v>34</v>
       </c>
       <c r="D75" s="84" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="E75" s="81"/>
       <c r="F75" s="81"/>
@@ -5951,9 +6034,9 @@
       <c r="A76" s="65" t="s">
         <v>308</v>
       </c>
-      <c r="B76" s="87"/>
+      <c r="B76" s="88"/>
       <c r="C76" s="66" t="s">
-        <v>198</v>
+        <v>434</v>
       </c>
       <c r="D76" s="67" t="s">
         <v>199</v>
@@ -5967,7 +6050,7 @@
       <c r="A77" s="65" t="s">
         <v>309</v>
       </c>
-      <c r="B77" s="87"/>
+      <c r="B77" s="88"/>
       <c r="C77" s="66" t="s">
         <v>37</v>
       </c>
@@ -5983,7 +6066,7 @@
       <c r="A78" s="65" t="s">
         <v>310</v>
       </c>
-      <c r="B78" s="87"/>
+      <c r="B78" s="88"/>
       <c r="C78" s="66" t="s">
         <v>38</v>
       </c>
@@ -5999,12 +6082,12 @@
       <c r="A79" s="65" t="s">
         <v>311</v>
       </c>
-      <c r="B79" s="87"/>
+      <c r="B79" s="88"/>
       <c r="C79" s="66" t="s">
         <v>39</v>
       </c>
       <c r="D79" s="67" t="s">
-        <v>356</v>
+        <v>327</v>
       </c>
       <c r="E79" s="81"/>
       <c r="F79" s="81"/>
@@ -6015,9 +6098,9 @@
       <c r="A80" s="65" t="s">
         <v>314</v>
       </c>
-      <c r="B80" s="87"/>
+      <c r="B80" s="88"/>
       <c r="C80" s="66" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="D80" s="67" t="s">
         <v>96</v>
@@ -6031,12 +6114,12 @@
       <c r="A81" s="65" t="s">
         <v>315</v>
       </c>
-      <c r="B81" s="87"/>
+      <c r="B81" s="88"/>
       <c r="C81" s="66" t="s">
         <v>203</v>
       </c>
       <c r="D81" s="67" t="s">
-        <v>418</v>
+        <v>386</v>
       </c>
       <c r="E81" s="57"/>
       <c r="F81" s="57"/>
@@ -6047,12 +6130,12 @@
       <c r="A82" s="65" t="s">
         <v>316</v>
       </c>
-      <c r="B82" s="87"/>
+      <c r="B82" s="88"/>
       <c r="C82" s="66" t="s">
         <v>42</v>
       </c>
       <c r="D82" s="67" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="E82" s="57"/>
       <c r="F82" s="57"/>
@@ -6063,12 +6146,12 @@
       <c r="A83" s="65" t="s">
         <v>317</v>
       </c>
-      <c r="B83" s="88"/>
+      <c r="B83" s="89"/>
       <c r="C83" s="85" t="s">
         <v>43</v>
       </c>
       <c r="D83" s="86" t="s">
-        <v>416</v>
+        <v>384</v>
       </c>
       <c r="E83" s="59"/>
       <c r="F83" s="59"/>

--- a/설계및정의서/기능리스트_AR 레이싱 게임 v0.1.xlsx
+++ b/설계및정의서/기능리스트_AR 레이싱 게임 v0.1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\BitCamp_AR\설계및정의서\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
@@ -13,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$H$1</definedName>
   </definedNames>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -24,7 +29,7 @@
     <author>kosta</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1">
+    <comment ref="H1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +113,7 @@
     <author>kosta</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -164,7 +169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1">
+    <comment ref="H1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -186,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="441">
   <si>
     <t>화면명</t>
   </si>
@@ -1914,11 +1919,15 @@
     <t>방에 접속가능한 최대 인원수 설정 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>홍승표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d"/>
   </numFmts>
@@ -2114,7 +2123,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -2346,13 +2355,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2536,18 +2638,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2557,15 +2647,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2584,9 +2665,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2630,6 +2708,138 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2720,7 +2930,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2755,7 +2965,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4762,8 +4972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="C65" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78:F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4774,1388 +4984,1562 @@
     <col min="4" max="4" width="140.375" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" style="50" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="114" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="115" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="70"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117">
+        <v>4</v>
+      </c>
+      <c r="H2" s="118"/>
     </row>
     <row r="3" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="61" t="s">
         <v>261</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="71" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="64" t="s">
         <v>389</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="65" t="s">
         <v>383</v>
       </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="74"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="69">
+        <v>4</v>
+      </c>
+      <c r="H3" s="67"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="61" t="s">
         <v>263</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="71" t="s">
+      <c r="B4" s="82"/>
+      <c r="C4" s="64" t="s">
         <v>388</v>
       </c>
-      <c r="D4" s="72" t="s">
+      <c r="D4" s="65" t="s">
         <v>382</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="74"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="69">
+        <v>4</v>
+      </c>
+      <c r="H4" s="67"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="64" t="s">
         <v>389</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="68" t="s">
         <v>381</v>
       </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="78"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="122">
+        <v>4</v>
+      </c>
+      <c r="H5" s="70"/>
       <c r="I5" s="56"/>
       <c r="J5" s="55"/>
       <c r="K5" s="55"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="61" t="s">
         <v>265</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="66" t="s">
+      <c r="B6" s="84"/>
+      <c r="C6" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="63" t="s">
         <v>387</v>
       </c>
-      <c r="E6" s="73"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="78"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="122">
+        <v>4</v>
+      </c>
+      <c r="H6" s="70"/>
       <c r="I6" s="56"/>
       <c r="J6" s="55"/>
       <c r="K6" s="55"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="61" t="s">
         <v>266</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="66" t="s">
+      <c r="B7" s="84"/>
+      <c r="C7" s="62" t="s">
         <v>380</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="D7" s="63" t="s">
         <v>379</v>
       </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="78"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="122">
+        <v>4</v>
+      </c>
+      <c r="H7" s="70"/>
       <c r="I7" s="55"/>
       <c r="J7" s="55"/>
       <c r="K7" s="55"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="92"/>
-      <c r="C8" s="71" t="s">
+      <c r="B8" s="84"/>
+      <c r="C8" s="64" t="s">
         <v>390</v>
       </c>
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="65" t="s">
         <v>374</v>
       </c>
-      <c r="E8" s="73"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="78"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="122">
+        <v>4</v>
+      </c>
+      <c r="H8" s="70"/>
       <c r="I8" s="55"/>
       <c r="J8" s="55"/>
       <c r="K8" s="55"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="71" t="s">
+      <c r="B9" s="84"/>
+      <c r="C9" s="64" t="s">
         <v>391</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="65" t="s">
         <v>371</v>
       </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="78"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="122">
+        <v>4</v>
+      </c>
+      <c r="H9" s="70"/>
       <c r="I9" s="55"/>
       <c r="J9" s="55"/>
       <c r="K9" s="55"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="92"/>
-      <c r="C10" s="66" t="s">
+      <c r="B10" s="84"/>
+      <c r="C10" s="62" t="s">
         <v>392</v>
       </c>
       <c r="D10" s="57" t="s">
         <v>343</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="78"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="122">
+        <v>4</v>
+      </c>
+      <c r="H10" s="70"/>
       <c r="I10" s="55"/>
       <c r="J10" s="55"/>
       <c r="K10" s="55"/>
     </row>
     <row r="11" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="84" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="64" t="s">
         <v>394</v>
       </c>
-      <c r="D11" s="72" t="s">
+      <c r="D11" s="65" t="s">
         <v>378</v>
       </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="78"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="122">
+        <v>4</v>
+      </c>
+      <c r="H11" s="70"/>
       <c r="I11" s="55"/>
       <c r="J11" s="55"/>
       <c r="K11" s="55"/>
     </row>
     <row r="12" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="71" t="s">
+      <c r="B12" s="84"/>
+      <c r="C12" s="64" t="s">
         <v>393</v>
       </c>
-      <c r="D12" s="72" t="s">
+      <c r="D12" s="65" t="s">
         <v>377</v>
       </c>
-      <c r="E12" s="73"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="78"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="122">
+        <v>4</v>
+      </c>
+      <c r="H12" s="70"/>
       <c r="I12" s="55"/>
       <c r="J12" s="55"/>
       <c r="K12" s="55"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="92"/>
-      <c r="C13" s="71" t="s">
+      <c r="B13" s="84"/>
+      <c r="C13" s="64" t="s">
         <v>395</v>
       </c>
-      <c r="D13" s="72" t="s">
+      <c r="D13" s="65" t="s">
         <v>376</v>
       </c>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="74"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="69">
+        <v>4</v>
+      </c>
+      <c r="H13" s="67"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="92"/>
-      <c r="C14" s="71" t="s">
+      <c r="B14" s="84"/>
+      <c r="C14" s="64" t="s">
         <v>396</v>
       </c>
-      <c r="D14" s="72" t="s">
+      <c r="D14" s="65" t="s">
         <v>375</v>
       </c>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="74"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="69">
+        <v>4</v>
+      </c>
+      <c r="H14" s="67"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="92"/>
-      <c r="C15" s="66" t="s">
+      <c r="B15" s="84"/>
+      <c r="C15" s="62" t="s">
         <v>392</v>
       </c>
       <c r="D15" s="57" t="s">
         <v>343</v>
       </c>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="74"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="69">
+        <v>4</v>
+      </c>
+      <c r="H15" s="67"/>
     </row>
     <row r="16" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="84" t="s">
         <v>146</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="64" t="s">
         <v>390</v>
       </c>
-      <c r="D16" s="72" t="s">
+      <c r="D16" s="65" t="s">
         <v>374</v>
       </c>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="74"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="69">
+        <v>4</v>
+      </c>
+      <c r="H16" s="67"/>
     </row>
     <row r="17" spans="1:8" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="92"/>
-      <c r="C17" s="71" t="s">
+      <c r="B17" s="84"/>
+      <c r="C17" s="64" t="s">
         <v>393</v>
       </c>
-      <c r="D17" s="72" t="s">
+      <c r="D17" s="65" t="s">
         <v>373</v>
       </c>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="74"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="69">
+        <v>4</v>
+      </c>
+      <c r="H17" s="67"/>
     </row>
     <row r="18" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="92"/>
-      <c r="C18" s="71" t="s">
+      <c r="B18" s="84"/>
+      <c r="C18" s="64" t="s">
         <v>397</v>
       </c>
-      <c r="D18" s="72" t="s">
+      <c r="D18" s="65" t="s">
         <v>372</v>
       </c>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="74"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="69">
+        <v>4</v>
+      </c>
+      <c r="H18" s="67"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="65" t="s">
+      <c r="A19" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="92"/>
-      <c r="C19" s="71" t="s">
+      <c r="B19" s="84"/>
+      <c r="C19" s="64" t="s">
         <v>398</v>
       </c>
-      <c r="D19" s="72" t="s">
+      <c r="D19" s="65" t="s">
         <v>371</v>
       </c>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="74"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="69">
+        <v>4</v>
+      </c>
+      <c r="H19" s="67"/>
     </row>
     <row r="20" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="92"/>
-      <c r="C20" s="71" t="s">
+      <c r="B20" s="84"/>
+      <c r="C20" s="64" t="s">
         <v>399</v>
       </c>
-      <c r="D20" s="72" t="s">
+      <c r="D20" s="65" t="s">
         <v>371</v>
       </c>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="74"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="69">
+        <v>4</v>
+      </c>
+      <c r="H20" s="67"/>
     </row>
     <row r="21" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="65" t="s">
+      <c r="A21" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="71" t="s">
+      <c r="B21" s="84"/>
+      <c r="C21" s="64" t="s">
         <v>400</v>
       </c>
-      <c r="D21" s="72" t="s">
+      <c r="D21" s="65" t="s">
         <v>370</v>
       </c>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="74"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="69">
+        <v>4</v>
+      </c>
+      <c r="H21" s="67"/>
     </row>
     <row r="22" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
+      <c r="A22" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="92"/>
-      <c r="C22" s="66" t="s">
+      <c r="B22" s="84"/>
+      <c r="C22" s="62" t="s">
         <v>392</v>
       </c>
       <c r="D22" s="57" t="s">
         <v>343</v>
       </c>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="74"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="69">
+        <v>4</v>
+      </c>
+      <c r="H22" s="67"/>
     </row>
     <row r="23" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="65" t="s">
+      <c r="A23" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="92" t="s">
+      <c r="B23" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="62" t="s">
         <v>401</v>
       </c>
-      <c r="D23" s="67" t="s">
+      <c r="D23" s="63" t="s">
         <v>369</v>
       </c>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="74"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="69">
+        <v>4</v>
+      </c>
+      <c r="H23" s="67"/>
     </row>
     <row r="24" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="92"/>
-      <c r="C24" s="66" t="s">
+      <c r="B24" s="84"/>
+      <c r="C24" s="62" t="s">
         <v>402</v>
       </c>
-      <c r="D24" s="67" t="s">
+      <c r="D24" s="63" t="s">
         <v>368</v>
       </c>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="74"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="69">
+        <v>4</v>
+      </c>
+      <c r="H24" s="67"/>
     </row>
     <row r="25" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="65" t="s">
+      <c r="A25" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="92"/>
-      <c r="C25" s="71" t="s">
+      <c r="B25" s="84"/>
+      <c r="C25" s="64" t="s">
         <v>403</v>
       </c>
-      <c r="D25" s="72" t="s">
+      <c r="D25" s="65" t="s">
         <v>367</v>
       </c>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="74"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="69">
+        <v>4</v>
+      </c>
+      <c r="H25" s="67"/>
     </row>
     <row r="26" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="92"/>
-      <c r="C26" s="71" t="s">
+      <c r="B26" s="84"/>
+      <c r="C26" s="64" t="s">
         <v>404</v>
       </c>
-      <c r="D26" s="72" t="s">
+      <c r="D26" s="65" t="s">
         <v>366</v>
       </c>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="74"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="69">
+        <v>4</v>
+      </c>
+      <c r="H26" s="67"/>
     </row>
     <row r="27" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="65" t="s">
+      <c r="A27" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="92"/>
-      <c r="C27" s="71" t="s">
+      <c r="B27" s="84"/>
+      <c r="C27" s="64" t="s">
         <v>405</v>
       </c>
-      <c r="D27" s="72" t="s">
+      <c r="D27" s="65" t="s">
         <v>365</v>
       </c>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="74"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="69">
+        <v>4</v>
+      </c>
+      <c r="H27" s="67"/>
     </row>
     <row r="28" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="92"/>
-      <c r="C28" s="66" t="s">
+      <c r="B28" s="84"/>
+      <c r="C28" s="62" t="s">
         <v>406</v>
       </c>
-      <c r="D28" s="75" t="s">
+      <c r="D28" s="68" t="s">
         <v>364</v>
       </c>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="74"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="69">
+        <v>4</v>
+      </c>
+      <c r="H28" s="67"/>
     </row>
     <row r="29" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="66" t="s">
+      <c r="B29" s="84"/>
+      <c r="C29" s="62" t="s">
         <v>407</v>
       </c>
-      <c r="D29" s="75" t="s">
+      <c r="D29" s="68" t="s">
         <v>363</v>
       </c>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="74"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="69">
+        <v>4</v>
+      </c>
+      <c r="H29" s="67"/>
     </row>
     <row r="30" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="92"/>
-      <c r="C30" s="66" t="s">
+      <c r="B30" s="84"/>
+      <c r="C30" s="62" t="s">
         <v>408</v>
       </c>
-      <c r="D30" s="75" t="s">
+      <c r="D30" s="68" t="s">
         <v>362</v>
       </c>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="74"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="69">
+        <v>4</v>
+      </c>
+      <c r="H30" s="67"/>
     </row>
     <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="92"/>
-      <c r="C31" s="66" t="s">
+      <c r="B31" s="84"/>
+      <c r="C31" s="62" t="s">
         <v>409</v>
       </c>
-      <c r="D31" s="75" t="s">
+      <c r="D31" s="68" t="s">
         <v>361</v>
       </c>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="74"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="69">
+        <v>4</v>
+      </c>
+      <c r="H31" s="67"/>
     </row>
     <row r="32" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="92"/>
-      <c r="C32" s="66" t="s">
+      <c r="B32" s="84"/>
+      <c r="C32" s="62" t="s">
         <v>410</v>
       </c>
-      <c r="D32" s="75" t="s">
+      <c r="D32" s="68" t="s">
         <v>360</v>
       </c>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="74"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="69">
+        <v>4</v>
+      </c>
+      <c r="H32" s="67"/>
     </row>
     <row r="33" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="65" t="s">
+      <c r="A33" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="92"/>
-      <c r="C33" s="66" t="s">
+      <c r="B33" s="84"/>
+      <c r="C33" s="62" t="s">
         <v>411</v>
       </c>
-      <c r="D33" s="75" t="s">
+      <c r="D33" s="68" t="s">
         <v>359</v>
       </c>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="74"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="69">
+        <v>4</v>
+      </c>
+      <c r="H33" s="67"/>
     </row>
     <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="65" t="s">
+      <c r="A34" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="92"/>
-      <c r="C34" s="66" t="s">
+      <c r="B34" s="84"/>
+      <c r="C34" s="62" t="s">
         <v>422</v>
       </c>
-      <c r="D34" s="75" t="s">
+      <c r="D34" s="68" t="s">
         <v>358</v>
       </c>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="74"/>
-    </row>
-    <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="65" t="s">
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="69">
+        <v>4</v>
+      </c>
+      <c r="H34" s="67"/>
+    </row>
+    <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="96" t="s">
         <v>267</v>
       </c>
-      <c r="B35" s="92"/>
-      <c r="C35" s="66" t="s">
+      <c r="B35" s="119"/>
+      <c r="C35" s="77" t="s">
         <v>412</v>
       </c>
-      <c r="D35" s="57" t="s">
+      <c r="D35" s="59" t="s">
         <v>343</v>
       </c>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="74"/>
+      <c r="E35" s="120"/>
+      <c r="F35" s="120"/>
+      <c r="G35" s="69">
+        <v>4</v>
+      </c>
+      <c r="H35" s="121"/>
     </row>
     <row r="36" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="65" t="s">
+      <c r="A36" s="90" t="s">
         <v>268</v>
       </c>
-      <c r="B36" s="92" t="s">
+      <c r="B36" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="66" t="s">
+      <c r="C36" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="67" t="s">
+      <c r="D36" s="105" t="s">
         <v>322</v>
       </c>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="74"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="124">
+        <v>3</v>
+      </c>
+      <c r="H36" s="107"/>
     </row>
     <row r="37" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="65" t="s">
+      <c r="A37" s="61" t="s">
         <v>269</v>
       </c>
-      <c r="B37" s="92"/>
-      <c r="C37" s="71" t="s">
+      <c r="B37" s="84"/>
+      <c r="C37" s="64" t="s">
         <v>413</v>
       </c>
-      <c r="D37" s="79" t="s">
+      <c r="D37" s="71" t="s">
         <v>323</v>
       </c>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="74"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="69">
+        <v>3</v>
+      </c>
+      <c r="H37" s="67"/>
     </row>
     <row r="38" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="65" t="s">
+      <c r="A38" s="61" t="s">
         <v>270</v>
       </c>
-      <c r="B38" s="92"/>
-      <c r="C38" s="71" t="s">
+      <c r="B38" s="84"/>
+      <c r="C38" s="64" t="s">
         <v>392</v>
       </c>
-      <c r="D38" s="79" t="s">
+      <c r="D38" s="71" t="s">
         <v>357</v>
       </c>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="74"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="69">
+        <v>3</v>
+      </c>
+      <c r="H38" s="67"/>
     </row>
     <row r="39" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="65" t="s">
+      <c r="A39" s="61" t="s">
         <v>271</v>
       </c>
-      <c r="B39" s="92"/>
-      <c r="C39" s="71" t="s">
+      <c r="B39" s="84"/>
+      <c r="C39" s="64" t="s">
         <v>414</v>
       </c>
-      <c r="D39" s="79" t="s">
+      <c r="D39" s="71" t="s">
         <v>356</v>
       </c>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="82"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="69">
+        <v>3</v>
+      </c>
+      <c r="H39" s="74"/>
     </row>
     <row r="40" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="65" t="s">
+      <c r="A40" s="61" t="s">
         <v>272</v>
       </c>
-      <c r="B40" s="92"/>
-      <c r="C40" s="71" t="s">
+      <c r="B40" s="84"/>
+      <c r="C40" s="64" t="s">
         <v>415</v>
       </c>
-      <c r="D40" s="79" t="s">
+      <c r="D40" s="71" t="s">
         <v>355</v>
       </c>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="82"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="69">
+        <v>3</v>
+      </c>
+      <c r="H40" s="74"/>
     </row>
     <row r="41" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="65" t="s">
+      <c r="A41" s="61" t="s">
         <v>273</v>
       </c>
-      <c r="B41" s="92"/>
-      <c r="C41" s="71" t="s">
+      <c r="B41" s="84"/>
+      <c r="C41" s="64" t="s">
         <v>233</v>
       </c>
-      <c r="D41" s="79" t="s">
+      <c r="D41" s="71" t="s">
         <v>354</v>
       </c>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="82"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="69">
+        <v>3</v>
+      </c>
+      <c r="H41" s="74"/>
     </row>
     <row r="42" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="65" t="s">
+      <c r="A42" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="B42" s="92"/>
-      <c r="C42" s="66" t="s">
+      <c r="B42" s="84"/>
+      <c r="C42" s="62" t="s">
         <v>416</v>
       </c>
-      <c r="D42" s="75" t="s">
+      <c r="D42" s="68" t="s">
         <v>353</v>
       </c>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="82"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="69">
+        <v>3</v>
+      </c>
+      <c r="H42" s="74"/>
     </row>
     <row r="43" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="65" t="s">
+      <c r="A43" s="61" t="s">
         <v>275</v>
       </c>
-      <c r="B43" s="92"/>
-      <c r="C43" s="80" t="s">
+      <c r="B43" s="84"/>
+      <c r="C43" s="72" t="s">
         <v>417</v>
       </c>
-      <c r="D43" s="75" t="s">
+      <c r="D43" s="68" t="s">
         <v>352</v>
       </c>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="82"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="69">
+        <v>3</v>
+      </c>
+      <c r="H43" s="74"/>
     </row>
     <row r="44" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="65" t="s">
+      <c r="A44" s="61" t="s">
         <v>276</v>
       </c>
-      <c r="B44" s="91" t="s">
+      <c r="B44" s="83" t="s">
         <v>262</v>
       </c>
-      <c r="C44" s="66" t="s">
+      <c r="C44" s="62" t="s">
         <v>188</v>
       </c>
       <c r="D44" s="57" t="s">
         <v>351</v>
       </c>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="82"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="69">
+        <v>3</v>
+      </c>
+      <c r="H44" s="74"/>
     </row>
     <row r="45" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="65" t="s">
+      <c r="A45" s="61" t="s">
         <v>277</v>
       </c>
-      <c r="B45" s="91"/>
-      <c r="C45" s="66" t="s">
+      <c r="B45" s="83"/>
+      <c r="C45" s="62" t="s">
         <v>392</v>
       </c>
       <c r="D45" s="57" t="s">
         <v>343</v>
       </c>
-      <c r="E45" s="81"/>
-      <c r="F45" s="81"/>
-      <c r="G45" s="81"/>
-      <c r="H45" s="82"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="73"/>
+      <c r="G45" s="69">
+        <v>3</v>
+      </c>
+      <c r="H45" s="74"/>
     </row>
     <row r="46" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="65" t="s">
+      <c r="A46" s="61" t="s">
         <v>278</v>
       </c>
-      <c r="B46" s="91"/>
-      <c r="C46" s="66" t="s">
+      <c r="B46" s="83"/>
+      <c r="C46" s="62" t="s">
         <v>418</v>
       </c>
       <c r="D46" s="57" t="s">
         <v>350</v>
       </c>
-      <c r="E46" s="81"/>
-      <c r="F46" s="81"/>
-      <c r="G46" s="81"/>
-      <c r="H46" s="82"/>
-    </row>
-    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="65" t="s">
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="69">
+        <v>3</v>
+      </c>
+      <c r="H46" s="74"/>
+    </row>
+    <row r="47" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="96" t="s">
         <v>279</v>
       </c>
-      <c r="B47" s="91"/>
-      <c r="C47" s="66" t="s">
+      <c r="B47" s="108"/>
+      <c r="C47" s="77" t="s">
         <v>419</v>
       </c>
-      <c r="D47" s="57" t="s">
+      <c r="D47" s="59" t="s">
         <v>349</v>
       </c>
-      <c r="E47" s="81"/>
-      <c r="F47" s="81"/>
-      <c r="G47" s="81"/>
-      <c r="H47" s="82"/>
+      <c r="E47" s="109"/>
+      <c r="F47" s="109"/>
+      <c r="G47" s="125">
+        <v>3</v>
+      </c>
+      <c r="H47" s="110"/>
     </row>
     <row r="48" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="65" t="s">
+      <c r="A48" s="97" t="s">
         <v>280</v>
       </c>
-      <c r="B48" s="91" t="s">
+      <c r="B48" s="98" t="s">
         <v>206</v>
       </c>
-      <c r="C48" s="80" t="s">
+      <c r="C48" s="99" t="s">
         <v>318</v>
       </c>
-      <c r="D48" s="75" t="s">
+      <c r="D48" s="100" t="s">
         <v>324</v>
       </c>
-      <c r="E48" s="81"/>
-      <c r="F48" s="81"/>
-      <c r="G48" s="81"/>
-      <c r="H48" s="82"/>
+      <c r="E48" s="101"/>
+      <c r="F48" s="101"/>
+      <c r="G48" s="124">
+        <v>2</v>
+      </c>
+      <c r="H48" s="102"/>
     </row>
     <row r="49" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="65" t="s">
+      <c r="A49" s="61" t="s">
         <v>281</v>
       </c>
-      <c r="B49" s="91"/>
-      <c r="C49" s="80" t="s">
+      <c r="B49" s="83"/>
+      <c r="C49" s="72" t="s">
         <v>420</v>
       </c>
-      <c r="D49" s="75" t="s">
+      <c r="D49" s="68" t="s">
         <v>312</v>
       </c>
-      <c r="E49" s="81"/>
-      <c r="F49" s="81"/>
-      <c r="G49" s="81"/>
-      <c r="H49" s="82"/>
+      <c r="E49" s="73"/>
+      <c r="F49" s="73"/>
+      <c r="G49" s="69">
+        <v>2</v>
+      </c>
+      <c r="H49" s="74"/>
     </row>
     <row r="50" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="65" t="s">
+      <c r="A50" s="61" t="s">
         <v>282</v>
       </c>
-      <c r="B50" s="91"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="75"/>
-      <c r="E50" s="81"/>
-      <c r="F50" s="81"/>
-      <c r="G50" s="81"/>
-      <c r="H50" s="82"/>
+      <c r="B50" s="83"/>
+      <c r="C50" s="72"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="73"/>
+      <c r="G50" s="69">
+        <v>2</v>
+      </c>
+      <c r="H50" s="74"/>
     </row>
     <row r="51" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="65" t="s">
+      <c r="A51" s="61" t="s">
         <v>283</v>
       </c>
-      <c r="B51" s="91"/>
-      <c r="C51" s="66" t="s">
+      <c r="B51" s="83"/>
+      <c r="C51" s="62" t="s">
         <v>421</v>
       </c>
-      <c r="D51" s="67" t="s">
+      <c r="D51" s="63" t="s">
         <v>348</v>
       </c>
-      <c r="E51" s="81"/>
-      <c r="F51" s="81"/>
-      <c r="G51" s="81"/>
-      <c r="H51" s="82"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="73"/>
+      <c r="G51" s="69">
+        <v>2</v>
+      </c>
+      <c r="H51" s="74"/>
     </row>
     <row r="52" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="65" t="s">
+      <c r="A52" s="61" t="s">
         <v>284</v>
       </c>
-      <c r="B52" s="91"/>
-      <c r="C52" s="66" t="s">
+      <c r="B52" s="83"/>
+      <c r="C52" s="62" t="s">
         <v>435</v>
       </c>
-      <c r="D52" s="75" t="s">
+      <c r="D52" s="68" t="s">
         <v>347</v>
       </c>
-      <c r="E52" s="81"/>
-      <c r="F52" s="81"/>
-      <c r="G52" s="81"/>
-      <c r="H52" s="82"/>
+      <c r="E52" s="73"/>
+      <c r="F52" s="73"/>
+      <c r="G52" s="69">
+        <v>2</v>
+      </c>
+      <c r="H52" s="74"/>
     </row>
     <row r="53" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="65" t="s">
+      <c r="A53" s="61" t="s">
         <v>285</v>
       </c>
-      <c r="B53" s="91"/>
-      <c r="C53" s="66" t="s">
+      <c r="B53" s="83"/>
+      <c r="C53" s="62" t="s">
         <v>392</v>
       </c>
-      <c r="D53" s="75" t="s">
+      <c r="D53" s="68" t="s">
         <v>346</v>
       </c>
-      <c r="E53" s="81"/>
-      <c r="F53" s="81"/>
-      <c r="G53" s="81"/>
-      <c r="H53" s="82"/>
+      <c r="E53" s="73"/>
+      <c r="F53" s="73"/>
+      <c r="G53" s="69">
+        <v>2</v>
+      </c>
+      <c r="H53" s="74"/>
     </row>
     <row r="54" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="65" t="s">
+      <c r="A54" s="61" t="s">
         <v>286</v>
       </c>
-      <c r="B54" s="91"/>
-      <c r="C54" s="66" t="s">
+      <c r="B54" s="83"/>
+      <c r="C54" s="62" t="s">
         <v>436</v>
       </c>
-      <c r="D54" s="75" t="s">
+      <c r="D54" s="68" t="s">
         <v>259</v>
       </c>
-      <c r="E54" s="81"/>
-      <c r="F54" s="81"/>
-      <c r="G54" s="81"/>
-      <c r="H54" s="82"/>
+      <c r="E54" s="73"/>
+      <c r="F54" s="73"/>
+      <c r="G54" s="69">
+        <v>2</v>
+      </c>
+      <c r="H54" s="74"/>
     </row>
     <row r="55" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="65" t="s">
+      <c r="A55" s="61" t="s">
         <v>287</v>
       </c>
-      <c r="B55" s="91" t="s">
+      <c r="B55" s="83" t="s">
         <v>235</v>
       </c>
-      <c r="C55" s="80" t="s">
+      <c r="C55" s="72" t="s">
         <v>423</v>
       </c>
-      <c r="D55" s="75" t="s">
+      <c r="D55" s="68" t="s">
         <v>345</v>
       </c>
-      <c r="E55" s="81"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="82"/>
+      <c r="E55" s="73"/>
+      <c r="F55" s="73"/>
+      <c r="G55" s="69">
+        <v>2</v>
+      </c>
+      <c r="H55" s="74"/>
     </row>
     <row r="56" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="65" t="s">
+      <c r="A56" s="61" t="s">
         <v>288</v>
       </c>
-      <c r="B56" s="91"/>
-      <c r="C56" s="80" t="s">
+      <c r="B56" s="83"/>
+      <c r="C56" s="72" t="s">
         <v>424</v>
       </c>
-      <c r="D56" s="75" t="s">
+      <c r="D56" s="68" t="s">
         <v>344</v>
       </c>
-      <c r="E56" s="81"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="82"/>
+      <c r="E56" s="73"/>
+      <c r="F56" s="73"/>
+      <c r="G56" s="69">
+        <v>2</v>
+      </c>
+      <c r="H56" s="74"/>
     </row>
     <row r="57" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A57" s="65" t="s">
+      <c r="A57" s="61" t="s">
         <v>289</v>
       </c>
-      <c r="B57" s="91"/>
-      <c r="C57" s="80" t="s">
+      <c r="B57" s="83"/>
+      <c r="C57" s="72" t="s">
         <v>392</v>
       </c>
-      <c r="D57" s="75" t="s">
+      <c r="D57" s="68" t="s">
         <v>343</v>
       </c>
-      <c r="E57" s="81"/>
-      <c r="F57" s="81"/>
-      <c r="G57" s="81"/>
-      <c r="H57" s="82"/>
+      <c r="E57" s="73"/>
+      <c r="F57" s="73"/>
+      <c r="G57" s="69">
+        <v>2</v>
+      </c>
+      <c r="H57" s="74"/>
     </row>
     <row r="58" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="65" t="s">
+      <c r="A58" s="61" t="s">
         <v>290</v>
       </c>
-      <c r="B58" s="91"/>
-      <c r="C58" s="80" t="s">
+      <c r="B58" s="83"/>
+      <c r="C58" s="72" t="s">
         <v>425</v>
       </c>
-      <c r="D58" s="75" t="s">
+      <c r="D58" s="68" t="s">
         <v>342</v>
       </c>
-      <c r="E58" s="81"/>
-      <c r="F58" s="81"/>
-      <c r="G58" s="81"/>
-      <c r="H58" s="82"/>
+      <c r="E58" s="73"/>
+      <c r="F58" s="73"/>
+      <c r="G58" s="69">
+        <v>2</v>
+      </c>
+      <c r="H58" s="74"/>
     </row>
     <row r="59" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="65" t="s">
+      <c r="A59" s="61" t="s">
         <v>291</v>
       </c>
-      <c r="B59" s="91"/>
-      <c r="C59" s="87" t="s">
+      <c r="B59" s="83"/>
+      <c r="C59" s="79" t="s">
         <v>437</v>
       </c>
-      <c r="D59" s="75" t="s">
+      <c r="D59" s="68" t="s">
         <v>341</v>
       </c>
-      <c r="E59" s="81"/>
-      <c r="F59" s="81"/>
-      <c r="G59" s="81"/>
-      <c r="H59" s="82"/>
+      <c r="E59" s="73"/>
+      <c r="F59" s="73"/>
+      <c r="G59" s="69">
+        <v>2</v>
+      </c>
+      <c r="H59" s="74"/>
     </row>
     <row r="60" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="65" t="s">
+      <c r="A60" s="61" t="s">
         <v>292</v>
       </c>
-      <c r="B60" s="91"/>
-      <c r="C60" s="80" t="s">
+      <c r="B60" s="83"/>
+      <c r="C60" s="72" t="s">
         <v>426</v>
       </c>
-      <c r="D60" s="75" t="s">
+      <c r="D60" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="E60" s="81"/>
-      <c r="F60" s="81"/>
-      <c r="G60" s="81"/>
-      <c r="H60" s="82"/>
+      <c r="E60" s="73"/>
+      <c r="F60" s="73"/>
+      <c r="G60" s="69">
+        <v>2</v>
+      </c>
+      <c r="H60" s="74"/>
     </row>
     <row r="61" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="65" t="s">
+      <c r="A61" s="61" t="s">
         <v>293</v>
       </c>
-      <c r="B61" s="91"/>
-      <c r="C61" s="80" t="s">
+      <c r="B61" s="83"/>
+      <c r="C61" s="72" t="s">
         <v>427</v>
       </c>
-      <c r="D61" s="75" t="s">
+      <c r="D61" s="68" t="s">
         <v>339</v>
       </c>
-      <c r="E61" s="81"/>
-      <c r="F61" s="81"/>
-      <c r="G61" s="81"/>
-      <c r="H61" s="82"/>
+      <c r="E61" s="73"/>
+      <c r="F61" s="73"/>
+      <c r="G61" s="69">
+        <v>2</v>
+      </c>
+      <c r="H61" s="74"/>
     </row>
     <row r="62" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="65" t="s">
+      <c r="A62" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="B62" s="91"/>
-      <c r="C62" s="87" t="s">
+      <c r="B62" s="83"/>
+      <c r="C62" s="79" t="s">
         <v>438</v>
       </c>
-      <c r="D62" s="75" t="s">
+      <c r="D62" s="68" t="s">
         <v>338</v>
       </c>
-      <c r="E62" s="81"/>
-      <c r="F62" s="81"/>
-      <c r="G62" s="81"/>
-      <c r="H62" s="82"/>
+      <c r="E62" s="73"/>
+      <c r="F62" s="73"/>
+      <c r="G62" s="69">
+        <v>2</v>
+      </c>
+      <c r="H62" s="74"/>
     </row>
     <row r="63" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="65" t="s">
+      <c r="A63" s="61" t="s">
         <v>295</v>
       </c>
-      <c r="B63" s="91"/>
-      <c r="C63" s="80" t="s">
+      <c r="B63" s="83"/>
+      <c r="C63" s="72" t="s">
         <v>428</v>
       </c>
-      <c r="D63" s="75" t="s">
+      <c r="D63" s="68" t="s">
         <v>337</v>
       </c>
-      <c r="E63" s="81"/>
-      <c r="F63" s="81"/>
-      <c r="G63" s="81"/>
-      <c r="H63" s="82"/>
+      <c r="E63" s="73"/>
+      <c r="F63" s="73"/>
+      <c r="G63" s="69">
+        <v>2</v>
+      </c>
+      <c r="H63" s="74"/>
     </row>
     <row r="64" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="65" t="s">
+      <c r="A64" s="61" t="s">
         <v>296</v>
       </c>
-      <c r="B64" s="91"/>
-      <c r="C64" s="80" t="s">
+      <c r="B64" s="83"/>
+      <c r="C64" s="72" t="s">
         <v>429</v>
       </c>
-      <c r="D64" s="75" t="s">
+      <c r="D64" s="68" t="s">
         <v>336</v>
       </c>
-      <c r="E64" s="81"/>
-      <c r="F64" s="81"/>
-      <c r="G64" s="81"/>
-      <c r="H64" s="82"/>
+      <c r="E64" s="73"/>
+      <c r="F64" s="73"/>
+      <c r="G64" s="69">
+        <v>2</v>
+      </c>
+      <c r="H64" s="74"/>
     </row>
     <row r="65" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="65" t="s">
+      <c r="A65" s="61" t="s">
         <v>297</v>
       </c>
-      <c r="B65" s="91"/>
-      <c r="C65" s="87" t="s">
+      <c r="B65" s="83"/>
+      <c r="C65" s="79" t="s">
         <v>439</v>
       </c>
-      <c r="D65" s="75" t="s">
+      <c r="D65" s="68" t="s">
         <v>335</v>
       </c>
-      <c r="E65" s="81"/>
-      <c r="F65" s="81"/>
-      <c r="G65" s="81"/>
-      <c r="H65" s="82"/>
+      <c r="E65" s="73"/>
+      <c r="F65" s="73"/>
+      <c r="G65" s="69">
+        <v>2</v>
+      </c>
+      <c r="H65" s="74"/>
     </row>
     <row r="66" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="65" t="s">
+      <c r="A66" s="61" t="s">
         <v>298</v>
       </c>
-      <c r="B66" s="91"/>
-      <c r="C66" s="80" t="s">
+      <c r="B66" s="83"/>
+      <c r="C66" s="72" t="s">
         <v>430</v>
       </c>
-      <c r="D66" s="75" t="s">
+      <c r="D66" s="68" t="s">
         <v>334</v>
       </c>
-      <c r="E66" s="81"/>
-      <c r="F66" s="81"/>
-      <c r="G66" s="81"/>
-      <c r="H66" s="82"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="73"/>
+      <c r="G66" s="69">
+        <v>2</v>
+      </c>
+      <c r="H66" s="74"/>
     </row>
     <row r="67" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="65" t="s">
+      <c r="A67" s="61" t="s">
         <v>299</v>
       </c>
-      <c r="B67" s="91" t="s">
+      <c r="B67" s="83" t="s">
         <v>176</v>
       </c>
-      <c r="C67" s="66" t="s">
+      <c r="C67" s="62" t="s">
         <v>319</v>
       </c>
       <c r="D67" t="s">
         <v>333</v>
       </c>
-      <c r="E67" s="81"/>
-      <c r="F67" s="81"/>
-      <c r="G67" s="81"/>
-      <c r="H67" s="82"/>
+      <c r="E67" s="73"/>
+      <c r="F67" s="73"/>
+      <c r="G67" s="69">
+        <v>2</v>
+      </c>
+      <c r="H67" s="74"/>
     </row>
     <row r="68" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A68" s="65" t="s">
+      <c r="A68" s="61" t="s">
         <v>300</v>
       </c>
-      <c r="B68" s="91"/>
-      <c r="C68" s="66" t="s">
+      <c r="B68" s="83"/>
+      <c r="C68" s="62" t="s">
         <v>431</v>
       </c>
       <c r="D68" t="s">
         <v>332</v>
       </c>
-      <c r="E68" s="81"/>
-      <c r="F68" s="81"/>
-      <c r="G68" s="81"/>
-      <c r="H68" s="82"/>
+      <c r="E68" s="73"/>
+      <c r="F68" s="73"/>
+      <c r="G68" s="69">
+        <v>2</v>
+      </c>
+      <c r="H68" s="74"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="65" t="s">
+      <c r="A69" s="61" t="s">
         <v>301</v>
       </c>
-      <c r="B69" s="91"/>
-      <c r="C69" s="66" t="s">
+      <c r="B69" s="83"/>
+      <c r="C69" s="62" t="s">
         <v>432</v>
       </c>
       <c r="D69" t="s">
         <v>331</v>
       </c>
-      <c r="E69" s="81"/>
-      <c r="F69" s="81"/>
-      <c r="G69" s="81"/>
-      <c r="H69" s="82"/>
+      <c r="E69" s="73"/>
+      <c r="F69" s="73"/>
+      <c r="G69" s="69">
+        <v>2</v>
+      </c>
+      <c r="H69" s="74"/>
     </row>
     <row r="70" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A70" s="65" t="s">
+      <c r="A70" s="61" t="s">
         <v>302</v>
       </c>
-      <c r="B70" s="91"/>
-      <c r="C70" s="66" t="s">
+      <c r="B70" s="83"/>
+      <c r="C70" s="62" t="s">
         <v>433</v>
       </c>
       <c r="D70" t="s">
         <v>329</v>
       </c>
-      <c r="E70" s="81"/>
-      <c r="F70" s="81"/>
-      <c r="G70" s="81"/>
-      <c r="H70" s="82"/>
-    </row>
-    <row r="71" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A71" s="65" t="s">
+      <c r="E70" s="73"/>
+      <c r="F70" s="73"/>
+      <c r="G70" s="69">
+        <v>2</v>
+      </c>
+      <c r="H70" s="74"/>
+    </row>
+    <row r="71" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="85" t="s">
         <v>303</v>
       </c>
-      <c r="B71" s="91"/>
-      <c r="C71" s="66" t="s">
+      <c r="B71" s="86"/>
+      <c r="C71" s="87" t="s">
         <v>392</v>
       </c>
       <c r="D71" t="s">
         <v>330</v>
       </c>
-      <c r="E71" s="81"/>
-      <c r="F71" s="81"/>
-      <c r="G71" s="81"/>
-      <c r="H71" s="82"/>
-    </row>
-    <row r="72" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A72" s="65" t="s">
+      <c r="E71" s="88"/>
+      <c r="F71" s="88"/>
+      <c r="G71" s="125">
+        <v>2</v>
+      </c>
+      <c r="H71" s="89"/>
+    </row>
+    <row r="72" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="90" t="s">
         <v>304</v>
       </c>
-      <c r="B72" s="88" t="s">
+      <c r="B72" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="83" t="s">
+      <c r="C72" s="92" t="s">
         <v>320</v>
       </c>
-      <c r="D72" s="84" t="s">
+      <c r="D72" s="93" t="s">
         <v>325</v>
       </c>
-      <c r="E72" s="81"/>
-      <c r="F72" s="81"/>
-      <c r="G72" s="81"/>
-      <c r="H72" s="82"/>
+      <c r="E72" s="94"/>
+      <c r="F72" s="94" t="s">
+        <v>440</v>
+      </c>
+      <c r="G72" s="126">
+        <v>1</v>
+      </c>
+      <c r="H72" s="95"/>
     </row>
     <row r="73" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="65" t="s">
+      <c r="A73" s="61" t="s">
         <v>305</v>
       </c>
-      <c r="B73" s="88"/>
-      <c r="C73" s="66" t="s">
+      <c r="B73" s="80"/>
+      <c r="C73" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="D73" s="67" t="s">
+      <c r="D73" s="63" t="s">
         <v>326</v>
       </c>
-      <c r="E73" s="81"/>
-      <c r="F73" s="81"/>
-      <c r="G73" s="81"/>
-      <c r="H73" s="82"/>
+      <c r="E73" s="73"/>
+      <c r="F73" s="94" t="s">
+        <v>440</v>
+      </c>
+      <c r="G73" s="128">
+        <v>1</v>
+      </c>
+      <c r="H73" s="74"/>
     </row>
     <row r="74" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="65" t="s">
+      <c r="A74" s="61" t="s">
         <v>306</v>
       </c>
-      <c r="B74" s="88"/>
-      <c r="C74" s="83" t="s">
+      <c r="B74" s="80"/>
+      <c r="C74" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="D74" s="84" t="s">
+      <c r="D74" s="76" t="s">
         <v>223</v>
       </c>
-      <c r="E74" s="81"/>
-      <c r="F74" s="81"/>
-      <c r="G74" s="81"/>
-      <c r="H74" s="82"/>
+      <c r="E74" s="73"/>
+      <c r="F74" s="73"/>
+      <c r="G74" s="128">
+        <v>1</v>
+      </c>
+      <c r="H74" s="74"/>
     </row>
     <row r="75" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A75" s="65" t="s">
+      <c r="A75" s="61" t="s">
         <v>307</v>
       </c>
-      <c r="B75" s="88"/>
-      <c r="C75" s="83" t="s">
+      <c r="B75" s="80"/>
+      <c r="C75" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="D75" s="84" t="s">
+      <c r="D75" s="76" t="s">
         <v>328</v>
       </c>
-      <c r="E75" s="81"/>
-      <c r="F75" s="81"/>
-      <c r="G75" s="81"/>
-      <c r="H75" s="82"/>
-    </row>
-    <row r="76" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="65" t="s">
+      <c r="E75" s="73"/>
+      <c r="F75" s="73"/>
+      <c r="G75" s="128">
+        <v>1</v>
+      </c>
+      <c r="H75" s="74"/>
+    </row>
+    <row r="76" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="61" t="s">
         <v>308</v>
       </c>
-      <c r="B76" s="88"/>
-      <c r="C76" s="66" t="s">
+      <c r="B76" s="80"/>
+      <c r="C76" s="62" t="s">
         <v>434</v>
       </c>
-      <c r="D76" s="67" t="s">
+      <c r="D76" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="E76" s="81"/>
-      <c r="F76" s="81"/>
-      <c r="G76" s="81"/>
-      <c r="H76" s="82"/>
-    </row>
-    <row r="77" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="65" t="s">
+      <c r="E76" s="73"/>
+      <c r="F76" s="73"/>
+      <c r="G76" s="128">
+        <v>1</v>
+      </c>
+      <c r="H76" s="74"/>
+    </row>
+    <row r="77" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="61" t="s">
         <v>309</v>
       </c>
-      <c r="B77" s="88"/>
-      <c r="C77" s="66" t="s">
+      <c r="B77" s="80"/>
+      <c r="C77" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="D77" s="67" t="s">
+      <c r="D77" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="E77" s="81"/>
-      <c r="F77" s="81"/>
-      <c r="G77" s="81"/>
-      <c r="H77" s="82"/>
-    </row>
-    <row r="78" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="65" t="s">
+      <c r="E77" s="73"/>
+      <c r="F77" s="94" t="s">
+        <v>440</v>
+      </c>
+      <c r="G77" s="128">
+        <v>1</v>
+      </c>
+      <c r="H77" s="74"/>
+    </row>
+    <row r="78" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="B78" s="88"/>
-      <c r="C78" s="66" t="s">
+      <c r="B78" s="80"/>
+      <c r="C78" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D78" s="67" t="s">
+      <c r="D78" s="63" t="s">
         <v>313</v>
       </c>
-      <c r="E78" s="81"/>
-      <c r="F78" s="81"/>
-      <c r="G78" s="81"/>
-      <c r="H78" s="82"/>
+      <c r="E78" s="73"/>
+      <c r="F78" s="94" t="s">
+        <v>440</v>
+      </c>
+      <c r="G78" s="128">
+        <v>1</v>
+      </c>
+      <c r="H78" s="74"/>
     </row>
     <row r="79" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="65" t="s">
+      <c r="A79" s="61" t="s">
         <v>311</v>
       </c>
-      <c r="B79" s="88"/>
-      <c r="C79" s="66" t="s">
+      <c r="B79" s="80"/>
+      <c r="C79" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="D79" s="67" t="s">
+      <c r="D79" s="63" t="s">
         <v>327</v>
       </c>
-      <c r="E79" s="81"/>
-      <c r="F79" s="81"/>
-      <c r="G79" s="81"/>
-      <c r="H79" s="82"/>
+      <c r="E79" s="73"/>
+      <c r="F79" s="94" t="s">
+        <v>440</v>
+      </c>
+      <c r="G79" s="128">
+        <v>1</v>
+      </c>
+      <c r="H79" s="74"/>
     </row>
     <row r="80" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="65" t="s">
+      <c r="A80" s="61" t="s">
         <v>314</v>
       </c>
-      <c r="B80" s="88"/>
-      <c r="C80" s="66" t="s">
+      <c r="B80" s="80"/>
+      <c r="C80" s="62" t="s">
         <v>321</v>
       </c>
-      <c r="D80" s="67" t="s">
+      <c r="D80" s="63" t="s">
         <v>96</v>
       </c>
       <c r="E80" s="57"/>
       <c r="F80" s="57"/>
-      <c r="G80" s="57"/>
+      <c r="G80" s="128">
+        <v>1</v>
+      </c>
       <c r="H80" s="58"/>
     </row>
     <row r="81" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="65" t="s">
+      <c r="A81" s="61" t="s">
         <v>315</v>
       </c>
-      <c r="B81" s="88"/>
-      <c r="C81" s="66" t="s">
+      <c r="B81" s="80"/>
+      <c r="C81" s="62" t="s">
         <v>203</v>
       </c>
-      <c r="D81" s="67" t="s">
+      <c r="D81" s="63" t="s">
         <v>386</v>
       </c>
       <c r="E81" s="57"/>
       <c r="F81" s="57"/>
-      <c r="G81" s="57"/>
+      <c r="G81" s="128">
+        <v>1</v>
+      </c>
       <c r="H81" s="58"/>
     </row>
     <row r="82" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="65" t="s">
+      <c r="A82" s="61" t="s">
         <v>316</v>
       </c>
-      <c r="B82" s="88"/>
-      <c r="C82" s="66" t="s">
+      <c r="B82" s="80"/>
+      <c r="C82" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="D82" s="67" t="s">
+      <c r="D82" s="63" t="s">
         <v>385</v>
       </c>
       <c r="E82" s="57"/>
       <c r="F82" s="57"/>
-      <c r="G82" s="57"/>
+      <c r="G82" s="127">
+        <v>1</v>
+      </c>
       <c r="H82" s="58"/>
     </row>
     <row r="83" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="65" t="s">
+      <c r="A83" s="96" t="s">
         <v>317</v>
       </c>
-      <c r="B83" s="89"/>
-      <c r="C83" s="85" t="s">
+      <c r="B83" s="81"/>
+      <c r="C83" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="D83" s="86" t="s">
+      <c r="D83" s="78" t="s">
         <v>384</v>
       </c>
       <c r="E83" s="59"/>
       <c r="F83" s="59"/>
-      <c r="G83" s="59"/>
+      <c r="G83" s="123">
+        <v>1</v>
+      </c>
       <c r="H83" s="60"/>
     </row>
   </sheetData>

--- a/설계및정의서/기능리스트_AR 레이싱 게임 v0.1.xlsx
+++ b/설계및정의서/기능리스트_AR 레이싱 게임 v0.1.xlsx
@@ -17,8 +17,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$H$82</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -191,7 +192,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="449">
   <si>
     <t>화면명</t>
   </si>
@@ -1322,9 +1323,6 @@
     <t>SRS-048</t>
   </si>
   <si>
-    <t>SRS-049</t>
-  </si>
-  <si>
     <t>SRS-050</t>
   </si>
   <si>
@@ -1524,403 +1522,438 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>오른쪽 하단에 방장이 선택한 맵 을 표시해 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽 상단에 뒤로가기 버튼이 있으며 해당 버튼 클릭시 이전화면으로 돌아간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가운데 하단에 Ready 버튼 설정 AR게임이 실행가능한 상태가 된다면 레디버튼이 활성화 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4칸을 만들고 각각의 칸에 방에 참여한 유저의 닉네임을 표시 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽 상단부분에 뒤로가기 버튼이 있으며 해당 버튼을 누르면 이전의화면으로 이동 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방을 보여주는 목록중 우측 부분에 현재 해당방에 접속해 있는 유저의 수를 보여주어서 다른 유저들이 해당방에 접근할 수 있는지 없는지에 관해 안내 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 방에 접속할 수 있는 상태 를 보여준다.(현재 접근하려는 방에 접속할 수 있는 유저수와 현재 접속해 있는 유저수가 같지 않는 상태)라면 방에 접근할수 있도록 하며 그러한 상태가 아니라접근할 수 없도록 방을 비활성화.(방은 버튼으로 진행되어 있으며 버튼을 활성화 혹은 비활성화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 클릭시 방 참여화면으로 이동하게된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 클릭시 방 제작화면으로 이동하게된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시작 버튼을(위치 미정) 누르게 될 경우 방을 참여하거나 방을 만들 수 있는 화면으로 이동 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 차량 하단부분에 유저의 닉네임을 표기한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 취사선택할 목록이 많을경우 스크롤을 위아래로 움직여서 아이템 목록을 확인할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차외관 Ex)승용차,버스,트레일러,덤프,경운기,자전거,보드 등을 사용자가 취사선택하여 자신의 차량에 적용할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바퀴의 변형된 모양을 사용자가 취사선택할 수 있으며 바퀴의 색상또한 가능하도록 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 종료할건지에 대한 팝업창이 뜨게되며 해당 팝업창에는 '정말 종료하시겠습니까?' 와 유사한 메시지가 등장하며 예,아니오 라는 버튼이 존재하고 예를누를경우 게임이 종료 아니오를 누를경우 메인창으로 복귀 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입에 필요한 이메일을 입력할 수 있는 텍스트필드 이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 재입력 텍스트에 입력된 비밀번호와 비밀번호 텍스트에 입력된 내용이 같은지 다른지 알려준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입에 필요한 비밀번호를 입력할 수 있는 텍스트필드 비밀번호를 입력하였을때 회원가입 비밀번호 텍스트에 입력된 내용과 비교하여 같은지 다른지 알려준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입에 필요한 비밀번호를 입력할 수 있는 텍스트필드 이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입에 필요한 닉네임을 입력할 수 있는 텍스트필드 이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입에 필요한 아이디를 입력할 수 있는 텍스트필드 이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 화면을 종료 후 "로그인X회원가입" 화면으로 이동 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입에 필요한 정보 입력 이후 입력된 데이터를 데이터베이스에 저장 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 닉네임 텍스트에 입력된 내용과 데이터베이스의 닉네임과 중복이되는지 유무 확인 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트에 입력된 아이디와 데이터베이스에 저장된 아이디를 비교하여 중복되어있는지 유무 확인 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력한 아이디와 닉네임을 데이터베이스에 있는 닉네임,아이디와 비교하여 같은지 중복 체크 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보를 입력하는 UI를 만든뒤 UI에 입력한 텍스트 값을 데이터 베이스에 저장 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호가 불일치 한다는 라벨을 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 비밀번호를 입력할 수 있는 텍스트 입력시 입력한 텍스트를 *로 대체한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디가 불일치 한다는 라벨을 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스에 있는 아이디과 아이디 입력 텍스트필드에 입력한 아이디가 같으면 새 비밀번호 입력 텍스트 필드와 새 비밀번호 재입력 텍스트 필드, 다르면 아이디 불일치 안내 라벨을 보여줌,새 비밀번호 설정완료 후 확인버튼 누를시 비밀번호 일치여부 확인후 일치하면 데이터베이스에 저장 후 로그인화면으로 전환 불일치하면 불일치 안내 라벨 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 아이디를 입력할 수 있는 텍스트 이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일이 불일치 한다는 라벨을 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스에 있는 이메일과 이메일 입력 텍스트필드에 입력한 이메일이 같을 시 아이디를 보여주는 라벨 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스에 있는 이메일과 이메일 입력 텍스트필드에 입력한 이메일을 같으면 아이디 라벨에 아이디 표시, 다르면 이메일 불일치 안내 메시지 팝업창 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일을 입력할 수 있는 텍스트필드 이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호를 분실하였을 경우 비밀번호를 재 설정하기 위해 아이디와 이메일주소를 기입하여 비밀번호를 재 설정하는 기능이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀 번호 재설정 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력한 아이디와 비밀번호를 데이터베이스에 있는 정보와 비교하여 같을시 게임내부화면으로 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 화면을 보여줌 기존의 화면위에 그려진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 화면으로 전환 기존의 화면위에 그려진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1등이 3바퀴를 돌게되면 10초 후 종료되도록한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어의 차량이 어떤 것인지, 이동방향이 어딘지 알 수 있도록 차량에 표시를 해준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분실한 아이디를 찾기 위해서 회원가입할적에 입력한 이메일을입력하여 해당 이메일로 분실한 아이디를 보내준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 입력 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 입력 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤로가기 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 입력 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디가 보여지는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 불일치 안내 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 불일치 안내 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새 비밀번호 입력 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새 비밀번호 재입력 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 불일치 안내 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 입력 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 ,닉네임 중복 체크 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 중복체크 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임 중복체크 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 확인 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 취소 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 아이디 텍스트 입력 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 닉네임 텍스트 입력 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 비밀번호 텍스트 입력 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 비밀번호 재입력 텍스트 입력 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 확인 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤로가기 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR,3D전환 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜닝 화면 기능(튜닝 탭_바퀴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임 표시 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시작 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 제작화면으로 이동하는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 참여하는 화면으로 이동하는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 참여 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 접근 상태 활성화,비활성화 표시 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 이메일 텍스트 입력 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 접속시 유저 수 표현 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준비 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 방이 진행할 맵 표시 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어가 방에 접속할 경우 설정된 닉네임이 보여지는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저의 차량을 보여주는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방장유저가 방에서 나갈 경우 상태 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시작 조건 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임시작기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 맵을 맵리스트의 왼쪽목록으로 이동하는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 맵을 맵리스트의 오른쪽목록으로 이동하는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방을 제작할 맵을 선택하는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 사용 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 현황 표시 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 목록 현황 표시 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방에 접속한 플레이어의 퇴장 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방장 표시 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방에 접속가능한 최대 인원수 설정 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜닝 화면 기능(튜닝_탭_차모양)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤로가기 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 접속 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>플레이어가 중간에 나가면 닉네임 목록이 사라지는 기능 유저가 소유하고있던 유저목록은 비어있는 상태이며 유저들의 배치가 변동하지 않는다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오른쪽 하단에 방장이 선택한 맵 을 표시해 준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왼쪽 상단에 뒤로가기 버튼이 있으며 해당 버튼 클릭시 이전화면으로 돌아간다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가운데 하단에 Ready 버튼 설정 AR게임이 실행가능한 상태가 된다면 레디버튼이 활성화 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4칸을 만들고 각각의 칸에 방에 참여한 유저의 닉네임을 표시 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왼쪽 상단부분에 뒤로가기 버튼이 있으며 해당 버튼을 누르면 이전의화면으로 이동 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방을 보여주는 목록중 우측 부분에 현재 해당방에 접속해 있는 유저의 수를 보여주어서 다른 유저들이 해당방에 접근할 수 있는지 없는지에 관해 안내 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 방에 접속할 수 있는 상태 를 보여준다.(현재 접근하려는 방에 접속할 수 있는 유저수와 현재 접속해 있는 유저수가 같지 않는 상태)라면 방에 접근할수 있도록 하며 그러한 상태가 아니라접근할 수 없도록 방을 비활성화.(방은 버튼으로 진행되어 있으며 버튼을 활성화 혹은 비활성화)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버튼 클릭시 방 참여화면으로 이동하게된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버튼 클릭시 방 제작화면으로 이동하게된다.</t>
+    <t>비율</t>
+  </si>
+  <si>
+    <t>총합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선순위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍승표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선순위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍승표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 표시 위치 아래에 플레이어의 이름을 순위로 나타낸다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>유저의 차량이 보여지게 되며 화면 좌측부근에 보여지게 된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 시작 버튼을(위치 미정) 누르게 될 경우 방을 참여하거나 방을 만들 수 있는 화면으로 이동 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자의 차량 하단부분에 유저의 닉네임을 표기한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 취사선택할 목록이 많을경우 스크롤을 위아래로 움직여서 아이템 목록을 확인할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차외관 Ex)승용차,버스,트레일러,덤프,경운기,자전거,보드 등을 사용자가 취사선택하여 자신의 차량에 적용할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바퀴의 변형된 모양을 사용자가 취사선택할 수 있으며 바퀴의 색상또한 가능하도록 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정말 종료할건지에 대한 팝업창이 뜨게되며 해당 팝업창에는 '정말 종료하시겠습니까?' 와 유사한 메시지가 등장하며 예,아니오 라는 버튼이 존재하고 예를누를경우 게임이 종료 아니오를 누를경우 메인창으로 복귀 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입에 필요한 이메일을 입력할 수 있는 텍스트필드 이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 재입력 텍스트에 입력된 비밀번호와 비밀번호 텍스트에 입력된 내용이 같은지 다른지 알려준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입에 필요한 비밀번호를 입력할 수 있는 텍스트필드 비밀번호를 입력하였을때 회원가입 비밀번호 텍스트에 입력된 내용과 비교하여 같은지 다른지 알려준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입에 필요한 비밀번호를 입력할 수 있는 텍스트필드 이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입에 필요한 닉네임을 입력할 수 있는 텍스트필드 이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입에 필요한 아이디를 입력할 수 있는 텍스트필드 이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 화면을 종료 후 "로그인X회원가입" 화면으로 이동 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입에 필요한 정보 입력 이후 입력된 데이터를 데이터베이스에 저장 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 닉네임 텍스트에 입력된 내용과 데이터베이스의 닉네임과 중복이되는지 유무 확인 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>텍스트에 입력된 아이디와 데이터베이스에 저장된 아이디를 비교하여 중복되어있는지 유무 확인 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력한 아이디와 닉네임을 데이터베이스에 있는 닉네임,아이디와 비교하여 같은지 중복 체크 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원정보를 입력하는 UI를 만든뒤 UI에 입력한 텍스트 값을 데이터 베이스에 저장 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호가 불일치 한다는 라벨을 보여준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자의 비밀번호를 입력할 수 있는 텍스트 입력시 입력한 텍스트를 *로 대체한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디가 불일치 한다는 라벨을 보여준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터베이스에 있는 아이디과 아이디 입력 텍스트필드에 입력한 아이디가 같으면 새 비밀번호 입력 텍스트 필드와 새 비밀번호 재입력 텍스트 필드, 다르면 아이디 불일치 안내 라벨을 보여줌,새 비밀번호 설정완료 후 확인버튼 누를시 비밀번호 일치여부 확인후 일치하면 데이터베이스에 저장 후 로그인화면으로 전환 불일치하면 불일치 안내 라벨 보여준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자의 아이디를 입력할 수 있는 텍스트 이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일이 불일치 한다는 라벨을 보여준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터베이스에 있는 이메일과 이메일 입력 텍스트필드에 입력한 이메일이 같을 시 아이디를 보여주는 라벨 보여준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터베이스에 있는 이메일과 이메일 입력 텍스트필드에 입력한 이메일을 같으면 아이디 라벨에 아이디 표시, 다르면 이메일 불일치 안내 메시지 팝업창 보여준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일을 입력할 수 있는 텍스트필드 이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호를 분실하였을 경우 비밀번호를 재 설정하기 위해 아이디와 이메일주소를 기입하여 비밀번호를 재 설정하는 기능이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀 번호 재설정 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력한 아이디와 비밀번호를 데이터베이스에 있는 정보와 비교하여 같을시 게임내부화면으로 이동한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 화면을 보여줌 기존의 화면위에 그려진다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 화면으로 전환 기존의 화면위에 그려진다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1등이 3바퀴를 돌게되면 10초 후 종료되도록한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 표시 위치 아래에 플레이어의 이름을 순위로 나타낸다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어의 차량이 어떤 것인지, 이동방향이 어딘지 알 수 있도록 차량에 표시를 해준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분실한 아이디를 찾기 위해서 회원가입할적에 입력한 이메일을입력하여 해당 이메일로 분실한 아이디를 보내준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 입력 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 입력 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뒤로가기 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일 입력 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디가 보여지는 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일 불일치 안내 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 불일치 안내 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새 비밀번호 입력 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새 비밀번호 재입력 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 불일치 안내 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원정보 입력 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 ,닉네임 중복 체크 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 중복체크 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>닉네임 중복체크 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 확인 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 취소 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 아이디 텍스트 입력 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 닉네임 텍스트 입력 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 비밀번호 텍스트 입력 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 비밀번호 재입력 텍스트 입력 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 확인 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뒤로가기 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AR,3D전환 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>튜닝 화면 기능(튜닝 탭_바퀴)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>튜닝 화면 기능(튜닝_탭_차모양)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>닉네임 표시 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 시작 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방 제작화면으로 이동하는 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방 참여하는 화면으로 이동하는 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방 참여 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방 접근 상태 활성화,비활성화 표시 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 이메일 텍스트 입력 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방 접속시 유저 수 표현 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>준비 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 방이 진행할 맵 표시 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어가 방에 접속할 경우 설정된 닉네임이 보여지는 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저의 차량을 보여주는 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방장유저가 방에서 나갈 경우 상태 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 시작 조건 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임시작기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 맵을 맵리스트의 왼쪽목록으로 이동하는 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 맵을 맵리스트의 오른쪽목록으로 이동하는 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방을 제작할 맵을 선택하는 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 사용 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어 현황 표시 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방 목록 현황 표시 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방에 접속한 플레이어의 퇴장 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방장 표시 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방에 접속가능한 최대 인원수 설정 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍승표</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1928,10 +1961,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m/d"/>
+    <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2108,8 +2142,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2122,8 +2172,25 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -2356,6 +2423,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -2448,13 +2530,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2653,9 +2775,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2674,9 +2793,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2695,40 +2811,16 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2737,19 +2829,13 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2758,14 +2844,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2773,22 +2853,13 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2797,10 +2868,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2811,12 +2879,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2842,8 +2904,93 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="셀 확인" xfId="1" builtinId="23"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -4970,125 +5117,133 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K83"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C65" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78:F79"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="140.375" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.75" customWidth="1"/>
+    <col min="4" max="4" width="97.5" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="50" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="50" customWidth="1"/>
     <col min="7" max="7" width="8" style="50" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="112" t="s">
+      <c r="C1" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="112" t="s">
+      <c r="E1" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="112" t="s">
+      <c r="F1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="112" t="s">
+      <c r="G1" s="95" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1" s="97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="111" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="91" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="98"/>
+      <c r="F2" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G2" s="99">
         <v>5</v>
       </c>
-      <c r="H1" s="114" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="90" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="115" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="104" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="105" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="116"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117">
-        <v>4</v>
-      </c>
-      <c r="H2" s="118"/>
+      <c r="H2" s="100"/>
     </row>
     <row r="3" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="61" t="s">
         <v>261</v>
       </c>
-      <c r="B3" s="82"/>
+      <c r="B3" s="112"/>
       <c r="C3" s="64" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D3" s="65" t="s">
-        <v>383</v>
-      </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="69">
-        <v>4</v>
-      </c>
-      <c r="H3" s="67"/>
+        <v>380</v>
+      </c>
+      <c r="E3" s="68"/>
+      <c r="F3" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G3" s="68">
+        <v>5</v>
+      </c>
+      <c r="H3" s="66"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="61" t="s">
         <v>263</v>
       </c>
-      <c r="B4" s="82"/>
+      <c r="B4" s="112"/>
       <c r="C4" s="64" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>382</v>
-      </c>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="69">
-        <v>4</v>
-      </c>
-      <c r="H4" s="67"/>
+        <v>379</v>
+      </c>
+      <c r="E4" s="68"/>
+      <c r="F4" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G4" s="68">
+        <v>5</v>
+      </c>
+      <c r="H4" s="66"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="B5" s="84" t="s">
+      <c r="B5" s="112" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="64" t="s">
-        <v>389</v>
-      </c>
-      <c r="D5" s="68" t="s">
-        <v>381</v>
-      </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="122">
-        <v>4</v>
-      </c>
-      <c r="H5" s="70"/>
+        <v>385</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>378</v>
+      </c>
+      <c r="E5" s="68"/>
+      <c r="F5" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G5" s="102">
+        <v>5</v>
+      </c>
+      <c r="H5" s="69"/>
       <c r="I5" s="56"/>
       <c r="J5" s="55"/>
       <c r="K5" s="55"/>
@@ -5097,19 +5252,21 @@
       <c r="A6" s="61" t="s">
         <v>265</v>
       </c>
-      <c r="B6" s="84"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="62" t="s">
         <v>77</v>
       </c>
       <c r="D6" s="63" t="s">
-        <v>387</v>
-      </c>
-      <c r="E6" s="66"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="122">
-        <v>4</v>
-      </c>
-      <c r="H6" s="70"/>
+        <v>383</v>
+      </c>
+      <c r="E6" s="68"/>
+      <c r="F6" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G6" s="102">
+        <v>5</v>
+      </c>
+      <c r="H6" s="69"/>
       <c r="I6" s="56"/>
       <c r="J6" s="55"/>
       <c r="K6" s="55"/>
@@ -5118,19 +5275,21 @@
       <c r="A7" s="61" t="s">
         <v>266</v>
       </c>
-      <c r="B7" s="84"/>
+      <c r="B7" s="112"/>
       <c r="C7" s="62" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D7" s="63" t="s">
-        <v>379</v>
-      </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="122">
-        <v>4</v>
-      </c>
-      <c r="H7" s="70"/>
+        <v>376</v>
+      </c>
+      <c r="E7" s="68"/>
+      <c r="F7" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G7" s="102">
+        <v>5</v>
+      </c>
+      <c r="H7" s="69"/>
       <c r="I7" s="55"/>
       <c r="J7" s="55"/>
       <c r="K7" s="55"/>
@@ -5139,19 +5298,21 @@
       <c r="A8" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="84"/>
+      <c r="B8" s="112"/>
       <c r="C8" s="64" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D8" s="65" t="s">
-        <v>374</v>
-      </c>
-      <c r="E8" s="66"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="122">
-        <v>4</v>
-      </c>
-      <c r="H8" s="70"/>
+        <v>371</v>
+      </c>
+      <c r="E8" s="68"/>
+      <c r="F8" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G8" s="102">
+        <v>5</v>
+      </c>
+      <c r="H8" s="69"/>
       <c r="I8" s="55"/>
       <c r="J8" s="55"/>
       <c r="K8" s="55"/>
@@ -5160,19 +5321,21 @@
       <c r="A9" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="84"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="64" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D9" s="65" t="s">
-        <v>371</v>
-      </c>
-      <c r="E9" s="66"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="122">
-        <v>4</v>
-      </c>
-      <c r="H9" s="70"/>
+        <v>368</v>
+      </c>
+      <c r="E9" s="68"/>
+      <c r="F9" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G9" s="102">
+        <v>5</v>
+      </c>
+      <c r="H9" s="69"/>
       <c r="I9" s="55"/>
       <c r="J9" s="55"/>
       <c r="K9" s="55"/>
@@ -5181,19 +5344,21 @@
       <c r="A10" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="84"/>
+      <c r="B10" s="112"/>
       <c r="C10" s="62" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D10" s="57" t="s">
-        <v>343</v>
-      </c>
-      <c r="E10" s="66"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="122">
-        <v>4</v>
-      </c>
-      <c r="H10" s="70"/>
+        <v>341</v>
+      </c>
+      <c r="E10" s="68"/>
+      <c r="F10" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G10" s="102">
+        <v>5</v>
+      </c>
+      <c r="H10" s="69"/>
       <c r="I10" s="55"/>
       <c r="J10" s="55"/>
       <c r="K10" s="55"/>
@@ -5202,21 +5367,23 @@
       <c r="A11" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="112" t="s">
         <v>140</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>378</v>
-      </c>
-      <c r="E11" s="66"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="122">
-        <v>4</v>
-      </c>
-      <c r="H11" s="70"/>
+        <v>375</v>
+      </c>
+      <c r="E11" s="68"/>
+      <c r="F11" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G11" s="102">
+        <v>5</v>
+      </c>
+      <c r="H11" s="69"/>
       <c r="I11" s="55"/>
       <c r="J11" s="55"/>
       <c r="K11" s="55"/>
@@ -5225,19 +5392,21 @@
       <c r="A12" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="84"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="64" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D12" s="65" t="s">
-        <v>377</v>
-      </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="122">
-        <v>4</v>
-      </c>
-      <c r="H12" s="70"/>
+        <v>374</v>
+      </c>
+      <c r="E12" s="68"/>
+      <c r="F12" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G12" s="102">
+        <v>5</v>
+      </c>
+      <c r="H12" s="69"/>
       <c r="I12" s="55"/>
       <c r="J12" s="55"/>
       <c r="K12" s="55"/>
@@ -5246,1244 +5415,1440 @@
       <c r="A13" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="84"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="64" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D13" s="65" t="s">
-        <v>376</v>
-      </c>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="69">
-        <v>4</v>
-      </c>
-      <c r="H13" s="67"/>
+        <v>373</v>
+      </c>
+      <c r="E13" s="68"/>
+      <c r="F13" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G13" s="68">
+        <v>5</v>
+      </c>
+      <c r="H13" s="66"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="84"/>
+      <c r="B14" s="112"/>
       <c r="C14" s="64" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D14" s="65" t="s">
-        <v>375</v>
-      </c>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="69">
-        <v>4</v>
-      </c>
-      <c r="H14" s="67"/>
+        <v>372</v>
+      </c>
+      <c r="E14" s="68"/>
+      <c r="F14" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G14" s="68">
+        <v>5</v>
+      </c>
+      <c r="H14" s="66"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="84"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="62" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D15" s="57" t="s">
-        <v>343</v>
-      </c>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="69">
-        <v>4</v>
-      </c>
-      <c r="H15" s="67"/>
+        <v>341</v>
+      </c>
+      <c r="E15" s="68"/>
+      <c r="F15" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G15" s="68">
+        <v>5</v>
+      </c>
+      <c r="H15" s="66"/>
     </row>
     <row r="16" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="112" t="s">
         <v>146</v>
       </c>
       <c r="C16" s="64" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>374</v>
-      </c>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="69">
-        <v>4</v>
-      </c>
-      <c r="H16" s="67"/>
+        <v>371</v>
+      </c>
+      <c r="E16" s="68"/>
+      <c r="F16" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G16" s="68">
+        <v>5</v>
+      </c>
+      <c r="H16" s="66"/>
     </row>
     <row r="17" spans="1:8" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A17" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="84"/>
+      <c r="B17" s="112"/>
       <c r="C17" s="64" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>373</v>
-      </c>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="69">
-        <v>4</v>
-      </c>
-      <c r="H17" s="67"/>
+        <v>370</v>
+      </c>
+      <c r="E17" s="68"/>
+      <c r="F17" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G17" s="68">
+        <v>5</v>
+      </c>
+      <c r="H17" s="66"/>
     </row>
     <row r="18" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="84"/>
+      <c r="B18" s="112"/>
       <c r="C18" s="64" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D18" s="65" t="s">
-        <v>372</v>
-      </c>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="69">
-        <v>4</v>
-      </c>
-      <c r="H18" s="67"/>
+        <v>369</v>
+      </c>
+      <c r="E18" s="68"/>
+      <c r="F18" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G18" s="68">
+        <v>5</v>
+      </c>
+      <c r="H18" s="66"/>
     </row>
     <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="84"/>
+      <c r="B19" s="112"/>
       <c r="C19" s="64" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>371</v>
-      </c>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="69">
-        <v>4</v>
-      </c>
-      <c r="H19" s="67"/>
+        <v>368</v>
+      </c>
+      <c r="E19" s="68"/>
+      <c r="F19" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G19" s="68">
+        <v>5</v>
+      </c>
+      <c r="H19" s="66"/>
     </row>
     <row r="20" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="84"/>
+      <c r="B20" s="112"/>
       <c r="C20" s="64" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D20" s="65" t="s">
-        <v>371</v>
-      </c>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="69">
-        <v>4</v>
-      </c>
-      <c r="H20" s="67"/>
+        <v>368</v>
+      </c>
+      <c r="E20" s="68"/>
+      <c r="F20" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G20" s="68">
+        <v>5</v>
+      </c>
+      <c r="H20" s="66"/>
     </row>
     <row r="21" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="84"/>
+      <c r="B21" s="112"/>
       <c r="C21" s="64" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D21" s="65" t="s">
-        <v>370</v>
-      </c>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="69">
-        <v>4</v>
-      </c>
-      <c r="H21" s="67"/>
+        <v>367</v>
+      </c>
+      <c r="E21" s="68"/>
+      <c r="F21" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G21" s="68">
+        <v>5</v>
+      </c>
+      <c r="H21" s="66"/>
     </row>
     <row r="22" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="84"/>
+      <c r="B22" s="112"/>
       <c r="C22" s="62" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D22" s="57" t="s">
-        <v>343</v>
-      </c>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="69">
-        <v>4</v>
-      </c>
-      <c r="H22" s="67"/>
+        <v>341</v>
+      </c>
+      <c r="E22" s="68"/>
+      <c r="F22" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G22" s="68">
+        <v>5</v>
+      </c>
+      <c r="H22" s="66"/>
     </row>
     <row r="23" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="84" t="s">
+      <c r="B23" s="112" t="s">
         <v>79</v>
       </c>
       <c r="C23" s="62" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D23" s="63" t="s">
-        <v>369</v>
-      </c>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="69">
-        <v>4</v>
-      </c>
-      <c r="H23" s="67"/>
+        <v>366</v>
+      </c>
+      <c r="E23" s="68"/>
+      <c r="F23" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G23" s="68">
+        <v>5</v>
+      </c>
+      <c r="H23" s="66"/>
     </row>
     <row r="24" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="84"/>
+      <c r="B24" s="112"/>
       <c r="C24" s="62" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D24" s="63" t="s">
-        <v>368</v>
-      </c>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="69">
-        <v>4</v>
-      </c>
-      <c r="H24" s="67"/>
+        <v>365</v>
+      </c>
+      <c r="E24" s="68"/>
+      <c r="F24" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G24" s="68">
+        <v>5</v>
+      </c>
+      <c r="H24" s="66"/>
     </row>
     <row r="25" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="84"/>
+      <c r="B25" s="112"/>
       <c r="C25" s="64" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D25" s="65" t="s">
-        <v>367</v>
-      </c>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="69">
-        <v>4</v>
-      </c>
-      <c r="H25" s="67"/>
+        <v>364</v>
+      </c>
+      <c r="E25" s="68"/>
+      <c r="F25" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G25" s="68">
+        <v>5</v>
+      </c>
+      <c r="H25" s="66"/>
     </row>
     <row r="26" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="84"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="64" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D26" s="65" t="s">
-        <v>366</v>
-      </c>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="69">
-        <v>4</v>
-      </c>
-      <c r="H26" s="67"/>
+        <v>363</v>
+      </c>
+      <c r="E26" s="68"/>
+      <c r="F26" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G26" s="68">
+        <v>5</v>
+      </c>
+      <c r="H26" s="66"/>
     </row>
     <row r="27" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="84"/>
+      <c r="B27" s="112"/>
       <c r="C27" s="64" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D27" s="65" t="s">
-        <v>365</v>
-      </c>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="69">
-        <v>4</v>
-      </c>
-      <c r="H27" s="67"/>
+        <v>362</v>
+      </c>
+      <c r="E27" s="68"/>
+      <c r="F27" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G27" s="68">
+        <v>5</v>
+      </c>
+      <c r="H27" s="66"/>
     </row>
     <row r="28" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="84"/>
+      <c r="B28" s="112"/>
       <c r="C28" s="62" t="s">
-        <v>406</v>
-      </c>
-      <c r="D28" s="68" t="s">
-        <v>364</v>
-      </c>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="69">
-        <v>4</v>
-      </c>
-      <c r="H28" s="67"/>
+        <v>402</v>
+      </c>
+      <c r="D28" s="67" t="s">
+        <v>361</v>
+      </c>
+      <c r="E28" s="68"/>
+      <c r="F28" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G28" s="68">
+        <v>5</v>
+      </c>
+      <c r="H28" s="66"/>
     </row>
     <row r="29" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="84"/>
+      <c r="B29" s="112"/>
       <c r="C29" s="62" t="s">
-        <v>407</v>
-      </c>
-      <c r="D29" s="68" t="s">
-        <v>363</v>
-      </c>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="69">
-        <v>4</v>
-      </c>
-      <c r="H29" s="67"/>
+        <v>403</v>
+      </c>
+      <c r="D29" s="67" t="s">
+        <v>360</v>
+      </c>
+      <c r="E29" s="68"/>
+      <c r="F29" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G29" s="68">
+        <v>5</v>
+      </c>
+      <c r="H29" s="66"/>
     </row>
     <row r="30" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="84"/>
+      <c r="B30" s="112"/>
       <c r="C30" s="62" t="s">
-        <v>408</v>
-      </c>
-      <c r="D30" s="68" t="s">
-        <v>362</v>
-      </c>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="69">
-        <v>4</v>
-      </c>
-      <c r="H30" s="67"/>
+        <v>404</v>
+      </c>
+      <c r="D30" s="67" t="s">
+        <v>359</v>
+      </c>
+      <c r="E30" s="68"/>
+      <c r="F30" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G30" s="68">
+        <v>5</v>
+      </c>
+      <c r="H30" s="66"/>
     </row>
     <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="84"/>
+      <c r="B31" s="112"/>
       <c r="C31" s="62" t="s">
-        <v>409</v>
-      </c>
-      <c r="D31" s="68" t="s">
-        <v>361</v>
-      </c>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="69">
-        <v>4</v>
-      </c>
-      <c r="H31" s="67"/>
+        <v>405</v>
+      </c>
+      <c r="D31" s="67" t="s">
+        <v>358</v>
+      </c>
+      <c r="E31" s="68"/>
+      <c r="F31" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G31" s="68">
+        <v>5</v>
+      </c>
+      <c r="H31" s="66"/>
     </row>
     <row r="32" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="84"/>
+      <c r="B32" s="112"/>
       <c r="C32" s="62" t="s">
-        <v>410</v>
-      </c>
-      <c r="D32" s="68" t="s">
-        <v>360</v>
-      </c>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="69">
-        <v>4</v>
-      </c>
-      <c r="H32" s="67"/>
+        <v>406</v>
+      </c>
+      <c r="D32" s="67" t="s">
+        <v>357</v>
+      </c>
+      <c r="E32" s="68"/>
+      <c r="F32" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G32" s="68">
+        <v>5</v>
+      </c>
+      <c r="H32" s="66"/>
     </row>
     <row r="33" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="84"/>
+      <c r="B33" s="112"/>
       <c r="C33" s="62" t="s">
-        <v>411</v>
-      </c>
-      <c r="D33" s="68" t="s">
-        <v>359</v>
-      </c>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="69">
-        <v>4</v>
-      </c>
-      <c r="H33" s="67"/>
+        <v>407</v>
+      </c>
+      <c r="D33" s="67" t="s">
+        <v>356</v>
+      </c>
+      <c r="E33" s="68"/>
+      <c r="F33" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G33" s="68">
+        <v>5</v>
+      </c>
+      <c r="H33" s="66"/>
     </row>
     <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="84"/>
+      <c r="B34" s="112"/>
       <c r="C34" s="62" t="s">
-        <v>422</v>
-      </c>
-      <c r="D34" s="68" t="s">
-        <v>358</v>
-      </c>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="69">
-        <v>4</v>
-      </c>
-      <c r="H34" s="67"/>
+        <v>417</v>
+      </c>
+      <c r="D34" s="67" t="s">
+        <v>355</v>
+      </c>
+      <c r="E34" s="68"/>
+      <c r="F34" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G34" s="68">
+        <v>5</v>
+      </c>
+      <c r="H34" s="66"/>
     </row>
     <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="96" t="s">
+      <c r="A35" s="85" t="s">
         <v>267</v>
       </c>
-      <c r="B35" s="119"/>
-      <c r="C35" s="77" t="s">
-        <v>412</v>
+      <c r="B35" s="113"/>
+      <c r="C35" s="75" t="s">
+        <v>408</v>
       </c>
       <c r="D35" s="59" t="s">
-        <v>343</v>
-      </c>
-      <c r="E35" s="120"/>
-      <c r="F35" s="120"/>
-      <c r="G35" s="69">
-        <v>4</v>
-      </c>
-      <c r="H35" s="121"/>
+        <v>341</v>
+      </c>
+      <c r="E35" s="126"/>
+      <c r="F35" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G35" s="68">
+        <v>5</v>
+      </c>
+      <c r="H35" s="101"/>
     </row>
     <row r="36" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="90" t="s">
+      <c r="A36" s="81" t="s">
         <v>268</v>
       </c>
-      <c r="B36" s="103" t="s">
+      <c r="B36" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="104" t="s">
+      <c r="C36" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="105" t="s">
-        <v>322</v>
-      </c>
-      <c r="E36" s="106"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="124">
+      <c r="D36" s="91" t="s">
+        <v>321</v>
+      </c>
+      <c r="E36" s="130">
+        <v>43757</v>
+      </c>
+      <c r="F36" s="106" t="s">
+        <v>444</v>
+      </c>
+      <c r="G36" s="104">
         <v>3</v>
       </c>
-      <c r="H36" s="107"/>
+      <c r="H36" s="92"/>
     </row>
     <row r="37" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="61" t="s">
         <v>269</v>
       </c>
-      <c r="B37" s="84"/>
+      <c r="B37" s="118"/>
       <c r="C37" s="64" t="s">
-        <v>413</v>
-      </c>
-      <c r="D37" s="71" t="s">
-        <v>323</v>
-      </c>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="69">
+        <v>409</v>
+      </c>
+      <c r="D37" s="70" t="s">
+        <v>322</v>
+      </c>
+      <c r="E37" s="131">
+        <v>43766</v>
+      </c>
+      <c r="F37" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="G37" s="68">
         <v>3</v>
       </c>
-      <c r="H37" s="67"/>
+      <c r="H37" s="66"/>
     </row>
     <row r="38" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A38" s="61" t="s">
         <v>270</v>
       </c>
-      <c r="B38" s="84"/>
+      <c r="B38" s="118"/>
       <c r="C38" s="64" t="s">
-        <v>392</v>
-      </c>
-      <c r="D38" s="71" t="s">
-        <v>357</v>
-      </c>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="69">
-        <v>3</v>
-      </c>
-      <c r="H38" s="67"/>
+        <v>388</v>
+      </c>
+      <c r="D38" s="70" t="s">
+        <v>354</v>
+      </c>
+      <c r="E38" s="68"/>
+      <c r="F38" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="G38" s="68">
+        <v>5</v>
+      </c>
+      <c r="H38" s="66"/>
     </row>
     <row r="39" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="61" t="s">
         <v>271</v>
       </c>
-      <c r="B39" s="84"/>
+      <c r="B39" s="118"/>
       <c r="C39" s="64" t="s">
-        <v>414</v>
-      </c>
-      <c r="D39" s="71" t="s">
-        <v>356</v>
-      </c>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="69">
+        <v>410</v>
+      </c>
+      <c r="D39" s="70" t="s">
+        <v>353</v>
+      </c>
+      <c r="E39" s="129">
+        <v>43757</v>
+      </c>
+      <c r="F39" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="G39" s="68">
         <v>3</v>
       </c>
-      <c r="H39" s="74"/>
+      <c r="H39" s="72"/>
     </row>
     <row r="40" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="61" t="s">
         <v>272</v>
       </c>
-      <c r="B40" s="84"/>
+      <c r="B40" s="118"/>
       <c r="C40" s="64" t="s">
-        <v>415</v>
-      </c>
-      <c r="D40" s="71" t="s">
-        <v>355</v>
-      </c>
-      <c r="E40" s="73"/>
-      <c r="F40" s="73"/>
-      <c r="G40" s="69">
+        <v>435</v>
+      </c>
+      <c r="D40" s="70" t="s">
+        <v>352</v>
+      </c>
+      <c r="E40" s="129">
+        <v>43757</v>
+      </c>
+      <c r="F40" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="G40" s="68">
         <v>3</v>
       </c>
-      <c r="H40" s="74"/>
+      <c r="H40" s="72"/>
     </row>
     <row r="41" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="61" t="s">
         <v>273</v>
       </c>
-      <c r="B41" s="84"/>
+      <c r="B41" s="118"/>
       <c r="C41" s="64" t="s">
         <v>233</v>
       </c>
-      <c r="D41" s="71" t="s">
-        <v>354</v>
-      </c>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="69">
-        <v>3</v>
-      </c>
-      <c r="H41" s="74"/>
+      <c r="D41" s="70" t="s">
+        <v>351</v>
+      </c>
+      <c r="E41" s="129">
+        <v>43766</v>
+      </c>
+      <c r="F41" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="G41" s="68">
+        <v>4</v>
+      </c>
+      <c r="H41" s="72"/>
     </row>
     <row r="42" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="B42" s="84"/>
+      <c r="B42" s="118"/>
       <c r="C42" s="62" t="s">
-        <v>416</v>
-      </c>
-      <c r="D42" s="68" t="s">
-        <v>353</v>
-      </c>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="69">
-        <v>3</v>
-      </c>
-      <c r="H42" s="74"/>
+        <v>411</v>
+      </c>
+      <c r="D42" s="67" t="s">
+        <v>350</v>
+      </c>
+      <c r="E42" s="129">
+        <v>43766</v>
+      </c>
+      <c r="F42" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="G42" s="68">
+        <v>4</v>
+      </c>
+      <c r="H42" s="72"/>
     </row>
     <row r="43" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="61" t="s">
         <v>275</v>
       </c>
-      <c r="B43" s="84"/>
-      <c r="C43" s="72" t="s">
-        <v>417</v>
-      </c>
-      <c r="D43" s="68" t="s">
-        <v>352</v>
-      </c>
-      <c r="E43" s="73"/>
-      <c r="F43" s="73"/>
-      <c r="G43" s="69">
-        <v>3</v>
-      </c>
-      <c r="H43" s="74"/>
+      <c r="B43" s="118"/>
+      <c r="C43" s="71" t="s">
+        <v>412</v>
+      </c>
+      <c r="D43" s="67" t="s">
+        <v>349</v>
+      </c>
+      <c r="E43" s="129">
+        <v>43766</v>
+      </c>
+      <c r="F43" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="G43" s="68">
+        <v>4</v>
+      </c>
+      <c r="H43" s="72"/>
     </row>
     <row r="44" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="61" t="s">
         <v>276</v>
       </c>
-      <c r="B44" s="83" t="s">
+      <c r="B44" s="119" t="s">
         <v>262</v>
       </c>
       <c r="C44" s="62" t="s">
         <v>188</v>
       </c>
       <c r="D44" s="57" t="s">
-        <v>351</v>
-      </c>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="69">
+        <v>448</v>
+      </c>
+      <c r="E44" s="129">
+        <v>43757</v>
+      </c>
+      <c r="F44" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="G44" s="68">
         <v>3</v>
       </c>
-      <c r="H44" s="74"/>
+      <c r="H44" s="72"/>
     </row>
     <row r="45" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="61" t="s">
         <v>277</v>
       </c>
-      <c r="B45" s="83"/>
+      <c r="B45" s="119"/>
       <c r="C45" s="62" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D45" s="57" t="s">
-        <v>343</v>
-      </c>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="69">
-        <v>3</v>
-      </c>
-      <c r="H45" s="74"/>
+        <v>341</v>
+      </c>
+      <c r="E45" s="108"/>
+      <c r="F45" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="G45" s="68">
+        <v>5</v>
+      </c>
+      <c r="H45" s="72"/>
     </row>
     <row r="46" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="61" t="s">
         <v>278</v>
       </c>
-      <c r="B46" s="83"/>
+      <c r="B46" s="119"/>
       <c r="C46" s="62" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="D46" s="57" t="s">
-        <v>350</v>
-      </c>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="69">
-        <v>3</v>
-      </c>
-      <c r="H46" s="74"/>
+        <v>348</v>
+      </c>
+      <c r="E46" s="129">
+        <v>43766</v>
+      </c>
+      <c r="F46" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="G46" s="68">
+        <v>4</v>
+      </c>
+      <c r="H46" s="72"/>
     </row>
     <row r="47" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="96" t="s">
+      <c r="A47" s="85" t="s">
         <v>279</v>
       </c>
-      <c r="B47" s="108"/>
-      <c r="C47" s="77" t="s">
-        <v>419</v>
+      <c r="B47" s="120"/>
+      <c r="C47" s="75" t="s">
+        <v>414</v>
       </c>
       <c r="D47" s="59" t="s">
-        <v>349</v>
-      </c>
-      <c r="E47" s="109"/>
-      <c r="F47" s="109"/>
-      <c r="G47" s="125">
-        <v>3</v>
-      </c>
-      <c r="H47" s="110"/>
+        <v>347</v>
+      </c>
+      <c r="E47" s="135">
+        <v>43766</v>
+      </c>
+      <c r="F47" s="127" t="s">
+        <v>444</v>
+      </c>
+      <c r="G47" s="105">
+        <v>4</v>
+      </c>
+      <c r="H47" s="93"/>
     </row>
     <row r="48" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="97" t="s">
+      <c r="A48" s="86" t="s">
         <v>280</v>
       </c>
-      <c r="B48" s="98" t="s">
+      <c r="B48" s="114" t="s">
         <v>206</v>
       </c>
-      <c r="C48" s="99" t="s">
-        <v>318</v>
-      </c>
-      <c r="D48" s="100" t="s">
-        <v>324</v>
-      </c>
-      <c r="E48" s="101"/>
-      <c r="F48" s="101"/>
-      <c r="G48" s="124">
+      <c r="C48" s="87" t="s">
+        <v>317</v>
+      </c>
+      <c r="D48" s="88" t="s">
+        <v>323</v>
+      </c>
+      <c r="E48" s="128">
+        <v>43757</v>
+      </c>
+      <c r="F48" s="107" t="s">
+        <v>446</v>
+      </c>
+      <c r="G48" s="104">
         <v>2</v>
       </c>
-      <c r="H48" s="102"/>
+      <c r="H48" s="89"/>
     </row>
     <row r="49" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="61" t="s">
         <v>281</v>
       </c>
-      <c r="B49" s="83"/>
-      <c r="C49" s="72" t="s">
-        <v>420</v>
-      </c>
-      <c r="D49" s="68" t="s">
-        <v>312</v>
-      </c>
-      <c r="E49" s="73"/>
-      <c r="F49" s="73"/>
-      <c r="G49" s="69">
+      <c r="B49" s="115"/>
+      <c r="C49" s="71" t="s">
+        <v>415</v>
+      </c>
+      <c r="D49" s="67" t="s">
+        <v>311</v>
+      </c>
+      <c r="E49" s="128">
+        <v>43757</v>
+      </c>
+      <c r="F49" s="108" t="s">
+        <v>443</v>
+      </c>
+      <c r="G49" s="68">
         <v>2</v>
       </c>
-      <c r="H49" s="74"/>
-    </row>
-    <row r="50" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H49" s="72"/>
+    </row>
+    <row r="50" spans="1:8" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A50" s="61" t="s">
         <v>282</v>
       </c>
-      <c r="B50" s="83"/>
-      <c r="C50" s="72"/>
-      <c r="D50" s="68"/>
-      <c r="E50" s="73"/>
-      <c r="F50" s="73"/>
-      <c r="G50" s="69">
-        <v>2</v>
-      </c>
-      <c r="H50" s="74"/>
+      <c r="B50" s="115"/>
+      <c r="C50" s="62" t="s">
+        <v>416</v>
+      </c>
+      <c r="D50" s="63" t="s">
+        <v>346</v>
+      </c>
+      <c r="E50" s="108"/>
+      <c r="F50" s="108" t="s">
+        <v>443</v>
+      </c>
+      <c r="G50" s="68">
+        <v>4</v>
+      </c>
+      <c r="H50" s="72"/>
     </row>
     <row r="51" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A51" s="61" t="s">
         <v>283</v>
       </c>
-      <c r="B51" s="83"/>
+      <c r="B51" s="115"/>
       <c r="C51" s="62" t="s">
-        <v>421</v>
-      </c>
-      <c r="D51" s="63" t="s">
-        <v>348</v>
-      </c>
-      <c r="E51" s="73"/>
-      <c r="F51" s="73"/>
-      <c r="G51" s="69">
-        <v>2</v>
-      </c>
-      <c r="H51" s="74"/>
+        <v>430</v>
+      </c>
+      <c r="D51" s="67" t="s">
+        <v>345</v>
+      </c>
+      <c r="E51" s="129">
+        <v>43757</v>
+      </c>
+      <c r="F51" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G51" s="68">
+        <v>3</v>
+      </c>
+      <c r="H51" s="72"/>
     </row>
     <row r="52" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="61" t="s">
         <v>284</v>
       </c>
-      <c r="B52" s="83"/>
+      <c r="B52" s="115"/>
       <c r="C52" s="62" t="s">
-        <v>435</v>
-      </c>
-      <c r="D52" s="68" t="s">
-        <v>347</v>
-      </c>
-      <c r="E52" s="73"/>
-      <c r="F52" s="73"/>
-      <c r="G52" s="69">
-        <v>2</v>
-      </c>
-      <c r="H52" s="74"/>
-    </row>
-    <row r="53" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>436</v>
+      </c>
+      <c r="D52" s="67" t="s">
+        <v>344</v>
+      </c>
+      <c r="E52" s="108"/>
+      <c r="F52" s="108" t="s">
+        <v>443</v>
+      </c>
+      <c r="G52" s="68">
+        <v>5</v>
+      </c>
+      <c r="H52" s="72"/>
+    </row>
+    <row r="53" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A53" s="61" t="s">
         <v>285</v>
       </c>
-      <c r="B53" s="83"/>
+      <c r="B53" s="115"/>
       <c r="C53" s="62" t="s">
-        <v>392</v>
-      </c>
-      <c r="D53" s="68" t="s">
-        <v>346</v>
-      </c>
-      <c r="E53" s="73"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="69">
-        <v>2</v>
-      </c>
-      <c r="H53" s="74"/>
+        <v>431</v>
+      </c>
+      <c r="D53" s="67" t="s">
+        <v>259</v>
+      </c>
+      <c r="E53" s="133">
+        <v>43757</v>
+      </c>
+      <c r="F53" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G53" s="68">
+        <v>3</v>
+      </c>
+      <c r="H53" s="72"/>
     </row>
     <row r="54" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="61" t="s">
         <v>286</v>
       </c>
-      <c r="B54" s="83"/>
-      <c r="C54" s="62" t="s">
-        <v>436</v>
-      </c>
-      <c r="D54" s="68" t="s">
-        <v>259</v>
-      </c>
-      <c r="E54" s="73"/>
-      <c r="F54" s="73"/>
-      <c r="G54" s="69">
-        <v>2</v>
-      </c>
-      <c r="H54" s="74"/>
+      <c r="B54" s="115" t="s">
+        <v>437</v>
+      </c>
+      <c r="C54" s="71" t="s">
+        <v>418</v>
+      </c>
+      <c r="D54" s="132" t="s">
+        <v>343</v>
+      </c>
+      <c r="E54" s="134">
+        <v>43766</v>
+      </c>
+      <c r="F54" s="124" t="s">
+        <v>443</v>
+      </c>
+      <c r="G54" s="68">
+        <v>3</v>
+      </c>
+      <c r="H54" s="72"/>
     </row>
     <row r="55" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="61" t="s">
         <v>287</v>
       </c>
-      <c r="B55" s="83" t="s">
-        <v>235</v>
-      </c>
-      <c r="C55" s="72" t="s">
-        <v>423</v>
-      </c>
-      <c r="D55" s="68" t="s">
-        <v>345</v>
-      </c>
-      <c r="E55" s="73"/>
-      <c r="F55" s="73"/>
-      <c r="G55" s="69">
+      <c r="B55" s="115"/>
+      <c r="C55" s="71" t="s">
+        <v>419</v>
+      </c>
+      <c r="D55" s="67" t="s">
+        <v>342</v>
+      </c>
+      <c r="E55" s="128">
+        <v>43757</v>
+      </c>
+      <c r="F55" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G55" s="68">
         <v>2</v>
       </c>
-      <c r="H55" s="74"/>
-    </row>
-    <row r="56" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H55" s="72"/>
+    </row>
+    <row r="56" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A56" s="61" t="s">
         <v>288</v>
       </c>
-      <c r="B56" s="83"/>
-      <c r="C56" s="72" t="s">
-        <v>424</v>
-      </c>
-      <c r="D56" s="68" t="s">
-        <v>344</v>
-      </c>
-      <c r="E56" s="73"/>
-      <c r="F56" s="73"/>
-      <c r="G56" s="69">
-        <v>2</v>
-      </c>
-      <c r="H56" s="74"/>
-    </row>
-    <row r="57" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B56" s="115"/>
+      <c r="C56" s="71" t="s">
+        <v>388</v>
+      </c>
+      <c r="D56" s="67" t="s">
+        <v>341</v>
+      </c>
+      <c r="E56" s="108"/>
+      <c r="F56" s="108" t="s">
+        <v>443</v>
+      </c>
+      <c r="G56" s="68">
+        <v>5</v>
+      </c>
+      <c r="H56" s="72"/>
+    </row>
+    <row r="57" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="61" t="s">
         <v>289</v>
       </c>
-      <c r="B57" s="83"/>
-      <c r="C57" s="72" t="s">
-        <v>392</v>
-      </c>
-      <c r="D57" s="68" t="s">
-        <v>343</v>
-      </c>
-      <c r="E57" s="73"/>
-      <c r="F57" s="73"/>
-      <c r="G57" s="69">
-        <v>2</v>
-      </c>
-      <c r="H57" s="74"/>
-    </row>
-    <row r="58" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="115"/>
+      <c r="C57" s="71" t="s">
+        <v>420</v>
+      </c>
+      <c r="D57" s="67" t="s">
+        <v>340</v>
+      </c>
+      <c r="E57" s="134">
+        <v>43766</v>
+      </c>
+      <c r="F57" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G57" s="68">
+        <v>3</v>
+      </c>
+      <c r="H57" s="72"/>
+    </row>
+    <row r="58" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A58" s="61" t="s">
         <v>290</v>
       </c>
-      <c r="B58" s="83"/>
-      <c r="C58" s="72" t="s">
-        <v>425</v>
-      </c>
-      <c r="D58" s="68" t="s">
-        <v>342</v>
-      </c>
-      <c r="E58" s="73"/>
-      <c r="F58" s="73"/>
-      <c r="G58" s="69">
-        <v>2</v>
-      </c>
-      <c r="H58" s="74"/>
-    </row>
-    <row r="59" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="115"/>
+      <c r="C58" s="77" t="s">
+        <v>432</v>
+      </c>
+      <c r="D58" s="67" t="s">
+        <v>438</v>
+      </c>
+      <c r="E58" s="134">
+        <v>43766</v>
+      </c>
+      <c r="F58" s="108" t="s">
+        <v>443</v>
+      </c>
+      <c r="G58" s="68">
+        <v>3</v>
+      </c>
+      <c r="H58" s="72"/>
+    </row>
+    <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A59" s="61" t="s">
         <v>291</v>
       </c>
-      <c r="B59" s="83"/>
-      <c r="C59" s="79" t="s">
-        <v>437</v>
-      </c>
-      <c r="D59" s="68" t="s">
-        <v>341</v>
-      </c>
-      <c r="E59" s="73"/>
-      <c r="F59" s="73"/>
-      <c r="G59" s="69">
-        <v>2</v>
-      </c>
-      <c r="H59" s="74"/>
-    </row>
-    <row r="60" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="115"/>
+      <c r="C59" s="71" t="s">
+        <v>421</v>
+      </c>
+      <c r="D59" s="67" t="s">
+        <v>339</v>
+      </c>
+      <c r="E59" s="134">
+        <v>43766</v>
+      </c>
+      <c r="F59" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G59" s="68">
+        <v>3</v>
+      </c>
+      <c r="H59" s="72"/>
+    </row>
+    <row r="60" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A60" s="61" t="s">
         <v>292</v>
       </c>
-      <c r="B60" s="83"/>
-      <c r="C60" s="72" t="s">
-        <v>426</v>
-      </c>
-      <c r="D60" s="68" t="s">
-        <v>340</v>
-      </c>
-      <c r="E60" s="73"/>
-      <c r="F60" s="73"/>
-      <c r="G60" s="69">
-        <v>2</v>
-      </c>
-      <c r="H60" s="74"/>
-    </row>
-    <row r="61" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="B60" s="115"/>
+      <c r="C60" s="71" t="s">
+        <v>422</v>
+      </c>
+      <c r="D60" s="67" t="s">
+        <v>338</v>
+      </c>
+      <c r="E60" s="134">
+        <v>43766</v>
+      </c>
+      <c r="F60" s="108" t="s">
+        <v>443</v>
+      </c>
+      <c r="G60" s="68">
+        <v>3</v>
+      </c>
+      <c r="H60" s="72"/>
+    </row>
+    <row r="61" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="61" t="s">
         <v>293</v>
       </c>
-      <c r="B61" s="83"/>
-      <c r="C61" s="72" t="s">
-        <v>427</v>
-      </c>
-      <c r="D61" s="68" t="s">
-        <v>339</v>
-      </c>
-      <c r="E61" s="73"/>
-      <c r="F61" s="73"/>
-      <c r="G61" s="69">
-        <v>2</v>
-      </c>
-      <c r="H61" s="74"/>
+      <c r="B61" s="115"/>
+      <c r="C61" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="D61" s="67" t="s">
+        <v>337</v>
+      </c>
+      <c r="E61" s="108"/>
+      <c r="F61" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G61" s="68">
+        <v>4</v>
+      </c>
+      <c r="H61" s="72"/>
     </row>
     <row r="62" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="B62" s="83"/>
-      <c r="C62" s="79" t="s">
-        <v>438</v>
-      </c>
-      <c r="D62" s="68" t="s">
-        <v>338</v>
-      </c>
-      <c r="E62" s="73"/>
-      <c r="F62" s="73"/>
-      <c r="G62" s="69">
-        <v>2</v>
-      </c>
-      <c r="H62" s="74"/>
+      <c r="B62" s="115"/>
+      <c r="C62" s="71" t="s">
+        <v>423</v>
+      </c>
+      <c r="D62" s="67" t="s">
+        <v>336</v>
+      </c>
+      <c r="E62" s="108"/>
+      <c r="F62" s="108" t="s">
+        <v>443</v>
+      </c>
+      <c r="G62" s="68">
+        <v>4</v>
+      </c>
+      <c r="H62" s="72"/>
     </row>
     <row r="63" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="61" t="s">
         <v>295</v>
       </c>
-      <c r="B63" s="83"/>
-      <c r="C63" s="72" t="s">
-        <v>428</v>
-      </c>
-      <c r="D63" s="68" t="s">
-        <v>337</v>
-      </c>
-      <c r="E63" s="73"/>
-      <c r="F63" s="73"/>
-      <c r="G63" s="69">
-        <v>2</v>
-      </c>
-      <c r="H63" s="74"/>
+      <c r="B63" s="115"/>
+      <c r="C63" s="71" t="s">
+        <v>424</v>
+      </c>
+      <c r="D63" s="67" t="s">
+        <v>335</v>
+      </c>
+      <c r="E63" s="108"/>
+      <c r="F63" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G63" s="68">
+        <v>4</v>
+      </c>
+      <c r="H63" s="72"/>
     </row>
     <row r="64" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="61" t="s">
         <v>296</v>
       </c>
-      <c r="B64" s="83"/>
-      <c r="C64" s="72" t="s">
-        <v>429</v>
-      </c>
-      <c r="D64" s="68" t="s">
-        <v>336</v>
-      </c>
-      <c r="E64" s="73"/>
-      <c r="F64" s="73"/>
-      <c r="G64" s="69">
-        <v>2</v>
-      </c>
-      <c r="H64" s="74"/>
+      <c r="B64" s="115"/>
+      <c r="C64" s="77" t="s">
+        <v>434</v>
+      </c>
+      <c r="D64" s="67" t="s">
+        <v>334</v>
+      </c>
+      <c r="E64" s="108"/>
+      <c r="F64" s="108" t="s">
+        <v>443</v>
+      </c>
+      <c r="G64" s="68">
+        <v>5</v>
+      </c>
+      <c r="H64" s="72"/>
     </row>
     <row r="65" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="61" t="s">
         <v>297</v>
       </c>
-      <c r="B65" s="83"/>
-      <c r="C65" s="79" t="s">
-        <v>439</v>
-      </c>
-      <c r="D65" s="68" t="s">
-        <v>335</v>
-      </c>
-      <c r="E65" s="73"/>
-      <c r="F65" s="73"/>
-      <c r="G65" s="69">
+      <c r="B65" s="115"/>
+      <c r="C65" s="71" t="s">
+        <v>425</v>
+      </c>
+      <c r="D65" s="67" t="s">
+        <v>333</v>
+      </c>
+      <c r="E65" s="128">
+        <v>43757</v>
+      </c>
+      <c r="F65" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G65" s="68">
         <v>2</v>
       </c>
-      <c r="H65" s="74"/>
+      <c r="H65" s="72"/>
     </row>
     <row r="66" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="61" t="s">
         <v>298</v>
       </c>
-      <c r="B66" s="83"/>
-      <c r="C66" s="72" t="s">
-        <v>430</v>
-      </c>
-      <c r="D66" s="68" t="s">
-        <v>334</v>
-      </c>
-      <c r="E66" s="73"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="69">
-        <v>2</v>
-      </c>
-      <c r="H66" s="74"/>
-    </row>
-    <row r="67" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="115" t="s">
+        <v>176</v>
+      </c>
+      <c r="C66" s="62" t="s">
+        <v>318</v>
+      </c>
+      <c r="D66" t="s">
+        <v>332</v>
+      </c>
+      <c r="E66" s="134">
+        <v>43766</v>
+      </c>
+      <c r="F66" s="108" t="s">
+        <v>443</v>
+      </c>
+      <c r="G66" s="68">
+        <v>3</v>
+      </c>
+      <c r="H66" s="72"/>
+    </row>
+    <row r="67" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A67" s="61" t="s">
         <v>299</v>
       </c>
-      <c r="B67" s="83" t="s">
-        <v>176</v>
-      </c>
+      <c r="B67" s="115"/>
       <c r="C67" s="62" t="s">
-        <v>319</v>
+        <v>426</v>
       </c>
       <c r="D67" t="s">
-        <v>333</v>
-      </c>
-      <c r="E67" s="73"/>
-      <c r="F67" s="73"/>
-      <c r="G67" s="69">
-        <v>2</v>
-      </c>
-      <c r="H67" s="74"/>
+        <v>331</v>
+      </c>
+      <c r="E67" s="134">
+        <v>43766</v>
+      </c>
+      <c r="F67" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G67" s="68">
+        <v>4</v>
+      </c>
+      <c r="H67" s="72"/>
     </row>
     <row r="68" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A68" s="61" t="s">
         <v>300</v>
       </c>
-      <c r="B68" s="83"/>
+      <c r="B68" s="115"/>
       <c r="C68" s="62" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D68" t="s">
-        <v>332</v>
-      </c>
-      <c r="E68" s="73"/>
-      <c r="F68" s="73"/>
-      <c r="G68" s="69">
-        <v>2</v>
-      </c>
-      <c r="H68" s="74"/>
+        <v>330</v>
+      </c>
+      <c r="E68" s="134">
+        <v>43766</v>
+      </c>
+      <c r="F68" s="108" t="s">
+        <v>443</v>
+      </c>
+      <c r="G68" s="68">
+        <v>4</v>
+      </c>
+      <c r="H68" s="72"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A69" s="61" t="s">
         <v>301</v>
       </c>
-      <c r="B69" s="83"/>
+      <c r="B69" s="115"/>
       <c r="C69" s="62" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D69" t="s">
-        <v>331</v>
-      </c>
-      <c r="E69" s="73"/>
-      <c r="F69" s="73"/>
-      <c r="G69" s="69">
+        <v>328</v>
+      </c>
+      <c r="E69" s="128">
+        <v>43757</v>
+      </c>
+      <c r="F69" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G69" s="68">
         <v>2</v>
       </c>
-      <c r="H69" s="74"/>
-    </row>
-    <row r="70" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A70" s="61" t="s">
+      <c r="H69" s="72"/>
+    </row>
+    <row r="70" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="B70" s="83"/>
-      <c r="C70" s="62" t="s">
-        <v>433</v>
+      <c r="B70" s="116"/>
+      <c r="C70" s="79" t="s">
+        <v>388</v>
       </c>
       <c r="D70" t="s">
         <v>329</v>
       </c>
-      <c r="E70" s="73"/>
-      <c r="F70" s="73"/>
-      <c r="G70" s="69">
-        <v>2</v>
-      </c>
-      <c r="H70" s="74"/>
-    </row>
-    <row r="71" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="85" t="s">
+      <c r="E70" s="134">
+        <v>43766</v>
+      </c>
+      <c r="F70" s="108" t="s">
+        <v>443</v>
+      </c>
+      <c r="G70" s="105">
+        <v>3</v>
+      </c>
+      <c r="H70" s="80"/>
+    </row>
+    <row r="71" spans="1:8" ht="47.25" x14ac:dyDescent="0.3">
+      <c r="A71" s="81" t="s">
         <v>303</v>
       </c>
-      <c r="B71" s="86"/>
-      <c r="C71" s="87" t="s">
-        <v>392</v>
-      </c>
-      <c r="D71" t="s">
-        <v>330</v>
-      </c>
-      <c r="E71" s="88"/>
-      <c r="F71" s="88"/>
-      <c r="G71" s="125">
-        <v>2</v>
-      </c>
-      <c r="H71" s="89"/>
-    </row>
-    <row r="72" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="90" t="s">
+      <c r="B71" s="121" t="s">
+        <v>31</v>
+      </c>
+      <c r="C71" s="82" t="s">
+        <v>319</v>
+      </c>
+      <c r="D71" s="83" t="s">
+        <v>324</v>
+      </c>
+      <c r="E71" s="136">
+        <v>43757</v>
+      </c>
+      <c r="F71" s="106" t="s">
+        <v>444</v>
+      </c>
+      <c r="G71" s="106">
+        <v>3</v>
+      </c>
+      <c r="H71" s="84"/>
+    </row>
+    <row r="72" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="61" t="s">
         <v>304</v>
       </c>
-      <c r="B72" s="91" t="s">
-        <v>31</v>
-      </c>
-      <c r="C72" s="92" t="s">
-        <v>320</v>
-      </c>
-      <c r="D72" s="93" t="s">
+      <c r="B72" s="122"/>
+      <c r="C72" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="D72" s="63" t="s">
         <v>325</v>
       </c>
-      <c r="E72" s="94"/>
-      <c r="F72" s="94" t="s">
-        <v>440</v>
-      </c>
-      <c r="G72" s="126">
-        <v>1</v>
-      </c>
-      <c r="H72" s="95"/>
-    </row>
-    <row r="73" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E72" s="129">
+        <v>43757</v>
+      </c>
+      <c r="F72" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="G72" s="124">
+        <v>3</v>
+      </c>
+      <c r="H72" s="72"/>
+    </row>
+    <row r="73" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A73" s="61" t="s">
         <v>305</v>
       </c>
-      <c r="B73" s="80"/>
-      <c r="C73" s="62" t="s">
-        <v>196</v>
-      </c>
-      <c r="D73" s="63" t="s">
-        <v>326</v>
-      </c>
-      <c r="E73" s="73"/>
-      <c r="F73" s="94" t="s">
-        <v>440</v>
-      </c>
-      <c r="G73" s="128">
-        <v>1</v>
-      </c>
-      <c r="H73" s="74"/>
-    </row>
-    <row r="74" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="B73" s="122"/>
+      <c r="C73" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="74" t="s">
+        <v>223</v>
+      </c>
+      <c r="E73" s="108"/>
+      <c r="F73" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="G73" s="124">
+        <v>4</v>
+      </c>
+      <c r="H73" s="72"/>
+    </row>
+    <row r="74" spans="1:8" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A74" s="61" t="s">
         <v>306</v>
       </c>
-      <c r="B74" s="80"/>
-      <c r="C74" s="75" t="s">
-        <v>33</v>
-      </c>
-      <c r="D74" s="76" t="s">
-        <v>223</v>
-      </c>
-      <c r="E74" s="73"/>
-      <c r="F74" s="73"/>
-      <c r="G74" s="128">
-        <v>1</v>
-      </c>
-      <c r="H74" s="74"/>
+      <c r="B74" s="122"/>
+      <c r="C74" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="D74" s="74" t="s">
+        <v>327</v>
+      </c>
+      <c r="E74" s="108"/>
+      <c r="F74" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="G74" s="124">
+        <v>4</v>
+      </c>
+      <c r="H74" s="72"/>
     </row>
     <row r="75" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A75" s="61" t="s">
         <v>307</v>
       </c>
-      <c r="B75" s="80"/>
-      <c r="C75" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="D75" s="76" t="s">
-        <v>328</v>
-      </c>
-      <c r="E75" s="73"/>
-      <c r="F75" s="73"/>
-      <c r="G75" s="128">
-        <v>1</v>
-      </c>
-      <c r="H75" s="74"/>
-    </row>
-    <row r="76" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="122"/>
+      <c r="C75" s="62" t="s">
+        <v>429</v>
+      </c>
+      <c r="D75" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="E75" s="108"/>
+      <c r="F75" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="G75" s="124">
+        <v>4</v>
+      </c>
+      <c r="H75" s="72"/>
+    </row>
+    <row r="76" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="61" t="s">
         <v>308</v>
       </c>
-      <c r="B76" s="80"/>
+      <c r="B76" s="122"/>
       <c r="C76" s="62" t="s">
-        <v>434</v>
+        <v>37</v>
       </c>
       <c r="D76" s="63" t="s">
-        <v>199</v>
-      </c>
-      <c r="E76" s="73"/>
-      <c r="F76" s="73"/>
-      <c r="G76" s="128">
+        <v>200</v>
+      </c>
+      <c r="E76" s="129">
+        <v>43757</v>
+      </c>
+      <c r="F76" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="G76" s="124">
         <v>1</v>
       </c>
-      <c r="H76" s="74"/>
-    </row>
-    <row r="77" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H76" s="72"/>
+    </row>
+    <row r="77" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A77" s="61" t="s">
         <v>309</v>
       </c>
-      <c r="B77" s="80"/>
+      <c r="B77" s="122"/>
       <c r="C77" s="62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D77" s="63" t="s">
-        <v>200</v>
-      </c>
-      <c r="E77" s="73"/>
-      <c r="F77" s="94" t="s">
-        <v>440</v>
-      </c>
-      <c r="G77" s="128">
-        <v>1</v>
-      </c>
-      <c r="H77" s="74"/>
-    </row>
-    <row r="78" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>312</v>
+      </c>
+      <c r="E77" s="129">
+        <v>43757</v>
+      </c>
+      <c r="F77" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="G77" s="124">
+        <v>3</v>
+      </c>
+      <c r="H77" s="72"/>
+    </row>
+    <row r="78" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A78" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="B78" s="80"/>
+      <c r="B78" s="122"/>
       <c r="C78" s="62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D78" s="63" t="s">
-        <v>313</v>
-      </c>
-      <c r="E78" s="73"/>
-      <c r="F78" s="94" t="s">
-        <v>440</v>
-      </c>
-      <c r="G78" s="128">
-        <v>1</v>
-      </c>
-      <c r="H78" s="74"/>
+        <v>326</v>
+      </c>
+      <c r="E78" s="129">
+        <v>43757</v>
+      </c>
+      <c r="F78" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="G78" s="124">
+        <v>3</v>
+      </c>
+      <c r="H78" s="72"/>
     </row>
     <row r="79" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="61" t="s">
-        <v>311</v>
-      </c>
-      <c r="B79" s="80"/>
+        <v>313</v>
+      </c>
+      <c r="B79" s="122"/>
       <c r="C79" s="62" t="s">
-        <v>39</v>
+        <v>320</v>
       </c>
       <c r="D79" s="63" t="s">
-        <v>327</v>
-      </c>
-      <c r="E79" s="73"/>
-      <c r="F79" s="94" t="s">
-        <v>440</v>
-      </c>
-      <c r="G79" s="128">
-        <v>1</v>
-      </c>
-      <c r="H79" s="74"/>
+        <v>96</v>
+      </c>
+      <c r="E79" s="129">
+        <v>43757</v>
+      </c>
+      <c r="F79" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="G79" s="124">
+        <v>3</v>
+      </c>
+      <c r="H79" s="58"/>
     </row>
     <row r="80" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="61" t="s">
         <v>314</v>
       </c>
-      <c r="B80" s="80"/>
+      <c r="B80" s="122"/>
       <c r="C80" s="62" t="s">
-        <v>321</v>
+        <v>203</v>
       </c>
       <c r="D80" s="63" t="s">
-        <v>96</v>
-      </c>
-      <c r="E80" s="57"/>
-      <c r="F80" s="57"/>
-      <c r="G80" s="128">
+        <v>382</v>
+      </c>
+      <c r="E80" s="129">
+        <v>43757</v>
+      </c>
+      <c r="F80" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="G80" s="124">
         <v>1</v>
       </c>
       <c r="H80" s="58"/>
@@ -6492,64 +6857,149 @@
       <c r="A81" s="61" t="s">
         <v>315</v>
       </c>
-      <c r="B81" s="80"/>
+      <c r="B81" s="122"/>
       <c r="C81" s="62" t="s">
-        <v>203</v>
+        <v>42</v>
       </c>
       <c r="D81" s="63" t="s">
-        <v>386</v>
-      </c>
-      <c r="E81" s="57"/>
-      <c r="F81" s="57"/>
-      <c r="G81" s="128">
+        <v>447</v>
+      </c>
+      <c r="E81" s="129">
+        <v>43757</v>
+      </c>
+      <c r="F81" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="G81" s="125">
+        <v>3</v>
+      </c>
+      <c r="H81" s="58"/>
+    </row>
+    <row r="82" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="85" t="s">
+        <v>316</v>
+      </c>
+      <c r="B82" s="123"/>
+      <c r="C82" s="75" t="s">
+        <v>43</v>
+      </c>
+      <c r="D82" s="76" t="s">
+        <v>381</v>
+      </c>
+      <c r="E82" s="135">
+        <v>43757</v>
+      </c>
+      <c r="F82" s="127" t="s">
+        <v>444</v>
+      </c>
+      <c r="G82" s="103">
         <v>1</v>
       </c>
-      <c r="H81" s="58"/>
-    </row>
-    <row r="82" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="61" t="s">
-        <v>316</v>
-      </c>
-      <c r="B82" s="80"/>
-      <c r="C82" s="62" t="s">
-        <v>42</v>
-      </c>
-      <c r="D82" s="63" t="s">
-        <v>385</v>
-      </c>
-      <c r="E82" s="57"/>
-      <c r="F82" s="57"/>
-      <c r="G82" s="127">
+      <c r="H82" s="60"/>
+    </row>
+    <row r="85" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E85" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="F85" s="50" t="s">
+        <v>441</v>
+      </c>
+      <c r="H85" s="110" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E86" s="109">
         <v>1</v>
       </c>
-      <c r="H82" s="58"/>
-    </row>
-    <row r="83" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="96" t="s">
-        <v>317</v>
-      </c>
-      <c r="B83" s="81"/>
-      <c r="C83" s="77" t="s">
-        <v>43</v>
-      </c>
-      <c r="D83" s="78" t="s">
-        <v>384</v>
-      </c>
-      <c r="E83" s="59"/>
-      <c r="F83" s="59"/>
-      <c r="G83" s="123">
-        <v>1</v>
-      </c>
-      <c r="H83" s="60"/>
+      <c r="F86" s="109">
+        <f>COUNTIF(G2:G82,1)</f>
+        <v>3</v>
+      </c>
+      <c r="G86" s="109"/>
+      <c r="H86" s="57">
+        <f>F86/F91*100</f>
+        <v>3.8961038961038961</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E87" s="109">
+        <v>2</v>
+      </c>
+      <c r="F87" s="109">
+        <f>COUNTIF(G3:G83,2)</f>
+        <v>5</v>
+      </c>
+      <c r="G87" s="109"/>
+      <c r="H87" s="57">
+        <f>F87/F91*100</f>
+        <v>6.4935064935064926</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E88" s="109">
+        <v>3</v>
+      </c>
+      <c r="F88" s="109">
+        <f>COUNTIF(G4:G84,3)</f>
+        <v>20</v>
+      </c>
+      <c r="G88" s="109"/>
+      <c r="H88" s="57">
+        <f>F88/F91*100</f>
+        <v>25.97402597402597</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E89" s="109">
+        <v>4</v>
+      </c>
+      <c r="F89" s="109">
+        <f>COUNTIF(G5:G84,4)</f>
+        <v>14</v>
+      </c>
+      <c r="G89" s="109"/>
+      <c r="H89" s="57">
+        <f>F89/F91*100</f>
+        <v>18.181818181818183</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E90" s="109">
+        <v>5</v>
+      </c>
+      <c r="F90" s="109">
+        <f>COUNTIF(G6:G84,5)</f>
+        <v>35</v>
+      </c>
+      <c r="G90" s="109"/>
+      <c r="H90" s="57">
+        <f>F90/F91*100</f>
+        <v>45.454545454545453</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E91" s="109" t="s">
+        <v>440</v>
+      </c>
+      <c r="F91" s="109">
+        <f>SUM(F86:F90)</f>
+        <v>77</v>
+      </c>
+      <c r="G91" s="109"/>
+      <c r="H91" s="57">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H82"/>
   <mergeCells count="11">
-    <mergeCell ref="B72:B83"/>
+    <mergeCell ref="B71:B82"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B48:B54"/>
-    <mergeCell ref="B55:B66"/>
-    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="B54:B65"/>
+    <mergeCell ref="B66:B70"/>
     <mergeCell ref="B5:B10"/>
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="B16:B22"/>

--- a/설계및정의서/기능리스트_AR 레이싱 게임 v0.1.xlsx
+++ b/설계및정의서/기능리스트_AR 레이싱 게임 v0.1.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\BitCamp_AR\설계및정의서\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
@@ -17,9 +12,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$H$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$H$82</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -30,7 +24,7 @@
     <author>kosta</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1" shapeId="0">
+    <comment ref="H1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -114,7 +108,7 @@
     <author>kosta</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -170,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1" shapeId="0">
+    <comment ref="H1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -192,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="440">
   <si>
     <t>화면명</t>
   </si>
@@ -1323,6 +1317,9 @@
     <t>SRS-048</t>
   </si>
   <si>
+    <t>SRS-049</t>
+  </si>
+  <si>
     <t>SRS-050</t>
   </si>
   <si>
@@ -1522,6 +1519,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>플레이어가 중간에 나가면 닉네임 목록이 사라지는 기능 유저가 소유하고있던 유저목록은 비어있는 상태이며 유저들의 배치가 변동하지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>오른쪽 하단에 방장이 선택한 맵 을 표시해 준다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1558,6 +1559,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>유저의 차량이 보여지게 되며 화면 좌측부근에 보여지게 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>게임 시작 버튼을(위치 미정) 누르게 될 경우 방을 참여하거나 방을 만들 수 있는 화면으로 이동 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1690,6 +1695,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>아이템 표시 위치 아래에 플레이어의 이름을 순위로 나타낸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>플레이어의 차량이 어떤 것인지, 이동방향이 어딘지 알 수 있도록 차량에 표시를 해준다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1806,6 +1815,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>튜닝 화면 기능(튜닝_탭_차모양)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>닉네임 표시 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1899,73 +1912,17 @@
   </si>
   <si>
     <t>방에 접속가능한 최대 인원수 설정 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>튜닝 화면 기능(튜닝_탭_차모양)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뒤로가기 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방 접속 화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어가 중간에 나가면 닉네임 목록이 사라지는 기능 유저가 소유하고있던 유저목록은 비어있는 상태이며 유저들의 배치가 변동하지 않는다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비율</t>
-  </si>
-  <si>
-    <t>총합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우선순위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍승표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김민진</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우선순위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍승표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 표시 위치 아래에 플레이어의 이름을 순위로 나타낸다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저의 차량이 보여지게 되며 화면 좌측부근에 보여지게 된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d"/>
-    <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2142,24 +2099,8 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2172,25 +2113,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="28">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -2422,161 +2346,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2760,6 +2536,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2769,12 +2557,24 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2784,6 +2584,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2793,6 +2596,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2811,186 +2617,23 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="셀 확인" xfId="1" builtinId="23"/>
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -3077,7 +2720,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3112,7 +2755,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5117,1889 +4760,1412 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="C49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.75" customWidth="1"/>
-    <col min="4" max="4" width="97.5" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="50" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="50" customWidth="1"/>
-    <col min="7" max="7" width="8" style="50" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="140.375" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="95" t="s">
+      <c r="F1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="95" t="s">
-        <v>445</v>
-      </c>
-      <c r="H1" s="97" t="s">
+      <c r="G1" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="64" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="90" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="66" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="91" t="s">
+      <c r="D2" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="98"/>
-      <c r="F2" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G2" s="99">
-        <v>5</v>
-      </c>
-      <c r="H2" s="100"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="70"/>
     </row>
     <row r="3" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="65" t="s">
         <v>261</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="64" t="s">
-        <v>385</v>
-      </c>
-      <c r="D3" s="65" t="s">
-        <v>380</v>
-      </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G3" s="68">
-        <v>5</v>
-      </c>
-      <c r="H3" s="66"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="71" t="s">
+        <v>389</v>
+      </c>
+      <c r="D3" s="72" t="s">
+        <v>383</v>
+      </c>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="74"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="65" t="s">
         <v>263</v>
       </c>
-      <c r="B4" s="112"/>
-      <c r="C4" s="64" t="s">
-        <v>384</v>
-      </c>
-      <c r="D4" s="65" t="s">
-        <v>379</v>
-      </c>
-      <c r="E4" s="68"/>
-      <c r="F4" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G4" s="68">
-        <v>5</v>
-      </c>
-      <c r="H4" s="66"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="71" t="s">
+        <v>388</v>
+      </c>
+      <c r="D4" s="72" t="s">
+        <v>382</v>
+      </c>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="74"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="65" t="s">
         <v>264</v>
       </c>
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="92" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="64" t="s">
-        <v>385</v>
-      </c>
-      <c r="D5" s="67" t="s">
-        <v>378</v>
-      </c>
-      <c r="E5" s="68"/>
-      <c r="F5" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G5" s="102">
-        <v>5</v>
-      </c>
-      <c r="H5" s="69"/>
+      <c r="C5" s="71" t="s">
+        <v>389</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>381</v>
+      </c>
+      <c r="E5" s="73"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="78"/>
       <c r="I5" s="56"/>
       <c r="J5" s="55"/>
       <c r="K5" s="55"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="65" t="s">
         <v>265</v>
       </c>
-      <c r="B6" s="112"/>
-      <c r="C6" s="62" t="s">
+      <c r="B6" s="92"/>
+      <c r="C6" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="63" t="s">
-        <v>383</v>
-      </c>
-      <c r="E6" s="68"/>
-      <c r="F6" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G6" s="102">
-        <v>5</v>
-      </c>
-      <c r="H6" s="69"/>
+      <c r="D6" s="67" t="s">
+        <v>387</v>
+      </c>
+      <c r="E6" s="73"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="78"/>
       <c r="I6" s="56"/>
       <c r="J6" s="55"/>
       <c r="K6" s="55"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="65" t="s">
         <v>266</v>
       </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="62" t="s">
-        <v>377</v>
-      </c>
-      <c r="D7" s="63" t="s">
-        <v>376</v>
-      </c>
-      <c r="E7" s="68"/>
-      <c r="F7" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G7" s="102">
-        <v>5</v>
-      </c>
-      <c r="H7" s="69"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="66" t="s">
+        <v>380</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>379</v>
+      </c>
+      <c r="E7" s="73"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="78"/>
       <c r="I7" s="55"/>
       <c r="J7" s="55"/>
       <c r="K7" s="55"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="112"/>
-      <c r="C8" s="64" t="s">
-        <v>386</v>
-      </c>
-      <c r="D8" s="65" t="s">
-        <v>371</v>
-      </c>
-      <c r="E8" s="68"/>
-      <c r="F8" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G8" s="102">
-        <v>5</v>
-      </c>
-      <c r="H8" s="69"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="71" t="s">
+        <v>390</v>
+      </c>
+      <c r="D8" s="72" t="s">
+        <v>374</v>
+      </c>
+      <c r="E8" s="73"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="78"/>
       <c r="I8" s="55"/>
       <c r="J8" s="55"/>
       <c r="K8" s="55"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="112"/>
-      <c r="C9" s="64" t="s">
-        <v>387</v>
-      </c>
-      <c r="D9" s="65" t="s">
-        <v>368</v>
-      </c>
-      <c r="E9" s="68"/>
-      <c r="F9" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G9" s="102">
-        <v>5</v>
-      </c>
-      <c r="H9" s="69"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="71" t="s">
+        <v>391</v>
+      </c>
+      <c r="D9" s="72" t="s">
+        <v>371</v>
+      </c>
+      <c r="E9" s="73"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="78"/>
       <c r="I9" s="55"/>
       <c r="J9" s="55"/>
       <c r="K9" s="55"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="112"/>
-      <c r="C10" s="62" t="s">
-        <v>388</v>
+      <c r="B10" s="92"/>
+      <c r="C10" s="66" t="s">
+        <v>392</v>
       </c>
       <c r="D10" s="57" t="s">
-        <v>341</v>
-      </c>
-      <c r="E10" s="68"/>
-      <c r="F10" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G10" s="102">
-        <v>5</v>
-      </c>
-      <c r="H10" s="69"/>
+        <v>343</v>
+      </c>
+      <c r="E10" s="73"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="78"/>
       <c r="I10" s="55"/>
       <c r="J10" s="55"/>
       <c r="K10" s="55"/>
     </row>
     <row r="11" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="112" t="s">
+      <c r="B11" s="92" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="64" t="s">
-        <v>390</v>
-      </c>
-      <c r="D11" s="65" t="s">
-        <v>375</v>
-      </c>
-      <c r="E11" s="68"/>
-      <c r="F11" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G11" s="102">
-        <v>5</v>
-      </c>
-      <c r="H11" s="69"/>
+      <c r="C11" s="71" t="s">
+        <v>394</v>
+      </c>
+      <c r="D11" s="72" t="s">
+        <v>378</v>
+      </c>
+      <c r="E11" s="73"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="78"/>
       <c r="I11" s="55"/>
       <c r="J11" s="55"/>
       <c r="K11" s="55"/>
     </row>
     <row r="12" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="112"/>
-      <c r="C12" s="64" t="s">
-        <v>389</v>
-      </c>
-      <c r="D12" s="65" t="s">
-        <v>374</v>
-      </c>
-      <c r="E12" s="68"/>
-      <c r="F12" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G12" s="102">
-        <v>5</v>
-      </c>
-      <c r="H12" s="69"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="71" t="s">
+        <v>393</v>
+      </c>
+      <c r="D12" s="72" t="s">
+        <v>377</v>
+      </c>
+      <c r="E12" s="73"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="78"/>
       <c r="I12" s="55"/>
       <c r="J12" s="55"/>
       <c r="K12" s="55"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="61" t="s">
+      <c r="A13" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="64" t="s">
-        <v>391</v>
-      </c>
-      <c r="D13" s="65" t="s">
+      <c r="B13" s="92"/>
+      <c r="C13" s="71" t="s">
+        <v>395</v>
+      </c>
+      <c r="D13" s="72" t="s">
+        <v>376</v>
+      </c>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="74"/>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="92"/>
+      <c r="C14" s="71" t="s">
+        <v>396</v>
+      </c>
+      <c r="D14" s="72" t="s">
+        <v>375</v>
+      </c>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="74"/>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="92"/>
+      <c r="C15" s="66" t="s">
+        <v>392</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>343</v>
+      </c>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="74"/>
+    </row>
+    <row r="16" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="92" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="71" t="s">
+        <v>390</v>
+      </c>
+      <c r="D16" s="72" t="s">
+        <v>374</v>
+      </c>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="74"/>
+    </row>
+    <row r="17" spans="1:8" ht="47.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="92"/>
+      <c r="C17" s="71" t="s">
+        <v>393</v>
+      </c>
+      <c r="D17" s="72" t="s">
         <v>373</v>
       </c>
-      <c r="E13" s="68"/>
-      <c r="F13" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G13" s="68">
-        <v>5</v>
-      </c>
-      <c r="H13" s="66"/>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="112"/>
-      <c r="C14" s="64" t="s">
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="74"/>
+    </row>
+    <row r="18" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="92"/>
+      <c r="C18" s="71" t="s">
+        <v>397</v>
+      </c>
+      <c r="D18" s="72" t="s">
+        <v>372</v>
+      </c>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="74"/>
+    </row>
+    <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="65" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="92"/>
+      <c r="C19" s="71" t="s">
+        <v>398</v>
+      </c>
+      <c r="D19" s="72" t="s">
+        <v>371</v>
+      </c>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="74"/>
+    </row>
+    <row r="20" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="65" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="92"/>
+      <c r="C20" s="71" t="s">
+        <v>399</v>
+      </c>
+      <c r="D20" s="72" t="s">
+        <v>371</v>
+      </c>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="74"/>
+    </row>
+    <row r="21" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="92"/>
+      <c r="C21" s="71" t="s">
+        <v>400</v>
+      </c>
+      <c r="D21" s="72" t="s">
+        <v>370</v>
+      </c>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="74"/>
+    </row>
+    <row r="22" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="92"/>
+      <c r="C22" s="66" t="s">
         <v>392</v>
       </c>
-      <c r="D14" s="65" t="s">
-        <v>372</v>
-      </c>
-      <c r="E14" s="68"/>
-      <c r="F14" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G14" s="68">
-        <v>5</v>
-      </c>
-      <c r="H14" s="66"/>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="112"/>
-      <c r="C15" s="62" t="s">
-        <v>388</v>
-      </c>
-      <c r="D15" s="57" t="s">
+      <c r="D22" s="57" t="s">
+        <v>343</v>
+      </c>
+      <c r="E22" s="73"/>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="74"/>
+    </row>
+    <row r="23" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="66" t="s">
+        <v>401</v>
+      </c>
+      <c r="D23" s="67" t="s">
+        <v>369</v>
+      </c>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="74"/>
+    </row>
+    <row r="24" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="92"/>
+      <c r="C24" s="66" t="s">
+        <v>402</v>
+      </c>
+      <c r="D24" s="67" t="s">
+        <v>368</v>
+      </c>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="74"/>
+    </row>
+    <row r="25" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="92"/>
+      <c r="C25" s="71" t="s">
+        <v>403</v>
+      </c>
+      <c r="D25" s="72" t="s">
+        <v>367</v>
+      </c>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="74"/>
+    </row>
+    <row r="26" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="92"/>
+      <c r="C26" s="71" t="s">
+        <v>404</v>
+      </c>
+      <c r="D26" s="72" t="s">
+        <v>366</v>
+      </c>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="74"/>
+    </row>
+    <row r="27" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="92"/>
+      <c r="C27" s="71" t="s">
+        <v>405</v>
+      </c>
+      <c r="D27" s="72" t="s">
+        <v>365</v>
+      </c>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="74"/>
+    </row>
+    <row r="28" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="92"/>
+      <c r="C28" s="66" t="s">
+        <v>406</v>
+      </c>
+      <c r="D28" s="75" t="s">
+        <v>364</v>
+      </c>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="74"/>
+    </row>
+    <row r="29" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="92"/>
+      <c r="C29" s="66" t="s">
+        <v>407</v>
+      </c>
+      <c r="D29" s="75" t="s">
+        <v>363</v>
+      </c>
+      <c r="E29" s="73"/>
+      <c r="F29" s="73"/>
+      <c r="G29" s="73"/>
+      <c r="H29" s="74"/>
+    </row>
+    <row r="30" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="92"/>
+      <c r="C30" s="66" t="s">
+        <v>408</v>
+      </c>
+      <c r="D30" s="75" t="s">
+        <v>362</v>
+      </c>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="74"/>
+    </row>
+    <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="92"/>
+      <c r="C31" s="66" t="s">
+        <v>409</v>
+      </c>
+      <c r="D31" s="75" t="s">
+        <v>361</v>
+      </c>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="74"/>
+    </row>
+    <row r="32" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="92"/>
+      <c r="C32" s="66" t="s">
+        <v>410</v>
+      </c>
+      <c r="D32" s="75" t="s">
+        <v>360</v>
+      </c>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="74"/>
+    </row>
+    <row r="33" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="92"/>
+      <c r="C33" s="66" t="s">
+        <v>411</v>
+      </c>
+      <c r="D33" s="75" t="s">
+        <v>359</v>
+      </c>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="74"/>
+    </row>
+    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="92"/>
+      <c r="C34" s="66" t="s">
+        <v>422</v>
+      </c>
+      <c r="D34" s="75" t="s">
+        <v>358</v>
+      </c>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="74"/>
+    </row>
+    <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="65" t="s">
+        <v>267</v>
+      </c>
+      <c r="B35" s="92"/>
+      <c r="C35" s="66" t="s">
+        <v>412</v>
+      </c>
+      <c r="D35" s="57" t="s">
+        <v>343</v>
+      </c>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="74"/>
+    </row>
+    <row r="36" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="65" t="s">
+        <v>268</v>
+      </c>
+      <c r="B36" s="92" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="67" t="s">
+        <v>322</v>
+      </c>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="74"/>
+    </row>
+    <row r="37" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="65" t="s">
+        <v>269</v>
+      </c>
+      <c r="B37" s="92"/>
+      <c r="C37" s="71" t="s">
+        <v>413</v>
+      </c>
+      <c r="D37" s="79" t="s">
+        <v>323</v>
+      </c>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="74"/>
+    </row>
+    <row r="38" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="65" t="s">
+        <v>270</v>
+      </c>
+      <c r="B38" s="92"/>
+      <c r="C38" s="71" t="s">
+        <v>392</v>
+      </c>
+      <c r="D38" s="79" t="s">
+        <v>357</v>
+      </c>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="74"/>
+    </row>
+    <row r="39" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="65" t="s">
+        <v>271</v>
+      </c>
+      <c r="B39" s="92"/>
+      <c r="C39" s="71" t="s">
+        <v>414</v>
+      </c>
+      <c r="D39" s="79" t="s">
+        <v>356</v>
+      </c>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="82"/>
+    </row>
+    <row r="40" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="65" t="s">
+        <v>272</v>
+      </c>
+      <c r="B40" s="92"/>
+      <c r="C40" s="71" t="s">
+        <v>415</v>
+      </c>
+      <c r="D40" s="79" t="s">
+        <v>355</v>
+      </c>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="82"/>
+    </row>
+    <row r="41" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="65" t="s">
+        <v>273</v>
+      </c>
+      <c r="B41" s="92"/>
+      <c r="C41" s="71" t="s">
+        <v>233</v>
+      </c>
+      <c r="D41" s="79" t="s">
+        <v>354</v>
+      </c>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="82"/>
+    </row>
+    <row r="42" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="65" t="s">
+        <v>274</v>
+      </c>
+      <c r="B42" s="92"/>
+      <c r="C42" s="66" t="s">
+        <v>416</v>
+      </c>
+      <c r="D42" s="75" t="s">
+        <v>353</v>
+      </c>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="82"/>
+    </row>
+    <row r="43" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="65" t="s">
+        <v>275</v>
+      </c>
+      <c r="B43" s="92"/>
+      <c r="C43" s="80" t="s">
+        <v>417</v>
+      </c>
+      <c r="D43" s="75" t="s">
+        <v>352</v>
+      </c>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="82"/>
+    </row>
+    <row r="44" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="65" t="s">
+        <v>276</v>
+      </c>
+      <c r="B44" s="91" t="s">
+        <v>262</v>
+      </c>
+      <c r="C44" s="66" t="s">
+        <v>188</v>
+      </c>
+      <c r="D44" s="57" t="s">
+        <v>351</v>
+      </c>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="81"/>
+      <c r="H44" s="82"/>
+    </row>
+    <row r="45" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="65" t="s">
+        <v>277</v>
+      </c>
+      <c r="B45" s="91"/>
+      <c r="C45" s="66" t="s">
+        <v>392</v>
+      </c>
+      <c r="D45" s="57" t="s">
+        <v>343</v>
+      </c>
+      <c r="E45" s="81"/>
+      <c r="F45" s="81"/>
+      <c r="G45" s="81"/>
+      <c r="H45" s="82"/>
+    </row>
+    <row r="46" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="65" t="s">
+        <v>278</v>
+      </c>
+      <c r="B46" s="91"/>
+      <c r="C46" s="66" t="s">
+        <v>418</v>
+      </c>
+      <c r="D46" s="57" t="s">
+        <v>350</v>
+      </c>
+      <c r="E46" s="81"/>
+      <c r="F46" s="81"/>
+      <c r="G46" s="81"/>
+      <c r="H46" s="82"/>
+    </row>
+    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A47" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="B47" s="91"/>
+      <c r="C47" s="66" t="s">
+        <v>419</v>
+      </c>
+      <c r="D47" s="57" t="s">
+        <v>349</v>
+      </c>
+      <c r="E47" s="81"/>
+      <c r="F47" s="81"/>
+      <c r="G47" s="81"/>
+      <c r="H47" s="82"/>
+    </row>
+    <row r="48" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="65" t="s">
+        <v>280</v>
+      </c>
+      <c r="B48" s="91" t="s">
+        <v>206</v>
+      </c>
+      <c r="C48" s="80" t="s">
+        <v>318</v>
+      </c>
+      <c r="D48" s="75" t="s">
+        <v>324</v>
+      </c>
+      <c r="E48" s="81"/>
+      <c r="F48" s="81"/>
+      <c r="G48" s="81"/>
+      <c r="H48" s="82"/>
+    </row>
+    <row r="49" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="65" t="s">
+        <v>281</v>
+      </c>
+      <c r="B49" s="91"/>
+      <c r="C49" s="80" t="s">
+        <v>420</v>
+      </c>
+      <c r="D49" s="75" t="s">
+        <v>312</v>
+      </c>
+      <c r="E49" s="81"/>
+      <c r="F49" s="81"/>
+      <c r="G49" s="81"/>
+      <c r="H49" s="82"/>
+    </row>
+    <row r="50" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="65" t="s">
+        <v>282</v>
+      </c>
+      <c r="B50" s="91"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="81"/>
+      <c r="F50" s="81"/>
+      <c r="G50" s="81"/>
+      <c r="H50" s="82"/>
+    </row>
+    <row r="51" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="65" t="s">
+        <v>283</v>
+      </c>
+      <c r="B51" s="91"/>
+      <c r="C51" s="66" t="s">
+        <v>421</v>
+      </c>
+      <c r="D51" s="67" t="s">
+        <v>348</v>
+      </c>
+      <c r="E51" s="81"/>
+      <c r="F51" s="81"/>
+      <c r="G51" s="81"/>
+      <c r="H51" s="82"/>
+    </row>
+    <row r="52" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="65" t="s">
+        <v>284</v>
+      </c>
+      <c r="B52" s="91"/>
+      <c r="C52" s="66" t="s">
+        <v>435</v>
+      </c>
+      <c r="D52" s="75" t="s">
+        <v>347</v>
+      </c>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
+      <c r="G52" s="81"/>
+      <c r="H52" s="82"/>
+    </row>
+    <row r="53" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="B53" s="91"/>
+      <c r="C53" s="66" t="s">
+        <v>392</v>
+      </c>
+      <c r="D53" s="75" t="s">
+        <v>346</v>
+      </c>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="81"/>
+      <c r="H53" s="82"/>
+    </row>
+    <row r="54" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="65" t="s">
+        <v>286</v>
+      </c>
+      <c r="B54" s="91"/>
+      <c r="C54" s="66" t="s">
+        <v>436</v>
+      </c>
+      <c r="D54" s="75" t="s">
+        <v>259</v>
+      </c>
+      <c r="E54" s="81"/>
+      <c r="F54" s="81"/>
+      <c r="G54" s="81"/>
+      <c r="H54" s="82"/>
+    </row>
+    <row r="55" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="65" t="s">
+        <v>287</v>
+      </c>
+      <c r="B55" s="91" t="s">
+        <v>235</v>
+      </c>
+      <c r="C55" s="80" t="s">
+        <v>423</v>
+      </c>
+      <c r="D55" s="75" t="s">
+        <v>345</v>
+      </c>
+      <c r="E55" s="81"/>
+      <c r="F55" s="81"/>
+      <c r="G55" s="81"/>
+      <c r="H55" s="82"/>
+    </row>
+    <row r="56" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="65" t="s">
+        <v>288</v>
+      </c>
+      <c r="B56" s="91"/>
+      <c r="C56" s="80" t="s">
+        <v>424</v>
+      </c>
+      <c r="D56" s="75" t="s">
+        <v>344</v>
+      </c>
+      <c r="E56" s="81"/>
+      <c r="F56" s="81"/>
+      <c r="G56" s="81"/>
+      <c r="H56" s="82"/>
+    </row>
+    <row r="57" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="65" t="s">
+        <v>289</v>
+      </c>
+      <c r="B57" s="91"/>
+      <c r="C57" s="80" t="s">
+        <v>392</v>
+      </c>
+      <c r="D57" s="75" t="s">
+        <v>343</v>
+      </c>
+      <c r="E57" s="81"/>
+      <c r="F57" s="81"/>
+      <c r="G57" s="81"/>
+      <c r="H57" s="82"/>
+    </row>
+    <row r="58" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="65" t="s">
+        <v>290</v>
+      </c>
+      <c r="B58" s="91"/>
+      <c r="C58" s="80" t="s">
+        <v>425</v>
+      </c>
+      <c r="D58" s="75" t="s">
+        <v>342</v>
+      </c>
+      <c r="E58" s="81"/>
+      <c r="F58" s="81"/>
+      <c r="G58" s="81"/>
+      <c r="H58" s="82"/>
+    </row>
+    <row r="59" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="65" t="s">
+        <v>291</v>
+      </c>
+      <c r="B59" s="91"/>
+      <c r="C59" s="87" t="s">
+        <v>437</v>
+      </c>
+      <c r="D59" s="75" t="s">
         <v>341</v>
       </c>
-      <c r="E15" s="68"/>
-      <c r="F15" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G15" s="68">
-        <v>5</v>
-      </c>
-      <c r="H15" s="66"/>
-    </row>
-    <row r="16" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="112" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="64" t="s">
-        <v>386</v>
-      </c>
-      <c r="D16" s="65" t="s">
-        <v>371</v>
-      </c>
-      <c r="E16" s="68"/>
-      <c r="F16" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G16" s="68">
-        <v>5</v>
-      </c>
-      <c r="H16" s="66"/>
-    </row>
-    <row r="17" spans="1:8" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="61" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="112"/>
-      <c r="C17" s="64" t="s">
-        <v>389</v>
-      </c>
-      <c r="D17" s="65" t="s">
-        <v>370</v>
-      </c>
-      <c r="E17" s="68"/>
-      <c r="F17" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G17" s="68">
-        <v>5</v>
-      </c>
-      <c r="H17" s="66"/>
-    </row>
-    <row r="18" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="112"/>
-      <c r="C18" s="64" t="s">
-        <v>393</v>
-      </c>
-      <c r="D18" s="65" t="s">
-        <v>369</v>
-      </c>
-      <c r="E18" s="68"/>
-      <c r="F18" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G18" s="68">
-        <v>5</v>
-      </c>
-      <c r="H18" s="66"/>
-    </row>
-    <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="112"/>
-      <c r="C19" s="64" t="s">
-        <v>394</v>
-      </c>
-      <c r="D19" s="65" t="s">
-        <v>368</v>
-      </c>
-      <c r="E19" s="68"/>
-      <c r="F19" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G19" s="68">
-        <v>5</v>
-      </c>
-      <c r="H19" s="66"/>
-    </row>
-    <row r="20" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="112"/>
-      <c r="C20" s="64" t="s">
-        <v>395</v>
-      </c>
-      <c r="D20" s="65" t="s">
-        <v>368</v>
-      </c>
-      <c r="E20" s="68"/>
-      <c r="F20" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G20" s="68">
-        <v>5</v>
-      </c>
-      <c r="H20" s="66"/>
-    </row>
-    <row r="21" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="112"/>
-      <c r="C21" s="64" t="s">
-        <v>396</v>
-      </c>
-      <c r="D21" s="65" t="s">
-        <v>367</v>
-      </c>
-      <c r="E21" s="68"/>
-      <c r="F21" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G21" s="68">
-        <v>5</v>
-      </c>
-      <c r="H21" s="66"/>
-    </row>
-    <row r="22" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="112"/>
-      <c r="C22" s="62" t="s">
-        <v>388</v>
-      </c>
-      <c r="D22" s="57" t="s">
-        <v>341</v>
-      </c>
-      <c r="E22" s="68"/>
-      <c r="F22" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G22" s="68">
-        <v>5</v>
-      </c>
-      <c r="H22" s="66"/>
-    </row>
-    <row r="23" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="112" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="62" t="s">
-        <v>397</v>
-      </c>
-      <c r="D23" s="63" t="s">
-        <v>366</v>
-      </c>
-      <c r="E23" s="68"/>
-      <c r="F23" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G23" s="68">
-        <v>5</v>
-      </c>
-      <c r="H23" s="66"/>
-    </row>
-    <row r="24" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="112"/>
-      <c r="C24" s="62" t="s">
-        <v>398</v>
-      </c>
-      <c r="D24" s="63" t="s">
-        <v>365</v>
-      </c>
-      <c r="E24" s="68"/>
-      <c r="F24" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G24" s="68">
-        <v>5</v>
-      </c>
-      <c r="H24" s="66"/>
-    </row>
-    <row r="25" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="112"/>
-      <c r="C25" s="64" t="s">
-        <v>399</v>
-      </c>
-      <c r="D25" s="65" t="s">
-        <v>364</v>
-      </c>
-      <c r="E25" s="68"/>
-      <c r="F25" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G25" s="68">
-        <v>5</v>
-      </c>
-      <c r="H25" s="66"/>
-    </row>
-    <row r="26" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="112"/>
-      <c r="C26" s="64" t="s">
-        <v>400</v>
-      </c>
-      <c r="D26" s="65" t="s">
-        <v>363</v>
-      </c>
-      <c r="E26" s="68"/>
-      <c r="F26" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G26" s="68">
-        <v>5</v>
-      </c>
-      <c r="H26" s="66"/>
-    </row>
-    <row r="27" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="112"/>
-      <c r="C27" s="64" t="s">
-        <v>401</v>
-      </c>
-      <c r="D27" s="65" t="s">
-        <v>362</v>
-      </c>
-      <c r="E27" s="68"/>
-      <c r="F27" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G27" s="68">
-        <v>5</v>
-      </c>
-      <c r="H27" s="66"/>
-    </row>
-    <row r="28" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="112"/>
-      <c r="C28" s="62" t="s">
-        <v>402</v>
-      </c>
-      <c r="D28" s="67" t="s">
-        <v>361</v>
-      </c>
-      <c r="E28" s="68"/>
-      <c r="F28" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G28" s="68">
-        <v>5</v>
-      </c>
-      <c r="H28" s="66"/>
-    </row>
-    <row r="29" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="112"/>
-      <c r="C29" s="62" t="s">
-        <v>403</v>
-      </c>
-      <c r="D29" s="67" t="s">
-        <v>360</v>
-      </c>
-      <c r="E29" s="68"/>
-      <c r="F29" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G29" s="68">
-        <v>5</v>
-      </c>
-      <c r="H29" s="66"/>
-    </row>
-    <row r="30" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="112"/>
-      <c r="C30" s="62" t="s">
-        <v>404</v>
-      </c>
-      <c r="D30" s="67" t="s">
-        <v>359</v>
-      </c>
-      <c r="E30" s="68"/>
-      <c r="F30" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G30" s="68">
-        <v>5</v>
-      </c>
-      <c r="H30" s="66"/>
-    </row>
-    <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="112"/>
-      <c r="C31" s="62" t="s">
-        <v>405</v>
-      </c>
-      <c r="D31" s="67" t="s">
-        <v>358</v>
-      </c>
-      <c r="E31" s="68"/>
-      <c r="F31" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G31" s="68">
-        <v>5</v>
-      </c>
-      <c r="H31" s="66"/>
-    </row>
-    <row r="32" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="112"/>
-      <c r="C32" s="62" t="s">
-        <v>406</v>
-      </c>
-      <c r="D32" s="67" t="s">
-        <v>357</v>
-      </c>
-      <c r="E32" s="68"/>
-      <c r="F32" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G32" s="68">
-        <v>5</v>
-      </c>
-      <c r="H32" s="66"/>
-    </row>
-    <row r="33" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="61" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="112"/>
-      <c r="C33" s="62" t="s">
-        <v>407</v>
-      </c>
-      <c r="D33" s="67" t="s">
-        <v>356</v>
-      </c>
-      <c r="E33" s="68"/>
-      <c r="F33" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G33" s="68">
-        <v>5</v>
-      </c>
-      <c r="H33" s="66"/>
-    </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="61" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="112"/>
-      <c r="C34" s="62" t="s">
-        <v>417</v>
-      </c>
-      <c r="D34" s="67" t="s">
-        <v>355</v>
-      </c>
-      <c r="E34" s="68"/>
-      <c r="F34" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G34" s="68">
-        <v>5</v>
-      </c>
-      <c r="H34" s="66"/>
-    </row>
-    <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="85" t="s">
-        <v>267</v>
-      </c>
-      <c r="B35" s="113"/>
-      <c r="C35" s="75" t="s">
-        <v>408</v>
-      </c>
-      <c r="D35" s="59" t="s">
-        <v>341</v>
-      </c>
-      <c r="E35" s="126"/>
-      <c r="F35" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G35" s="68">
-        <v>5</v>
-      </c>
-      <c r="H35" s="101"/>
-    </row>
-    <row r="36" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="81" t="s">
-        <v>268</v>
-      </c>
-      <c r="B36" s="117" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="90" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="91" t="s">
-        <v>321</v>
-      </c>
-      <c r="E36" s="130">
-        <v>43757</v>
-      </c>
-      <c r="F36" s="106" t="s">
-        <v>444</v>
-      </c>
-      <c r="G36" s="104">
-        <v>3</v>
-      </c>
-      <c r="H36" s="92"/>
-    </row>
-    <row r="37" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="61" t="s">
-        <v>269</v>
-      </c>
-      <c r="B37" s="118"/>
-      <c r="C37" s="64" t="s">
-        <v>409</v>
-      </c>
-      <c r="D37" s="70" t="s">
-        <v>322</v>
-      </c>
-      <c r="E37" s="131">
-        <v>43766</v>
-      </c>
-      <c r="F37" s="108" t="s">
-        <v>444</v>
-      </c>
-      <c r="G37" s="68">
-        <v>3</v>
-      </c>
-      <c r="H37" s="66"/>
-    </row>
-    <row r="38" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="61" t="s">
-        <v>270</v>
-      </c>
-      <c r="B38" s="118"/>
-      <c r="C38" s="64" t="s">
-        <v>388</v>
-      </c>
-      <c r="D38" s="70" t="s">
-        <v>354</v>
-      </c>
-      <c r="E38" s="68"/>
-      <c r="F38" s="108" t="s">
-        <v>444</v>
-      </c>
-      <c r="G38" s="68">
-        <v>5</v>
-      </c>
-      <c r="H38" s="66"/>
-    </row>
-    <row r="39" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="61" t="s">
-        <v>271</v>
-      </c>
-      <c r="B39" s="118"/>
-      <c r="C39" s="64" t="s">
-        <v>410</v>
-      </c>
-      <c r="D39" s="70" t="s">
-        <v>353</v>
-      </c>
-      <c r="E39" s="129">
-        <v>43757</v>
-      </c>
-      <c r="F39" s="108" t="s">
-        <v>444</v>
-      </c>
-      <c r="G39" s="68">
-        <v>3</v>
-      </c>
-      <c r="H39" s="72"/>
-    </row>
-    <row r="40" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="61" t="s">
-        <v>272</v>
-      </c>
-      <c r="B40" s="118"/>
-      <c r="C40" s="64" t="s">
-        <v>435</v>
-      </c>
-      <c r="D40" s="70" t="s">
-        <v>352</v>
-      </c>
-      <c r="E40" s="129">
-        <v>43757</v>
-      </c>
-      <c r="F40" s="108" t="s">
-        <v>444</v>
-      </c>
-      <c r="G40" s="68">
-        <v>3</v>
-      </c>
-      <c r="H40" s="72"/>
-    </row>
-    <row r="41" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="61" t="s">
-        <v>273</v>
-      </c>
-      <c r="B41" s="118"/>
-      <c r="C41" s="64" t="s">
-        <v>233</v>
-      </c>
-      <c r="D41" s="70" t="s">
-        <v>351</v>
-      </c>
-      <c r="E41" s="129">
-        <v>43766</v>
-      </c>
-      <c r="F41" s="108" t="s">
-        <v>444</v>
-      </c>
-      <c r="G41" s="68">
-        <v>4</v>
-      </c>
-      <c r="H41" s="72"/>
-    </row>
-    <row r="42" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="61" t="s">
-        <v>274</v>
-      </c>
-      <c r="B42" s="118"/>
-      <c r="C42" s="62" t="s">
-        <v>411</v>
-      </c>
-      <c r="D42" s="67" t="s">
-        <v>350</v>
-      </c>
-      <c r="E42" s="129">
-        <v>43766</v>
-      </c>
-      <c r="F42" s="108" t="s">
-        <v>444</v>
-      </c>
-      <c r="G42" s="68">
-        <v>4</v>
-      </c>
-      <c r="H42" s="72"/>
-    </row>
-    <row r="43" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="61" t="s">
-        <v>275</v>
-      </c>
-      <c r="B43" s="118"/>
-      <c r="C43" s="71" t="s">
-        <v>412</v>
-      </c>
-      <c r="D43" s="67" t="s">
-        <v>349</v>
-      </c>
-      <c r="E43" s="129">
-        <v>43766</v>
-      </c>
-      <c r="F43" s="108" t="s">
-        <v>444</v>
-      </c>
-      <c r="G43" s="68">
-        <v>4</v>
-      </c>
-      <c r="H43" s="72"/>
-    </row>
-    <row r="44" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="61" t="s">
-        <v>276</v>
-      </c>
-      <c r="B44" s="119" t="s">
-        <v>262</v>
-      </c>
-      <c r="C44" s="62" t="s">
-        <v>188</v>
-      </c>
-      <c r="D44" s="57" t="s">
-        <v>448</v>
-      </c>
-      <c r="E44" s="129">
-        <v>43757</v>
-      </c>
-      <c r="F44" s="108" t="s">
-        <v>444</v>
-      </c>
-      <c r="G44" s="68">
-        <v>3</v>
-      </c>
-      <c r="H44" s="72"/>
-    </row>
-    <row r="45" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="61" t="s">
-        <v>277</v>
-      </c>
-      <c r="B45" s="119"/>
-      <c r="C45" s="62" t="s">
-        <v>388</v>
-      </c>
-      <c r="D45" s="57" t="s">
-        <v>341</v>
-      </c>
-      <c r="E45" s="108"/>
-      <c r="F45" s="108" t="s">
-        <v>444</v>
-      </c>
-      <c r="G45" s="68">
-        <v>5</v>
-      </c>
-      <c r="H45" s="72"/>
-    </row>
-    <row r="46" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="61" t="s">
-        <v>278</v>
-      </c>
-      <c r="B46" s="119"/>
-      <c r="C46" s="62" t="s">
-        <v>413</v>
-      </c>
-      <c r="D46" s="57" t="s">
-        <v>348</v>
-      </c>
-      <c r="E46" s="129">
-        <v>43766</v>
-      </c>
-      <c r="F46" s="108" t="s">
-        <v>444</v>
-      </c>
-      <c r="G46" s="68">
-        <v>4</v>
-      </c>
-      <c r="H46" s="72"/>
-    </row>
-    <row r="47" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="85" t="s">
-        <v>279</v>
-      </c>
-      <c r="B47" s="120"/>
-      <c r="C47" s="75" t="s">
-        <v>414</v>
-      </c>
-      <c r="D47" s="59" t="s">
-        <v>347</v>
-      </c>
-      <c r="E47" s="135">
-        <v>43766</v>
-      </c>
-      <c r="F47" s="127" t="s">
-        <v>444</v>
-      </c>
-      <c r="G47" s="105">
-        <v>4</v>
-      </c>
-      <c r="H47" s="93"/>
-    </row>
-    <row r="48" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="86" t="s">
-        <v>280</v>
-      </c>
-      <c r="B48" s="114" t="s">
-        <v>206</v>
-      </c>
-      <c r="C48" s="87" t="s">
-        <v>317</v>
-      </c>
-      <c r="D48" s="88" t="s">
-        <v>323</v>
-      </c>
-      <c r="E48" s="128">
-        <v>43757</v>
-      </c>
-      <c r="F48" s="107" t="s">
-        <v>446</v>
-      </c>
-      <c r="G48" s="104">
-        <v>2</v>
-      </c>
-      <c r="H48" s="89"/>
-    </row>
-    <row r="49" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="61" t="s">
-        <v>281</v>
-      </c>
-      <c r="B49" s="115"/>
-      <c r="C49" s="71" t="s">
-        <v>415</v>
-      </c>
-      <c r="D49" s="67" t="s">
-        <v>311</v>
-      </c>
-      <c r="E49" s="128">
-        <v>43757</v>
-      </c>
-      <c r="F49" s="108" t="s">
-        <v>443</v>
-      </c>
-      <c r="G49" s="68">
-        <v>2</v>
-      </c>
-      <c r="H49" s="72"/>
-    </row>
-    <row r="50" spans="1:8" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A50" s="61" t="s">
-        <v>282</v>
-      </c>
-      <c r="B50" s="115"/>
-      <c r="C50" s="62" t="s">
-        <v>416</v>
-      </c>
-      <c r="D50" s="63" t="s">
-        <v>346</v>
-      </c>
-      <c r="E50" s="108"/>
-      <c r="F50" s="108" t="s">
-        <v>443</v>
-      </c>
-      <c r="G50" s="68">
-        <v>4</v>
-      </c>
-      <c r="H50" s="72"/>
-    </row>
-    <row r="51" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="61" t="s">
-        <v>283</v>
-      </c>
-      <c r="B51" s="115"/>
-      <c r="C51" s="62" t="s">
+      <c r="E59" s="81"/>
+      <c r="F59" s="81"/>
+      <c r="G59" s="81"/>
+      <c r="H59" s="82"/>
+    </row>
+    <row r="60" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="65" t="s">
+        <v>292</v>
+      </c>
+      <c r="B60" s="91"/>
+      <c r="C60" s="80" t="s">
+        <v>426</v>
+      </c>
+      <c r="D60" s="75" t="s">
+        <v>340</v>
+      </c>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
+      <c r="G60" s="81"/>
+      <c r="H60" s="82"/>
+    </row>
+    <row r="61" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="65" t="s">
+        <v>293</v>
+      </c>
+      <c r="B61" s="91"/>
+      <c r="C61" s="80" t="s">
+        <v>427</v>
+      </c>
+      <c r="D61" s="75" t="s">
+        <v>339</v>
+      </c>
+      <c r="E61" s="81"/>
+      <c r="F61" s="81"/>
+      <c r="G61" s="81"/>
+      <c r="H61" s="82"/>
+    </row>
+    <row r="62" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="65" t="s">
+        <v>294</v>
+      </c>
+      <c r="B62" s="91"/>
+      <c r="C62" s="87" t="s">
+        <v>438</v>
+      </c>
+      <c r="D62" s="75" t="s">
+        <v>338</v>
+      </c>
+      <c r="E62" s="81"/>
+      <c r="F62" s="81"/>
+      <c r="G62" s="81"/>
+      <c r="H62" s="82"/>
+    </row>
+    <row r="63" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="65" t="s">
+        <v>295</v>
+      </c>
+      <c r="B63" s="91"/>
+      <c r="C63" s="80" t="s">
+        <v>428</v>
+      </c>
+      <c r="D63" s="75" t="s">
+        <v>337</v>
+      </c>
+      <c r="E63" s="81"/>
+      <c r="F63" s="81"/>
+      <c r="G63" s="81"/>
+      <c r="H63" s="82"/>
+    </row>
+    <row r="64" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="65" t="s">
+        <v>296</v>
+      </c>
+      <c r="B64" s="91"/>
+      <c r="C64" s="80" t="s">
+        <v>429</v>
+      </c>
+      <c r="D64" s="75" t="s">
+        <v>336</v>
+      </c>
+      <c r="E64" s="81"/>
+      <c r="F64" s="81"/>
+      <c r="G64" s="81"/>
+      <c r="H64" s="82"/>
+    </row>
+    <row r="65" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="65" t="s">
+        <v>297</v>
+      </c>
+      <c r="B65" s="91"/>
+      <c r="C65" s="87" t="s">
+        <v>439</v>
+      </c>
+      <c r="D65" s="75" t="s">
+        <v>335</v>
+      </c>
+      <c r="E65" s="81"/>
+      <c r="F65" s="81"/>
+      <c r="G65" s="81"/>
+      <c r="H65" s="82"/>
+    </row>
+    <row r="66" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="65" t="s">
+        <v>298</v>
+      </c>
+      <c r="B66" s="91"/>
+      <c r="C66" s="80" t="s">
         <v>430</v>
       </c>
-      <c r="D51" s="67" t="s">
-        <v>345</v>
-      </c>
-      <c r="E51" s="129">
-        <v>43757</v>
-      </c>
-      <c r="F51" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G51" s="68">
-        <v>3</v>
-      </c>
-      <c r="H51" s="72"/>
-    </row>
-    <row r="52" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="61" t="s">
-        <v>284</v>
-      </c>
-      <c r="B52" s="115"/>
-      <c r="C52" s="62" t="s">
-        <v>436</v>
-      </c>
-      <c r="D52" s="67" t="s">
-        <v>344</v>
-      </c>
-      <c r="E52" s="108"/>
-      <c r="F52" s="108" t="s">
-        <v>443</v>
-      </c>
-      <c r="G52" s="68">
-        <v>5</v>
-      </c>
-      <c r="H52" s="72"/>
-    </row>
-    <row r="53" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="61" t="s">
-        <v>285</v>
-      </c>
-      <c r="B53" s="115"/>
-      <c r="C53" s="62" t="s">
+      <c r="D66" s="75" t="s">
+        <v>334</v>
+      </c>
+      <c r="E66" s="81"/>
+      <c r="F66" s="81"/>
+      <c r="G66" s="81"/>
+      <c r="H66" s="82"/>
+    </row>
+    <row r="67" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="65" t="s">
+        <v>299</v>
+      </c>
+      <c r="B67" s="91" t="s">
+        <v>176</v>
+      </c>
+      <c r="C67" s="66" t="s">
+        <v>319</v>
+      </c>
+      <c r="D67" t="s">
+        <v>333</v>
+      </c>
+      <c r="E67" s="81"/>
+      <c r="F67" s="81"/>
+      <c r="G67" s="81"/>
+      <c r="H67" s="82"/>
+    </row>
+    <row r="68" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="65" t="s">
+        <v>300</v>
+      </c>
+      <c r="B68" s="91"/>
+      <c r="C68" s="66" t="s">
         <v>431</v>
       </c>
-      <c r="D53" s="67" t="s">
-        <v>259</v>
-      </c>
-      <c r="E53" s="133">
-        <v>43757</v>
-      </c>
-      <c r="F53" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G53" s="68">
-        <v>3</v>
-      </c>
-      <c r="H53" s="72"/>
-    </row>
-    <row r="54" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="61" t="s">
-        <v>286</v>
-      </c>
-      <c r="B54" s="115" t="s">
-        <v>437</v>
-      </c>
-      <c r="C54" s="71" t="s">
-        <v>418</v>
-      </c>
-      <c r="D54" s="132" t="s">
-        <v>343</v>
-      </c>
-      <c r="E54" s="134">
-        <v>43766</v>
-      </c>
-      <c r="F54" s="124" t="s">
-        <v>443</v>
-      </c>
-      <c r="G54" s="68">
-        <v>3</v>
-      </c>
-      <c r="H54" s="72"/>
-    </row>
-    <row r="55" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="61" t="s">
-        <v>287</v>
-      </c>
-      <c r="B55" s="115"/>
-      <c r="C55" s="71" t="s">
-        <v>419</v>
-      </c>
-      <c r="D55" s="67" t="s">
-        <v>342</v>
-      </c>
-      <c r="E55" s="128">
-        <v>43757</v>
-      </c>
-      <c r="F55" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G55" s="68">
-        <v>2</v>
-      </c>
-      <c r="H55" s="72"/>
-    </row>
-    <row r="56" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="61" t="s">
-        <v>288</v>
-      </c>
-      <c r="B56" s="115"/>
-      <c r="C56" s="71" t="s">
-        <v>388</v>
-      </c>
-      <c r="D56" s="67" t="s">
-        <v>341</v>
-      </c>
-      <c r="E56" s="108"/>
-      <c r="F56" s="108" t="s">
-        <v>443</v>
-      </c>
-      <c r="G56" s="68">
-        <v>5</v>
-      </c>
-      <c r="H56" s="72"/>
-    </row>
-    <row r="57" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="61" t="s">
-        <v>289</v>
-      </c>
-      <c r="B57" s="115"/>
-      <c r="C57" s="71" t="s">
-        <v>420</v>
-      </c>
-      <c r="D57" s="67" t="s">
-        <v>340</v>
-      </c>
-      <c r="E57" s="134">
-        <v>43766</v>
-      </c>
-      <c r="F57" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G57" s="68">
-        <v>3</v>
-      </c>
-      <c r="H57" s="72"/>
-    </row>
-    <row r="58" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="61" t="s">
-        <v>290</v>
-      </c>
-      <c r="B58" s="115"/>
-      <c r="C58" s="77" t="s">
+      <c r="D68" t="s">
+        <v>332</v>
+      </c>
+      <c r="E68" s="81"/>
+      <c r="F68" s="81"/>
+      <c r="G68" s="81"/>
+      <c r="H68" s="82"/>
+    </row>
+    <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A69" s="65" t="s">
+        <v>301</v>
+      </c>
+      <c r="B69" s="91"/>
+      <c r="C69" s="66" t="s">
         <v>432</v>
       </c>
-      <c r="D58" s="67" t="s">
-        <v>438</v>
-      </c>
-      <c r="E58" s="134">
-        <v>43766</v>
-      </c>
-      <c r="F58" s="108" t="s">
-        <v>443</v>
-      </c>
-      <c r="G58" s="68">
-        <v>3</v>
-      </c>
-      <c r="H58" s="72"/>
-    </row>
-    <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="61" t="s">
-        <v>291</v>
-      </c>
-      <c r="B59" s="115"/>
-      <c r="C59" s="71" t="s">
-        <v>421</v>
-      </c>
-      <c r="D59" s="67" t="s">
-        <v>339</v>
-      </c>
-      <c r="E59" s="134">
-        <v>43766</v>
-      </c>
-      <c r="F59" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G59" s="68">
-        <v>3</v>
-      </c>
-      <c r="H59" s="72"/>
-    </row>
-    <row r="60" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A60" s="61" t="s">
-        <v>292</v>
-      </c>
-      <c r="B60" s="115"/>
-      <c r="C60" s="71" t="s">
-        <v>422</v>
-      </c>
-      <c r="D60" s="67" t="s">
-        <v>338</v>
-      </c>
-      <c r="E60" s="134">
-        <v>43766</v>
-      </c>
-      <c r="F60" s="108" t="s">
-        <v>443</v>
-      </c>
-      <c r="G60" s="68">
-        <v>3</v>
-      </c>
-      <c r="H60" s="72"/>
-    </row>
-    <row r="61" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="61" t="s">
-        <v>293</v>
-      </c>
-      <c r="B61" s="115"/>
-      <c r="C61" s="77" t="s">
+      <c r="D69" t="s">
+        <v>331</v>
+      </c>
+      <c r="E69" s="81"/>
+      <c r="F69" s="81"/>
+      <c r="G69" s="81"/>
+      <c r="H69" s="82"/>
+    </row>
+    <row r="70" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A70" s="65" t="s">
+        <v>302</v>
+      </c>
+      <c r="B70" s="91"/>
+      <c r="C70" s="66" t="s">
         <v>433</v>
-      </c>
-      <c r="D61" s="67" t="s">
-        <v>337</v>
-      </c>
-      <c r="E61" s="108"/>
-      <c r="F61" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G61" s="68">
-        <v>4</v>
-      </c>
-      <c r="H61" s="72"/>
-    </row>
-    <row r="62" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="61" t="s">
-        <v>294</v>
-      </c>
-      <c r="B62" s="115"/>
-      <c r="C62" s="71" t="s">
-        <v>423</v>
-      </c>
-      <c r="D62" s="67" t="s">
-        <v>336</v>
-      </c>
-      <c r="E62" s="108"/>
-      <c r="F62" s="108" t="s">
-        <v>443</v>
-      </c>
-      <c r="G62" s="68">
-        <v>4</v>
-      </c>
-      <c r="H62" s="72"/>
-    </row>
-    <row r="63" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="61" t="s">
-        <v>295</v>
-      </c>
-      <c r="B63" s="115"/>
-      <c r="C63" s="71" t="s">
-        <v>424</v>
-      </c>
-      <c r="D63" s="67" t="s">
-        <v>335</v>
-      </c>
-      <c r="E63" s="108"/>
-      <c r="F63" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G63" s="68">
-        <v>4</v>
-      </c>
-      <c r="H63" s="72"/>
-    </row>
-    <row r="64" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="61" t="s">
-        <v>296</v>
-      </c>
-      <c r="B64" s="115"/>
-      <c r="C64" s="77" t="s">
-        <v>434</v>
-      </c>
-      <c r="D64" s="67" t="s">
-        <v>334</v>
-      </c>
-      <c r="E64" s="108"/>
-      <c r="F64" s="108" t="s">
-        <v>443</v>
-      </c>
-      <c r="G64" s="68">
-        <v>5</v>
-      </c>
-      <c r="H64" s="72"/>
-    </row>
-    <row r="65" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="61" t="s">
-        <v>297</v>
-      </c>
-      <c r="B65" s="115"/>
-      <c r="C65" s="71" t="s">
-        <v>425</v>
-      </c>
-      <c r="D65" s="67" t="s">
-        <v>333</v>
-      </c>
-      <c r="E65" s="128">
-        <v>43757</v>
-      </c>
-      <c r="F65" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G65" s="68">
-        <v>2</v>
-      </c>
-      <c r="H65" s="72"/>
-    </row>
-    <row r="66" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="61" t="s">
-        <v>298</v>
-      </c>
-      <c r="B66" s="115" t="s">
-        <v>176</v>
-      </c>
-      <c r="C66" s="62" t="s">
-        <v>318</v>
-      </c>
-      <c r="D66" t="s">
-        <v>332</v>
-      </c>
-      <c r="E66" s="134">
-        <v>43766</v>
-      </c>
-      <c r="F66" s="108" t="s">
-        <v>443</v>
-      </c>
-      <c r="G66" s="68">
-        <v>3</v>
-      </c>
-      <c r="H66" s="72"/>
-    </row>
-    <row r="67" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A67" s="61" t="s">
-        <v>299</v>
-      </c>
-      <c r="B67" s="115"/>
-      <c r="C67" s="62" t="s">
-        <v>426</v>
-      </c>
-      <c r="D67" t="s">
-        <v>331</v>
-      </c>
-      <c r="E67" s="134">
-        <v>43766</v>
-      </c>
-      <c r="F67" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G67" s="68">
-        <v>4</v>
-      </c>
-      <c r="H67" s="72"/>
-    </row>
-    <row r="68" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A68" s="61" t="s">
-        <v>300</v>
-      </c>
-      <c r="B68" s="115"/>
-      <c r="C68" s="62" t="s">
-        <v>427</v>
-      </c>
-      <c r="D68" t="s">
-        <v>330</v>
-      </c>
-      <c r="E68" s="134">
-        <v>43766</v>
-      </c>
-      <c r="F68" s="108" t="s">
-        <v>443</v>
-      </c>
-      <c r="G68" s="68">
-        <v>4</v>
-      </c>
-      <c r="H68" s="72"/>
-    </row>
-    <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="61" t="s">
-        <v>301</v>
-      </c>
-      <c r="B69" s="115"/>
-      <c r="C69" s="62" t="s">
-        <v>428</v>
-      </c>
-      <c r="D69" t="s">
-        <v>328</v>
-      </c>
-      <c r="E69" s="128">
-        <v>43757</v>
-      </c>
-      <c r="F69" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G69" s="68">
-        <v>2</v>
-      </c>
-      <c r="H69" s="72"/>
-    </row>
-    <row r="70" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="78" t="s">
-        <v>302</v>
-      </c>
-      <c r="B70" s="116"/>
-      <c r="C70" s="79" t="s">
-        <v>388</v>
       </c>
       <c r="D70" t="s">
         <v>329</v>
       </c>
-      <c r="E70" s="134">
-        <v>43766</v>
-      </c>
-      <c r="F70" s="108" t="s">
-        <v>443</v>
-      </c>
-      <c r="G70" s="105">
-        <v>3</v>
-      </c>
-      <c r="H70" s="80"/>
-    </row>
-    <row r="71" spans="1:8" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A71" s="81" t="s">
+      <c r="E70" s="81"/>
+      <c r="F70" s="81"/>
+      <c r="G70" s="81"/>
+      <c r="H70" s="82"/>
+    </row>
+    <row r="71" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A71" s="65" t="s">
         <v>303</v>
       </c>
-      <c r="B71" s="121" t="s">
+      <c r="B71" s="91"/>
+      <c r="C71" s="66" t="s">
+        <v>392</v>
+      </c>
+      <c r="D71" t="s">
+        <v>330</v>
+      </c>
+      <c r="E71" s="81"/>
+      <c r="F71" s="81"/>
+      <c r="G71" s="81"/>
+      <c r="H71" s="82"/>
+    </row>
+    <row r="72" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A72" s="65" t="s">
+        <v>304</v>
+      </c>
+      <c r="B72" s="88" t="s">
         <v>31</v>
       </c>
-      <c r="C71" s="82" t="s">
-        <v>319</v>
-      </c>
-      <c r="D71" s="83" t="s">
-        <v>324</v>
-      </c>
-      <c r="E71" s="136">
-        <v>43757</v>
-      </c>
-      <c r="F71" s="106" t="s">
-        <v>444</v>
-      </c>
-      <c r="G71" s="106">
-        <v>3</v>
-      </c>
-      <c r="H71" s="84"/>
-    </row>
-    <row r="72" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="61" t="s">
-        <v>304</v>
-      </c>
-      <c r="B72" s="122"/>
-      <c r="C72" s="62" t="s">
+      <c r="C72" s="83" t="s">
+        <v>320</v>
+      </c>
+      <c r="D72" s="84" t="s">
+        <v>325</v>
+      </c>
+      <c r="E72" s="81"/>
+      <c r="F72" s="81"/>
+      <c r="G72" s="81"/>
+      <c r="H72" s="82"/>
+    </row>
+    <row r="73" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="65" t="s">
+        <v>305</v>
+      </c>
+      <c r="B73" s="88"/>
+      <c r="C73" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="D72" s="63" t="s">
-        <v>325</v>
-      </c>
-      <c r="E72" s="129">
-        <v>43757</v>
-      </c>
-      <c r="F72" s="108" t="s">
-        <v>444</v>
-      </c>
-      <c r="G72" s="124">
-        <v>3</v>
-      </c>
-      <c r="H72" s="72"/>
-    </row>
-    <row r="73" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A73" s="61" t="s">
-        <v>305</v>
-      </c>
-      <c r="B73" s="122"/>
-      <c r="C73" s="73" t="s">
+      <c r="D73" s="67" t="s">
+        <v>326</v>
+      </c>
+      <c r="E73" s="81"/>
+      <c r="F73" s="81"/>
+      <c r="G73" s="81"/>
+      <c r="H73" s="82"/>
+    </row>
+    <row r="74" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A74" s="65" t="s">
+        <v>306</v>
+      </c>
+      <c r="B74" s="88"/>
+      <c r="C74" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="74" t="s">
+      <c r="D74" s="84" t="s">
         <v>223</v>
       </c>
-      <c r="E73" s="108"/>
-      <c r="F73" s="108" t="s">
-        <v>444</v>
-      </c>
-      <c r="G73" s="124">
-        <v>4</v>
-      </c>
-      <c r="H73" s="72"/>
-    </row>
-    <row r="74" spans="1:8" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A74" s="61" t="s">
-        <v>306</v>
-      </c>
-      <c r="B74" s="122"/>
-      <c r="C74" s="73" t="s">
+      <c r="E74" s="81"/>
+      <c r="F74" s="81"/>
+      <c r="G74" s="81"/>
+      <c r="H74" s="82"/>
+    </row>
+    <row r="75" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A75" s="65" t="s">
+        <v>307</v>
+      </c>
+      <c r="B75" s="88"/>
+      <c r="C75" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="D74" s="74" t="s">
+      <c r="D75" s="84" t="s">
+        <v>328</v>
+      </c>
+      <c r="E75" s="81"/>
+      <c r="F75" s="81"/>
+      <c r="G75" s="81"/>
+      <c r="H75" s="82"/>
+    </row>
+    <row r="76" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="65" t="s">
+        <v>308</v>
+      </c>
+      <c r="B76" s="88"/>
+      <c r="C76" s="66" t="s">
+        <v>434</v>
+      </c>
+      <c r="D76" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="E76" s="81"/>
+      <c r="F76" s="81"/>
+      <c r="G76" s="81"/>
+      <c r="H76" s="82"/>
+    </row>
+    <row r="77" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="65" t="s">
+        <v>309</v>
+      </c>
+      <c r="B77" s="88"/>
+      <c r="C77" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="D77" s="67" t="s">
+        <v>200</v>
+      </c>
+      <c r="E77" s="81"/>
+      <c r="F77" s="81"/>
+      <c r="G77" s="81"/>
+      <c r="H77" s="82"/>
+    </row>
+    <row r="78" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="65" t="s">
+        <v>310</v>
+      </c>
+      <c r="B78" s="88"/>
+      <c r="C78" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="D78" s="67" t="s">
+        <v>313</v>
+      </c>
+      <c r="E78" s="81"/>
+      <c r="F78" s="81"/>
+      <c r="G78" s="81"/>
+      <c r="H78" s="82"/>
+    </row>
+    <row r="79" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="65" t="s">
+        <v>311</v>
+      </c>
+      <c r="B79" s="88"/>
+      <c r="C79" s="66" t="s">
+        <v>39</v>
+      </c>
+      <c r="D79" s="67" t="s">
         <v>327</v>
       </c>
-      <c r="E74" s="108"/>
-      <c r="F74" s="108" t="s">
-        <v>444</v>
-      </c>
-      <c r="G74" s="124">
-        <v>4</v>
-      </c>
-      <c r="H74" s="72"/>
-    </row>
-    <row r="75" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A75" s="61" t="s">
-        <v>307</v>
-      </c>
-      <c r="B75" s="122"/>
-      <c r="C75" s="62" t="s">
-        <v>429</v>
-      </c>
-      <c r="D75" s="63" t="s">
-        <v>199</v>
-      </c>
-      <c r="E75" s="108"/>
-      <c r="F75" s="108" t="s">
-        <v>444</v>
-      </c>
-      <c r="G75" s="124">
-        <v>4</v>
-      </c>
-      <c r="H75" s="72"/>
-    </row>
-    <row r="76" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="61" t="s">
-        <v>308</v>
-      </c>
-      <c r="B76" s="122"/>
-      <c r="C76" s="62" t="s">
-        <v>37</v>
-      </c>
-      <c r="D76" s="63" t="s">
-        <v>200</v>
-      </c>
-      <c r="E76" s="129">
-        <v>43757</v>
-      </c>
-      <c r="F76" s="108" t="s">
-        <v>444</v>
-      </c>
-      <c r="G76" s="124">
-        <v>1</v>
-      </c>
-      <c r="H76" s="72"/>
-    </row>
-    <row r="77" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A77" s="61" t="s">
-        <v>309</v>
-      </c>
-      <c r="B77" s="122"/>
-      <c r="C77" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="D77" s="63" t="s">
-        <v>312</v>
-      </c>
-      <c r="E77" s="129">
-        <v>43757</v>
-      </c>
-      <c r="F77" s="108" t="s">
-        <v>444</v>
-      </c>
-      <c r="G77" s="124">
-        <v>3</v>
-      </c>
-      <c r="H77" s="72"/>
-    </row>
-    <row r="78" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A78" s="61" t="s">
-        <v>310</v>
-      </c>
-      <c r="B78" s="122"/>
-      <c r="C78" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="D78" s="63" t="s">
-        <v>326</v>
-      </c>
-      <c r="E78" s="129">
-        <v>43757</v>
-      </c>
-      <c r="F78" s="108" t="s">
-        <v>444</v>
-      </c>
-      <c r="G78" s="124">
-        <v>3</v>
-      </c>
-      <c r="H78" s="72"/>
-    </row>
-    <row r="79" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="61" t="s">
-        <v>313</v>
-      </c>
-      <c r="B79" s="122"/>
-      <c r="C79" s="62" t="s">
-        <v>320</v>
-      </c>
-      <c r="D79" s="63" t="s">
+      <c r="E79" s="81"/>
+      <c r="F79" s="81"/>
+      <c r="G79" s="81"/>
+      <c r="H79" s="82"/>
+    </row>
+    <row r="80" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="65" t="s">
+        <v>314</v>
+      </c>
+      <c r="B80" s="88"/>
+      <c r="C80" s="66" t="s">
+        <v>321</v>
+      </c>
+      <c r="D80" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="E79" s="129">
-        <v>43757</v>
-      </c>
-      <c r="F79" s="108" t="s">
-        <v>444</v>
-      </c>
-      <c r="G79" s="124">
-        <v>3</v>
-      </c>
-      <c r="H79" s="58"/>
-    </row>
-    <row r="80" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="61" t="s">
-        <v>314</v>
-      </c>
-      <c r="B80" s="122"/>
-      <c r="C80" s="62" t="s">
+      <c r="E80" s="57"/>
+      <c r="F80" s="57"/>
+      <c r="G80" s="57"/>
+      <c r="H80" s="58"/>
+    </row>
+    <row r="81" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="65" t="s">
+        <v>315</v>
+      </c>
+      <c r="B81" s="88"/>
+      <c r="C81" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="D80" s="63" t="s">
-        <v>382</v>
-      </c>
-      <c r="E80" s="129">
-        <v>43757</v>
-      </c>
-      <c r="F80" s="108" t="s">
-        <v>444</v>
-      </c>
-      <c r="G80" s="124">
-        <v>1</v>
-      </c>
-      <c r="H80" s="58"/>
-    </row>
-    <row r="81" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="61" t="s">
-        <v>315</v>
-      </c>
-      <c r="B81" s="122"/>
-      <c r="C81" s="62" t="s">
+      <c r="D81" s="67" t="s">
+        <v>386</v>
+      </c>
+      <c r="E81" s="57"/>
+      <c r="F81" s="57"/>
+      <c r="G81" s="57"/>
+      <c r="H81" s="58"/>
+    </row>
+    <row r="82" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="65" t="s">
+        <v>316</v>
+      </c>
+      <c r="B82" s="88"/>
+      <c r="C82" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="D81" s="63" t="s">
-        <v>447</v>
-      </c>
-      <c r="E81" s="129">
-        <v>43757</v>
-      </c>
-      <c r="F81" s="108" t="s">
-        <v>444</v>
-      </c>
-      <c r="G81" s="125">
-        <v>3</v>
-      </c>
-      <c r="H81" s="58"/>
-    </row>
-    <row r="82" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="85" t="s">
-        <v>316</v>
-      </c>
-      <c r="B82" s="123"/>
-      <c r="C82" s="75" t="s">
+      <c r="D82" s="67" t="s">
+        <v>385</v>
+      </c>
+      <c r="E82" s="57"/>
+      <c r="F82" s="57"/>
+      <c r="G82" s="57"/>
+      <c r="H82" s="58"/>
+    </row>
+    <row r="83" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="65" t="s">
+        <v>317</v>
+      </c>
+      <c r="B83" s="89"/>
+      <c r="C83" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="D82" s="76" t="s">
-        <v>381</v>
-      </c>
-      <c r="E82" s="135">
-        <v>43757</v>
-      </c>
-      <c r="F82" s="127" t="s">
-        <v>444</v>
-      </c>
-      <c r="G82" s="103">
-        <v>1</v>
-      </c>
-      <c r="H82" s="60"/>
-    </row>
-    <row r="85" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E85" s="50" t="s">
-        <v>442</v>
-      </c>
-      <c r="F85" s="50" t="s">
-        <v>441</v>
-      </c>
-      <c r="H85" s="110" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E86" s="109">
-        <v>1</v>
-      </c>
-      <c r="F86" s="109">
-        <f>COUNTIF(G2:G82,1)</f>
-        <v>3</v>
-      </c>
-      <c r="G86" s="109"/>
-      <c r="H86" s="57">
-        <f>F86/F91*100</f>
-        <v>3.8961038961038961</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E87" s="109">
-        <v>2</v>
-      </c>
-      <c r="F87" s="109">
-        <f>COUNTIF(G3:G83,2)</f>
-        <v>5</v>
-      </c>
-      <c r="G87" s="109"/>
-      <c r="H87" s="57">
-        <f>F87/F91*100</f>
-        <v>6.4935064935064926</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E88" s="109">
-        <v>3</v>
-      </c>
-      <c r="F88" s="109">
-        <f>COUNTIF(G4:G84,3)</f>
-        <v>20</v>
-      </c>
-      <c r="G88" s="109"/>
-      <c r="H88" s="57">
-        <f>F88/F91*100</f>
-        <v>25.97402597402597</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E89" s="109">
-        <v>4</v>
-      </c>
-      <c r="F89" s="109">
-        <f>COUNTIF(G5:G84,4)</f>
-        <v>14</v>
-      </c>
-      <c r="G89" s="109"/>
-      <c r="H89" s="57">
-        <f>F89/F91*100</f>
-        <v>18.181818181818183</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E90" s="109">
-        <v>5</v>
-      </c>
-      <c r="F90" s="109">
-        <f>COUNTIF(G6:G84,5)</f>
-        <v>35</v>
-      </c>
-      <c r="G90" s="109"/>
-      <c r="H90" s="57">
-        <f>F90/F91*100</f>
-        <v>45.454545454545453</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E91" s="109" t="s">
-        <v>440</v>
-      </c>
-      <c r="F91" s="109">
-        <f>SUM(F86:F90)</f>
-        <v>77</v>
-      </c>
-      <c r="G91" s="109"/>
-      <c r="H91" s="57">
-        <v>100</v>
-      </c>
+      <c r="D83" s="86" t="s">
+        <v>384</v>
+      </c>
+      <c r="E83" s="59"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="59"/>
+      <c r="H83" s="60"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H82"/>
   <mergeCells count="11">
-    <mergeCell ref="B71:B82"/>
+    <mergeCell ref="B72:B83"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="B54:B65"/>
-    <mergeCell ref="B66:B70"/>
+    <mergeCell ref="B48:B54"/>
+    <mergeCell ref="B55:B66"/>
+    <mergeCell ref="B67:B71"/>
     <mergeCell ref="B5:B10"/>
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="B16:B22"/>

--- a/설계및정의서/기능리스트_AR 레이싱 게임 v0.1.xlsx
+++ b/설계및정의서/기능리스트_AR 레이싱 게임 v0.1.xlsx
@@ -2910,45 +2910,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2986,6 +2947,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5119,8 +5119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="C55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5165,7 +5165,7 @@
       <c r="A2" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="127" t="s">
         <v>110</v>
       </c>
       <c r="C2" s="90" t="s">
@@ -5187,7 +5187,7 @@
       <c r="A3" s="61" t="s">
         <v>261</v>
       </c>
-      <c r="B3" s="112"/>
+      <c r="B3" s="128"/>
       <c r="C3" s="64" t="s">
         <v>385</v>
       </c>
@@ -5207,7 +5207,7 @@
       <c r="A4" s="61" t="s">
         <v>263</v>
       </c>
-      <c r="B4" s="112"/>
+      <c r="B4" s="128"/>
       <c r="C4" s="64" t="s">
         <v>384</v>
       </c>
@@ -5227,7 +5227,7 @@
       <c r="A5" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="128" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="64" t="s">
@@ -5252,7 +5252,7 @@
       <c r="A6" s="61" t="s">
         <v>265</v>
       </c>
-      <c r="B6" s="112"/>
+      <c r="B6" s="128"/>
       <c r="C6" s="62" t="s">
         <v>77</v>
       </c>
@@ -5275,7 +5275,7 @@
       <c r="A7" s="61" t="s">
         <v>266</v>
       </c>
-      <c r="B7" s="112"/>
+      <c r="B7" s="128"/>
       <c r="C7" s="62" t="s">
         <v>377</v>
       </c>
@@ -5298,7 +5298,7 @@
       <c r="A8" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="112"/>
+      <c r="B8" s="128"/>
       <c r="C8" s="64" t="s">
         <v>386</v>
       </c>
@@ -5321,7 +5321,7 @@
       <c r="A9" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="112"/>
+      <c r="B9" s="128"/>
       <c r="C9" s="64" t="s">
         <v>387</v>
       </c>
@@ -5344,7 +5344,7 @@
       <c r="A10" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="112"/>
+      <c r="B10" s="128"/>
       <c r="C10" s="62" t="s">
         <v>388</v>
       </c>
@@ -5367,7 +5367,7 @@
       <c r="A11" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="112" t="s">
+      <c r="B11" s="128" t="s">
         <v>140</v>
       </c>
       <c r="C11" s="64" t="s">
@@ -5392,7 +5392,7 @@
       <c r="A12" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="112"/>
+      <c r="B12" s="128"/>
       <c r="C12" s="64" t="s">
         <v>389</v>
       </c>
@@ -5415,7 +5415,7 @@
       <c r="A13" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="112"/>
+      <c r="B13" s="128"/>
       <c r="C13" s="64" t="s">
         <v>391</v>
       </c>
@@ -5435,7 +5435,7 @@
       <c r="A14" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="112"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="64" t="s">
         <v>392</v>
       </c>
@@ -5455,7 +5455,7 @@
       <c r="A15" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="112"/>
+      <c r="B15" s="128"/>
       <c r="C15" s="62" t="s">
         <v>388</v>
       </c>
@@ -5475,7 +5475,7 @@
       <c r="A16" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="112" t="s">
+      <c r="B16" s="128" t="s">
         <v>146</v>
       </c>
       <c r="C16" s="64" t="s">
@@ -5497,7 +5497,7 @@
       <c r="A17" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="112"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="64" t="s">
         <v>389</v>
       </c>
@@ -5517,7 +5517,7 @@
       <c r="A18" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="112"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="64" t="s">
         <v>393</v>
       </c>
@@ -5537,7 +5537,7 @@
       <c r="A19" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="112"/>
+      <c r="B19" s="128"/>
       <c r="C19" s="64" t="s">
         <v>394</v>
       </c>
@@ -5557,7 +5557,7 @@
       <c r="A20" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="112"/>
+      <c r="B20" s="128"/>
       <c r="C20" s="64" t="s">
         <v>395</v>
       </c>
@@ -5577,7 +5577,7 @@
       <c r="A21" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="112"/>
+      <c r="B21" s="128"/>
       <c r="C21" s="64" t="s">
         <v>396</v>
       </c>
@@ -5597,7 +5597,7 @@
       <c r="A22" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="112"/>
+      <c r="B22" s="128"/>
       <c r="C22" s="62" t="s">
         <v>388</v>
       </c>
@@ -5617,7 +5617,7 @@
       <c r="A23" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="112" t="s">
+      <c r="B23" s="128" t="s">
         <v>79</v>
       </c>
       <c r="C23" s="62" t="s">
@@ -5639,7 +5639,7 @@
       <c r="A24" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="112"/>
+      <c r="B24" s="128"/>
       <c r="C24" s="62" t="s">
         <v>398</v>
       </c>
@@ -5659,7 +5659,7 @@
       <c r="A25" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="112"/>
+      <c r="B25" s="128"/>
       <c r="C25" s="64" t="s">
         <v>399</v>
       </c>
@@ -5679,7 +5679,7 @@
       <c r="A26" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="112"/>
+      <c r="B26" s="128"/>
       <c r="C26" s="64" t="s">
         <v>400</v>
       </c>
@@ -5699,7 +5699,7 @@
       <c r="A27" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="112"/>
+      <c r="B27" s="128"/>
       <c r="C27" s="64" t="s">
         <v>401</v>
       </c>
@@ -5719,7 +5719,7 @@
       <c r="A28" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="112"/>
+      <c r="B28" s="128"/>
       <c r="C28" s="62" t="s">
         <v>402</v>
       </c>
@@ -5739,7 +5739,7 @@
       <c r="A29" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="112"/>
+      <c r="B29" s="128"/>
       <c r="C29" s="62" t="s">
         <v>403</v>
       </c>
@@ -5759,7 +5759,7 @@
       <c r="A30" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="112"/>
+      <c r="B30" s="128"/>
       <c r="C30" s="62" t="s">
         <v>404</v>
       </c>
@@ -5779,7 +5779,7 @@
       <c r="A31" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="112"/>
+      <c r="B31" s="128"/>
       <c r="C31" s="62" t="s">
         <v>405</v>
       </c>
@@ -5799,7 +5799,7 @@
       <c r="A32" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="112"/>
+      <c r="B32" s="128"/>
       <c r="C32" s="62" t="s">
         <v>406</v>
       </c>
@@ -5819,7 +5819,7 @@
       <c r="A33" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="112"/>
+      <c r="B33" s="128"/>
       <c r="C33" s="62" t="s">
         <v>407</v>
       </c>
@@ -5839,7 +5839,7 @@
       <c r="A34" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="112"/>
+      <c r="B34" s="128"/>
       <c r="C34" s="62" t="s">
         <v>417</v>
       </c>
@@ -5859,14 +5859,14 @@
       <c r="A35" s="85" t="s">
         <v>267</v>
       </c>
-      <c r="B35" s="113"/>
+      <c r="B35" s="134"/>
       <c r="C35" s="75" t="s">
         <v>408</v>
       </c>
       <c r="D35" s="59" t="s">
         <v>341</v>
       </c>
-      <c r="E35" s="126"/>
+      <c r="E35" s="113"/>
       <c r="F35" s="107" t="s">
         <v>443</v>
       </c>
@@ -5879,7 +5879,7 @@
       <c r="A36" s="81" t="s">
         <v>268</v>
       </c>
-      <c r="B36" s="117" t="s">
+      <c r="B36" s="135" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="90" t="s">
@@ -5888,7 +5888,7 @@
       <c r="D36" s="91" t="s">
         <v>321</v>
       </c>
-      <c r="E36" s="130">
+      <c r="E36" s="117">
         <v>43757</v>
       </c>
       <c r="F36" s="106" t="s">
@@ -5903,14 +5903,14 @@
       <c r="A37" s="61" t="s">
         <v>269</v>
       </c>
-      <c r="B37" s="118"/>
+      <c r="B37" s="136"/>
       <c r="C37" s="64" t="s">
         <v>409</v>
       </c>
       <c r="D37" s="70" t="s">
         <v>322</v>
       </c>
-      <c r="E37" s="131">
+      <c r="E37" s="118">
         <v>43766</v>
       </c>
       <c r="F37" s="108" t="s">
@@ -5925,7 +5925,7 @@
       <c r="A38" s="61" t="s">
         <v>270</v>
       </c>
-      <c r="B38" s="118"/>
+      <c r="B38" s="136"/>
       <c r="C38" s="64" t="s">
         <v>388</v>
       </c>
@@ -5945,14 +5945,14 @@
       <c r="A39" s="61" t="s">
         <v>271</v>
       </c>
-      <c r="B39" s="118"/>
+      <c r="B39" s="136"/>
       <c r="C39" s="64" t="s">
         <v>410</v>
       </c>
       <c r="D39" s="70" t="s">
         <v>353</v>
       </c>
-      <c r="E39" s="129">
+      <c r="E39" s="116">
         <v>43757</v>
       </c>
       <c r="F39" s="108" t="s">
@@ -5967,14 +5967,14 @@
       <c r="A40" s="61" t="s">
         <v>272</v>
       </c>
-      <c r="B40" s="118"/>
+      <c r="B40" s="136"/>
       <c r="C40" s="64" t="s">
         <v>435</v>
       </c>
       <c r="D40" s="70" t="s">
         <v>352</v>
       </c>
-      <c r="E40" s="129">
+      <c r="E40" s="116">
         <v>43757</v>
       </c>
       <c r="F40" s="108" t="s">
@@ -5989,14 +5989,14 @@
       <c r="A41" s="61" t="s">
         <v>273</v>
       </c>
-      <c r="B41" s="118"/>
+      <c r="B41" s="136"/>
       <c r="C41" s="64" t="s">
         <v>233</v>
       </c>
       <c r="D41" s="70" t="s">
         <v>351</v>
       </c>
-      <c r="E41" s="129">
+      <c r="E41" s="116">
         <v>43766</v>
       </c>
       <c r="F41" s="108" t="s">
@@ -6011,14 +6011,14 @@
       <c r="A42" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="B42" s="118"/>
+      <c r="B42" s="136"/>
       <c r="C42" s="62" t="s">
         <v>411</v>
       </c>
       <c r="D42" s="67" t="s">
         <v>350</v>
       </c>
-      <c r="E42" s="129">
+      <c r="E42" s="116">
         <v>43766</v>
       </c>
       <c r="F42" s="108" t="s">
@@ -6033,14 +6033,14 @@
       <c r="A43" s="61" t="s">
         <v>275</v>
       </c>
-      <c r="B43" s="118"/>
+      <c r="B43" s="136"/>
       <c r="C43" s="71" t="s">
         <v>412</v>
       </c>
       <c r="D43" s="67" t="s">
         <v>349</v>
       </c>
-      <c r="E43" s="129">
+      <c r="E43" s="116">
         <v>43766</v>
       </c>
       <c r="F43" s="108" t="s">
@@ -6055,7 +6055,7 @@
       <c r="A44" s="61" t="s">
         <v>276</v>
       </c>
-      <c r="B44" s="119" t="s">
+      <c r="B44" s="129" t="s">
         <v>262</v>
       </c>
       <c r="C44" s="62" t="s">
@@ -6064,7 +6064,7 @@
       <c r="D44" s="57" t="s">
         <v>448</v>
       </c>
-      <c r="E44" s="129">
+      <c r="E44" s="116">
         <v>43757</v>
       </c>
       <c r="F44" s="108" t="s">
@@ -6079,7 +6079,7 @@
       <c r="A45" s="61" t="s">
         <v>277</v>
       </c>
-      <c r="B45" s="119"/>
+      <c r="B45" s="129"/>
       <c r="C45" s="62" t="s">
         <v>388</v>
       </c>
@@ -6099,14 +6099,14 @@
       <c r="A46" s="61" t="s">
         <v>278</v>
       </c>
-      <c r="B46" s="119"/>
+      <c r="B46" s="129"/>
       <c r="C46" s="62" t="s">
         <v>413</v>
       </c>
       <c r="D46" s="57" t="s">
         <v>348</v>
       </c>
-      <c r="E46" s="129">
+      <c r="E46" s="116">
         <v>43766</v>
       </c>
       <c r="F46" s="108" t="s">
@@ -6121,17 +6121,17 @@
       <c r="A47" s="85" t="s">
         <v>279</v>
       </c>
-      <c r="B47" s="120"/>
+      <c r="B47" s="130"/>
       <c r="C47" s="75" t="s">
         <v>414</v>
       </c>
       <c r="D47" s="59" t="s">
         <v>347</v>
       </c>
-      <c r="E47" s="135">
+      <c r="E47" s="122">
         <v>43766</v>
       </c>
-      <c r="F47" s="127" t="s">
+      <c r="F47" s="114" t="s">
         <v>444</v>
       </c>
       <c r="G47" s="105">
@@ -6143,7 +6143,7 @@
       <c r="A48" s="86" t="s">
         <v>280</v>
       </c>
-      <c r="B48" s="114" t="s">
+      <c r="B48" s="131" t="s">
         <v>206</v>
       </c>
       <c r="C48" s="87" t="s">
@@ -6152,7 +6152,7 @@
       <c r="D48" s="88" t="s">
         <v>323</v>
       </c>
-      <c r="E48" s="128">
+      <c r="E48" s="115">
         <v>43757</v>
       </c>
       <c r="F48" s="107" t="s">
@@ -6167,14 +6167,14 @@
       <c r="A49" s="61" t="s">
         <v>281</v>
       </c>
-      <c r="B49" s="115"/>
+      <c r="B49" s="132"/>
       <c r="C49" s="71" t="s">
         <v>415</v>
       </c>
       <c r="D49" s="67" t="s">
         <v>311</v>
       </c>
-      <c r="E49" s="128">
+      <c r="E49" s="115">
         <v>43757</v>
       </c>
       <c r="F49" s="108" t="s">
@@ -6189,7 +6189,7 @@
       <c r="A50" s="61" t="s">
         <v>282</v>
       </c>
-      <c r="B50" s="115"/>
+      <c r="B50" s="132"/>
       <c r="C50" s="62" t="s">
         <v>416</v>
       </c>
@@ -6209,14 +6209,14 @@
       <c r="A51" s="61" t="s">
         <v>283</v>
       </c>
-      <c r="B51" s="115"/>
+      <c r="B51" s="132"/>
       <c r="C51" s="62" t="s">
         <v>430</v>
       </c>
       <c r="D51" s="67" t="s">
         <v>345</v>
       </c>
-      <c r="E51" s="129">
+      <c r="E51" s="116">
         <v>43757</v>
       </c>
       <c r="F51" s="107" t="s">
@@ -6231,7 +6231,7 @@
       <c r="A52" s="61" t="s">
         <v>284</v>
       </c>
-      <c r="B52" s="115"/>
+      <c r="B52" s="132"/>
       <c r="C52" s="62" t="s">
         <v>436</v>
       </c>
@@ -6251,14 +6251,14 @@
       <c r="A53" s="61" t="s">
         <v>285</v>
       </c>
-      <c r="B53" s="115"/>
+      <c r="B53" s="132"/>
       <c r="C53" s="62" t="s">
         <v>431</v>
       </c>
       <c r="D53" s="67" t="s">
         <v>259</v>
       </c>
-      <c r="E53" s="133">
+      <c r="E53" s="120">
         <v>43757</v>
       </c>
       <c r="F53" s="107" t="s">
@@ -6273,19 +6273,19 @@
       <c r="A54" s="61" t="s">
         <v>286</v>
       </c>
-      <c r="B54" s="115" t="s">
+      <c r="B54" s="132" t="s">
         <v>437</v>
       </c>
       <c r="C54" s="71" t="s">
         <v>418</v>
       </c>
-      <c r="D54" s="132" t="s">
+      <c r="D54" s="119" t="s">
         <v>343</v>
       </c>
-      <c r="E54" s="134">
+      <c r="E54" s="121">
         <v>43766</v>
       </c>
-      <c r="F54" s="124" t="s">
+      <c r="F54" s="111" t="s">
         <v>443</v>
       </c>
       <c r="G54" s="68">
@@ -6297,14 +6297,14 @@
       <c r="A55" s="61" t="s">
         <v>287</v>
       </c>
-      <c r="B55" s="115"/>
+      <c r="B55" s="132"/>
       <c r="C55" s="71" t="s">
         <v>419</v>
       </c>
       <c r="D55" s="67" t="s">
         <v>342</v>
       </c>
-      <c r="E55" s="128">
+      <c r="E55" s="115">
         <v>43757</v>
       </c>
       <c r="F55" s="107" t="s">
@@ -6319,7 +6319,7 @@
       <c r="A56" s="61" t="s">
         <v>288</v>
       </c>
-      <c r="B56" s="115"/>
+      <c r="B56" s="132"/>
       <c r="C56" s="71" t="s">
         <v>388</v>
       </c>
@@ -6339,14 +6339,14 @@
       <c r="A57" s="61" t="s">
         <v>289</v>
       </c>
-      <c r="B57" s="115"/>
+      <c r="B57" s="132"/>
       <c r="C57" s="71" t="s">
         <v>420</v>
       </c>
       <c r="D57" s="67" t="s">
         <v>340</v>
       </c>
-      <c r="E57" s="134">
+      <c r="E57" s="121">
         <v>43766</v>
       </c>
       <c r="F57" s="107" t="s">
@@ -6361,14 +6361,14 @@
       <c r="A58" s="61" t="s">
         <v>290</v>
       </c>
-      <c r="B58" s="115"/>
+      <c r="B58" s="132"/>
       <c r="C58" s="77" t="s">
         <v>432</v>
       </c>
       <c r="D58" s="67" t="s">
         <v>438</v>
       </c>
-      <c r="E58" s="134">
+      <c r="E58" s="121">
         <v>43766</v>
       </c>
       <c r="F58" s="108" t="s">
@@ -6383,14 +6383,14 @@
       <c r="A59" s="61" t="s">
         <v>291</v>
       </c>
-      <c r="B59" s="115"/>
+      <c r="B59" s="132"/>
       <c r="C59" s="71" t="s">
         <v>421</v>
       </c>
       <c r="D59" s="67" t="s">
         <v>339</v>
       </c>
-      <c r="E59" s="134">
+      <c r="E59" s="121">
         <v>43766</v>
       </c>
       <c r="F59" s="107" t="s">
@@ -6405,14 +6405,14 @@
       <c r="A60" s="61" t="s">
         <v>292</v>
       </c>
-      <c r="B60" s="115"/>
+      <c r="B60" s="132"/>
       <c r="C60" s="71" t="s">
         <v>422</v>
       </c>
       <c r="D60" s="67" t="s">
         <v>338</v>
       </c>
-      <c r="E60" s="134">
+      <c r="E60" s="121">
         <v>43766</v>
       </c>
       <c r="F60" s="108" t="s">
@@ -6427,7 +6427,7 @@
       <c r="A61" s="61" t="s">
         <v>293</v>
       </c>
-      <c r="B61" s="115"/>
+      <c r="B61" s="132"/>
       <c r="C61" s="77" t="s">
         <v>433</v>
       </c>
@@ -6447,7 +6447,7 @@
       <c r="A62" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="B62" s="115"/>
+      <c r="B62" s="132"/>
       <c r="C62" s="71" t="s">
         <v>423</v>
       </c>
@@ -6467,7 +6467,7 @@
       <c r="A63" s="61" t="s">
         <v>295</v>
       </c>
-      <c r="B63" s="115"/>
+      <c r="B63" s="132"/>
       <c r="C63" s="71" t="s">
         <v>424</v>
       </c>
@@ -6487,7 +6487,7 @@
       <c r="A64" s="61" t="s">
         <v>296</v>
       </c>
-      <c r="B64" s="115"/>
+      <c r="B64" s="132"/>
       <c r="C64" s="77" t="s">
         <v>434</v>
       </c>
@@ -6507,14 +6507,14 @@
       <c r="A65" s="61" t="s">
         <v>297</v>
       </c>
-      <c r="B65" s="115"/>
+      <c r="B65" s="132"/>
       <c r="C65" s="71" t="s">
         <v>425</v>
       </c>
       <c r="D65" s="67" t="s">
         <v>333</v>
       </c>
-      <c r="E65" s="128">
+      <c r="E65" s="115">
         <v>43757</v>
       </c>
       <c r="F65" s="107" t="s">
@@ -6529,7 +6529,7 @@
       <c r="A66" s="61" t="s">
         <v>298</v>
       </c>
-      <c r="B66" s="115" t="s">
+      <c r="B66" s="132" t="s">
         <v>176</v>
       </c>
       <c r="C66" s="62" t="s">
@@ -6538,7 +6538,7 @@
       <c r="D66" t="s">
         <v>332</v>
       </c>
-      <c r="E66" s="134">
+      <c r="E66" s="121">
         <v>43766</v>
       </c>
       <c r="F66" s="108" t="s">
@@ -6553,14 +6553,14 @@
       <c r="A67" s="61" t="s">
         <v>299</v>
       </c>
-      <c r="B67" s="115"/>
+      <c r="B67" s="132"/>
       <c r="C67" s="62" t="s">
         <v>426</v>
       </c>
       <c r="D67" t="s">
         <v>331</v>
       </c>
-      <c r="E67" s="134">
+      <c r="E67" s="121">
         <v>43766</v>
       </c>
       <c r="F67" s="107" t="s">
@@ -6575,14 +6575,14 @@
       <c r="A68" s="61" t="s">
         <v>300</v>
       </c>
-      <c r="B68" s="115"/>
+      <c r="B68" s="132"/>
       <c r="C68" s="62" t="s">
         <v>427</v>
       </c>
       <c r="D68" t="s">
         <v>330</v>
       </c>
-      <c r="E68" s="134">
+      <c r="E68" s="121">
         <v>43766</v>
       </c>
       <c r="F68" s="108" t="s">
@@ -6597,14 +6597,14 @@
       <c r="A69" s="61" t="s">
         <v>301</v>
       </c>
-      <c r="B69" s="115"/>
+      <c r="B69" s="132"/>
       <c r="C69" s="62" t="s">
         <v>428</v>
       </c>
       <c r="D69" t="s">
         <v>328</v>
       </c>
-      <c r="E69" s="128">
+      <c r="E69" s="115">
         <v>43757</v>
       </c>
       <c r="F69" s="107" t="s">
@@ -6619,14 +6619,14 @@
       <c r="A70" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="B70" s="116"/>
+      <c r="B70" s="133"/>
       <c r="C70" s="79" t="s">
         <v>388</v>
       </c>
       <c r="D70" t="s">
         <v>329</v>
       </c>
-      <c r="E70" s="134">
+      <c r="E70" s="121">
         <v>43766</v>
       </c>
       <c r="F70" s="108" t="s">
@@ -6641,7 +6641,7 @@
       <c r="A71" s="81" t="s">
         <v>303</v>
       </c>
-      <c r="B71" s="121" t="s">
+      <c r="B71" s="124" t="s">
         <v>31</v>
       </c>
       <c r="C71" s="82" t="s">
@@ -6650,7 +6650,7 @@
       <c r="D71" s="83" t="s">
         <v>324</v>
       </c>
-      <c r="E71" s="136">
+      <c r="E71" s="123">
         <v>43757</v>
       </c>
       <c r="F71" s="106" t="s">
@@ -6665,20 +6665,20 @@
       <c r="A72" s="61" t="s">
         <v>304</v>
       </c>
-      <c r="B72" s="122"/>
+      <c r="B72" s="125"/>
       <c r="C72" s="62" t="s">
         <v>196</v>
       </c>
       <c r="D72" s="63" t="s">
         <v>325</v>
       </c>
-      <c r="E72" s="129">
+      <c r="E72" s="116">
         <v>43757</v>
       </c>
       <c r="F72" s="108" t="s">
         <v>444</v>
       </c>
-      <c r="G72" s="124">
+      <c r="G72" s="111">
         <v>3</v>
       </c>
       <c r="H72" s="72"/>
@@ -6687,7 +6687,7 @@
       <c r="A73" s="61" t="s">
         <v>305</v>
       </c>
-      <c r="B73" s="122"/>
+      <c r="B73" s="125"/>
       <c r="C73" s="73" t="s">
         <v>33</v>
       </c>
@@ -6698,7 +6698,7 @@
       <c r="F73" s="108" t="s">
         <v>444</v>
       </c>
-      <c r="G73" s="124">
+      <c r="G73" s="111">
         <v>4</v>
       </c>
       <c r="H73" s="72"/>
@@ -6707,7 +6707,7 @@
       <c r="A74" s="61" t="s">
         <v>306</v>
       </c>
-      <c r="B74" s="122"/>
+      <c r="B74" s="125"/>
       <c r="C74" s="73" t="s">
         <v>34</v>
       </c>
@@ -6718,7 +6718,7 @@
       <c r="F74" s="108" t="s">
         <v>444</v>
       </c>
-      <c r="G74" s="124">
+      <c r="G74" s="111">
         <v>4</v>
       </c>
       <c r="H74" s="72"/>
@@ -6727,7 +6727,7 @@
       <c r="A75" s="61" t="s">
         <v>307</v>
       </c>
-      <c r="B75" s="122"/>
+      <c r="B75" s="125"/>
       <c r="C75" s="62" t="s">
         <v>429</v>
       </c>
@@ -6738,7 +6738,7 @@
       <c r="F75" s="108" t="s">
         <v>444</v>
       </c>
-      <c r="G75" s="124">
+      <c r="G75" s="111">
         <v>4</v>
       </c>
       <c r="H75" s="72"/>
@@ -6747,20 +6747,20 @@
       <c r="A76" s="61" t="s">
         <v>308</v>
       </c>
-      <c r="B76" s="122"/>
+      <c r="B76" s="125"/>
       <c r="C76" s="62" t="s">
         <v>37</v>
       </c>
       <c r="D76" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="E76" s="129">
+      <c r="E76" s="116">
         <v>43757</v>
       </c>
       <c r="F76" s="108" t="s">
         <v>444</v>
       </c>
-      <c r="G76" s="124">
+      <c r="G76" s="111">
         <v>1</v>
       </c>
       <c r="H76" s="72"/>
@@ -6769,20 +6769,20 @@
       <c r="A77" s="61" t="s">
         <v>309</v>
       </c>
-      <c r="B77" s="122"/>
+      <c r="B77" s="125"/>
       <c r="C77" s="62" t="s">
         <v>38</v>
       </c>
       <c r="D77" s="63" t="s">
         <v>312</v>
       </c>
-      <c r="E77" s="129">
+      <c r="E77" s="116">
         <v>43757</v>
       </c>
       <c r="F77" s="108" t="s">
         <v>444</v>
       </c>
-      <c r="G77" s="124">
+      <c r="G77" s="111">
         <v>3</v>
       </c>
       <c r="H77" s="72"/>
@@ -6791,20 +6791,20 @@
       <c r="A78" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="B78" s="122"/>
+      <c r="B78" s="125"/>
       <c r="C78" s="62" t="s">
         <v>39</v>
       </c>
       <c r="D78" s="63" t="s">
         <v>326</v>
       </c>
-      <c r="E78" s="129">
+      <c r="E78" s="116">
         <v>43757</v>
       </c>
       <c r="F78" s="108" t="s">
         <v>444</v>
       </c>
-      <c r="G78" s="124">
+      <c r="G78" s="111">
         <v>3</v>
       </c>
       <c r="H78" s="72"/>
@@ -6813,20 +6813,20 @@
       <c r="A79" s="61" t="s">
         <v>313</v>
       </c>
-      <c r="B79" s="122"/>
+      <c r="B79" s="125"/>
       <c r="C79" s="62" t="s">
         <v>320</v>
       </c>
       <c r="D79" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="E79" s="129">
+      <c r="E79" s="116">
         <v>43757</v>
       </c>
       <c r="F79" s="108" t="s">
         <v>444</v>
       </c>
-      <c r="G79" s="124">
+      <c r="G79" s="111">
         <v>3</v>
       </c>
       <c r="H79" s="58"/>
@@ -6835,20 +6835,20 @@
       <c r="A80" s="61" t="s">
         <v>314</v>
       </c>
-      <c r="B80" s="122"/>
+      <c r="B80" s="125"/>
       <c r="C80" s="62" t="s">
         <v>203</v>
       </c>
       <c r="D80" s="63" t="s">
         <v>382</v>
       </c>
-      <c r="E80" s="129">
+      <c r="E80" s="116">
         <v>43757</v>
       </c>
       <c r="F80" s="108" t="s">
         <v>444</v>
       </c>
-      <c r="G80" s="124">
+      <c r="G80" s="111">
         <v>1</v>
       </c>
       <c r="H80" s="58"/>
@@ -6857,20 +6857,20 @@
       <c r="A81" s="61" t="s">
         <v>315</v>
       </c>
-      <c r="B81" s="122"/>
+      <c r="B81" s="125"/>
       <c r="C81" s="62" t="s">
         <v>42</v>
       </c>
       <c r="D81" s="63" t="s">
         <v>447</v>
       </c>
-      <c r="E81" s="129">
+      <c r="E81" s="116">
         <v>43757</v>
       </c>
       <c r="F81" s="108" t="s">
         <v>444</v>
       </c>
-      <c r="G81" s="125">
+      <c r="G81" s="112">
         <v>3</v>
       </c>
       <c r="H81" s="58"/>
@@ -6879,17 +6879,17 @@
       <c r="A82" s="85" t="s">
         <v>316</v>
       </c>
-      <c r="B82" s="123"/>
+      <c r="B82" s="126"/>
       <c r="C82" s="75" t="s">
         <v>43</v>
       </c>
       <c r="D82" s="76" t="s">
         <v>381</v>
       </c>
-      <c r="E82" s="135">
+      <c r="E82" s="122">
         <v>43757</v>
       </c>
-      <c r="F82" s="127" t="s">
+      <c r="F82" s="114" t="s">
         <v>444</v>
       </c>
       <c r="G82" s="103">

--- a/설계및정의서/기능리스트_AR 레이싱 게임 v0.1.xlsx
+++ b/설계및정의서/기능리스트_AR 레이싱 게임 v0.1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\BitCamp_AR\설계및정의서\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
@@ -12,8 +17,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$H$82</definedName>
   </definedNames>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -24,7 +30,7 @@
     <author>kosta</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1">
+    <comment ref="H1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +114,7 @@
     <author>kosta</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -164,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1">
+    <comment ref="H1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -186,7 +192,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="449">
   <si>
     <t>화면명</t>
   </si>
@@ -1317,9 +1323,6 @@
     <t>SRS-048</t>
   </si>
   <si>
-    <t>SRS-049</t>
-  </si>
-  <si>
     <t>SRS-050</t>
   </si>
   <si>
@@ -1519,410 +1522,450 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>오른쪽 하단에 방장이 선택한 맵 을 표시해 준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽 상단에 뒤로가기 버튼이 있으며 해당 버튼 클릭시 이전화면으로 돌아간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가운데 하단에 Ready 버튼 설정 AR게임이 실행가능한 상태가 된다면 레디버튼이 활성화 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4칸을 만들고 각각의 칸에 방에 참여한 유저의 닉네임을 표시 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽 상단부분에 뒤로가기 버튼이 있으며 해당 버튼을 누르면 이전의화면으로 이동 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방을 보여주는 목록중 우측 부분에 현재 해당방에 접속해 있는 유저의 수를 보여주어서 다른 유저들이 해당방에 접근할 수 있는지 없는지에 관해 안내 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 방에 접속할 수 있는 상태 를 보여준다.(현재 접근하려는 방에 접속할 수 있는 유저수와 현재 접속해 있는 유저수가 같지 않는 상태)라면 방에 접근할수 있도록 하며 그러한 상태가 아니라접근할 수 없도록 방을 비활성화.(방은 버튼으로 진행되어 있으며 버튼을 활성화 혹은 비활성화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 클릭시 방 참여화면으로 이동하게된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 클릭시 방 제작화면으로 이동하게된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시작 버튼을(위치 미정) 누르게 될 경우 방을 참여하거나 방을 만들 수 있는 화면으로 이동 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 차량 하단부분에 유저의 닉네임을 표기한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 취사선택할 목록이 많을경우 스크롤을 위아래로 움직여서 아이템 목록을 확인할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차외관 Ex)승용차,버스,트레일러,덤프,경운기,자전거,보드 등을 사용자가 취사선택하여 자신의 차량에 적용할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바퀴의 변형된 모양을 사용자가 취사선택할 수 있으며 바퀴의 색상또한 가능하도록 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 종료할건지에 대한 팝업창이 뜨게되며 해당 팝업창에는 '정말 종료하시겠습니까?' 와 유사한 메시지가 등장하며 예,아니오 라는 버튼이 존재하고 예를누를경우 게임이 종료 아니오를 누를경우 메인창으로 복귀 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입에 필요한 이메일을 입력할 수 있는 텍스트필드 이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 재입력 텍스트에 입력된 비밀번호와 비밀번호 텍스트에 입력된 내용이 같은지 다른지 알려준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입에 필요한 비밀번호를 입력할 수 있는 텍스트필드 비밀번호를 입력하였을때 회원가입 비밀번호 텍스트에 입력된 내용과 비교하여 같은지 다른지 알려준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입에 필요한 비밀번호를 입력할 수 있는 텍스트필드 이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입에 필요한 닉네임을 입력할 수 있는 텍스트필드 이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입에 필요한 아이디를 입력할 수 있는 텍스트필드 이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 화면을 종료 후 "로그인X회원가입" 화면으로 이동 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입에 필요한 정보 입력 이후 입력된 데이터를 데이터베이스에 저장 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 닉네임 텍스트에 입력된 내용과 데이터베이스의 닉네임과 중복이되는지 유무 확인 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트에 입력된 아이디와 데이터베이스에 저장된 아이디를 비교하여 중복되어있는지 유무 확인 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력한 아이디와 닉네임을 데이터베이스에 있는 닉네임,아이디와 비교하여 같은지 중복 체크 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보를 입력하는 UI를 만든뒤 UI에 입력한 텍스트 값을 데이터 베이스에 저장 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호가 불일치 한다는 라벨을 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 비밀번호를 입력할 수 있는 텍스트 입력시 입력한 텍스트를 *로 대체한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디가 불일치 한다는 라벨을 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스에 있는 아이디과 아이디 입력 텍스트필드에 입력한 아이디가 같으면 새 비밀번호 입력 텍스트 필드와 새 비밀번호 재입력 텍스트 필드, 다르면 아이디 불일치 안내 라벨을 보여줌,새 비밀번호 설정완료 후 확인버튼 누를시 비밀번호 일치여부 확인후 일치하면 데이터베이스에 저장 후 로그인화면으로 전환 불일치하면 불일치 안내 라벨 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자의 아이디를 입력할 수 있는 텍스트 이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일이 불일치 한다는 라벨을 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스에 있는 이메일과 이메일 입력 텍스트필드에 입력한 이메일이 같을 시 아이디를 보여주는 라벨 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터베이스에 있는 이메일과 이메일 입력 텍스트필드에 입력한 이메일을 같으면 아이디 라벨에 아이디 표시, 다르면 이메일 불일치 안내 메시지 팝업창 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일을 입력할 수 있는 텍스트필드 이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호를 분실하였을 경우 비밀번호를 재 설정하기 위해 아이디와 이메일주소를 기입하여 비밀번호를 재 설정하는 기능이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀 번호 재설정 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력한 아이디와 비밀번호를 데이터베이스에 있는 정보와 비교하여 같을시 게임내부화면으로 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 화면을 보여줌 기존의 화면위에 그려진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 화면으로 전환 기존의 화면위에 그려진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1등이 3바퀴를 돌게되면 10초 후 종료되도록한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어의 차량이 어떤 것인지, 이동방향이 어딘지 알 수 있도록 차량에 표시를 해준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분실한 아이디를 찾기 위해서 회원가입할적에 입력한 이메일을입력하여 해당 이메일로 분실한 아이디를 보내준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 입력 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 입력 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤로가기 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>확인 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 입력 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디가 보여지는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 불일치 안내 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 불일치 안내 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새 비밀번호 입력 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새 비밀번호 재입력 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 불일치 안내 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 입력 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 ,닉네임 중복 체크 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 중복체크 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임 중복체크 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 확인 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 취소 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 아이디 텍스트 입력 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 닉네임 텍스트 입력 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 비밀번호 텍스트 입력 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 비밀번호 재입력 텍스트 입력 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 확인 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤로가기 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR,3D전환 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜닝 화면 기능(튜닝 탭_바퀴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닉네임 표시 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시작 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 제작화면으로 이동하는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 참여하는 화면으로 이동하는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 참여 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 접근 상태 활성화,비활성화 표시 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 이메일 텍스트 입력 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 접속시 유저 수 표현 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준비 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 방이 진행할 맵 표시 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어가 방에 접속할 경우 설정된 닉네임이 보여지는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저의 차량을 보여주는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방장유저가 방에서 나갈 경우 상태 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시작 조건 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임시작기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 맵을 맵리스트의 왼쪽목록으로 이동하는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 맵을 맵리스트의 오른쪽목록으로 이동하는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방을 제작할 맵을 선택하는 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 사용 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 현황 표시 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 목록 현황 표시 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방에 접속한 플레이어의 퇴장 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방장 표시 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방에 접속가능한 최대 인원수 설정 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>튜닝 화면 기능(튜닝_탭_차모양)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뒤로가기 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 접속 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>플레이어가 중간에 나가면 닉네임 목록이 사라지는 기능 유저가 소유하고있던 유저목록은 비어있는 상태이며 유저들의 배치가 변동하지 않는다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>오른쪽 하단에 방장이 선택한 맵 을 표시해 준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왼쪽 상단에 뒤로가기 버튼이 있으며 해당 버튼 클릭시 이전화면으로 돌아간다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가운데 하단에 Ready 버튼 설정 AR게임이 실행가능한 상태가 된다면 레디버튼이 활성화 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4칸을 만들고 각각의 칸에 방에 참여한 유저의 닉네임을 표시 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왼쪽 상단부분에 뒤로가기 버튼이 있으며 해당 버튼을 누르면 이전의화면으로 이동 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방을 보여주는 목록중 우측 부분에 현재 해당방에 접속해 있는 유저의 수를 보여주어서 다른 유저들이 해당방에 접근할 수 있는지 없는지에 관해 안내 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 방에 접속할 수 있는 상태 를 보여준다.(현재 접근하려는 방에 접속할 수 있는 유저수와 현재 접속해 있는 유저수가 같지 않는 상태)라면 방에 접근할수 있도록 하며 그러한 상태가 아니라접근할 수 없도록 방을 비활성화.(방은 버튼으로 진행되어 있으며 버튼을 활성화 혹은 비활성화)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버튼 클릭시 방 참여화면으로 이동하게된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>버튼 클릭시 방 제작화면으로 이동하게된다.</t>
+    <t>비율</t>
+  </si>
+  <si>
+    <t>총합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선순위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍승표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김민진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선순위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍승표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 표시 위치 아래에 플레이어의 이름을 순위로 나타낸다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>유저의 차량이 보여지게 되며 화면 좌측부근에 보여지게 된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 시작 버튼을(위치 미정) 누르게 될 경우 방을 참여하거나 방을 만들 수 있는 화면으로 이동 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자의 차량 하단부분에 유저의 닉네임을 표기한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 취사선택할 목록이 많을경우 스크롤을 위아래로 움직여서 아이템 목록을 확인할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>차외관 Ex)승용차,버스,트레일러,덤프,경운기,자전거,보드 등을 사용자가 취사선택하여 자신의 차량에 적용할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바퀴의 변형된 모양을 사용자가 취사선택할 수 있으며 바퀴의 색상또한 가능하도록 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>정말 종료할건지에 대한 팝업창이 뜨게되며 해당 팝업창에는 '정말 종료하시겠습니까?' 와 유사한 메시지가 등장하며 예,아니오 라는 버튼이 존재하고 예를누를경우 게임이 종료 아니오를 누를경우 메인창으로 복귀 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입에 필요한 이메일을 입력할 수 있는 텍스트필드 이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 재입력 텍스트에 입력된 비밀번호와 비밀번호 텍스트에 입력된 내용이 같은지 다른지 알려준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입에 필요한 비밀번호를 입력할 수 있는 텍스트필드 비밀번호를 입력하였을때 회원가입 비밀번호 텍스트에 입력된 내용과 비교하여 같은지 다른지 알려준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입에 필요한 비밀번호를 입력할 수 있는 텍스트필드 이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입에 필요한 닉네임을 입력할 수 있는 텍스트필드 이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입에 필요한 아이디를 입력할 수 있는 텍스트필드 이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 화면을 종료 후 "로그인X회원가입" 화면으로 이동 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입에 필요한 정보 입력 이후 입력된 데이터를 데이터베이스에 저장 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 닉네임 텍스트에 입력된 내용과 데이터베이스의 닉네임과 중복이되는지 유무 확인 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>텍스트에 입력된 아이디와 데이터베이스에 저장된 아이디를 비교하여 중복되어있는지 유무 확인 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력한 아이디와 닉네임을 데이터베이스에 있는 닉네임,아이디와 비교하여 같은지 중복 체크 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원정보를 입력하는 UI를 만든뒤 UI에 입력한 텍스트 값을 데이터 베이스에 저장 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호가 불일치 한다는 라벨을 보여준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자의 비밀번호를 입력할 수 있는 텍스트 입력시 입력한 텍스트를 *로 대체한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디가 불일치 한다는 라벨을 보여준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터베이스에 있는 아이디과 아이디 입력 텍스트필드에 입력한 아이디가 같으면 새 비밀번호 입력 텍스트 필드와 새 비밀번호 재입력 텍스트 필드, 다르면 아이디 불일치 안내 라벨을 보여줌,새 비밀번호 설정완료 후 확인버튼 누를시 비밀번호 일치여부 확인후 일치하면 데이터베이스에 저장 후 로그인화면으로 전환 불일치하면 불일치 안내 라벨 보여준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자의 아이디를 입력할 수 있는 텍스트 이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일이 불일치 한다는 라벨을 보여준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터베이스에 있는 이메일과 이메일 입력 텍스트필드에 입력한 이메일이 같을 시 아이디를 보여주는 라벨 보여준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>데이터베이스에 있는 이메일과 이메일 입력 텍스트필드에 입력한 이메일을 같으면 아이디 라벨에 아이디 표시, 다르면 이메일 불일치 안내 메시지 팝업창 보여준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일을 입력할 수 있는 텍스트필드 이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호를 분실하였을 경우 비밀번호를 재 설정하기 위해 아이디와 이메일주소를 기입하여 비밀번호를 재 설정하는 기능이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀 번호 재설정 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>입력한 아이디와 비밀번호를 데이터베이스에 있는 정보와 비교하여 같을시 게임내부화면으로 이동한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 화면을 보여줌 기존의 화면위에 그려진다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 화면으로 전환 기존의 화면위에 그려진다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1등이 3바퀴를 돌게되면 10초 후 종료되도록한다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 표시 위치 아래에 플레이어의 이름을 순위로 나타낸다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어의 차량이 어떤 것인지, 이동방향이 어딘지 알 수 있도록 차량에 표시를 해준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분실한 아이디를 찾기 위해서 회원가입할적에 입력한 이메일을입력하여 해당 이메일로 분실한 아이디를 보내준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 입력 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 입력 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뒤로가기 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>확인 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일 입력 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디가 보여지는 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일 불일치 안내 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 불일치 안내 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새 비밀번호 입력 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새 비밀번호 재입력 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 불일치 안내 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원정보 입력 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 ,닉네임 중복 체크 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 중복체크 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>닉네임 중복체크 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 확인 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 취소 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 아이디 텍스트 입력 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 닉네임 텍스트 입력 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 비밀번호 텍스트 입력 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 비밀번호 재입력 텍스트 입력 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 확인 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뒤로가기 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AR,3D전환 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>튜닝 화면 기능(튜닝 탭_바퀴)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>튜닝 화면 기능(튜닝_탭_차모양)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>닉네임 표시 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 시작 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방 제작화면으로 이동하는 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방 참여하는 화면으로 이동하는 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방 참여 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방 접근 상태 활성화,비활성화 표시 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입 이메일 텍스트 입력 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방 접속시 유저 수 표현 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>준비 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 방이 진행할 맵 표시 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어가 방에 접속할 경우 설정된 닉네임이 보여지는 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유저의 차량을 보여주는 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방장유저가 방에서 나갈 경우 상태 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 시작 조건 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임시작기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 맵을 맵리스트의 왼쪽목록으로 이동하는 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 맵을 맵리스트의 오른쪽목록으로 이동하는 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방을 제작할 맵을 선택하는 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템 사용 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어 현황 표시 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방 목록 현황 표시 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방에 접속한 플레이어의 퇴장 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방장 표시 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방에 접속가능한 최대 인원수 설정 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m/d"/>
+    <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2099,8 +2142,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2113,8 +2172,25 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -2346,13 +2422,161 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2536,18 +2760,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2557,24 +2769,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2584,9 +2784,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2596,9 +2793,6 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2617,23 +2811,186 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="셀 확인" xfId="1" builtinId="23"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -2720,7 +3077,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2755,7 +3112,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4760,1412 +5117,1889 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K83"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="C55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="140.375" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.75" customWidth="1"/>
+    <col min="4" max="4" width="97.5" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="50" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="50" customWidth="1"/>
+    <col min="7" max="7" width="8" style="50" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="95" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="95" t="s">
+        <v>445</v>
+      </c>
+      <c r="H1" s="97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="81" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="127" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="91" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="98"/>
+      <c r="F2" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G2" s="99">
         <v>5</v>
       </c>
-      <c r="H1" s="64" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="90" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="67" t="s">
-        <v>76</v>
-      </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="70"/>
+      <c r="H2" s="100"/>
     </row>
     <row r="3" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="61" t="s">
         <v>261</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="71" t="s">
-        <v>389</v>
-      </c>
-      <c r="D3" s="72" t="s">
-        <v>383</v>
-      </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="74"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="64" t="s">
+        <v>385</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>380</v>
+      </c>
+      <c r="E3" s="68"/>
+      <c r="F3" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G3" s="68">
+        <v>5</v>
+      </c>
+      <c r="H3" s="66"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="61" t="s">
         <v>263</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="71" t="s">
-        <v>388</v>
-      </c>
-      <c r="D4" s="72" t="s">
-        <v>382</v>
-      </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="74"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="64" t="s">
+        <v>384</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>379</v>
+      </c>
+      <c r="E4" s="68"/>
+      <c r="F4" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G4" s="68">
+        <v>5</v>
+      </c>
+      <c r="H4" s="66"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="71" t="s">
-        <v>389</v>
-      </c>
-      <c r="D5" s="75" t="s">
-        <v>381</v>
-      </c>
-      <c r="E5" s="73"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="78"/>
+      <c r="C5" s="64" t="s">
+        <v>385</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>378</v>
+      </c>
+      <c r="E5" s="68"/>
+      <c r="F5" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G5" s="102">
+        <v>5</v>
+      </c>
+      <c r="H5" s="69"/>
       <c r="I5" s="56"/>
       <c r="J5" s="55"/>
       <c r="K5" s="55"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="61" t="s">
         <v>265</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="66" t="s">
+      <c r="B6" s="128"/>
+      <c r="C6" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="67" t="s">
-        <v>387</v>
-      </c>
-      <c r="E6" s="73"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="78"/>
+      <c r="D6" s="63" t="s">
+        <v>383</v>
+      </c>
+      <c r="E6" s="68"/>
+      <c r="F6" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G6" s="102">
+        <v>5</v>
+      </c>
+      <c r="H6" s="69"/>
       <c r="I6" s="56"/>
       <c r="J6" s="55"/>
       <c r="K6" s="55"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="61" t="s">
         <v>266</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="66" t="s">
-        <v>380</v>
-      </c>
-      <c r="D7" s="67" t="s">
-        <v>379</v>
-      </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="78"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="62" t="s">
+        <v>377</v>
+      </c>
+      <c r="D7" s="63" t="s">
+        <v>376</v>
+      </c>
+      <c r="E7" s="68"/>
+      <c r="F7" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G7" s="102">
+        <v>5</v>
+      </c>
+      <c r="H7" s="69"/>
       <c r="I7" s="55"/>
       <c r="J7" s="55"/>
       <c r="K7" s="55"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="92"/>
-      <c r="C8" s="71" t="s">
-        <v>390</v>
-      </c>
-      <c r="D8" s="72" t="s">
-        <v>374</v>
-      </c>
-      <c r="E8" s="73"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="78"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="D8" s="65" t="s">
+        <v>371</v>
+      </c>
+      <c r="E8" s="68"/>
+      <c r="F8" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G8" s="102">
+        <v>5</v>
+      </c>
+      <c r="H8" s="69"/>
       <c r="I8" s="55"/>
       <c r="J8" s="55"/>
       <c r="K8" s="55"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="71" t="s">
-        <v>391</v>
-      </c>
-      <c r="D9" s="72" t="s">
-        <v>371</v>
-      </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="78"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="64" t="s">
+        <v>387</v>
+      </c>
+      <c r="D9" s="65" t="s">
+        <v>368</v>
+      </c>
+      <c r="E9" s="68"/>
+      <c r="F9" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G9" s="102">
+        <v>5</v>
+      </c>
+      <c r="H9" s="69"/>
       <c r="I9" s="55"/>
       <c r="J9" s="55"/>
       <c r="K9" s="55"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="92"/>
-      <c r="C10" s="66" t="s">
-        <v>392</v>
+      <c r="B10" s="128"/>
+      <c r="C10" s="62" t="s">
+        <v>388</v>
       </c>
       <c r="D10" s="57" t="s">
-        <v>343</v>
-      </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="78"/>
+        <v>341</v>
+      </c>
+      <c r="E10" s="68"/>
+      <c r="F10" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G10" s="102">
+        <v>5</v>
+      </c>
+      <c r="H10" s="69"/>
       <c r="I10" s="55"/>
       <c r="J10" s="55"/>
       <c r="K10" s="55"/>
     </row>
     <row r="11" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="128" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="71" t="s">
-        <v>394</v>
-      </c>
-      <c r="D11" s="72" t="s">
-        <v>378</v>
-      </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="78"/>
+      <c r="C11" s="64" t="s">
+        <v>390</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>375</v>
+      </c>
+      <c r="E11" s="68"/>
+      <c r="F11" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G11" s="102">
+        <v>5</v>
+      </c>
+      <c r="H11" s="69"/>
       <c r="I11" s="55"/>
       <c r="J11" s="55"/>
       <c r="K11" s="55"/>
     </row>
     <row r="12" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="71" t="s">
-        <v>393</v>
-      </c>
-      <c r="D12" s="72" t="s">
-        <v>377</v>
-      </c>
-      <c r="E12" s="73"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="78"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="64" t="s">
+        <v>389</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>374</v>
+      </c>
+      <c r="E12" s="68"/>
+      <c r="F12" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G12" s="102">
+        <v>5</v>
+      </c>
+      <c r="H12" s="69"/>
       <c r="I12" s="55"/>
       <c r="J12" s="55"/>
       <c r="K12" s="55"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="92"/>
-      <c r="C13" s="71" t="s">
+      <c r="B13" s="128"/>
+      <c r="C13" s="64" t="s">
+        <v>391</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>373</v>
+      </c>
+      <c r="E13" s="68"/>
+      <c r="F13" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G13" s="68">
+        <v>5</v>
+      </c>
+      <c r="H13" s="66"/>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="61" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="128"/>
+      <c r="C14" s="64" t="s">
+        <v>392</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>372</v>
+      </c>
+      <c r="E14" s="68"/>
+      <c r="F14" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G14" s="68">
+        <v>5</v>
+      </c>
+      <c r="H14" s="66"/>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="128"/>
+      <c r="C15" s="62" t="s">
+        <v>388</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>341</v>
+      </c>
+      <c r="E15" s="68"/>
+      <c r="F15" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G15" s="68">
+        <v>5</v>
+      </c>
+      <c r="H15" s="66"/>
+    </row>
+    <row r="16" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="128" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="64" t="s">
+        <v>386</v>
+      </c>
+      <c r="D16" s="65" t="s">
+        <v>371</v>
+      </c>
+      <c r="E16" s="68"/>
+      <c r="F16" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G16" s="68">
+        <v>5</v>
+      </c>
+      <c r="H16" s="66"/>
+    </row>
+    <row r="17" spans="1:8" ht="47.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="128"/>
+      <c r="C17" s="64" t="s">
+        <v>389</v>
+      </c>
+      <c r="D17" s="65" t="s">
+        <v>370</v>
+      </c>
+      <c r="E17" s="68"/>
+      <c r="F17" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G17" s="68">
+        <v>5</v>
+      </c>
+      <c r="H17" s="66"/>
+    </row>
+    <row r="18" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="128"/>
+      <c r="C18" s="64" t="s">
+        <v>393</v>
+      </c>
+      <c r="D18" s="65" t="s">
+        <v>369</v>
+      </c>
+      <c r="E18" s="68"/>
+      <c r="F18" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G18" s="68">
+        <v>5</v>
+      </c>
+      <c r="H18" s="66"/>
+    </row>
+    <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="128"/>
+      <c r="C19" s="64" t="s">
+        <v>394</v>
+      </c>
+      <c r="D19" s="65" t="s">
+        <v>368</v>
+      </c>
+      <c r="E19" s="68"/>
+      <c r="F19" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G19" s="68">
+        <v>5</v>
+      </c>
+      <c r="H19" s="66"/>
+    </row>
+    <row r="20" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="61" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="128"/>
+      <c r="C20" s="64" t="s">
         <v>395</v>
       </c>
-      <c r="D13" s="72" t="s">
-        <v>376</v>
-      </c>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="74"/>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="92"/>
-      <c r="C14" s="71" t="s">
+      <c r="D20" s="65" t="s">
+        <v>368</v>
+      </c>
+      <c r="E20" s="68"/>
+      <c r="F20" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G20" s="68">
+        <v>5</v>
+      </c>
+      <c r="H20" s="66"/>
+    </row>
+    <row r="21" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="128"/>
+      <c r="C21" s="64" t="s">
         <v>396</v>
       </c>
-      <c r="D14" s="72" t="s">
-        <v>375</v>
-      </c>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="74"/>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="92"/>
-      <c r="C15" s="66" t="s">
-        <v>392</v>
-      </c>
-      <c r="D15" s="57" t="s">
+      <c r="D21" s="65" t="s">
+        <v>367</v>
+      </c>
+      <c r="E21" s="68"/>
+      <c r="F21" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G21" s="68">
+        <v>5</v>
+      </c>
+      <c r="H21" s="66"/>
+    </row>
+    <row r="22" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="128"/>
+      <c r="C22" s="62" t="s">
+        <v>388</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>341</v>
+      </c>
+      <c r="E22" s="68"/>
+      <c r="F22" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G22" s="68">
+        <v>5</v>
+      </c>
+      <c r="H22" s="66"/>
+    </row>
+    <row r="23" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="128" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="62" t="s">
+        <v>397</v>
+      </c>
+      <c r="D23" s="63" t="s">
+        <v>366</v>
+      </c>
+      <c r="E23" s="68"/>
+      <c r="F23" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G23" s="68">
+        <v>5</v>
+      </c>
+      <c r="H23" s="66"/>
+    </row>
+    <row r="24" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="128"/>
+      <c r="C24" s="62" t="s">
+        <v>398</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>365</v>
+      </c>
+      <c r="E24" s="68"/>
+      <c r="F24" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G24" s="68">
+        <v>5</v>
+      </c>
+      <c r="H24" s="66"/>
+    </row>
+    <row r="25" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="128"/>
+      <c r="C25" s="64" t="s">
+        <v>399</v>
+      </c>
+      <c r="D25" s="65" t="s">
+        <v>364</v>
+      </c>
+      <c r="E25" s="68"/>
+      <c r="F25" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G25" s="68">
+        <v>5</v>
+      </c>
+      <c r="H25" s="66"/>
+    </row>
+    <row r="26" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="128"/>
+      <c r="C26" s="64" t="s">
+        <v>400</v>
+      </c>
+      <c r="D26" s="65" t="s">
+        <v>363</v>
+      </c>
+      <c r="E26" s="68"/>
+      <c r="F26" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G26" s="68">
+        <v>5</v>
+      </c>
+      <c r="H26" s="66"/>
+    </row>
+    <row r="27" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="128"/>
+      <c r="C27" s="64" t="s">
+        <v>401</v>
+      </c>
+      <c r="D27" s="65" t="s">
+        <v>362</v>
+      </c>
+      <c r="E27" s="68"/>
+      <c r="F27" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G27" s="68">
+        <v>5</v>
+      </c>
+      <c r="H27" s="66"/>
+    </row>
+    <row r="28" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="128"/>
+      <c r="C28" s="62" t="s">
+        <v>402</v>
+      </c>
+      <c r="D28" s="67" t="s">
+        <v>361</v>
+      </c>
+      <c r="E28" s="68"/>
+      <c r="F28" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G28" s="68">
+        <v>5</v>
+      </c>
+      <c r="H28" s="66"/>
+    </row>
+    <row r="29" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="128"/>
+      <c r="C29" s="62" t="s">
+        <v>403</v>
+      </c>
+      <c r="D29" s="67" t="s">
+        <v>360</v>
+      </c>
+      <c r="E29" s="68"/>
+      <c r="F29" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G29" s="68">
+        <v>5</v>
+      </c>
+      <c r="H29" s="66"/>
+    </row>
+    <row r="30" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="128"/>
+      <c r="C30" s="62" t="s">
+        <v>404</v>
+      </c>
+      <c r="D30" s="67" t="s">
+        <v>359</v>
+      </c>
+      <c r="E30" s="68"/>
+      <c r="F30" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G30" s="68">
+        <v>5</v>
+      </c>
+      <c r="H30" s="66"/>
+    </row>
+    <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="128"/>
+      <c r="C31" s="62" t="s">
+        <v>405</v>
+      </c>
+      <c r="D31" s="67" t="s">
+        <v>358</v>
+      </c>
+      <c r="E31" s="68"/>
+      <c r="F31" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G31" s="68">
+        <v>5</v>
+      </c>
+      <c r="H31" s="66"/>
+    </row>
+    <row r="32" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="128"/>
+      <c r="C32" s="62" t="s">
+        <v>406</v>
+      </c>
+      <c r="D32" s="67" t="s">
+        <v>357</v>
+      </c>
+      <c r="E32" s="68"/>
+      <c r="F32" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G32" s="68">
+        <v>5</v>
+      </c>
+      <c r="H32" s="66"/>
+    </row>
+    <row r="33" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="128"/>
+      <c r="C33" s="62" t="s">
+        <v>407</v>
+      </c>
+      <c r="D33" s="67" t="s">
+        <v>356</v>
+      </c>
+      <c r="E33" s="68"/>
+      <c r="F33" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G33" s="68">
+        <v>5</v>
+      </c>
+      <c r="H33" s="66"/>
+    </row>
+    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A34" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="128"/>
+      <c r="C34" s="62" t="s">
+        <v>417</v>
+      </c>
+      <c r="D34" s="67" t="s">
+        <v>355</v>
+      </c>
+      <c r="E34" s="68"/>
+      <c r="F34" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G34" s="68">
+        <v>5</v>
+      </c>
+      <c r="H34" s="66"/>
+    </row>
+    <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="85" t="s">
+        <v>267</v>
+      </c>
+      <c r="B35" s="134"/>
+      <c r="C35" s="75" t="s">
+        <v>408</v>
+      </c>
+      <c r="D35" s="59" t="s">
+        <v>341</v>
+      </c>
+      <c r="E35" s="113"/>
+      <c r="F35" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G35" s="68">
+        <v>5</v>
+      </c>
+      <c r="H35" s="101"/>
+    </row>
+    <row r="36" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="81" t="s">
+        <v>268</v>
+      </c>
+      <c r="B36" s="135" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="91" t="s">
+        <v>321</v>
+      </c>
+      <c r="E36" s="117">
+        <v>43757</v>
+      </c>
+      <c r="F36" s="106" t="s">
+        <v>444</v>
+      </c>
+      <c r="G36" s="104">
+        <v>3</v>
+      </c>
+      <c r="H36" s="92"/>
+    </row>
+    <row r="37" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="61" t="s">
+        <v>269</v>
+      </c>
+      <c r="B37" s="136"/>
+      <c r="C37" s="64" t="s">
+        <v>409</v>
+      </c>
+      <c r="D37" s="70" t="s">
+        <v>322</v>
+      </c>
+      <c r="E37" s="118">
+        <v>43766</v>
+      </c>
+      <c r="F37" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="G37" s="68">
+        <v>3</v>
+      </c>
+      <c r="H37" s="66"/>
+    </row>
+    <row r="38" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="61" t="s">
+        <v>270</v>
+      </c>
+      <c r="B38" s="136"/>
+      <c r="C38" s="64" t="s">
+        <v>388</v>
+      </c>
+      <c r="D38" s="70" t="s">
+        <v>354</v>
+      </c>
+      <c r="E38" s="68"/>
+      <c r="F38" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="G38" s="68">
+        <v>5</v>
+      </c>
+      <c r="H38" s="66"/>
+    </row>
+    <row r="39" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="61" t="s">
+        <v>271</v>
+      </c>
+      <c r="B39" s="136"/>
+      <c r="C39" s="64" t="s">
+        <v>410</v>
+      </c>
+      <c r="D39" s="70" t="s">
+        <v>353</v>
+      </c>
+      <c r="E39" s="116">
+        <v>43757</v>
+      </c>
+      <c r="F39" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="G39" s="68">
+        <v>3</v>
+      </c>
+      <c r="H39" s="72"/>
+    </row>
+    <row r="40" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="61" t="s">
+        <v>272</v>
+      </c>
+      <c r="B40" s="136"/>
+      <c r="C40" s="64" t="s">
+        <v>435</v>
+      </c>
+      <c r="D40" s="70" t="s">
+        <v>352</v>
+      </c>
+      <c r="E40" s="116">
+        <v>43757</v>
+      </c>
+      <c r="F40" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="G40" s="68">
+        <v>3</v>
+      </c>
+      <c r="H40" s="72"/>
+    </row>
+    <row r="41" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="B41" s="136"/>
+      <c r="C41" s="64" t="s">
+        <v>233</v>
+      </c>
+      <c r="D41" s="70" t="s">
+        <v>351</v>
+      </c>
+      <c r="E41" s="116">
+        <v>43766</v>
+      </c>
+      <c r="F41" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="G41" s="68">
+        <v>4</v>
+      </c>
+      <c r="H41" s="72"/>
+    </row>
+    <row r="42" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="61" t="s">
+        <v>274</v>
+      </c>
+      <c r="B42" s="136"/>
+      <c r="C42" s="62" t="s">
+        <v>411</v>
+      </c>
+      <c r="D42" s="67" t="s">
+        <v>350</v>
+      </c>
+      <c r="E42" s="116">
+        <v>43766</v>
+      </c>
+      <c r="F42" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="G42" s="68">
+        <v>4</v>
+      </c>
+      <c r="H42" s="72"/>
+    </row>
+    <row r="43" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="61" t="s">
+        <v>275</v>
+      </c>
+      <c r="B43" s="136"/>
+      <c r="C43" s="71" t="s">
+        <v>412</v>
+      </c>
+      <c r="D43" s="67" t="s">
+        <v>349</v>
+      </c>
+      <c r="E43" s="116">
+        <v>43766</v>
+      </c>
+      <c r="F43" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="G43" s="68">
+        <v>4</v>
+      </c>
+      <c r="H43" s="72"/>
+    </row>
+    <row r="44" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="61" t="s">
+        <v>276</v>
+      </c>
+      <c r="B44" s="129" t="s">
+        <v>262</v>
+      </c>
+      <c r="C44" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="D44" s="57" t="s">
+        <v>448</v>
+      </c>
+      <c r="E44" s="116">
+        <v>43757</v>
+      </c>
+      <c r="F44" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="G44" s="68">
+        <v>3</v>
+      </c>
+      <c r="H44" s="72"/>
+    </row>
+    <row r="45" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="61" t="s">
+        <v>277</v>
+      </c>
+      <c r="B45" s="129"/>
+      <c r="C45" s="62" t="s">
+        <v>388</v>
+      </c>
+      <c r="D45" s="57" t="s">
+        <v>341</v>
+      </c>
+      <c r="E45" s="108"/>
+      <c r="F45" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="G45" s="68">
+        <v>5</v>
+      </c>
+      <c r="H45" s="72"/>
+    </row>
+    <row r="46" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="61" t="s">
+        <v>278</v>
+      </c>
+      <c r="B46" s="129"/>
+      <c r="C46" s="62" t="s">
+        <v>413</v>
+      </c>
+      <c r="D46" s="57" t="s">
+        <v>348</v>
+      </c>
+      <c r="E46" s="116">
+        <v>43766</v>
+      </c>
+      <c r="F46" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="G46" s="68">
+        <v>4</v>
+      </c>
+      <c r="H46" s="72"/>
+    </row>
+    <row r="47" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="B47" s="130"/>
+      <c r="C47" s="75" t="s">
+        <v>414</v>
+      </c>
+      <c r="D47" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="E47" s="122">
+        <v>43766</v>
+      </c>
+      <c r="F47" s="114" t="s">
+        <v>444</v>
+      </c>
+      <c r="G47" s="105">
+        <v>4</v>
+      </c>
+      <c r="H47" s="93"/>
+    </row>
+    <row r="48" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="86" t="s">
+        <v>280</v>
+      </c>
+      <c r="B48" s="131" t="s">
+        <v>206</v>
+      </c>
+      <c r="C48" s="87" t="s">
+        <v>317</v>
+      </c>
+      <c r="D48" s="88" t="s">
+        <v>323</v>
+      </c>
+      <c r="E48" s="115">
+        <v>43757</v>
+      </c>
+      <c r="F48" s="107" t="s">
+        <v>446</v>
+      </c>
+      <c r="G48" s="104">
+        <v>2</v>
+      </c>
+      <c r="H48" s="89"/>
+    </row>
+    <row r="49" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="61" t="s">
+        <v>281</v>
+      </c>
+      <c r="B49" s="132"/>
+      <c r="C49" s="71" t="s">
+        <v>415</v>
+      </c>
+      <c r="D49" s="67" t="s">
+        <v>311</v>
+      </c>
+      <c r="E49" s="115">
+        <v>43757</v>
+      </c>
+      <c r="F49" s="108" t="s">
+        <v>443</v>
+      </c>
+      <c r="G49" s="68">
+        <v>2</v>
+      </c>
+      <c r="H49" s="72"/>
+    </row>
+    <row r="50" spans="1:8" ht="47.25" x14ac:dyDescent="0.3">
+      <c r="A50" s="61" t="s">
+        <v>282</v>
+      </c>
+      <c r="B50" s="132"/>
+      <c r="C50" s="62" t="s">
+        <v>416</v>
+      </c>
+      <c r="D50" s="63" t="s">
+        <v>346</v>
+      </c>
+      <c r="E50" s="108"/>
+      <c r="F50" s="108" t="s">
+        <v>443</v>
+      </c>
+      <c r="G50" s="68">
+        <v>4</v>
+      </c>
+      <c r="H50" s="72"/>
+    </row>
+    <row r="51" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A51" s="61" t="s">
+        <v>283</v>
+      </c>
+      <c r="B51" s="132"/>
+      <c r="C51" s="62" t="s">
+        <v>430</v>
+      </c>
+      <c r="D51" s="67" t="s">
+        <v>345</v>
+      </c>
+      <c r="E51" s="116">
+        <v>43757</v>
+      </c>
+      <c r="F51" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G51" s="68">
+        <v>3</v>
+      </c>
+      <c r="H51" s="72"/>
+    </row>
+    <row r="52" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="61" t="s">
+        <v>284</v>
+      </c>
+      <c r="B52" s="132"/>
+      <c r="C52" s="62" t="s">
+        <v>436</v>
+      </c>
+      <c r="D52" s="67" t="s">
+        <v>344</v>
+      </c>
+      <c r="E52" s="108"/>
+      <c r="F52" s="108" t="s">
+        <v>443</v>
+      </c>
+      <c r="G52" s="68">
+        <v>5</v>
+      </c>
+      <c r="H52" s="72"/>
+    </row>
+    <row r="53" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A53" s="61" t="s">
+        <v>285</v>
+      </c>
+      <c r="B53" s="132"/>
+      <c r="C53" s="62" t="s">
+        <v>431</v>
+      </c>
+      <c r="D53" s="67" t="s">
+        <v>259</v>
+      </c>
+      <c r="E53" s="120">
+        <v>43757</v>
+      </c>
+      <c r="F53" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G53" s="68">
+        <v>3</v>
+      </c>
+      <c r="H53" s="72"/>
+    </row>
+    <row r="54" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="61" t="s">
+        <v>286</v>
+      </c>
+      <c r="B54" s="132" t="s">
+        <v>437</v>
+      </c>
+      <c r="C54" s="71" t="s">
+        <v>418</v>
+      </c>
+      <c r="D54" s="119" t="s">
         <v>343</v>
       </c>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="74"/>
-    </row>
-    <row r="16" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="92" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="71" t="s">
-        <v>390</v>
-      </c>
-      <c r="D16" s="72" t="s">
-        <v>374</v>
-      </c>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="74"/>
-    </row>
-    <row r="17" spans="1:8" ht="47.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="92"/>
-      <c r="C17" s="71" t="s">
-        <v>393</v>
-      </c>
-      <c r="D17" s="72" t="s">
-        <v>373</v>
-      </c>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="74"/>
-    </row>
-    <row r="18" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="92"/>
-      <c r="C18" s="71" t="s">
-        <v>397</v>
-      </c>
-      <c r="D18" s="72" t="s">
-        <v>372</v>
-      </c>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="74"/>
-    </row>
-    <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="65" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="92"/>
-      <c r="C19" s="71" t="s">
-        <v>398</v>
-      </c>
-      <c r="D19" s="72" t="s">
-        <v>371</v>
-      </c>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="74"/>
-    </row>
-    <row r="20" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="92"/>
-      <c r="C20" s="71" t="s">
-        <v>399</v>
-      </c>
-      <c r="D20" s="72" t="s">
-        <v>371</v>
-      </c>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="74"/>
-    </row>
-    <row r="21" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="71" t="s">
-        <v>400</v>
-      </c>
-      <c r="D21" s="72" t="s">
-        <v>370</v>
-      </c>
-      <c r="E21" s="73"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="74"/>
-    </row>
-    <row r="22" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="92"/>
-      <c r="C22" s="66" t="s">
-        <v>392</v>
-      </c>
-      <c r="D22" s="57" t="s">
-        <v>343</v>
-      </c>
-      <c r="E22" s="73"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="74"/>
-    </row>
-    <row r="23" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="65" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="66" t="s">
-        <v>401</v>
-      </c>
-      <c r="D23" s="67" t="s">
-        <v>369</v>
-      </c>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="74"/>
-    </row>
-    <row r="24" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="65" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="92"/>
-      <c r="C24" s="66" t="s">
-        <v>402</v>
-      </c>
-      <c r="D24" s="67" t="s">
-        <v>368</v>
-      </c>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="74"/>
-    </row>
-    <row r="25" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="65" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="92"/>
-      <c r="C25" s="71" t="s">
-        <v>403</v>
-      </c>
-      <c r="D25" s="72" t="s">
-        <v>367</v>
-      </c>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="74"/>
-    </row>
-    <row r="26" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="92"/>
-      <c r="C26" s="71" t="s">
-        <v>404</v>
-      </c>
-      <c r="D26" s="72" t="s">
-        <v>366</v>
-      </c>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="74"/>
-    </row>
-    <row r="27" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="92"/>
-      <c r="C27" s="71" t="s">
-        <v>405</v>
-      </c>
-      <c r="D27" s="72" t="s">
-        <v>365</v>
-      </c>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="74"/>
-    </row>
-    <row r="28" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="92"/>
-      <c r="C28" s="66" t="s">
-        <v>406</v>
-      </c>
-      <c r="D28" s="75" t="s">
-        <v>364</v>
-      </c>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="74"/>
-    </row>
-    <row r="29" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="66" t="s">
-        <v>407</v>
-      </c>
-      <c r="D29" s="75" t="s">
-        <v>363</v>
-      </c>
-      <c r="E29" s="73"/>
-      <c r="F29" s="73"/>
-      <c r="G29" s="73"/>
-      <c r="H29" s="74"/>
-    </row>
-    <row r="30" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="65" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="92"/>
-      <c r="C30" s="66" t="s">
-        <v>408</v>
-      </c>
-      <c r="D30" s="75" t="s">
-        <v>362</v>
-      </c>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="74"/>
-    </row>
-    <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="B31" s="92"/>
-      <c r="C31" s="66" t="s">
-        <v>409</v>
-      </c>
-      <c r="D31" s="75" t="s">
-        <v>361</v>
-      </c>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="74"/>
-    </row>
-    <row r="32" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="65" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="92"/>
-      <c r="C32" s="66" t="s">
-        <v>410</v>
-      </c>
-      <c r="D32" s="75" t="s">
-        <v>360</v>
-      </c>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="74"/>
-    </row>
-    <row r="33" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="65" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="92"/>
-      <c r="C33" s="66" t="s">
-        <v>411</v>
-      </c>
-      <c r="D33" s="75" t="s">
-        <v>359</v>
-      </c>
-      <c r="E33" s="73"/>
-      <c r="F33" s="73"/>
-      <c r="G33" s="73"/>
-      <c r="H33" s="74"/>
-    </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A34" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="92"/>
-      <c r="C34" s="66" t="s">
+      <c r="E54" s="121">
+        <v>43766</v>
+      </c>
+      <c r="F54" s="111" t="s">
+        <v>443</v>
+      </c>
+      <c r="G54" s="68">
+        <v>3</v>
+      </c>
+      <c r="H54" s="72"/>
+    </row>
+    <row r="55" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="61" t="s">
+        <v>287</v>
+      </c>
+      <c r="B55" s="132"/>
+      <c r="C55" s="71" t="s">
+        <v>419</v>
+      </c>
+      <c r="D55" s="67" t="s">
+        <v>342</v>
+      </c>
+      <c r="E55" s="115">
+        <v>43757</v>
+      </c>
+      <c r="F55" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G55" s="68">
+        <v>2</v>
+      </c>
+      <c r="H55" s="72"/>
+    </row>
+    <row r="56" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="61" t="s">
+        <v>288</v>
+      </c>
+      <c r="B56" s="132"/>
+      <c r="C56" s="71" t="s">
+        <v>388</v>
+      </c>
+      <c r="D56" s="67" t="s">
+        <v>341</v>
+      </c>
+      <c r="E56" s="108"/>
+      <c r="F56" s="108" t="s">
+        <v>443</v>
+      </c>
+      <c r="G56" s="68">
+        <v>5</v>
+      </c>
+      <c r="H56" s="72"/>
+    </row>
+    <row r="57" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="61" t="s">
+        <v>289</v>
+      </c>
+      <c r="B57" s="132"/>
+      <c r="C57" s="71" t="s">
+        <v>420</v>
+      </c>
+      <c r="D57" s="67" t="s">
+        <v>340</v>
+      </c>
+      <c r="E57" s="121">
+        <v>43766</v>
+      </c>
+      <c r="F57" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G57" s="68">
+        <v>3</v>
+      </c>
+      <c r="H57" s="72"/>
+    </row>
+    <row r="58" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="61" t="s">
+        <v>290</v>
+      </c>
+      <c r="B58" s="132"/>
+      <c r="C58" s="77" t="s">
+        <v>432</v>
+      </c>
+      <c r="D58" s="67" t="s">
+        <v>438</v>
+      </c>
+      <c r="E58" s="121">
+        <v>43766</v>
+      </c>
+      <c r="F58" s="108" t="s">
+        <v>443</v>
+      </c>
+      <c r="G58" s="68">
+        <v>3</v>
+      </c>
+      <c r="H58" s="72"/>
+    </row>
+    <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="61" t="s">
+        <v>291</v>
+      </c>
+      <c r="B59" s="132"/>
+      <c r="C59" s="71" t="s">
+        <v>421</v>
+      </c>
+      <c r="D59" s="67" t="s">
+        <v>339</v>
+      </c>
+      <c r="E59" s="121">
+        <v>43766</v>
+      </c>
+      <c r="F59" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G59" s="68">
+        <v>3</v>
+      </c>
+      <c r="H59" s="72"/>
+    </row>
+    <row r="60" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="B60" s="132"/>
+      <c r="C60" s="71" t="s">
         <v>422</v>
       </c>
-      <c r="D34" s="75" t="s">
-        <v>358</v>
-      </c>
-      <c r="E34" s="73"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="74"/>
-    </row>
-    <row r="35" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="65" t="s">
-        <v>267</v>
-      </c>
-      <c r="B35" s="92"/>
-      <c r="C35" s="66" t="s">
-        <v>412</v>
-      </c>
-      <c r="D35" s="57" t="s">
-        <v>343</v>
-      </c>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="74"/>
-    </row>
-    <row r="36" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="65" t="s">
-        <v>268</v>
-      </c>
-      <c r="B36" s="92" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="67" t="s">
-        <v>322</v>
-      </c>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="74"/>
-    </row>
-    <row r="37" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="65" t="s">
-        <v>269</v>
-      </c>
-      <c r="B37" s="92"/>
-      <c r="C37" s="71" t="s">
-        <v>413</v>
-      </c>
-      <c r="D37" s="79" t="s">
-        <v>323</v>
-      </c>
-      <c r="E37" s="73"/>
-      <c r="F37" s="73"/>
-      <c r="G37" s="73"/>
-      <c r="H37" s="74"/>
-    </row>
-    <row r="38" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="65" t="s">
-        <v>270</v>
-      </c>
-      <c r="B38" s="92"/>
-      <c r="C38" s="71" t="s">
-        <v>392</v>
-      </c>
-      <c r="D38" s="79" t="s">
-        <v>357</v>
-      </c>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="74"/>
-    </row>
-    <row r="39" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="65" t="s">
-        <v>271</v>
-      </c>
-      <c r="B39" s="92"/>
-      <c r="C39" s="71" t="s">
-        <v>414</v>
-      </c>
-      <c r="D39" s="79" t="s">
-        <v>356</v>
-      </c>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="82"/>
-    </row>
-    <row r="40" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="65" t="s">
-        <v>272</v>
-      </c>
-      <c r="B40" s="92"/>
-      <c r="C40" s="71" t="s">
-        <v>415</v>
-      </c>
-      <c r="D40" s="79" t="s">
-        <v>355</v>
-      </c>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="82"/>
-    </row>
-    <row r="41" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="65" t="s">
-        <v>273</v>
-      </c>
-      <c r="B41" s="92"/>
-      <c r="C41" s="71" t="s">
-        <v>233</v>
-      </c>
-      <c r="D41" s="79" t="s">
-        <v>354</v>
-      </c>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="82"/>
-    </row>
-    <row r="42" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="65" t="s">
-        <v>274</v>
-      </c>
-      <c r="B42" s="92"/>
-      <c r="C42" s="66" t="s">
-        <v>416</v>
-      </c>
-      <c r="D42" s="75" t="s">
-        <v>353</v>
-      </c>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="81"/>
-      <c r="H42" s="82"/>
-    </row>
-    <row r="43" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="65" t="s">
-        <v>275</v>
-      </c>
-      <c r="B43" s="92"/>
-      <c r="C43" s="80" t="s">
-        <v>417</v>
-      </c>
-      <c r="D43" s="75" t="s">
-        <v>352</v>
-      </c>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="82"/>
-    </row>
-    <row r="44" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="65" t="s">
-        <v>276</v>
-      </c>
-      <c r="B44" s="91" t="s">
-        <v>262</v>
-      </c>
-      <c r="C44" s="66" t="s">
-        <v>188</v>
-      </c>
-      <c r="D44" s="57" t="s">
-        <v>351</v>
-      </c>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="81"/>
-      <c r="H44" s="82"/>
-    </row>
-    <row r="45" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="65" t="s">
-        <v>277</v>
-      </c>
-      <c r="B45" s="91"/>
-      <c r="C45" s="66" t="s">
-        <v>392</v>
-      </c>
-      <c r="D45" s="57" t="s">
-        <v>343</v>
-      </c>
-      <c r="E45" s="81"/>
-      <c r="F45" s="81"/>
-      <c r="G45" s="81"/>
-      <c r="H45" s="82"/>
-    </row>
-    <row r="46" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="65" t="s">
-        <v>278</v>
-      </c>
-      <c r="B46" s="91"/>
-      <c r="C46" s="66" t="s">
-        <v>418</v>
-      </c>
-      <c r="D46" s="57" t="s">
-        <v>350</v>
-      </c>
-      <c r="E46" s="81"/>
-      <c r="F46" s="81"/>
-      <c r="G46" s="81"/>
-      <c r="H46" s="82"/>
-    </row>
-    <row r="47" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A47" s="65" t="s">
-        <v>279</v>
-      </c>
-      <c r="B47" s="91"/>
-      <c r="C47" s="66" t="s">
-        <v>419</v>
-      </c>
-      <c r="D47" s="57" t="s">
-        <v>349</v>
-      </c>
-      <c r="E47" s="81"/>
-      <c r="F47" s="81"/>
-      <c r="G47" s="81"/>
-      <c r="H47" s="82"/>
-    </row>
-    <row r="48" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="65" t="s">
-        <v>280</v>
-      </c>
-      <c r="B48" s="91" t="s">
-        <v>206</v>
-      </c>
-      <c r="C48" s="80" t="s">
+      <c r="D60" s="67" t="s">
+        <v>338</v>
+      </c>
+      <c r="E60" s="121">
+        <v>43766</v>
+      </c>
+      <c r="F60" s="108" t="s">
+        <v>443</v>
+      </c>
+      <c r="G60" s="68">
+        <v>3</v>
+      </c>
+      <c r="H60" s="72"/>
+    </row>
+    <row r="61" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="61" t="s">
+        <v>293</v>
+      </c>
+      <c r="B61" s="132"/>
+      <c r="C61" s="77" t="s">
+        <v>433</v>
+      </c>
+      <c r="D61" s="67" t="s">
+        <v>337</v>
+      </c>
+      <c r="E61" s="108"/>
+      <c r="F61" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G61" s="68">
+        <v>4</v>
+      </c>
+      <c r="H61" s="72"/>
+    </row>
+    <row r="62" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="61" t="s">
+        <v>294</v>
+      </c>
+      <c r="B62" s="132"/>
+      <c r="C62" s="71" t="s">
+        <v>423</v>
+      </c>
+      <c r="D62" s="67" t="s">
+        <v>336</v>
+      </c>
+      <c r="E62" s="108"/>
+      <c r="F62" s="108" t="s">
+        <v>443</v>
+      </c>
+      <c r="G62" s="68">
+        <v>4</v>
+      </c>
+      <c r="H62" s="72"/>
+    </row>
+    <row r="63" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="61" t="s">
+        <v>295</v>
+      </c>
+      <c r="B63" s="132"/>
+      <c r="C63" s="71" t="s">
+        <v>424</v>
+      </c>
+      <c r="D63" s="67" t="s">
+        <v>335</v>
+      </c>
+      <c r="E63" s="108"/>
+      <c r="F63" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G63" s="68">
+        <v>4</v>
+      </c>
+      <c r="H63" s="72"/>
+    </row>
+    <row r="64" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="61" t="s">
+        <v>296</v>
+      </c>
+      <c r="B64" s="132"/>
+      <c r="C64" s="77" t="s">
+        <v>434</v>
+      </c>
+      <c r="D64" s="67" t="s">
+        <v>334</v>
+      </c>
+      <c r="E64" s="108"/>
+      <c r="F64" s="108" t="s">
+        <v>443</v>
+      </c>
+      <c r="G64" s="68">
+        <v>5</v>
+      </c>
+      <c r="H64" s="72"/>
+    </row>
+    <row r="65" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="61" t="s">
+        <v>297</v>
+      </c>
+      <c r="B65" s="132"/>
+      <c r="C65" s="71" t="s">
+        <v>425</v>
+      </c>
+      <c r="D65" s="67" t="s">
+        <v>333</v>
+      </c>
+      <c r="E65" s="115">
+        <v>43757</v>
+      </c>
+      <c r="F65" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G65" s="68">
+        <v>2</v>
+      </c>
+      <c r="H65" s="72"/>
+    </row>
+    <row r="66" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="61" t="s">
+        <v>298</v>
+      </c>
+      <c r="B66" s="132" t="s">
+        <v>176</v>
+      </c>
+      <c r="C66" s="62" t="s">
         <v>318</v>
       </c>
-      <c r="D48" s="75" t="s">
-        <v>324</v>
-      </c>
-      <c r="E48" s="81"/>
-      <c r="F48" s="81"/>
-      <c r="G48" s="81"/>
-      <c r="H48" s="82"/>
-    </row>
-    <row r="49" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="65" t="s">
-        <v>281</v>
-      </c>
-      <c r="B49" s="91"/>
-      <c r="C49" s="80" t="s">
-        <v>420</v>
-      </c>
-      <c r="D49" s="75" t="s">
-        <v>312</v>
-      </c>
-      <c r="E49" s="81"/>
-      <c r="F49" s="81"/>
-      <c r="G49" s="81"/>
-      <c r="H49" s="82"/>
-    </row>
-    <row r="50" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="65" t="s">
-        <v>282</v>
-      </c>
-      <c r="B50" s="91"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="75"/>
-      <c r="E50" s="81"/>
-      <c r="F50" s="81"/>
-      <c r="G50" s="81"/>
-      <c r="H50" s="82"/>
-    </row>
-    <row r="51" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A51" s="65" t="s">
-        <v>283</v>
-      </c>
-      <c r="B51" s="91"/>
-      <c r="C51" s="66" t="s">
-        <v>421</v>
-      </c>
-      <c r="D51" s="67" t="s">
-        <v>348</v>
-      </c>
-      <c r="E51" s="81"/>
-      <c r="F51" s="81"/>
-      <c r="G51" s="81"/>
-      <c r="H51" s="82"/>
-    </row>
-    <row r="52" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="65" t="s">
-        <v>284</v>
-      </c>
-      <c r="B52" s="91"/>
-      <c r="C52" s="66" t="s">
-        <v>435</v>
-      </c>
-      <c r="D52" s="75" t="s">
-        <v>347</v>
-      </c>
-      <c r="E52" s="81"/>
-      <c r="F52" s="81"/>
-      <c r="G52" s="81"/>
-      <c r="H52" s="82"/>
-    </row>
-    <row r="53" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="65" t="s">
-        <v>285</v>
-      </c>
-      <c r="B53" s="91"/>
-      <c r="C53" s="66" t="s">
-        <v>392</v>
-      </c>
-      <c r="D53" s="75" t="s">
-        <v>346</v>
-      </c>
-      <c r="E53" s="81"/>
-      <c r="F53" s="81"/>
-      <c r="G53" s="81"/>
-      <c r="H53" s="82"/>
-    </row>
-    <row r="54" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="65" t="s">
-        <v>286</v>
-      </c>
-      <c r="B54" s="91"/>
-      <c r="C54" s="66" t="s">
-        <v>436</v>
-      </c>
-      <c r="D54" s="75" t="s">
-        <v>259</v>
-      </c>
-      <c r="E54" s="81"/>
-      <c r="F54" s="81"/>
-      <c r="G54" s="81"/>
-      <c r="H54" s="82"/>
-    </row>
-    <row r="55" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="65" t="s">
-        <v>287</v>
-      </c>
-      <c r="B55" s="91" t="s">
-        <v>235</v>
-      </c>
-      <c r="C55" s="80" t="s">
-        <v>423</v>
-      </c>
-      <c r="D55" s="75" t="s">
-        <v>345</v>
-      </c>
-      <c r="E55" s="81"/>
-      <c r="F55" s="81"/>
-      <c r="G55" s="81"/>
-      <c r="H55" s="82"/>
-    </row>
-    <row r="56" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="65" t="s">
-        <v>288</v>
-      </c>
-      <c r="B56" s="91"/>
-      <c r="C56" s="80" t="s">
-        <v>424</v>
-      </c>
-      <c r="D56" s="75" t="s">
-        <v>344</v>
-      </c>
-      <c r="E56" s="81"/>
-      <c r="F56" s="81"/>
-      <c r="G56" s="81"/>
-      <c r="H56" s="82"/>
-    </row>
-    <row r="57" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A57" s="65" t="s">
-        <v>289</v>
-      </c>
-      <c r="B57" s="91"/>
-      <c r="C57" s="80" t="s">
-        <v>392</v>
-      </c>
-      <c r="D57" s="75" t="s">
-        <v>343</v>
-      </c>
-      <c r="E57" s="81"/>
-      <c r="F57" s="81"/>
-      <c r="G57" s="81"/>
-      <c r="H57" s="82"/>
-    </row>
-    <row r="58" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="65" t="s">
-        <v>290</v>
-      </c>
-      <c r="B58" s="91"/>
-      <c r="C58" s="80" t="s">
-        <v>425</v>
-      </c>
-      <c r="D58" s="75" t="s">
-        <v>342</v>
-      </c>
-      <c r="E58" s="81"/>
-      <c r="F58" s="81"/>
-      <c r="G58" s="81"/>
-      <c r="H58" s="82"/>
-    </row>
-    <row r="59" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="65" t="s">
-        <v>291</v>
-      </c>
-      <c r="B59" s="91"/>
-      <c r="C59" s="87" t="s">
-        <v>437</v>
-      </c>
-      <c r="D59" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="E59" s="81"/>
-      <c r="F59" s="81"/>
-      <c r="G59" s="81"/>
-      <c r="H59" s="82"/>
-    </row>
-    <row r="60" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="65" t="s">
-        <v>292</v>
-      </c>
-      <c r="B60" s="91"/>
-      <c r="C60" s="80" t="s">
+      <c r="D66" t="s">
+        <v>332</v>
+      </c>
+      <c r="E66" s="121">
+        <v>43766</v>
+      </c>
+      <c r="F66" s="108" t="s">
+        <v>443</v>
+      </c>
+      <c r="G66" s="68">
+        <v>3</v>
+      </c>
+      <c r="H66" s="72"/>
+    </row>
+    <row r="67" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A67" s="61" t="s">
+        <v>299</v>
+      </c>
+      <c r="B67" s="132"/>
+      <c r="C67" s="62" t="s">
         <v>426</v>
       </c>
-      <c r="D60" s="75" t="s">
-        <v>340</v>
-      </c>
-      <c r="E60" s="81"/>
-      <c r="F60" s="81"/>
-      <c r="G60" s="81"/>
-      <c r="H60" s="82"/>
-    </row>
-    <row r="61" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A61" s="65" t="s">
-        <v>293</v>
-      </c>
-      <c r="B61" s="91"/>
-      <c r="C61" s="80" t="s">
+      <c r="D67" t="s">
+        <v>331</v>
+      </c>
+      <c r="E67" s="121">
+        <v>43766</v>
+      </c>
+      <c r="F67" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G67" s="68">
+        <v>4</v>
+      </c>
+      <c r="H67" s="72"/>
+    </row>
+    <row r="68" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="61" t="s">
+        <v>300</v>
+      </c>
+      <c r="B68" s="132"/>
+      <c r="C68" s="62" t="s">
         <v>427</v>
       </c>
-      <c r="D61" s="75" t="s">
-        <v>339</v>
-      </c>
-      <c r="E61" s="81"/>
-      <c r="F61" s="81"/>
-      <c r="G61" s="81"/>
-      <c r="H61" s="82"/>
-    </row>
-    <row r="62" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="65" t="s">
-        <v>294</v>
-      </c>
-      <c r="B62" s="91"/>
-      <c r="C62" s="87" t="s">
-        <v>438</v>
-      </c>
-      <c r="D62" s="75" t="s">
-        <v>338</v>
-      </c>
-      <c r="E62" s="81"/>
-      <c r="F62" s="81"/>
-      <c r="G62" s="81"/>
-      <c r="H62" s="82"/>
-    </row>
-    <row r="63" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="65" t="s">
-        <v>295</v>
-      </c>
-      <c r="B63" s="91"/>
-      <c r="C63" s="80" t="s">
+      <c r="D68" t="s">
+        <v>330</v>
+      </c>
+      <c r="E68" s="121">
+        <v>43766</v>
+      </c>
+      <c r="F68" s="108" t="s">
+        <v>443</v>
+      </c>
+      <c r="G68" s="68">
+        <v>4</v>
+      </c>
+      <c r="H68" s="72"/>
+    </row>
+    <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A69" s="61" t="s">
+        <v>301</v>
+      </c>
+      <c r="B69" s="132"/>
+      <c r="C69" s="62" t="s">
         <v>428</v>
       </c>
-      <c r="D63" s="75" t="s">
-        <v>337</v>
-      </c>
-      <c r="E63" s="81"/>
-      <c r="F63" s="81"/>
-      <c r="G63" s="81"/>
-      <c r="H63" s="82"/>
-    </row>
-    <row r="64" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="65" t="s">
-        <v>296</v>
-      </c>
-      <c r="B64" s="91"/>
-      <c r="C64" s="80" t="s">
-        <v>429</v>
-      </c>
-      <c r="D64" s="75" t="s">
-        <v>336</v>
-      </c>
-      <c r="E64" s="81"/>
-      <c r="F64" s="81"/>
-      <c r="G64" s="81"/>
-      <c r="H64" s="82"/>
-    </row>
-    <row r="65" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="65" t="s">
-        <v>297</v>
-      </c>
-      <c r="B65" s="91"/>
-      <c r="C65" s="87" t="s">
-        <v>439</v>
-      </c>
-      <c r="D65" s="75" t="s">
-        <v>335</v>
-      </c>
-      <c r="E65" s="81"/>
-      <c r="F65" s="81"/>
-      <c r="G65" s="81"/>
-      <c r="H65" s="82"/>
-    </row>
-    <row r="66" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="65" t="s">
-        <v>298</v>
-      </c>
-      <c r="B66" s="91"/>
-      <c r="C66" s="80" t="s">
-        <v>430</v>
-      </c>
-      <c r="D66" s="75" t="s">
-        <v>334</v>
-      </c>
-      <c r="E66" s="81"/>
-      <c r="F66" s="81"/>
-      <c r="G66" s="81"/>
-      <c r="H66" s="82"/>
-    </row>
-    <row r="67" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="65" t="s">
-        <v>299</v>
-      </c>
-      <c r="B67" s="91" t="s">
-        <v>176</v>
-      </c>
-      <c r="C67" s="66" t="s">
-        <v>319</v>
-      </c>
-      <c r="D67" t="s">
-        <v>333</v>
-      </c>
-      <c r="E67" s="81"/>
-      <c r="F67" s="81"/>
-      <c r="G67" s="81"/>
-      <c r="H67" s="82"/>
-    </row>
-    <row r="68" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A68" s="65" t="s">
-        <v>300</v>
-      </c>
-      <c r="B68" s="91"/>
-      <c r="C68" s="66" t="s">
-        <v>431</v>
-      </c>
-      <c r="D68" t="s">
-        <v>332</v>
-      </c>
-      <c r="E68" s="81"/>
-      <c r="F68" s="81"/>
-      <c r="G68" s="81"/>
-      <c r="H68" s="82"/>
-    </row>
-    <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="65" t="s">
-        <v>301</v>
-      </c>
-      <c r="B69" s="91"/>
-      <c r="C69" s="66" t="s">
-        <v>432</v>
-      </c>
       <c r="D69" t="s">
-        <v>331</v>
-      </c>
-      <c r="E69" s="81"/>
-      <c r="F69" s="81"/>
-      <c r="G69" s="81"/>
-      <c r="H69" s="82"/>
-    </row>
-    <row r="70" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A70" s="65" t="s">
+        <v>328</v>
+      </c>
+      <c r="E69" s="115">
+        <v>43757</v>
+      </c>
+      <c r="F69" s="107" t="s">
+        <v>443</v>
+      </c>
+      <c r="G69" s="68">
+        <v>2</v>
+      </c>
+      <c r="H69" s="72"/>
+    </row>
+    <row r="70" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="B70" s="91"/>
-      <c r="C70" s="66" t="s">
-        <v>433</v>
+      <c r="B70" s="133"/>
+      <c r="C70" s="79" t="s">
+        <v>388</v>
       </c>
       <c r="D70" t="s">
         <v>329</v>
       </c>
-      <c r="E70" s="81"/>
-      <c r="F70" s="81"/>
-      <c r="G70" s="81"/>
-      <c r="H70" s="82"/>
-    </row>
-    <row r="71" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A71" s="65" t="s">
+      <c r="E70" s="121">
+        <v>43766</v>
+      </c>
+      <c r="F70" s="108" t="s">
+        <v>443</v>
+      </c>
+      <c r="G70" s="105">
+        <v>3</v>
+      </c>
+      <c r="H70" s="80"/>
+    </row>
+    <row r="71" spans="1:8" ht="47.25" x14ac:dyDescent="0.3">
+      <c r="A71" s="81" t="s">
         <v>303</v>
       </c>
-      <c r="B71" s="91"/>
-      <c r="C71" s="66" t="s">
-        <v>392</v>
-      </c>
-      <c r="D71" t="s">
-        <v>330</v>
-      </c>
-      <c r="E71" s="81"/>
-      <c r="F71" s="81"/>
-      <c r="G71" s="81"/>
-      <c r="H71" s="82"/>
-    </row>
-    <row r="72" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A72" s="65" t="s">
+      <c r="B71" s="124" t="s">
+        <v>31</v>
+      </c>
+      <c r="C71" s="82" t="s">
+        <v>319</v>
+      </c>
+      <c r="D71" s="83" t="s">
+        <v>324</v>
+      </c>
+      <c r="E71" s="123">
+        <v>43757</v>
+      </c>
+      <c r="F71" s="106" t="s">
+        <v>444</v>
+      </c>
+      <c r="G71" s="106">
+        <v>3</v>
+      </c>
+      <c r="H71" s="84"/>
+    </row>
+    <row r="72" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="61" t="s">
         <v>304</v>
       </c>
-      <c r="B72" s="88" t="s">
-        <v>31</v>
-      </c>
-      <c r="C72" s="83" t="s">
+      <c r="B72" s="125"/>
+      <c r="C72" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="D72" s="63" t="s">
+        <v>325</v>
+      </c>
+      <c r="E72" s="116">
+        <v>43757</v>
+      </c>
+      <c r="F72" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="G72" s="111">
+        <v>3</v>
+      </c>
+      <c r="H72" s="72"/>
+    </row>
+    <row r="73" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A73" s="61" t="s">
+        <v>305</v>
+      </c>
+      <c r="B73" s="125"/>
+      <c r="C73" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="74" t="s">
+        <v>223</v>
+      </c>
+      <c r="E73" s="108"/>
+      <c r="F73" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="G73" s="111">
+        <v>4</v>
+      </c>
+      <c r="H73" s="72"/>
+    </row>
+    <row r="74" spans="1:8" ht="47.25" x14ac:dyDescent="0.3">
+      <c r="A74" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="B74" s="125"/>
+      <c r="C74" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="D74" s="74" t="s">
+        <v>327</v>
+      </c>
+      <c r="E74" s="108"/>
+      <c r="F74" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="G74" s="111">
+        <v>4</v>
+      </c>
+      <c r="H74" s="72"/>
+    </row>
+    <row r="75" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A75" s="61" t="s">
+        <v>307</v>
+      </c>
+      <c r="B75" s="125"/>
+      <c r="C75" s="62" t="s">
+        <v>429</v>
+      </c>
+      <c r="D75" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="E75" s="108"/>
+      <c r="F75" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="G75" s="111">
+        <v>4</v>
+      </c>
+      <c r="H75" s="72"/>
+    </row>
+    <row r="76" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="61" t="s">
+        <v>308</v>
+      </c>
+      <c r="B76" s="125"/>
+      <c r="C76" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="D76" s="63" t="s">
+        <v>200</v>
+      </c>
+      <c r="E76" s="116">
+        <v>43757</v>
+      </c>
+      <c r="F76" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="G76" s="111">
+        <v>1</v>
+      </c>
+      <c r="H76" s="72"/>
+    </row>
+    <row r="77" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A77" s="61" t="s">
+        <v>309</v>
+      </c>
+      <c r="B77" s="125"/>
+      <c r="C77" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="D77" s="63" t="s">
+        <v>312</v>
+      </c>
+      <c r="E77" s="116">
+        <v>43757</v>
+      </c>
+      <c r="F77" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="G77" s="111">
+        <v>3</v>
+      </c>
+      <c r="H77" s="72"/>
+    </row>
+    <row r="78" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A78" s="61" t="s">
+        <v>310</v>
+      </c>
+      <c r="B78" s="125"/>
+      <c r="C78" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="D78" s="63" t="s">
+        <v>326</v>
+      </c>
+      <c r="E78" s="116">
+        <v>43757</v>
+      </c>
+      <c r="F78" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="G78" s="111">
+        <v>3</v>
+      </c>
+      <c r="H78" s="72"/>
+    </row>
+    <row r="79" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="61" t="s">
+        <v>313</v>
+      </c>
+      <c r="B79" s="125"/>
+      <c r="C79" s="62" t="s">
         <v>320</v>
       </c>
-      <c r="D72" s="84" t="s">
-        <v>325</v>
-      </c>
-      <c r="E72" s="81"/>
-      <c r="F72" s="81"/>
-      <c r="G72" s="81"/>
-      <c r="H72" s="82"/>
-    </row>
-    <row r="73" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="65" t="s">
-        <v>305</v>
-      </c>
-      <c r="B73" s="88"/>
-      <c r="C73" s="66" t="s">
-        <v>196</v>
-      </c>
-      <c r="D73" s="67" t="s">
-        <v>326</v>
-      </c>
-      <c r="E73" s="81"/>
-      <c r="F73" s="81"/>
-      <c r="G73" s="81"/>
-      <c r="H73" s="82"/>
-    </row>
-    <row r="74" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A74" s="65" t="s">
-        <v>306</v>
-      </c>
-      <c r="B74" s="88"/>
-      <c r="C74" s="83" t="s">
-        <v>33</v>
-      </c>
-      <c r="D74" s="84" t="s">
-        <v>223</v>
-      </c>
-      <c r="E74" s="81"/>
-      <c r="F74" s="81"/>
-      <c r="G74" s="81"/>
-      <c r="H74" s="82"/>
-    </row>
-    <row r="75" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A75" s="65" t="s">
-        <v>307</v>
-      </c>
-      <c r="B75" s="88"/>
-      <c r="C75" s="83" t="s">
-        <v>34</v>
-      </c>
-      <c r="D75" s="84" t="s">
-        <v>328</v>
-      </c>
-      <c r="E75" s="81"/>
-      <c r="F75" s="81"/>
-      <c r="G75" s="81"/>
-      <c r="H75" s="82"/>
-    </row>
-    <row r="76" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="65" t="s">
-        <v>308</v>
-      </c>
-      <c r="B76" s="88"/>
-      <c r="C76" s="66" t="s">
-        <v>434</v>
-      </c>
-      <c r="D76" s="67" t="s">
-        <v>199</v>
-      </c>
-      <c r="E76" s="81"/>
-      <c r="F76" s="81"/>
-      <c r="G76" s="81"/>
-      <c r="H76" s="82"/>
-    </row>
-    <row r="77" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="65" t="s">
-        <v>309</v>
-      </c>
-      <c r="B77" s="88"/>
-      <c r="C77" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="D77" s="67" t="s">
-        <v>200</v>
-      </c>
-      <c r="E77" s="81"/>
-      <c r="F77" s="81"/>
-      <c r="G77" s="81"/>
-      <c r="H77" s="82"/>
-    </row>
-    <row r="78" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="65" t="s">
-        <v>310</v>
-      </c>
-      <c r="B78" s="88"/>
-      <c r="C78" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="D78" s="67" t="s">
-        <v>313</v>
-      </c>
-      <c r="E78" s="81"/>
-      <c r="F78" s="81"/>
-      <c r="G78" s="81"/>
-      <c r="H78" s="82"/>
-    </row>
-    <row r="79" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="65" t="s">
-        <v>311</v>
-      </c>
-      <c r="B79" s="88"/>
-      <c r="C79" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="D79" s="67" t="s">
-        <v>327</v>
-      </c>
-      <c r="E79" s="81"/>
-      <c r="F79" s="81"/>
-      <c r="G79" s="81"/>
-      <c r="H79" s="82"/>
+      <c r="D79" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="E79" s="116">
+        <v>43757</v>
+      </c>
+      <c r="F79" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="G79" s="111">
+        <v>3</v>
+      </c>
+      <c r="H79" s="58"/>
     </row>
     <row r="80" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="65" t="s">
+      <c r="A80" s="61" t="s">
         <v>314</v>
       </c>
-      <c r="B80" s="88"/>
-      <c r="C80" s="66" t="s">
-        <v>321</v>
-      </c>
-      <c r="D80" s="67" t="s">
-        <v>96</v>
-      </c>
-      <c r="E80" s="57"/>
-      <c r="F80" s="57"/>
-      <c r="G80" s="57"/>
+      <c r="B80" s="125"/>
+      <c r="C80" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="D80" s="63" t="s">
+        <v>382</v>
+      </c>
+      <c r="E80" s="116">
+        <v>43757</v>
+      </c>
+      <c r="F80" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="G80" s="111">
+        <v>1</v>
+      </c>
       <c r="H80" s="58"/>
     </row>
     <row r="81" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="65" t="s">
+      <c r="A81" s="61" t="s">
         <v>315</v>
       </c>
-      <c r="B81" s="88"/>
-      <c r="C81" s="66" t="s">
-        <v>203</v>
-      </c>
-      <c r="D81" s="67" t="s">
-        <v>386</v>
-      </c>
-      <c r="E81" s="57"/>
-      <c r="F81" s="57"/>
-      <c r="G81" s="57"/>
+      <c r="B81" s="125"/>
+      <c r="C81" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="D81" s="63" t="s">
+        <v>447</v>
+      </c>
+      <c r="E81" s="116">
+        <v>43757</v>
+      </c>
+      <c r="F81" s="108" t="s">
+        <v>444</v>
+      </c>
+      <c r="G81" s="112">
+        <v>3</v>
+      </c>
       <c r="H81" s="58"/>
     </row>
-    <row r="82" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="65" t="s">
+    <row r="82" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="85" t="s">
         <v>316</v>
       </c>
-      <c r="B82" s="88"/>
-      <c r="C82" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="D82" s="67" t="s">
-        <v>385</v>
-      </c>
-      <c r="E82" s="57"/>
-      <c r="F82" s="57"/>
-      <c r="G82" s="57"/>
-      <c r="H82" s="58"/>
-    </row>
-    <row r="83" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="65" t="s">
-        <v>317</v>
-      </c>
-      <c r="B83" s="89"/>
-      <c r="C83" s="85" t="s">
+      <c r="B82" s="126"/>
+      <c r="C82" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="D83" s="86" t="s">
-        <v>384</v>
-      </c>
-      <c r="E83" s="59"/>
-      <c r="F83" s="59"/>
-      <c r="G83" s="59"/>
-      <c r="H83" s="60"/>
+      <c r="D82" s="76" t="s">
+        <v>381</v>
+      </c>
+      <c r="E82" s="122">
+        <v>43757</v>
+      </c>
+      <c r="F82" s="114" t="s">
+        <v>444</v>
+      </c>
+      <c r="G82" s="103">
+        <v>1</v>
+      </c>
+      <c r="H82" s="60"/>
+    </row>
+    <row r="85" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E85" s="50" t="s">
+        <v>442</v>
+      </c>
+      <c r="F85" s="50" t="s">
+        <v>441</v>
+      </c>
+      <c r="H85" s="110" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E86" s="109">
+        <v>1</v>
+      </c>
+      <c r="F86" s="109">
+        <f>COUNTIF(G2:G82,1)</f>
+        <v>3</v>
+      </c>
+      <c r="G86" s="109"/>
+      <c r="H86" s="57">
+        <f>F86/F91*100</f>
+        <v>3.8961038961038961</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E87" s="109">
+        <v>2</v>
+      </c>
+      <c r="F87" s="109">
+        <f>COUNTIF(G3:G83,2)</f>
+        <v>5</v>
+      </c>
+      <c r="G87" s="109"/>
+      <c r="H87" s="57">
+        <f>F87/F91*100</f>
+        <v>6.4935064935064926</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E88" s="109">
+        <v>3</v>
+      </c>
+      <c r="F88" s="109">
+        <f>COUNTIF(G4:G84,3)</f>
+        <v>20</v>
+      </c>
+      <c r="G88" s="109"/>
+      <c r="H88" s="57">
+        <f>F88/F91*100</f>
+        <v>25.97402597402597</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E89" s="109">
+        <v>4</v>
+      </c>
+      <c r="F89" s="109">
+        <f>COUNTIF(G5:G84,4)</f>
+        <v>14</v>
+      </c>
+      <c r="G89" s="109"/>
+      <c r="H89" s="57">
+        <f>F89/F91*100</f>
+        <v>18.181818181818183</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E90" s="109">
+        <v>5</v>
+      </c>
+      <c r="F90" s="109">
+        <f>COUNTIF(G6:G84,5)</f>
+        <v>35</v>
+      </c>
+      <c r="G90" s="109"/>
+      <c r="H90" s="57">
+        <f>F90/F91*100</f>
+        <v>45.454545454545453</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E91" s="109" t="s">
+        <v>440</v>
+      </c>
+      <c r="F91" s="109">
+        <f>SUM(F86:F90)</f>
+        <v>77</v>
+      </c>
+      <c r="G91" s="109"/>
+      <c r="H91" s="57">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H82"/>
   <mergeCells count="11">
-    <mergeCell ref="B72:B83"/>
+    <mergeCell ref="B71:B82"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B44:B47"/>
-    <mergeCell ref="B48:B54"/>
-    <mergeCell ref="B55:B66"/>
-    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="B48:B53"/>
+    <mergeCell ref="B54:B65"/>
+    <mergeCell ref="B66:B70"/>
     <mergeCell ref="B5:B10"/>
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="B16:B22"/>

--- a/설계및정의서/기능리스트_AR 레이싱 게임 v0.1.xlsx
+++ b/설계및정의서/기능리스트_AR 레이싱 게임 v0.1.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\BitCamp_AR\설계및정의서\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
@@ -19,7 +14,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$H$82</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -30,7 +26,7 @@
     <author>kosta</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1" shapeId="0">
+    <comment ref="H1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -114,7 +110,7 @@
     <author>kosta</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -170,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1" shapeId="0">
+    <comment ref="H1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1514,10 +1510,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유저가 표현되는 항목에 유저의 차량이 자연스러운 모습으로 보여짐 여기서 자연스러운 모습이라 함은 유저가 게임에 사용할 차량을 3D모습으로 닉네임상단에 표시. Idle와 같은 모습의 애니메이션이 작동중인상태 이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>플레이어가 접속하면 비어있는 유저칸에 접속한 유저의 이름을 보여준다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1954,18 +1946,22 @@
   </si>
   <si>
     <t>유저의 차량이 보여지게 되며 화면 좌측부근에 보여지게 된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저가 표현되는 항목에 유저의 차량이 자연스러운 모습으로 보여짐 여기서 자연스러운 모습이라 함은 유저가 게임에 사용할 차량을 3D모습으로 닉네임상단에 표시. Idle와 같은 모습의 애니메이션이 작동중인 상태 이다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2142,22 +2138,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2174,11 +2154,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2189,8 +2164,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -2423,21 +2404,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -2568,15 +2534,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2811,13 +2774,13 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2832,10 +2795,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2844,7 +2807,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2859,7 +2822,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2868,7 +2831,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2886,16 +2849,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2910,10 +2864,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2922,40 +2873,43 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2964,33 +2918,74 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="16" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="셀 확인" xfId="1" builtinId="23"/>
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -3026,9 +3021,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3077,7 +3069,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3112,7 +3104,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5119,8 +5111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5155,7 +5147,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="95" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H1" s="97" t="s">
         <v>6</v>
@@ -5165,7 +5157,7 @@
       <c r="A2" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="116" t="s">
         <v>110</v>
       </c>
       <c r="C2" s="90" t="s">
@@ -5175,8 +5167,8 @@
         <v>76</v>
       </c>
       <c r="E2" s="98"/>
-      <c r="F2" s="107" t="s">
-        <v>443</v>
+      <c r="F2" s="104" t="s">
+        <v>442</v>
       </c>
       <c r="G2" s="99">
         <v>5</v>
@@ -5187,16 +5179,16 @@
       <c r="A3" s="61" t="s">
         <v>261</v>
       </c>
-      <c r="B3" s="128"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="64" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D3" s="65" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E3" s="68"/>
-      <c r="F3" s="107" t="s">
-        <v>443</v>
+      <c r="F3" s="104" t="s">
+        <v>442</v>
       </c>
       <c r="G3" s="68">
         <v>5</v>
@@ -5207,16 +5199,16 @@
       <c r="A4" s="61" t="s">
         <v>263</v>
       </c>
-      <c r="B4" s="128"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="64" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E4" s="68"/>
-      <c r="F4" s="107" t="s">
-        <v>443</v>
+      <c r="F4" s="104" t="s">
+        <v>442</v>
       </c>
       <c r="G4" s="68">
         <v>5</v>
@@ -5227,18 +5219,18 @@
       <c r="A5" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="B5" s="128" t="s">
+      <c r="B5" s="117" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="64" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D5" s="67" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E5" s="68"/>
-      <c r="F5" s="107" t="s">
-        <v>443</v>
+      <c r="F5" s="104" t="s">
+        <v>442</v>
       </c>
       <c r="G5" s="102">
         <v>5</v>
@@ -5252,16 +5244,16 @@
       <c r="A6" s="61" t="s">
         <v>265</v>
       </c>
-      <c r="B6" s="128"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="62" t="s">
         <v>77</v>
       </c>
       <c r="D6" s="63" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E6" s="68"/>
-      <c r="F6" s="107" t="s">
-        <v>443</v>
+      <c r="F6" s="104" t="s">
+        <v>442</v>
       </c>
       <c r="G6" s="102">
         <v>5</v>
@@ -5275,16 +5267,16 @@
       <c r="A7" s="61" t="s">
         <v>266</v>
       </c>
-      <c r="B7" s="128"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="62" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D7" s="63" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E7" s="68"/>
-      <c r="F7" s="107" t="s">
-        <v>443</v>
+      <c r="F7" s="104" t="s">
+        <v>442</v>
       </c>
       <c r="G7" s="102">
         <v>5</v>
@@ -5298,16 +5290,16 @@
       <c r="A8" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="128"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="64" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D8" s="65" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E8" s="68"/>
-      <c r="F8" s="107" t="s">
-        <v>443</v>
+      <c r="F8" s="104" t="s">
+        <v>442</v>
       </c>
       <c r="G8" s="102">
         <v>5</v>
@@ -5321,16 +5313,16 @@
       <c r="A9" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="128"/>
+      <c r="B9" s="117"/>
       <c r="C9" s="64" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D9" s="65" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E9" s="68"/>
-      <c r="F9" s="107" t="s">
-        <v>443</v>
+      <c r="F9" s="104" t="s">
+        <v>442</v>
       </c>
       <c r="G9" s="102">
         <v>5</v>
@@ -5344,16 +5336,16 @@
       <c r="A10" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="128"/>
+      <c r="B10" s="117"/>
       <c r="C10" s="62" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D10" s="57" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E10" s="68"/>
-      <c r="F10" s="107" t="s">
-        <v>443</v>
+      <c r="F10" s="104" t="s">
+        <v>442</v>
       </c>
       <c r="G10" s="102">
         <v>5</v>
@@ -5367,18 +5359,18 @@
       <c r="A11" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="128" t="s">
+      <c r="B11" s="117" t="s">
         <v>140</v>
       </c>
       <c r="C11" s="64" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E11" s="68"/>
-      <c r="F11" s="107" t="s">
-        <v>443</v>
+      <c r="F11" s="104" t="s">
+        <v>442</v>
       </c>
       <c r="G11" s="102">
         <v>5</v>
@@ -5392,16 +5384,16 @@
       <c r="A12" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="128"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="64" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D12" s="65" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E12" s="68"/>
-      <c r="F12" s="107" t="s">
-        <v>443</v>
+      <c r="F12" s="104" t="s">
+        <v>442</v>
       </c>
       <c r="G12" s="102">
         <v>5</v>
@@ -5415,16 +5407,16 @@
       <c r="A13" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="128"/>
+      <c r="B13" s="117"/>
       <c r="C13" s="64" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D13" s="65" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E13" s="68"/>
-      <c r="F13" s="107" t="s">
-        <v>443</v>
+      <c r="F13" s="104" t="s">
+        <v>442</v>
       </c>
       <c r="G13" s="68">
         <v>5</v>
@@ -5435,16 +5427,16 @@
       <c r="A14" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="128"/>
+      <c r="B14" s="117"/>
       <c r="C14" s="64" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D14" s="65" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E14" s="68"/>
-      <c r="F14" s="107" t="s">
-        <v>443</v>
+      <c r="F14" s="104" t="s">
+        <v>442</v>
       </c>
       <c r="G14" s="68">
         <v>5</v>
@@ -5455,16 +5447,16 @@
       <c r="A15" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="128"/>
+      <c r="B15" s="117"/>
       <c r="C15" s="62" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D15" s="57" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E15" s="68"/>
-      <c r="F15" s="107" t="s">
-        <v>443</v>
+      <c r="F15" s="104" t="s">
+        <v>442</v>
       </c>
       <c r="G15" s="68">
         <v>5</v>
@@ -5475,18 +5467,18 @@
       <c r="A16" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="128" t="s">
+      <c r="B16" s="117" t="s">
         <v>146</v>
       </c>
       <c r="C16" s="64" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E16" s="68"/>
-      <c r="F16" s="107" t="s">
-        <v>443</v>
+      <c r="F16" s="104" t="s">
+        <v>442</v>
       </c>
       <c r="G16" s="68">
         <v>5</v>
@@ -5497,16 +5489,16 @@
       <c r="A17" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="128"/>
+      <c r="B17" s="117"/>
       <c r="C17" s="64" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E17" s="68"/>
-      <c r="F17" s="107" t="s">
-        <v>443</v>
+      <c r="F17" s="104" t="s">
+        <v>442</v>
       </c>
       <c r="G17" s="68">
         <v>5</v>
@@ -5517,16 +5509,16 @@
       <c r="A18" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="128"/>
+      <c r="B18" s="117"/>
       <c r="C18" s="64" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D18" s="65" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E18" s="68"/>
-      <c r="F18" s="107" t="s">
-        <v>443</v>
+      <c r="F18" s="104" t="s">
+        <v>442</v>
       </c>
       <c r="G18" s="68">
         <v>5</v>
@@ -5537,16 +5529,16 @@
       <c r="A19" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="128"/>
+      <c r="B19" s="117"/>
       <c r="C19" s="64" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E19" s="68"/>
-      <c r="F19" s="107" t="s">
-        <v>443</v>
+      <c r="F19" s="104" t="s">
+        <v>442</v>
       </c>
       <c r="G19" s="68">
         <v>5</v>
@@ -5557,16 +5549,16 @@
       <c r="A20" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="128"/>
+      <c r="B20" s="117"/>
       <c r="C20" s="64" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D20" s="65" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E20" s="68"/>
-      <c r="F20" s="107" t="s">
-        <v>443</v>
+      <c r="F20" s="104" t="s">
+        <v>442</v>
       </c>
       <c r="G20" s="68">
         <v>5</v>
@@ -5577,16 +5569,16 @@
       <c r="A21" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="128"/>
+      <c r="B21" s="117"/>
       <c r="C21" s="64" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D21" s="65" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E21" s="68"/>
-      <c r="F21" s="107" t="s">
-        <v>443</v>
+      <c r="F21" s="104" t="s">
+        <v>442</v>
       </c>
       <c r="G21" s="68">
         <v>5</v>
@@ -5597,16 +5589,16 @@
       <c r="A22" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="128"/>
+      <c r="B22" s="117"/>
       <c r="C22" s="62" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D22" s="57" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E22" s="68"/>
-      <c r="F22" s="107" t="s">
-        <v>443</v>
+      <c r="F22" s="104" t="s">
+        <v>442</v>
       </c>
       <c r="G22" s="68">
         <v>5</v>
@@ -5617,18 +5609,18 @@
       <c r="A23" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="128" t="s">
+      <c r="B23" s="117" t="s">
         <v>79</v>
       </c>
       <c r="C23" s="62" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D23" s="63" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E23" s="68"/>
-      <c r="F23" s="107" t="s">
-        <v>443</v>
+      <c r="F23" s="104" t="s">
+        <v>442</v>
       </c>
       <c r="G23" s="68">
         <v>5</v>
@@ -5639,16 +5631,16 @@
       <c r="A24" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="128"/>
+      <c r="B24" s="117"/>
       <c r="C24" s="62" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D24" s="63" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E24" s="68"/>
-      <c r="F24" s="107" t="s">
-        <v>443</v>
+      <c r="F24" s="104" t="s">
+        <v>442</v>
       </c>
       <c r="G24" s="68">
         <v>5</v>
@@ -5659,16 +5651,16 @@
       <c r="A25" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="128"/>
+      <c r="B25" s="117"/>
       <c r="C25" s="64" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D25" s="65" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E25" s="68"/>
-      <c r="F25" s="107" t="s">
-        <v>443</v>
+      <c r="F25" s="104" t="s">
+        <v>442</v>
       </c>
       <c r="G25" s="68">
         <v>5</v>
@@ -5679,16 +5671,16 @@
       <c r="A26" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="128"/>
+      <c r="B26" s="117"/>
       <c r="C26" s="64" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D26" s="65" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E26" s="68"/>
-      <c r="F26" s="107" t="s">
-        <v>443</v>
+      <c r="F26" s="104" t="s">
+        <v>442</v>
       </c>
       <c r="G26" s="68">
         <v>5</v>
@@ -5699,16 +5691,16 @@
       <c r="A27" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="128"/>
+      <c r="B27" s="117"/>
       <c r="C27" s="64" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D27" s="65" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E27" s="68"/>
-      <c r="F27" s="107" t="s">
-        <v>443</v>
+      <c r="F27" s="104" t="s">
+        <v>442</v>
       </c>
       <c r="G27" s="68">
         <v>5</v>
@@ -5719,16 +5711,16 @@
       <c r="A28" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="128"/>
+      <c r="B28" s="117"/>
       <c r="C28" s="62" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D28" s="67" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E28" s="68"/>
-      <c r="F28" s="107" t="s">
-        <v>443</v>
+      <c r="F28" s="104" t="s">
+        <v>442</v>
       </c>
       <c r="G28" s="68">
         <v>5</v>
@@ -5739,16 +5731,16 @@
       <c r="A29" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="128"/>
+      <c r="B29" s="117"/>
       <c r="C29" s="62" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D29" s="67" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E29" s="68"/>
-      <c r="F29" s="107" t="s">
-        <v>443</v>
+      <c r="F29" s="104" t="s">
+        <v>442</v>
       </c>
       <c r="G29" s="68">
         <v>5</v>
@@ -5759,16 +5751,16 @@
       <c r="A30" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="128"/>
+      <c r="B30" s="117"/>
       <c r="C30" s="62" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D30" s="67" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E30" s="68"/>
-      <c r="F30" s="107" t="s">
-        <v>443</v>
+      <c r="F30" s="104" t="s">
+        <v>442</v>
       </c>
       <c r="G30" s="68">
         <v>5</v>
@@ -5779,16 +5771,16 @@
       <c r="A31" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="128"/>
+      <c r="B31" s="117"/>
       <c r="C31" s="62" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D31" s="67" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E31" s="68"/>
-      <c r="F31" s="107" t="s">
-        <v>443</v>
+      <c r="F31" s="104" t="s">
+        <v>442</v>
       </c>
       <c r="G31" s="68">
         <v>5</v>
@@ -5799,16 +5791,16 @@
       <c r="A32" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="128"/>
+      <c r="B32" s="117"/>
       <c r="C32" s="62" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D32" s="67" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E32" s="68"/>
-      <c r="F32" s="107" t="s">
-        <v>443</v>
+      <c r="F32" s="104" t="s">
+        <v>442</v>
       </c>
       <c r="G32" s="68">
         <v>5</v>
@@ -5819,16 +5811,16 @@
       <c r="A33" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="128"/>
+      <c r="B33" s="117"/>
       <c r="C33" s="62" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D33" s="67" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E33" s="68"/>
-      <c r="F33" s="107" t="s">
-        <v>443</v>
+      <c r="F33" s="104" t="s">
+        <v>442</v>
       </c>
       <c r="G33" s="68">
         <v>5</v>
@@ -5839,16 +5831,16 @@
       <c r="A34" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="128"/>
+      <c r="B34" s="117"/>
       <c r="C34" s="62" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D34" s="67" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E34" s="68"/>
-      <c r="F34" s="107" t="s">
-        <v>443</v>
+      <c r="F34" s="104" t="s">
+        <v>442</v>
       </c>
       <c r="G34" s="68">
         <v>5</v>
@@ -5859,16 +5851,16 @@
       <c r="A35" s="85" t="s">
         <v>267</v>
       </c>
-      <c r="B35" s="134"/>
+      <c r="B35" s="123"/>
       <c r="C35" s="75" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D35" s="59" t="s">
-        <v>341</v>
-      </c>
-      <c r="E35" s="113"/>
-      <c r="F35" s="107" t="s">
-        <v>443</v>
+        <v>340</v>
+      </c>
+      <c r="E35" s="109"/>
+      <c r="F35" s="104" t="s">
+        <v>442</v>
       </c>
       <c r="G35" s="68">
         <v>5</v>
@@ -5879,7 +5871,7 @@
       <c r="A36" s="81" t="s">
         <v>268</v>
       </c>
-      <c r="B36" s="135" t="s">
+      <c r="B36" s="124" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="90" t="s">
@@ -5888,13 +5880,13 @@
       <c r="D36" s="91" t="s">
         <v>321</v>
       </c>
-      <c r="E36" s="117">
+      <c r="E36" s="126">
         <v>43757</v>
       </c>
-      <c r="F36" s="106" t="s">
-        <v>444</v>
-      </c>
-      <c r="G36" s="104">
+      <c r="F36" s="127" t="s">
+        <v>443</v>
+      </c>
+      <c r="G36" s="128">
         <v>3</v>
       </c>
       <c r="H36" s="92"/>
@@ -5903,18 +5895,18 @@
       <c r="A37" s="61" t="s">
         <v>269</v>
       </c>
-      <c r="B37" s="136"/>
+      <c r="B37" s="125"/>
       <c r="C37" s="64" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D37" s="70" t="s">
         <v>322</v>
       </c>
-      <c r="E37" s="118">
-        <v>43766</v>
-      </c>
-      <c r="F37" s="108" t="s">
-        <v>444</v>
+      <c r="E37" s="111">
+        <v>43767</v>
+      </c>
+      <c r="F37" s="105" t="s">
+        <v>443</v>
       </c>
       <c r="G37" s="68">
         <v>3</v>
@@ -5925,16 +5917,16 @@
       <c r="A38" s="61" t="s">
         <v>270</v>
       </c>
-      <c r="B38" s="136"/>
+      <c r="B38" s="125"/>
       <c r="C38" s="64" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D38" s="70" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E38" s="68"/>
-      <c r="F38" s="108" t="s">
-        <v>444</v>
+      <c r="F38" s="105" t="s">
+        <v>443</v>
       </c>
       <c r="G38" s="68">
         <v>5</v>
@@ -5945,20 +5937,20 @@
       <c r="A39" s="61" t="s">
         <v>271</v>
       </c>
-      <c r="B39" s="136"/>
+      <c r="B39" s="125"/>
       <c r="C39" s="64" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D39" s="70" t="s">
-        <v>353</v>
-      </c>
-      <c r="E39" s="116">
-        <v>43757</v>
-      </c>
-      <c r="F39" s="108" t="s">
-        <v>444</v>
-      </c>
-      <c r="G39" s="68">
+        <v>352</v>
+      </c>
+      <c r="E39" s="141">
+        <v>43767</v>
+      </c>
+      <c r="F39" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="G39" s="143">
         <v>3</v>
       </c>
       <c r="H39" s="72"/>
@@ -5967,20 +5959,20 @@
       <c r="A40" s="61" t="s">
         <v>272</v>
       </c>
-      <c r="B40" s="136"/>
+      <c r="B40" s="125"/>
       <c r="C40" s="64" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D40" s="70" t="s">
-        <v>352</v>
-      </c>
-      <c r="E40" s="116">
-        <v>43757</v>
-      </c>
-      <c r="F40" s="108" t="s">
-        <v>444</v>
-      </c>
-      <c r="G40" s="68">
+        <v>351</v>
+      </c>
+      <c r="E40" s="141">
+        <v>43767</v>
+      </c>
+      <c r="F40" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="G40" s="143">
         <v>3</v>
       </c>
       <c r="H40" s="72"/>
@@ -5989,18 +5981,18 @@
       <c r="A41" s="61" t="s">
         <v>273</v>
       </c>
-      <c r="B41" s="136"/>
+      <c r="B41" s="125"/>
       <c r="C41" s="64" t="s">
         <v>233</v>
       </c>
       <c r="D41" s="70" t="s">
-        <v>351</v>
-      </c>
-      <c r="E41" s="116">
-        <v>43766</v>
-      </c>
-      <c r="F41" s="108" t="s">
-        <v>444</v>
+        <v>350</v>
+      </c>
+      <c r="E41" s="111">
+        <v>43767</v>
+      </c>
+      <c r="F41" s="105" t="s">
+        <v>443</v>
       </c>
       <c r="G41" s="68">
         <v>4</v>
@@ -6011,18 +6003,18 @@
       <c r="A42" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="B42" s="136"/>
+      <c r="B42" s="125"/>
       <c r="C42" s="62" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D42" s="67" t="s">
-        <v>350</v>
-      </c>
-      <c r="E42" s="116">
-        <v>43766</v>
-      </c>
-      <c r="F42" s="108" t="s">
-        <v>444</v>
+        <v>349</v>
+      </c>
+      <c r="E42" s="111">
+        <v>43767</v>
+      </c>
+      <c r="F42" s="105" t="s">
+        <v>443</v>
       </c>
       <c r="G42" s="68">
         <v>4</v>
@@ -6033,18 +6025,18 @@
       <c r="A43" s="61" t="s">
         <v>275</v>
       </c>
-      <c r="B43" s="136"/>
+      <c r="B43" s="125"/>
       <c r="C43" s="71" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D43" s="67" t="s">
-        <v>349</v>
-      </c>
-      <c r="E43" s="116">
-        <v>43766</v>
-      </c>
-      <c r="F43" s="108" t="s">
-        <v>444</v>
+        <v>348</v>
+      </c>
+      <c r="E43" s="111">
+        <v>43767</v>
+      </c>
+      <c r="F43" s="105" t="s">
+        <v>443</v>
       </c>
       <c r="G43" s="68">
         <v>4</v>
@@ -6055,20 +6047,20 @@
       <c r="A44" s="61" t="s">
         <v>276</v>
       </c>
-      <c r="B44" s="129" t="s">
+      <c r="B44" s="118" t="s">
         <v>262</v>
       </c>
       <c r="C44" s="62" t="s">
         <v>188</v>
       </c>
       <c r="D44" s="57" t="s">
-        <v>448</v>
-      </c>
-      <c r="E44" s="116">
-        <v>43757</v>
-      </c>
-      <c r="F44" s="108" t="s">
-        <v>444</v>
+        <v>447</v>
+      </c>
+      <c r="E44" s="111">
+        <v>43767</v>
+      </c>
+      <c r="F44" s="105" t="s">
+        <v>443</v>
       </c>
       <c r="G44" s="68">
         <v>3</v>
@@ -6079,16 +6071,16 @@
       <c r="A45" s="61" t="s">
         <v>277</v>
       </c>
-      <c r="B45" s="129"/>
+      <c r="B45" s="118"/>
       <c r="C45" s="62" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D45" s="57" t="s">
-        <v>341</v>
-      </c>
-      <c r="E45" s="108"/>
-      <c r="F45" s="108" t="s">
-        <v>444</v>
+        <v>340</v>
+      </c>
+      <c r="E45" s="105"/>
+      <c r="F45" s="105" t="s">
+        <v>443</v>
       </c>
       <c r="G45" s="68">
         <v>5</v>
@@ -6099,18 +6091,18 @@
       <c r="A46" s="61" t="s">
         <v>278</v>
       </c>
-      <c r="B46" s="129"/>
+      <c r="B46" s="118"/>
       <c r="C46" s="62" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D46" s="57" t="s">
-        <v>348</v>
-      </c>
-      <c r="E46" s="116">
-        <v>43766</v>
-      </c>
-      <c r="F46" s="108" t="s">
-        <v>444</v>
+        <v>347</v>
+      </c>
+      <c r="E46" s="111">
+        <v>43767</v>
+      </c>
+      <c r="F46" s="105" t="s">
+        <v>443</v>
       </c>
       <c r="G46" s="68">
         <v>4</v>
@@ -6121,20 +6113,20 @@
       <c r="A47" s="85" t="s">
         <v>279</v>
       </c>
-      <c r="B47" s="130"/>
+      <c r="B47" s="119"/>
       <c r="C47" s="75" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D47" s="59" t="s">
-        <v>347</v>
-      </c>
-      <c r="E47" s="122">
-        <v>43766</v>
-      </c>
-      <c r="F47" s="114" t="s">
-        <v>444</v>
-      </c>
-      <c r="G47" s="105">
+        <v>346</v>
+      </c>
+      <c r="E47" s="111">
+        <v>43767</v>
+      </c>
+      <c r="F47" s="110" t="s">
+        <v>443</v>
+      </c>
+      <c r="G47" s="103">
         <v>4</v>
       </c>
       <c r="H47" s="93"/>
@@ -6143,7 +6135,7 @@
       <c r="A48" s="86" t="s">
         <v>280</v>
       </c>
-      <c r="B48" s="131" t="s">
+      <c r="B48" s="120" t="s">
         <v>206</v>
       </c>
       <c r="C48" s="87" t="s">
@@ -6152,13 +6144,13 @@
       <c r="D48" s="88" t="s">
         <v>323</v>
       </c>
-      <c r="E48" s="115">
+      <c r="E48" s="129">
         <v>43757</v>
       </c>
-      <c r="F48" s="107" t="s">
-        <v>446</v>
-      </c>
-      <c r="G48" s="104">
+      <c r="F48" s="130" t="s">
+        <v>445</v>
+      </c>
+      <c r="G48" s="128">
         <v>2</v>
       </c>
       <c r="H48" s="89"/>
@@ -6167,20 +6159,20 @@
       <c r="A49" s="61" t="s">
         <v>281</v>
       </c>
-      <c r="B49" s="132"/>
+      <c r="B49" s="121"/>
       <c r="C49" s="71" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D49" s="67" t="s">
         <v>311</v>
       </c>
-      <c r="E49" s="115">
+      <c r="E49" s="129">
         <v>43757</v>
       </c>
-      <c r="F49" s="108" t="s">
-        <v>443</v>
-      </c>
-      <c r="G49" s="68">
+      <c r="F49" s="131" t="s">
+        <v>442</v>
+      </c>
+      <c r="G49" s="132">
         <v>2</v>
       </c>
       <c r="H49" s="72"/>
@@ -6189,16 +6181,16 @@
       <c r="A50" s="61" t="s">
         <v>282</v>
       </c>
-      <c r="B50" s="132"/>
+      <c r="B50" s="121"/>
       <c r="C50" s="62" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D50" s="63" t="s">
-        <v>346</v>
-      </c>
-      <c r="E50" s="108"/>
-      <c r="F50" s="108" t="s">
-        <v>443</v>
+        <v>345</v>
+      </c>
+      <c r="E50" s="105"/>
+      <c r="F50" s="105" t="s">
+        <v>442</v>
       </c>
       <c r="G50" s="68">
         <v>4</v>
@@ -6209,20 +6201,20 @@
       <c r="A51" s="61" t="s">
         <v>283</v>
       </c>
-      <c r="B51" s="132"/>
+      <c r="B51" s="121"/>
       <c r="C51" s="62" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D51" s="67" t="s">
-        <v>345</v>
-      </c>
-      <c r="E51" s="116">
+        <v>344</v>
+      </c>
+      <c r="E51" s="133">
         <v>43757</v>
       </c>
-      <c r="F51" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G51" s="68">
+      <c r="F51" s="130" t="s">
+        <v>442</v>
+      </c>
+      <c r="G51" s="132">
         <v>3</v>
       </c>
       <c r="H51" s="72"/>
@@ -6231,16 +6223,16 @@
       <c r="A52" s="61" t="s">
         <v>284</v>
       </c>
-      <c r="B52" s="132"/>
+      <c r="B52" s="121"/>
       <c r="C52" s="62" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D52" s="67" t="s">
-        <v>344</v>
-      </c>
-      <c r="E52" s="108"/>
-      <c r="F52" s="108" t="s">
-        <v>443</v>
+        <v>343</v>
+      </c>
+      <c r="E52" s="105"/>
+      <c r="F52" s="105" t="s">
+        <v>442</v>
       </c>
       <c r="G52" s="68">
         <v>5</v>
@@ -6251,20 +6243,20 @@
       <c r="A53" s="61" t="s">
         <v>285</v>
       </c>
-      <c r="B53" s="132"/>
+      <c r="B53" s="121"/>
       <c r="C53" s="62" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D53" s="67" t="s">
         <v>259</v>
       </c>
-      <c r="E53" s="120">
+      <c r="E53" s="134">
         <v>43757</v>
       </c>
-      <c r="F53" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G53" s="68">
+      <c r="F53" s="130" t="s">
+        <v>442</v>
+      </c>
+      <c r="G53" s="132">
         <v>3</v>
       </c>
       <c r="H53" s="72"/>
@@ -6273,20 +6265,20 @@
       <c r="A54" s="61" t="s">
         <v>286</v>
       </c>
-      <c r="B54" s="132" t="s">
-        <v>437</v>
+      <c r="B54" s="121" t="s">
+        <v>436</v>
       </c>
       <c r="C54" s="71" t="s">
-        <v>418</v>
-      </c>
-      <c r="D54" s="119" t="s">
-        <v>343</v>
-      </c>
-      <c r="E54" s="121">
-        <v>43766</v>
-      </c>
-      <c r="F54" s="111" t="s">
-        <v>443</v>
+        <v>417</v>
+      </c>
+      <c r="D54" s="112" t="s">
+        <v>342</v>
+      </c>
+      <c r="E54" s="141">
+        <v>43767</v>
+      </c>
+      <c r="F54" s="108" t="s">
+        <v>442</v>
       </c>
       <c r="G54" s="68">
         <v>3</v>
@@ -6297,20 +6289,18 @@
       <c r="A55" s="61" t="s">
         <v>287</v>
       </c>
-      <c r="B55" s="132"/>
-      <c r="C55" s="71" t="s">
-        <v>419</v>
-      </c>
-      <c r="D55" s="67" t="s">
-        <v>342</v>
-      </c>
-      <c r="E55" s="115">
-        <v>43757</v>
-      </c>
-      <c r="F55" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G55" s="68">
+      <c r="B55" s="121"/>
+      <c r="C55" s="140" t="s">
+        <v>418</v>
+      </c>
+      <c r="D55" s="70" t="s">
+        <v>341</v>
+      </c>
+      <c r="E55" s="141"/>
+      <c r="F55" s="142" t="s">
+        <v>442</v>
+      </c>
+      <c r="G55" s="143">
         <v>2</v>
       </c>
       <c r="H55" s="72"/>
@@ -6319,16 +6309,16 @@
       <c r="A56" s="61" t="s">
         <v>288</v>
       </c>
-      <c r="B56" s="132"/>
+      <c r="B56" s="121"/>
       <c r="C56" s="71" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D56" s="67" t="s">
-        <v>341</v>
-      </c>
-      <c r="E56" s="108"/>
-      <c r="F56" s="108" t="s">
-        <v>443</v>
+        <v>340</v>
+      </c>
+      <c r="E56" s="105"/>
+      <c r="F56" s="105" t="s">
+        <v>442</v>
       </c>
       <c r="G56" s="68">
         <v>5</v>
@@ -6339,20 +6329,20 @@
       <c r="A57" s="61" t="s">
         <v>289</v>
       </c>
-      <c r="B57" s="132"/>
-      <c r="C57" s="71" t="s">
-        <v>420</v>
-      </c>
-      <c r="D57" s="67" t="s">
-        <v>340</v>
-      </c>
-      <c r="E57" s="121">
-        <v>43766</v>
-      </c>
-      <c r="F57" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G57" s="68">
+      <c r="B57" s="121"/>
+      <c r="C57" s="140" t="s">
+        <v>419</v>
+      </c>
+      <c r="D57" s="70" t="s">
+        <v>339</v>
+      </c>
+      <c r="E57" s="141">
+        <v>43767</v>
+      </c>
+      <c r="F57" s="142" t="s">
+        <v>442</v>
+      </c>
+      <c r="G57" s="143">
         <v>3</v>
       </c>
       <c r="H57" s="72"/>
@@ -6361,20 +6351,20 @@
       <c r="A58" s="61" t="s">
         <v>290</v>
       </c>
-      <c r="B58" s="132"/>
-      <c r="C58" s="77" t="s">
-        <v>432</v>
-      </c>
-      <c r="D58" s="67" t="s">
-        <v>438</v>
-      </c>
-      <c r="E58" s="121">
-        <v>43766</v>
-      </c>
-      <c r="F58" s="108" t="s">
-        <v>443</v>
-      </c>
-      <c r="G58" s="68">
+      <c r="B58" s="121"/>
+      <c r="C58" s="144" t="s">
+        <v>431</v>
+      </c>
+      <c r="D58" s="70" t="s">
+        <v>437</v>
+      </c>
+      <c r="E58" s="141">
+        <v>43767</v>
+      </c>
+      <c r="F58" s="145" t="s">
+        <v>442</v>
+      </c>
+      <c r="G58" s="143">
         <v>3</v>
       </c>
       <c r="H58" s="72"/>
@@ -6383,20 +6373,20 @@
       <c r="A59" s="61" t="s">
         <v>291</v>
       </c>
-      <c r="B59" s="132"/>
-      <c r="C59" s="71" t="s">
-        <v>421</v>
-      </c>
-      <c r="D59" s="67" t="s">
-        <v>339</v>
-      </c>
-      <c r="E59" s="121">
-        <v>43766</v>
-      </c>
-      <c r="F59" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G59" s="68">
+      <c r="B59" s="121"/>
+      <c r="C59" s="140" t="s">
+        <v>420</v>
+      </c>
+      <c r="D59" s="70" t="s">
+        <v>338</v>
+      </c>
+      <c r="E59" s="141">
+        <v>43767</v>
+      </c>
+      <c r="F59" s="142" t="s">
+        <v>442</v>
+      </c>
+      <c r="G59" s="143">
         <v>3</v>
       </c>
       <c r="H59" s="72"/>
@@ -6405,20 +6395,18 @@
       <c r="A60" s="61" t="s">
         <v>292</v>
       </c>
-      <c r="B60" s="132"/>
-      <c r="C60" s="71" t="s">
-        <v>422</v>
-      </c>
-      <c r="D60" s="67" t="s">
-        <v>338</v>
-      </c>
-      <c r="E60" s="121">
-        <v>43766</v>
-      </c>
-      <c r="F60" s="108" t="s">
-        <v>443</v>
-      </c>
-      <c r="G60" s="68">
+      <c r="B60" s="121"/>
+      <c r="C60" s="140" t="s">
+        <v>421</v>
+      </c>
+      <c r="D60" s="70" t="s">
+        <v>448</v>
+      </c>
+      <c r="E60" s="141"/>
+      <c r="F60" s="145" t="s">
+        <v>442</v>
+      </c>
+      <c r="G60" s="143">
         <v>3</v>
       </c>
       <c r="H60" s="72"/>
@@ -6427,16 +6415,16 @@
       <c r="A61" s="61" t="s">
         <v>293</v>
       </c>
-      <c r="B61" s="132"/>
+      <c r="B61" s="121"/>
       <c r="C61" s="77" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D61" s="67" t="s">
         <v>337</v>
       </c>
-      <c r="E61" s="108"/>
-      <c r="F61" s="107" t="s">
-        <v>443</v>
+      <c r="E61" s="105"/>
+      <c r="F61" s="104" t="s">
+        <v>442</v>
       </c>
       <c r="G61" s="68">
         <v>4</v>
@@ -6447,16 +6435,16 @@
       <c r="A62" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="B62" s="132"/>
+      <c r="B62" s="121"/>
       <c r="C62" s="71" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D62" s="67" t="s">
         <v>336</v>
       </c>
-      <c r="E62" s="108"/>
-      <c r="F62" s="108" t="s">
-        <v>443</v>
+      <c r="E62" s="105"/>
+      <c r="F62" s="105" t="s">
+        <v>442</v>
       </c>
       <c r="G62" s="68">
         <v>4</v>
@@ -6467,16 +6455,16 @@
       <c r="A63" s="61" t="s">
         <v>295</v>
       </c>
-      <c r="B63" s="132"/>
+      <c r="B63" s="121"/>
       <c r="C63" s="71" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D63" s="67" t="s">
         <v>335</v>
       </c>
-      <c r="E63" s="108"/>
-      <c r="F63" s="107" t="s">
-        <v>443</v>
+      <c r="E63" s="105"/>
+      <c r="F63" s="104" t="s">
+        <v>442</v>
       </c>
       <c r="G63" s="68">
         <v>4</v>
@@ -6487,16 +6475,16 @@
       <c r="A64" s="61" t="s">
         <v>296</v>
       </c>
-      <c r="B64" s="132"/>
+      <c r="B64" s="121"/>
       <c r="C64" s="77" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D64" s="67" t="s">
         <v>334</v>
       </c>
-      <c r="E64" s="108"/>
-      <c r="F64" s="108" t="s">
-        <v>443</v>
+      <c r="E64" s="105"/>
+      <c r="F64" s="105" t="s">
+        <v>442</v>
       </c>
       <c r="G64" s="68">
         <v>5</v>
@@ -6507,20 +6495,18 @@
       <c r="A65" s="61" t="s">
         <v>297</v>
       </c>
-      <c r="B65" s="132"/>
-      <c r="C65" s="71" t="s">
-        <v>425</v>
-      </c>
-      <c r="D65" s="67" t="s">
+      <c r="B65" s="121"/>
+      <c r="C65" s="140" t="s">
+        <v>424</v>
+      </c>
+      <c r="D65" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="E65" s="115">
-        <v>43757</v>
-      </c>
-      <c r="F65" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="G65" s="68">
+      <c r="E65" s="141"/>
+      <c r="F65" s="142" t="s">
+        <v>442</v>
+      </c>
+      <c r="G65" s="143">
         <v>2</v>
       </c>
       <c r="H65" s="72"/>
@@ -6529,7 +6515,7 @@
       <c r="A66" s="61" t="s">
         <v>298</v>
       </c>
-      <c r="B66" s="132" t="s">
+      <c r="B66" s="121" t="s">
         <v>176</v>
       </c>
       <c r="C66" s="62" t="s">
@@ -6538,11 +6524,11 @@
       <c r="D66" t="s">
         <v>332</v>
       </c>
-      <c r="E66" s="121">
-        <v>43766</v>
-      </c>
-      <c r="F66" s="108" t="s">
-        <v>443</v>
+      <c r="E66" s="111">
+        <v>43767</v>
+      </c>
+      <c r="F66" s="105" t="s">
+        <v>442</v>
       </c>
       <c r="G66" s="68">
         <v>3</v>
@@ -6553,18 +6539,18 @@
       <c r="A67" s="61" t="s">
         <v>299</v>
       </c>
-      <c r="B67" s="132"/>
+      <c r="B67" s="121"/>
       <c r="C67" s="62" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D67" t="s">
         <v>331</v>
       </c>
-      <c r="E67" s="121">
-        <v>43766</v>
-      </c>
-      <c r="F67" s="107" t="s">
-        <v>443</v>
+      <c r="E67" s="111">
+        <v>43767</v>
+      </c>
+      <c r="F67" s="104" t="s">
+        <v>442</v>
       </c>
       <c r="G67" s="68">
         <v>4</v>
@@ -6575,18 +6561,18 @@
       <c r="A68" s="61" t="s">
         <v>300</v>
       </c>
-      <c r="B68" s="132"/>
+      <c r="B68" s="121"/>
       <c r="C68" s="62" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D68" t="s">
         <v>330</v>
       </c>
-      <c r="E68" s="121">
-        <v>43766</v>
-      </c>
-      <c r="F68" s="108" t="s">
-        <v>443</v>
+      <c r="E68" s="111">
+        <v>43767</v>
+      </c>
+      <c r="F68" s="105" t="s">
+        <v>442</v>
       </c>
       <c r="G68" s="68">
         <v>4</v>
@@ -6597,18 +6583,18 @@
       <c r="A69" s="61" t="s">
         <v>301</v>
       </c>
-      <c r="B69" s="132"/>
+      <c r="B69" s="121"/>
       <c r="C69" s="62" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D69" t="s">
         <v>328</v>
       </c>
-      <c r="E69" s="115">
-        <v>43757</v>
-      </c>
-      <c r="F69" s="107" t="s">
-        <v>443</v>
+      <c r="E69" s="111">
+        <v>43767</v>
+      </c>
+      <c r="F69" s="104" t="s">
+        <v>442</v>
       </c>
       <c r="G69" s="68">
         <v>2</v>
@@ -6619,20 +6605,20 @@
       <c r="A70" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="B70" s="133"/>
+      <c r="B70" s="122"/>
       <c r="C70" s="79" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D70" t="s">
         <v>329</v>
       </c>
-      <c r="E70" s="121">
-        <v>43766</v>
-      </c>
-      <c r="F70" s="108" t="s">
-        <v>443</v>
-      </c>
-      <c r="G70" s="105">
+      <c r="E70" s="111">
+        <v>43767</v>
+      </c>
+      <c r="F70" s="105" t="s">
+        <v>442</v>
+      </c>
+      <c r="G70" s="103">
         <v>3</v>
       </c>
       <c r="H70" s="80"/>
@@ -6641,7 +6627,7 @@
       <c r="A71" s="81" t="s">
         <v>303</v>
       </c>
-      <c r="B71" s="124" t="s">
+      <c r="B71" s="113" t="s">
         <v>31</v>
       </c>
       <c r="C71" s="82" t="s">
@@ -6650,13 +6636,13 @@
       <c r="D71" s="83" t="s">
         <v>324</v>
       </c>
-      <c r="E71" s="123">
+      <c r="E71" s="135">
         <v>43757</v>
       </c>
-      <c r="F71" s="106" t="s">
-        <v>444</v>
-      </c>
-      <c r="G71" s="106">
+      <c r="F71" s="127" t="s">
+        <v>443</v>
+      </c>
+      <c r="G71" s="127">
         <v>3</v>
       </c>
       <c r="H71" s="84"/>
@@ -6665,20 +6651,20 @@
       <c r="A72" s="61" t="s">
         <v>304</v>
       </c>
-      <c r="B72" s="125"/>
+      <c r="B72" s="114"/>
       <c r="C72" s="62" t="s">
         <v>196</v>
       </c>
       <c r="D72" s="63" t="s">
         <v>325</v>
       </c>
-      <c r="E72" s="116">
+      <c r="E72" s="133">
         <v>43757</v>
       </c>
-      <c r="F72" s="108" t="s">
-        <v>444</v>
-      </c>
-      <c r="G72" s="111">
+      <c r="F72" s="131" t="s">
+        <v>443</v>
+      </c>
+      <c r="G72" s="136">
         <v>3</v>
       </c>
       <c r="H72" s="72"/>
@@ -6687,18 +6673,18 @@
       <c r="A73" s="61" t="s">
         <v>305</v>
       </c>
-      <c r="B73" s="125"/>
+      <c r="B73" s="114"/>
       <c r="C73" s="73" t="s">
         <v>33</v>
       </c>
       <c r="D73" s="74" t="s">
         <v>223</v>
       </c>
-      <c r="E73" s="108"/>
-      <c r="F73" s="108" t="s">
-        <v>444</v>
-      </c>
-      <c r="G73" s="111">
+      <c r="E73" s="105"/>
+      <c r="F73" s="105" t="s">
+        <v>443</v>
+      </c>
+      <c r="G73" s="108">
         <v>4</v>
       </c>
       <c r="H73" s="72"/>
@@ -6707,18 +6693,18 @@
       <c r="A74" s="61" t="s">
         <v>306</v>
       </c>
-      <c r="B74" s="125"/>
+      <c r="B74" s="114"/>
       <c r="C74" s="73" t="s">
         <v>34</v>
       </c>
       <c r="D74" s="74" t="s">
         <v>327</v>
       </c>
-      <c r="E74" s="108"/>
-      <c r="F74" s="108" t="s">
-        <v>444</v>
-      </c>
-      <c r="G74" s="111">
+      <c r="E74" s="105"/>
+      <c r="F74" s="105" t="s">
+        <v>443</v>
+      </c>
+      <c r="G74" s="108">
         <v>4</v>
       </c>
       <c r="H74" s="72"/>
@@ -6727,18 +6713,18 @@
       <c r="A75" s="61" t="s">
         <v>307</v>
       </c>
-      <c r="B75" s="125"/>
+      <c r="B75" s="114"/>
       <c r="C75" s="62" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D75" s="63" t="s">
         <v>199</v>
       </c>
-      <c r="E75" s="108"/>
-      <c r="F75" s="108" t="s">
-        <v>444</v>
-      </c>
-      <c r="G75" s="111">
+      <c r="E75" s="105"/>
+      <c r="F75" s="105" t="s">
+        <v>443</v>
+      </c>
+      <c r="G75" s="108">
         <v>4</v>
       </c>
       <c r="H75" s="72"/>
@@ -6747,20 +6733,20 @@
       <c r="A76" s="61" t="s">
         <v>308</v>
       </c>
-      <c r="B76" s="125"/>
+      <c r="B76" s="114"/>
       <c r="C76" s="62" t="s">
         <v>37</v>
       </c>
       <c r="D76" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="E76" s="116">
+      <c r="E76" s="133">
         <v>43757</v>
       </c>
-      <c r="F76" s="108" t="s">
-        <v>444</v>
-      </c>
-      <c r="G76" s="111">
+      <c r="F76" s="131" t="s">
+        <v>443</v>
+      </c>
+      <c r="G76" s="136">
         <v>1</v>
       </c>
       <c r="H76" s="72"/>
@@ -6769,20 +6755,20 @@
       <c r="A77" s="61" t="s">
         <v>309</v>
       </c>
-      <c r="B77" s="125"/>
+      <c r="B77" s="114"/>
       <c r="C77" s="62" t="s">
         <v>38</v>
       </c>
       <c r="D77" s="63" t="s">
         <v>312</v>
       </c>
-      <c r="E77" s="116">
+      <c r="E77" s="133">
         <v>43757</v>
       </c>
-      <c r="F77" s="108" t="s">
-        <v>444</v>
-      </c>
-      <c r="G77" s="111">
+      <c r="F77" s="131" t="s">
+        <v>443</v>
+      </c>
+      <c r="G77" s="136">
         <v>3</v>
       </c>
       <c r="H77" s="72"/>
@@ -6791,20 +6777,20 @@
       <c r="A78" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="B78" s="125"/>
+      <c r="B78" s="114"/>
       <c r="C78" s="62" t="s">
         <v>39</v>
       </c>
       <c r="D78" s="63" t="s">
         <v>326</v>
       </c>
-      <c r="E78" s="116">
+      <c r="E78" s="133">
         <v>43757</v>
       </c>
-      <c r="F78" s="108" t="s">
-        <v>444</v>
-      </c>
-      <c r="G78" s="111">
+      <c r="F78" s="131" t="s">
+        <v>443</v>
+      </c>
+      <c r="G78" s="136">
         <v>3</v>
       </c>
       <c r="H78" s="72"/>
@@ -6813,20 +6799,20 @@
       <c r="A79" s="61" t="s">
         <v>313</v>
       </c>
-      <c r="B79" s="125"/>
+      <c r="B79" s="114"/>
       <c r="C79" s="62" t="s">
         <v>320</v>
       </c>
       <c r="D79" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="E79" s="116">
+      <c r="E79" s="133">
         <v>43757</v>
       </c>
-      <c r="F79" s="108" t="s">
-        <v>444</v>
-      </c>
-      <c r="G79" s="111">
+      <c r="F79" s="131" t="s">
+        <v>443</v>
+      </c>
+      <c r="G79" s="136">
         <v>3</v>
       </c>
       <c r="H79" s="58"/>
@@ -6835,20 +6821,20 @@
       <c r="A80" s="61" t="s">
         <v>314</v>
       </c>
-      <c r="B80" s="125"/>
-      <c r="C80" s="62" t="s">
+      <c r="B80" s="114"/>
+      <c r="C80" s="64" t="s">
         <v>203</v>
       </c>
-      <c r="D80" s="63" t="s">
-        <v>382</v>
-      </c>
-      <c r="E80" s="116">
-        <v>43757</v>
-      </c>
-      <c r="F80" s="108" t="s">
-        <v>444</v>
-      </c>
-      <c r="G80" s="111">
+      <c r="D80" s="65" t="s">
+        <v>381</v>
+      </c>
+      <c r="E80" s="141">
+        <v>43767</v>
+      </c>
+      <c r="F80" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="G80" s="146">
         <v>1</v>
       </c>
       <c r="H80" s="58"/>
@@ -6857,20 +6843,20 @@
       <c r="A81" s="61" t="s">
         <v>315</v>
       </c>
-      <c r="B81" s="125"/>
-      <c r="C81" s="62" t="s">
+      <c r="B81" s="114"/>
+      <c r="C81" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="D81" s="63" t="s">
-        <v>447</v>
-      </c>
-      <c r="E81" s="116">
-        <v>43757</v>
-      </c>
-      <c r="F81" s="108" t="s">
-        <v>444</v>
-      </c>
-      <c r="G81" s="112">
+      <c r="D81" s="65" t="s">
+        <v>446</v>
+      </c>
+      <c r="E81" s="141">
+        <v>43767</v>
+      </c>
+      <c r="F81" s="145" t="s">
+        <v>443</v>
+      </c>
+      <c r="G81" s="147">
         <v>3</v>
       </c>
       <c r="H81" s="58"/>
@@ -6879,114 +6865,114 @@
       <c r="A82" s="85" t="s">
         <v>316</v>
       </c>
-      <c r="B82" s="126"/>
+      <c r="B82" s="115"/>
       <c r="C82" s="75" t="s">
         <v>43</v>
       </c>
       <c r="D82" s="76" t="s">
-        <v>381</v>
-      </c>
-      <c r="E82" s="122">
+        <v>380</v>
+      </c>
+      <c r="E82" s="137">
         <v>43757</v>
       </c>
-      <c r="F82" s="114" t="s">
-        <v>444</v>
-      </c>
-      <c r="G82" s="103">
+      <c r="F82" s="138" t="s">
+        <v>443</v>
+      </c>
+      <c r="G82" s="139">
         <v>1</v>
       </c>
       <c r="H82" s="60"/>
     </row>
     <row r="85" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E85" s="50" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F85" s="50" t="s">
-        <v>441</v>
-      </c>
-      <c r="H85" s="110" t="s">
-        <v>439</v>
+        <v>440</v>
+      </c>
+      <c r="H85" s="107" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E86" s="109">
+      <c r="E86" s="106">
         <v>1</v>
       </c>
-      <c r="F86" s="109">
+      <c r="F86" s="106">
         <f>COUNTIF(G2:G82,1)</f>
         <v>3</v>
       </c>
-      <c r="G86" s="109"/>
+      <c r="G86" s="106"/>
       <c r="H86" s="57">
         <f>F86/F91*100</f>
         <v>3.8961038961038961</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E87" s="109">
+      <c r="E87" s="106">
         <v>2</v>
       </c>
-      <c r="F87" s="109">
+      <c r="F87" s="106">
         <f>COUNTIF(G3:G83,2)</f>
         <v>5</v>
       </c>
-      <c r="G87" s="109"/>
+      <c r="G87" s="106"/>
       <c r="H87" s="57">
         <f>F87/F91*100</f>
         <v>6.4935064935064926</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E88" s="109">
+      <c r="E88" s="106">
         <v>3</v>
       </c>
-      <c r="F88" s="109">
+      <c r="F88" s="106">
         <f>COUNTIF(G4:G84,3)</f>
         <v>20</v>
       </c>
-      <c r="G88" s="109"/>
+      <c r="G88" s="106"/>
       <c r="H88" s="57">
         <f>F88/F91*100</f>
         <v>25.97402597402597</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E89" s="109">
+      <c r="E89" s="106">
         <v>4</v>
       </c>
-      <c r="F89" s="109">
+      <c r="F89" s="106">
         <f>COUNTIF(G5:G84,4)</f>
         <v>14</v>
       </c>
-      <c r="G89" s="109"/>
+      <c r="G89" s="106"/>
       <c r="H89" s="57">
         <f>F89/F91*100</f>
         <v>18.181818181818183</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E90" s="109">
+      <c r="E90" s="106">
         <v>5</v>
       </c>
-      <c r="F90" s="109">
+      <c r="F90" s="106">
         <f>COUNTIF(G6:G84,5)</f>
         <v>35</v>
       </c>
-      <c r="G90" s="109"/>
+      <c r="G90" s="106"/>
       <c r="H90" s="57">
         <f>F90/F91*100</f>
         <v>45.454545454545453</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E91" s="109" t="s">
-        <v>440</v>
-      </c>
-      <c r="F91" s="109">
+      <c r="E91" s="106" t="s">
+        <v>439</v>
+      </c>
+      <c r="F91" s="106">
         <f>SUM(F86:F90)</f>
         <v>77</v>
       </c>
-      <c r="G91" s="109"/>
+      <c r="G91" s="106"/>
       <c r="H91" s="57">
         <v>100</v>
       </c>

--- a/설계및정의서/기능리스트_AR 레이싱 게임 v0.1.xlsx
+++ b/설계및정의서/기능리스트_AR 레이싱 게임 v0.1.xlsx
@@ -5109,10 +5109,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B44" sqref="B44:B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5127,7 +5128,7 @@
     <col min="8" max="8" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="94" t="s">
         <v>17</v>
       </c>
@@ -5153,7 +5154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
         <v>18</v>
       </c>
@@ -5175,7 +5176,7 @@
       </c>
       <c r="H2" s="100"/>
     </row>
-    <row r="3" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="61" t="s">
         <v>261</v>
       </c>
@@ -5195,7 +5196,7 @@
       </c>
       <c r="H3" s="66"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="61" t="s">
         <v>263</v>
       </c>
@@ -5215,7 +5216,7 @@
       </c>
       <c r="H4" s="66"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="61" t="s">
         <v>264</v>
       </c>
@@ -5240,7 +5241,7 @@
       <c r="J5" s="55"/>
       <c r="K5" s="55"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="61" t="s">
         <v>265</v>
       </c>
@@ -5263,7 +5264,7 @@
       <c r="J6" s="55"/>
       <c r="K6" s="55"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="61" t="s">
         <v>266</v>
       </c>
@@ -5286,7 +5287,7 @@
       <c r="J7" s="55"/>
       <c r="K7" s="55"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="61" t="s">
         <v>20</v>
       </c>
@@ -5309,7 +5310,7 @@
       <c r="J8" s="55"/>
       <c r="K8" s="55"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="61" t="s">
         <v>21</v>
       </c>
@@ -5332,7 +5333,7 @@
       <c r="J9" s="55"/>
       <c r="K9" s="55"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="61" t="s">
         <v>22</v>
       </c>
@@ -5355,7 +5356,7 @@
       <c r="J10" s="55"/>
       <c r="K10" s="55"/>
     </row>
-    <row r="11" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="61" t="s">
         <v>23</v>
       </c>
@@ -5380,7 +5381,7 @@
       <c r="J11" s="55"/>
       <c r="K11" s="55"/>
     </row>
-    <row r="12" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="61" t="s">
         <v>24</v>
       </c>
@@ -5403,7 +5404,7 @@
       <c r="J12" s="55"/>
       <c r="K12" s="55"/>
     </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="61" t="s">
         <v>25</v>
       </c>
@@ -5423,7 +5424,7 @@
       </c>
       <c r="H13" s="66"/>
     </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="61" t="s">
         <v>26</v>
       </c>
@@ -5443,7 +5444,7 @@
       </c>
       <c r="H14" s="66"/>
     </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="61" t="s">
         <v>27</v>
       </c>
@@ -5463,7 +5464,7 @@
       </c>
       <c r="H15" s="66"/>
     </row>
-    <row r="16" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="61" t="s">
         <v>28</v>
       </c>
@@ -5485,7 +5486,7 @@
       </c>
       <c r="H16" s="66"/>
     </row>
-    <row r="17" spans="1:8" ht="47.25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="61" t="s">
         <v>29</v>
       </c>
@@ -5505,7 +5506,7 @@
       </c>
       <c r="H17" s="66"/>
     </row>
-    <row r="18" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="61" t="s">
         <v>30</v>
       </c>
@@ -5525,7 +5526,7 @@
       </c>
       <c r="H18" s="66"/>
     </row>
-    <row r="19" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="61" t="s">
         <v>48</v>
       </c>
@@ -5545,7 +5546,7 @@
       </c>
       <c r="H19" s="66"/>
     </row>
-    <row r="20" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="61" t="s">
         <v>53</v>
       </c>
@@ -5565,7 +5566,7 @@
       </c>
       <c r="H20" s="66"/>
     </row>
-    <row r="21" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="61" t="s">
         <v>54</v>
       </c>
@@ -5585,7 +5586,7 @@
       </c>
       <c r="H21" s="66"/>
     </row>
-    <row r="22" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="61" t="s">
         <v>55</v>
       </c>
@@ -5605,7 +5606,7 @@
       </c>
       <c r="H22" s="66"/>
     </row>
-    <row r="23" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="61" t="s">
         <v>56</v>
       </c>
@@ -5627,7 +5628,7 @@
       </c>
       <c r="H23" s="66"/>
     </row>
-    <row r="24" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="61" t="s">
         <v>57</v>
       </c>
@@ -5647,7 +5648,7 @@
       </c>
       <c r="H24" s="66"/>
     </row>
-    <row r="25" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="61" t="s">
         <v>58</v>
       </c>
@@ -5667,7 +5668,7 @@
       </c>
       <c r="H25" s="66"/>
     </row>
-    <row r="26" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="61" t="s">
         <v>59</v>
       </c>
@@ -5687,7 +5688,7 @@
       </c>
       <c r="H26" s="66"/>
     </row>
-    <row r="27" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="61" t="s">
         <v>60</v>
       </c>
@@ -5707,7 +5708,7 @@
       </c>
       <c r="H27" s="66"/>
     </row>
-    <row r="28" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="61" t="s">
         <v>61</v>
       </c>
@@ -5727,7 +5728,7 @@
       </c>
       <c r="H28" s="66"/>
     </row>
-    <row r="29" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="61" t="s">
         <v>62</v>
       </c>
@@ -5747,7 +5748,7 @@
       </c>
       <c r="H29" s="66"/>
     </row>
-    <row r="30" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="61" t="s">
         <v>63</v>
       </c>
@@ -5767,7 +5768,7 @@
       </c>
       <c r="H30" s="66"/>
     </row>
-    <row r="31" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="61" t="s">
         <v>64</v>
       </c>
@@ -5787,7 +5788,7 @@
       </c>
       <c r="H31" s="66"/>
     </row>
-    <row r="32" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="61" t="s">
         <v>65</v>
       </c>
@@ -5807,7 +5808,7 @@
       </c>
       <c r="H32" s="66"/>
     </row>
-    <row r="33" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="61" t="s">
         <v>66</v>
       </c>
@@ -5827,7 +5828,7 @@
       </c>
       <c r="H33" s="66"/>
     </row>
-    <row r="34" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="61" t="s">
         <v>67</v>
       </c>
@@ -5847,7 +5848,7 @@
       </c>
       <c r="H34" s="66"/>
     </row>
-    <row r="35" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="17.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="85" t="s">
         <v>267</v>
       </c>
@@ -5867,7 +5868,7 @@
       </c>
       <c r="H35" s="101"/>
     </row>
-    <row r="36" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="81" t="s">
         <v>268</v>
       </c>
@@ -5913,7 +5914,7 @@
       </c>
       <c r="H37" s="66"/>
     </row>
-    <row r="38" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="61" t="s">
         <v>270</v>
       </c>
@@ -6067,7 +6068,7 @@
       </c>
       <c r="H44" s="72"/>
     </row>
-    <row r="45" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="61" t="s">
         <v>277</v>
       </c>
@@ -6131,7 +6132,7 @@
       </c>
       <c r="H47" s="93"/>
     </row>
-    <row r="48" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="86" t="s">
         <v>280</v>
       </c>
@@ -6155,7 +6156,7 @@
       </c>
       <c r="H48" s="89"/>
     </row>
-    <row r="49" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="61" t="s">
         <v>281</v>
       </c>
@@ -6177,7 +6178,7 @@
       </c>
       <c r="H49" s="72"/>
     </row>
-    <row r="50" spans="1:8" ht="47.25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="61" t="s">
         <v>282</v>
       </c>
@@ -6197,7 +6198,7 @@
       </c>
       <c r="H50" s="72"/>
     </row>
-    <row r="51" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="61" t="s">
         <v>283</v>
       </c>
@@ -6219,7 +6220,7 @@
       </c>
       <c r="H51" s="72"/>
     </row>
-    <row r="52" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="61" t="s">
         <v>284</v>
       </c>
@@ -6239,7 +6240,7 @@
       </c>
       <c r="H52" s="72"/>
     </row>
-    <row r="53" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="61" t="s">
         <v>285</v>
       </c>
@@ -6261,7 +6262,7 @@
       </c>
       <c r="H53" s="72"/>
     </row>
-    <row r="54" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="61" t="s">
         <v>286</v>
       </c>
@@ -6285,7 +6286,7 @@
       </c>
       <c r="H54" s="72"/>
     </row>
-    <row r="55" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="61" t="s">
         <v>287</v>
       </c>
@@ -6305,7 +6306,7 @@
       </c>
       <c r="H55" s="72"/>
     </row>
-    <row r="56" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="61" t="s">
         <v>288</v>
       </c>
@@ -6325,7 +6326,7 @@
       </c>
       <c r="H56" s="72"/>
     </row>
-    <row r="57" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="61" t="s">
         <v>289</v>
       </c>
@@ -6347,7 +6348,7 @@
       </c>
       <c r="H57" s="72"/>
     </row>
-    <row r="58" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="61" t="s">
         <v>290</v>
       </c>
@@ -6369,7 +6370,7 @@
       </c>
       <c r="H58" s="72"/>
     </row>
-    <row r="59" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="61" t="s">
         <v>291</v>
       </c>
@@ -6391,7 +6392,7 @@
       </c>
       <c r="H59" s="72"/>
     </row>
-    <row r="60" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="61" t="s">
         <v>292</v>
       </c>
@@ -6411,7 +6412,7 @@
       </c>
       <c r="H60" s="72"/>
     </row>
-    <row r="61" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="61" t="s">
         <v>293</v>
       </c>
@@ -6431,7 +6432,7 @@
       </c>
       <c r="H61" s="72"/>
     </row>
-    <row r="62" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="61" t="s">
         <v>294</v>
       </c>
@@ -6451,7 +6452,7 @@
       </c>
       <c r="H62" s="72"/>
     </row>
-    <row r="63" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="61" t="s">
         <v>295</v>
       </c>
@@ -6471,7 +6472,7 @@
       </c>
       <c r="H63" s="72"/>
     </row>
-    <row r="64" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="61" t="s">
         <v>296</v>
       </c>
@@ -6491,7 +6492,7 @@
       </c>
       <c r="H64" s="72"/>
     </row>
-    <row r="65" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="61" t="s">
         <v>297</v>
       </c>
@@ -6511,7 +6512,7 @@
       </c>
       <c r="H65" s="72"/>
     </row>
-    <row r="66" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="61" t="s">
         <v>298</v>
       </c>
@@ -6535,7 +6536,7 @@
       </c>
       <c r="H66" s="72"/>
     </row>
-    <row r="67" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="61" t="s">
         <v>299</v>
       </c>
@@ -6557,7 +6558,7 @@
       </c>
       <c r="H67" s="72"/>
     </row>
-    <row r="68" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="61" t="s">
         <v>300</v>
       </c>
@@ -6579,7 +6580,7 @@
       </c>
       <c r="H68" s="72"/>
     </row>
-    <row r="69" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="61" t="s">
         <v>301</v>
       </c>
@@ -6601,7 +6602,7 @@
       </c>
       <c r="H69" s="72"/>
     </row>
-    <row r="70" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="78" t="s">
         <v>302</v>
       </c>
@@ -6623,7 +6624,7 @@
       </c>
       <c r="H70" s="80"/>
     </row>
-    <row r="71" spans="1:8" ht="47.25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="81" t="s">
         <v>303</v>
       </c>
@@ -6647,7 +6648,7 @@
       </c>
       <c r="H71" s="84"/>
     </row>
-    <row r="72" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="61" t="s">
         <v>304</v>
       </c>
@@ -6669,7 +6670,7 @@
       </c>
       <c r="H72" s="72"/>
     </row>
-    <row r="73" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="61" t="s">
         <v>305</v>
       </c>
@@ -6689,7 +6690,7 @@
       </c>
       <c r="H73" s="72"/>
     </row>
-    <row r="74" spans="1:8" ht="47.25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="61" t="s">
         <v>306</v>
       </c>
@@ -6709,7 +6710,7 @@
       </c>
       <c r="H74" s="72"/>
     </row>
-    <row r="75" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="61" t="s">
         <v>307</v>
       </c>
@@ -6729,7 +6730,7 @@
       </c>
       <c r="H75" s="72"/>
     </row>
-    <row r="76" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="61" t="s">
         <v>308</v>
       </c>
@@ -6751,7 +6752,7 @@
       </c>
       <c r="H76" s="72"/>
     </row>
-    <row r="77" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="61" t="s">
         <v>309</v>
       </c>
@@ -6773,7 +6774,7 @@
       </c>
       <c r="H77" s="72"/>
     </row>
-    <row r="78" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="61" t="s">
         <v>310</v>
       </c>
@@ -6795,7 +6796,7 @@
       </c>
       <c r="H78" s="72"/>
     </row>
-    <row r="79" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="61" t="s">
         <v>313</v>
       </c>
@@ -6861,7 +6862,7 @@
       </c>
       <c r="H81" s="58"/>
     </row>
-    <row r="82" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" ht="17.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="85" t="s">
         <v>316</v>
       </c>
@@ -6978,7 +6979,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H82"/>
+  <autoFilter ref="A1:H82">
+    <filterColumn colId="4">
+      <filters>
+        <dateGroupItem year="2019" month="10" day="29" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="김민진"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="11">
     <mergeCell ref="B71:B82"/>
     <mergeCell ref="B2:B4"/>

--- a/설계및정의서/기능리스트_AR 레이싱 게임 v0.1.xlsx
+++ b/설계및정의서/기능리스트_AR 레이싱 게임 v0.1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\BitCamp_AR\설계및정의서\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
@@ -14,8 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$H$82</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -26,7 +30,7 @@
     <author>kosta</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +86,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1">
+    <comment ref="H1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +114,7 @@
     <author>kosta</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1">
+    <comment ref="H1" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1956,7 +1960,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
@@ -2879,45 +2883,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="16" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2982,6 +2947,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3021,6 +3025,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3069,7 +3076,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3104,7 +3111,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5109,10 +5116,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5157,7 +5165,7 @@
       <c r="A2" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="138" t="s">
         <v>110</v>
       </c>
       <c r="C2" s="90" t="s">
@@ -5179,7 +5187,7 @@
       <c r="A3" s="61" t="s">
         <v>261</v>
       </c>
-      <c r="B3" s="117"/>
+      <c r="B3" s="139"/>
       <c r="C3" s="64" t="s">
         <v>384</v>
       </c>
@@ -5199,7 +5207,7 @@
       <c r="A4" s="61" t="s">
         <v>263</v>
       </c>
-      <c r="B4" s="117"/>
+      <c r="B4" s="139"/>
       <c r="C4" s="64" t="s">
         <v>383</v>
       </c>
@@ -5219,7 +5227,7 @@
       <c r="A5" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="139" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="64" t="s">
@@ -5244,7 +5252,7 @@
       <c r="A6" s="61" t="s">
         <v>265</v>
       </c>
-      <c r="B6" s="117"/>
+      <c r="B6" s="139"/>
       <c r="C6" s="62" t="s">
         <v>77</v>
       </c>
@@ -5263,11 +5271,11 @@
       <c r="J6" s="55"/>
       <c r="K6" s="55"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A7" s="61" t="s">
         <v>266</v>
       </c>
-      <c r="B7" s="117"/>
+      <c r="B7" s="139"/>
       <c r="C7" s="62" t="s">
         <v>376</v>
       </c>
@@ -5290,7 +5298,7 @@
       <c r="A8" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="117"/>
+      <c r="B8" s="139"/>
       <c r="C8" s="64" t="s">
         <v>385</v>
       </c>
@@ -5313,7 +5321,7 @@
       <c r="A9" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="117"/>
+      <c r="B9" s="139"/>
       <c r="C9" s="64" t="s">
         <v>386</v>
       </c>
@@ -5336,7 +5344,7 @@
       <c r="A10" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="117"/>
+      <c r="B10" s="139"/>
       <c r="C10" s="62" t="s">
         <v>387</v>
       </c>
@@ -5355,11 +5363,11 @@
       <c r="J10" s="55"/>
       <c r="K10" s="55"/>
     </row>
-    <row r="11" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="117" t="s">
+      <c r="B11" s="139" t="s">
         <v>140</v>
       </c>
       <c r="C11" s="64" t="s">
@@ -5380,11 +5388,11 @@
       <c r="J11" s="55"/>
       <c r="K11" s="55"/>
     </row>
-    <row r="12" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A12" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="117"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="64" t="s">
         <v>388</v>
       </c>
@@ -5407,7 +5415,7 @@
       <c r="A13" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="117"/>
+      <c r="B13" s="139"/>
       <c r="C13" s="64" t="s">
         <v>390</v>
       </c>
@@ -5427,7 +5435,7 @@
       <c r="A14" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="117"/>
+      <c r="B14" s="139"/>
       <c r="C14" s="64" t="s">
         <v>391</v>
       </c>
@@ -5447,7 +5455,7 @@
       <c r="A15" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="117"/>
+      <c r="B15" s="139"/>
       <c r="C15" s="62" t="s">
         <v>387</v>
       </c>
@@ -5467,7 +5475,7 @@
       <c r="A16" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="117" t="s">
+      <c r="B16" s="139" t="s">
         <v>146</v>
       </c>
       <c r="C16" s="64" t="s">
@@ -5489,7 +5497,7 @@
       <c r="A17" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="117"/>
+      <c r="B17" s="139"/>
       <c r="C17" s="64" t="s">
         <v>388</v>
       </c>
@@ -5509,7 +5517,7 @@
       <c r="A18" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="117"/>
+      <c r="B18" s="139"/>
       <c r="C18" s="64" t="s">
         <v>392</v>
       </c>
@@ -5529,7 +5537,7 @@
       <c r="A19" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="117"/>
+      <c r="B19" s="139"/>
       <c r="C19" s="64" t="s">
         <v>393</v>
       </c>
@@ -5549,7 +5557,7 @@
       <c r="A20" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="117"/>
+      <c r="B20" s="139"/>
       <c r="C20" s="64" t="s">
         <v>394</v>
       </c>
@@ -5569,7 +5577,7 @@
       <c r="A21" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="117"/>
+      <c r="B21" s="139"/>
       <c r="C21" s="64" t="s">
         <v>395</v>
       </c>
@@ -5589,7 +5597,7 @@
       <c r="A22" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="117"/>
+      <c r="B22" s="139"/>
       <c r="C22" s="62" t="s">
         <v>387</v>
       </c>
@@ -5609,7 +5617,7 @@
       <c r="A23" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="117" t="s">
+      <c r="B23" s="139" t="s">
         <v>79</v>
       </c>
       <c r="C23" s="62" t="s">
@@ -5631,7 +5639,7 @@
       <c r="A24" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="117"/>
+      <c r="B24" s="139"/>
       <c r="C24" s="62" t="s">
         <v>397</v>
       </c>
@@ -5651,7 +5659,7 @@
       <c r="A25" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="117"/>
+      <c r="B25" s="139"/>
       <c r="C25" s="64" t="s">
         <v>398</v>
       </c>
@@ -5671,7 +5679,7 @@
       <c r="A26" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="117"/>
+      <c r="B26" s="139"/>
       <c r="C26" s="64" t="s">
         <v>399</v>
       </c>
@@ -5691,7 +5699,7 @@
       <c r="A27" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="117"/>
+      <c r="B27" s="139"/>
       <c r="C27" s="64" t="s">
         <v>400</v>
       </c>
@@ -5711,7 +5719,7 @@
       <c r="A28" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="117"/>
+      <c r="B28" s="139"/>
       <c r="C28" s="62" t="s">
         <v>401</v>
       </c>
@@ -5731,7 +5739,7 @@
       <c r="A29" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="117"/>
+      <c r="B29" s="139"/>
       <c r="C29" s="62" t="s">
         <v>402</v>
       </c>
@@ -5751,7 +5759,7 @@
       <c r="A30" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="117"/>
+      <c r="B30" s="139"/>
       <c r="C30" s="62" t="s">
         <v>403</v>
       </c>
@@ -5771,7 +5779,7 @@
       <c r="A31" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="117"/>
+      <c r="B31" s="139"/>
       <c r="C31" s="62" t="s">
         <v>404</v>
       </c>
@@ -5791,7 +5799,7 @@
       <c r="A32" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="117"/>
+      <c r="B32" s="139"/>
       <c r="C32" s="62" t="s">
         <v>405</v>
       </c>
@@ -5811,7 +5819,7 @@
       <c r="A33" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="117"/>
+      <c r="B33" s="139"/>
       <c r="C33" s="62" t="s">
         <v>406</v>
       </c>
@@ -5831,7 +5839,7 @@
       <c r="A34" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="117"/>
+      <c r="B34" s="139"/>
       <c r="C34" s="62" t="s">
         <v>416</v>
       </c>
@@ -5851,7 +5859,7 @@
       <c r="A35" s="85" t="s">
         <v>267</v>
       </c>
-      <c r="B35" s="123"/>
+      <c r="B35" s="145"/>
       <c r="C35" s="75" t="s">
         <v>407</v>
       </c>
@@ -5867,11 +5875,11 @@
       </c>
       <c r="H35" s="101"/>
     </row>
-    <row r="36" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="81" t="s">
         <v>268</v>
       </c>
-      <c r="B36" s="124" t="s">
+      <c r="B36" s="146" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="90" t="s">
@@ -5880,22 +5888,22 @@
       <c r="D36" s="91" t="s">
         <v>321</v>
       </c>
-      <c r="E36" s="126">
+      <c r="E36" s="113">
         <v>43757</v>
       </c>
-      <c r="F36" s="127" t="s">
+      <c r="F36" s="114" t="s">
         <v>443</v>
       </c>
-      <c r="G36" s="128">
+      <c r="G36" s="115">
         <v>3</v>
       </c>
       <c r="H36" s="92"/>
     </row>
-    <row r="37" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="61" t="s">
         <v>269</v>
       </c>
-      <c r="B37" s="125"/>
+      <c r="B37" s="147"/>
       <c r="C37" s="64" t="s">
         <v>408</v>
       </c>
@@ -5913,11 +5921,11 @@
       </c>
       <c r="H37" s="66"/>
     </row>
-    <row r="38" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="32.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="61" t="s">
         <v>270</v>
       </c>
-      <c r="B38" s="125"/>
+      <c r="B38" s="147"/>
       <c r="C38" s="64" t="s">
         <v>387</v>
       </c>
@@ -5933,55 +5941,55 @@
       </c>
       <c r="H38" s="66"/>
     </row>
-    <row r="39" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="61" t="s">
         <v>271</v>
       </c>
-      <c r="B39" s="125"/>
+      <c r="B39" s="147"/>
       <c r="C39" s="64" t="s">
         <v>409</v>
       </c>
       <c r="D39" s="70" t="s">
         <v>352</v>
       </c>
-      <c r="E39" s="141">
+      <c r="E39" s="128">
         <v>43767</v>
       </c>
-      <c r="F39" s="145" t="s">
+      <c r="F39" s="132" t="s">
         <v>443</v>
       </c>
-      <c r="G39" s="143">
+      <c r="G39" s="130">
         <v>3</v>
       </c>
       <c r="H39" s="72"/>
     </row>
-    <row r="40" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="61" t="s">
         <v>272</v>
       </c>
-      <c r="B40" s="125"/>
+      <c r="B40" s="147"/>
       <c r="C40" s="64" t="s">
         <v>434</v>
       </c>
       <c r="D40" s="70" t="s">
         <v>351</v>
       </c>
-      <c r="E40" s="141">
+      <c r="E40" s="128">
         <v>43767</v>
       </c>
-      <c r="F40" s="145" t="s">
+      <c r="F40" s="132" t="s">
         <v>443</v>
       </c>
-      <c r="G40" s="143">
+      <c r="G40" s="130">
         <v>3</v>
       </c>
       <c r="H40" s="72"/>
     </row>
-    <row r="41" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="61" t="s">
         <v>273</v>
       </c>
-      <c r="B41" s="125"/>
+      <c r="B41" s="147"/>
       <c r="C41" s="64" t="s">
         <v>233</v>
       </c>
@@ -5999,11 +6007,11 @@
       </c>
       <c r="H41" s="72"/>
     </row>
-    <row r="42" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="B42" s="125"/>
+      <c r="B42" s="147"/>
       <c r="C42" s="62" t="s">
         <v>410</v>
       </c>
@@ -6021,11 +6029,11 @@
       </c>
       <c r="H42" s="72"/>
     </row>
-    <row r="43" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="61" t="s">
         <v>275</v>
       </c>
-      <c r="B43" s="125"/>
+      <c r="B43" s="147"/>
       <c r="C43" s="71" t="s">
         <v>411</v>
       </c>
@@ -6043,11 +6051,11 @@
       </c>
       <c r="H43" s="72"/>
     </row>
-    <row r="44" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="61" t="s">
         <v>276</v>
       </c>
-      <c r="B44" s="118" t="s">
+      <c r="B44" s="140" t="s">
         <v>262</v>
       </c>
       <c r="C44" s="62" t="s">
@@ -6067,11 +6075,11 @@
       </c>
       <c r="H44" s="72"/>
     </row>
-    <row r="45" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="61" t="s">
         <v>277</v>
       </c>
-      <c r="B45" s="118"/>
+      <c r="B45" s="140"/>
       <c r="C45" s="62" t="s">
         <v>387</v>
       </c>
@@ -6087,11 +6095,11 @@
       </c>
       <c r="H45" s="72"/>
     </row>
-    <row r="46" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="61" t="s">
         <v>278</v>
       </c>
-      <c r="B46" s="118"/>
+      <c r="B46" s="140"/>
       <c r="C46" s="62" t="s">
         <v>412</v>
       </c>
@@ -6109,11 +6117,11 @@
       </c>
       <c r="H46" s="72"/>
     </row>
-    <row r="47" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="85" t="s">
         <v>279</v>
       </c>
-      <c r="B47" s="119"/>
+      <c r="B47" s="141"/>
       <c r="C47" s="75" t="s">
         <v>413</v>
       </c>
@@ -6135,7 +6143,7 @@
       <c r="A48" s="86" t="s">
         <v>280</v>
       </c>
-      <c r="B48" s="120" t="s">
+      <c r="B48" s="142" t="s">
         <v>206</v>
       </c>
       <c r="C48" s="87" t="s">
@@ -6144,13 +6152,13 @@
       <c r="D48" s="88" t="s">
         <v>323</v>
       </c>
-      <c r="E48" s="129">
+      <c r="E48" s="116">
         <v>43757</v>
       </c>
-      <c r="F48" s="130" t="s">
+      <c r="F48" s="117" t="s">
         <v>445</v>
       </c>
-      <c r="G48" s="128">
+      <c r="G48" s="115">
         <v>2</v>
       </c>
       <c r="H48" s="89"/>
@@ -6159,20 +6167,20 @@
       <c r="A49" s="61" t="s">
         <v>281</v>
       </c>
-      <c r="B49" s="121"/>
+      <c r="B49" s="143"/>
       <c r="C49" s="71" t="s">
         <v>414</v>
       </c>
       <c r="D49" s="67" t="s">
         <v>311</v>
       </c>
-      <c r="E49" s="129">
+      <c r="E49" s="116">
         <v>43757</v>
       </c>
-      <c r="F49" s="131" t="s">
+      <c r="F49" s="118" t="s">
         <v>442</v>
       </c>
-      <c r="G49" s="132">
+      <c r="G49" s="119">
         <v>2</v>
       </c>
       <c r="H49" s="72"/>
@@ -6181,7 +6189,7 @@
       <c r="A50" s="61" t="s">
         <v>282</v>
       </c>
-      <c r="B50" s="121"/>
+      <c r="B50" s="143"/>
       <c r="C50" s="62" t="s">
         <v>415</v>
       </c>
@@ -6201,20 +6209,20 @@
       <c r="A51" s="61" t="s">
         <v>283</v>
       </c>
-      <c r="B51" s="121"/>
+      <c r="B51" s="143"/>
       <c r="C51" s="62" t="s">
         <v>429</v>
       </c>
       <c r="D51" s="67" t="s">
         <v>344</v>
       </c>
-      <c r="E51" s="133">
+      <c r="E51" s="120">
         <v>43757</v>
       </c>
-      <c r="F51" s="130" t="s">
+      <c r="F51" s="117" t="s">
         <v>442</v>
       </c>
-      <c r="G51" s="132">
+      <c r="G51" s="119">
         <v>3</v>
       </c>
       <c r="H51" s="72"/>
@@ -6223,7 +6231,7 @@
       <c r="A52" s="61" t="s">
         <v>284</v>
       </c>
-      <c r="B52" s="121"/>
+      <c r="B52" s="143"/>
       <c r="C52" s="62" t="s">
         <v>435</v>
       </c>
@@ -6243,20 +6251,20 @@
       <c r="A53" s="61" t="s">
         <v>285</v>
       </c>
-      <c r="B53" s="121"/>
+      <c r="B53" s="143"/>
       <c r="C53" s="62" t="s">
         <v>430</v>
       </c>
       <c r="D53" s="67" t="s">
         <v>259</v>
       </c>
-      <c r="E53" s="134">
+      <c r="E53" s="121">
         <v>43757</v>
       </c>
-      <c r="F53" s="130" t="s">
+      <c r="F53" s="117" t="s">
         <v>442</v>
       </c>
-      <c r="G53" s="132">
+      <c r="G53" s="119">
         <v>3</v>
       </c>
       <c r="H53" s="72"/>
@@ -6265,7 +6273,7 @@
       <c r="A54" s="61" t="s">
         <v>286</v>
       </c>
-      <c r="B54" s="121" t="s">
+      <c r="B54" s="143" t="s">
         <v>436</v>
       </c>
       <c r="C54" s="71" t="s">
@@ -6274,7 +6282,7 @@
       <c r="D54" s="112" t="s">
         <v>342</v>
       </c>
-      <c r="E54" s="141">
+      <c r="E54" s="128">
         <v>43767</v>
       </c>
       <c r="F54" s="108" t="s">
@@ -6289,18 +6297,18 @@
       <c r="A55" s="61" t="s">
         <v>287</v>
       </c>
-      <c r="B55" s="121"/>
-      <c r="C55" s="140" t="s">
+      <c r="B55" s="143"/>
+      <c r="C55" s="127" t="s">
         <v>418</v>
       </c>
       <c r="D55" s="70" t="s">
         <v>341</v>
       </c>
-      <c r="E55" s="141"/>
-      <c r="F55" s="142" t="s">
+      <c r="E55" s="128"/>
+      <c r="F55" s="129" t="s">
         <v>442</v>
       </c>
-      <c r="G55" s="143">
+      <c r="G55" s="130">
         <v>2</v>
       </c>
       <c r="H55" s="72"/>
@@ -6309,7 +6317,7 @@
       <c r="A56" s="61" t="s">
         <v>288</v>
       </c>
-      <c r="B56" s="121"/>
+      <c r="B56" s="143"/>
       <c r="C56" s="71" t="s">
         <v>387</v>
       </c>
@@ -6329,20 +6337,20 @@
       <c r="A57" s="61" t="s">
         <v>289</v>
       </c>
-      <c r="B57" s="121"/>
-      <c r="C57" s="140" t="s">
+      <c r="B57" s="143"/>
+      <c r="C57" s="127" t="s">
         <v>419</v>
       </c>
       <c r="D57" s="70" t="s">
         <v>339</v>
       </c>
-      <c r="E57" s="141">
+      <c r="E57" s="128">
         <v>43767</v>
       </c>
-      <c r="F57" s="142" t="s">
+      <c r="F57" s="129" t="s">
         <v>442</v>
       </c>
-      <c r="G57" s="143">
+      <c r="G57" s="130">
         <v>3</v>
       </c>
       <c r="H57" s="72"/>
@@ -6351,20 +6359,20 @@
       <c r="A58" s="61" t="s">
         <v>290</v>
       </c>
-      <c r="B58" s="121"/>
-      <c r="C58" s="144" t="s">
+      <c r="B58" s="143"/>
+      <c r="C58" s="131" t="s">
         <v>431</v>
       </c>
       <c r="D58" s="70" t="s">
         <v>437</v>
       </c>
-      <c r="E58" s="141">
+      <c r="E58" s="128">
         <v>43767</v>
       </c>
-      <c r="F58" s="145" t="s">
+      <c r="F58" s="132" t="s">
         <v>442</v>
       </c>
-      <c r="G58" s="143">
+      <c r="G58" s="130">
         <v>3</v>
       </c>
       <c r="H58" s="72"/>
@@ -6373,20 +6381,20 @@
       <c r="A59" s="61" t="s">
         <v>291</v>
       </c>
-      <c r="B59" s="121"/>
-      <c r="C59" s="140" t="s">
+      <c r="B59" s="143"/>
+      <c r="C59" s="127" t="s">
         <v>420</v>
       </c>
       <c r="D59" s="70" t="s">
         <v>338</v>
       </c>
-      <c r="E59" s="141">
+      <c r="E59" s="128">
         <v>43767</v>
       </c>
-      <c r="F59" s="142" t="s">
+      <c r="F59" s="129" t="s">
         <v>442</v>
       </c>
-      <c r="G59" s="143">
+      <c r="G59" s="130">
         <v>3</v>
       </c>
       <c r="H59" s="72"/>
@@ -6395,18 +6403,18 @@
       <c r="A60" s="61" t="s">
         <v>292</v>
       </c>
-      <c r="B60" s="121"/>
-      <c r="C60" s="140" t="s">
+      <c r="B60" s="143"/>
+      <c r="C60" s="127" t="s">
         <v>421</v>
       </c>
       <c r="D60" s="70" t="s">
         <v>448</v>
       </c>
-      <c r="E60" s="141"/>
-      <c r="F60" s="145" t="s">
+      <c r="E60" s="128"/>
+      <c r="F60" s="132" t="s">
         <v>442</v>
       </c>
-      <c r="G60" s="143">
+      <c r="G60" s="130">
         <v>3</v>
       </c>
       <c r="H60" s="72"/>
@@ -6415,7 +6423,7 @@
       <c r="A61" s="61" t="s">
         <v>293</v>
       </c>
-      <c r="B61" s="121"/>
+      <c r="B61" s="143"/>
       <c r="C61" s="77" t="s">
         <v>432</v>
       </c>
@@ -6435,7 +6443,7 @@
       <c r="A62" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="B62" s="121"/>
+      <c r="B62" s="143"/>
       <c r="C62" s="71" t="s">
         <v>422</v>
       </c>
@@ -6455,7 +6463,7 @@
       <c r="A63" s="61" t="s">
         <v>295</v>
       </c>
-      <c r="B63" s="121"/>
+      <c r="B63" s="143"/>
       <c r="C63" s="71" t="s">
         <v>423</v>
       </c>
@@ -6475,7 +6483,7 @@
       <c r="A64" s="61" t="s">
         <v>296</v>
       </c>
-      <c r="B64" s="121"/>
+      <c r="B64" s="143"/>
       <c r="C64" s="77" t="s">
         <v>433</v>
       </c>
@@ -6495,18 +6503,18 @@
       <c r="A65" s="61" t="s">
         <v>297</v>
       </c>
-      <c r="B65" s="121"/>
-      <c r="C65" s="140" t="s">
+      <c r="B65" s="143"/>
+      <c r="C65" s="127" t="s">
         <v>424</v>
       </c>
       <c r="D65" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="E65" s="141"/>
-      <c r="F65" s="142" t="s">
+      <c r="E65" s="128"/>
+      <c r="F65" s="129" t="s">
         <v>442</v>
       </c>
-      <c r="G65" s="143">
+      <c r="G65" s="130">
         <v>2</v>
       </c>
       <c r="H65" s="72"/>
@@ -6515,7 +6523,7 @@
       <c r="A66" s="61" t="s">
         <v>298</v>
       </c>
-      <c r="B66" s="121" t="s">
+      <c r="B66" s="143" t="s">
         <v>176</v>
       </c>
       <c r="C66" s="62" t="s">
@@ -6539,7 +6547,7 @@
       <c r="A67" s="61" t="s">
         <v>299</v>
       </c>
-      <c r="B67" s="121"/>
+      <c r="B67" s="143"/>
       <c r="C67" s="62" t="s">
         <v>425</v>
       </c>
@@ -6561,7 +6569,7 @@
       <c r="A68" s="61" t="s">
         <v>300</v>
       </c>
-      <c r="B68" s="121"/>
+      <c r="B68" s="143"/>
       <c r="C68" s="62" t="s">
         <v>426</v>
       </c>
@@ -6583,7 +6591,7 @@
       <c r="A69" s="61" t="s">
         <v>301</v>
       </c>
-      <c r="B69" s="121"/>
+      <c r="B69" s="143"/>
       <c r="C69" s="62" t="s">
         <v>427</v>
       </c>
@@ -6601,11 +6609,11 @@
       </c>
       <c r="H69" s="72"/>
     </row>
-    <row r="70" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A70" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="B70" s="122"/>
+      <c r="B70" s="144"/>
       <c r="C70" s="79" t="s">
         <v>387</v>
       </c>
@@ -6623,11 +6631,11 @@
       </c>
       <c r="H70" s="80"/>
     </row>
-    <row r="71" spans="1:8" ht="47.25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="81" t="s">
         <v>303</v>
       </c>
-      <c r="B71" s="113" t="s">
+      <c r="B71" s="135" t="s">
         <v>31</v>
       </c>
       <c r="C71" s="82" t="s">
@@ -6636,44 +6644,44 @@
       <c r="D71" s="83" t="s">
         <v>324</v>
       </c>
-      <c r="E71" s="135">
+      <c r="E71" s="122">
         <v>43757</v>
       </c>
-      <c r="F71" s="127" t="s">
+      <c r="F71" s="114" t="s">
         <v>443</v>
       </c>
-      <c r="G71" s="127">
+      <c r="G71" s="114">
         <v>3</v>
       </c>
       <c r="H71" s="84"/>
     </row>
-    <row r="72" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="61" t="s">
         <v>304</v>
       </c>
-      <c r="B72" s="114"/>
+      <c r="B72" s="136"/>
       <c r="C72" s="62" t="s">
         <v>196</v>
       </c>
       <c r="D72" s="63" t="s">
         <v>325</v>
       </c>
-      <c r="E72" s="133">
+      <c r="E72" s="120">
         <v>43757</v>
       </c>
-      <c r="F72" s="131" t="s">
+      <c r="F72" s="118" t="s">
         <v>443</v>
       </c>
-      <c r="G72" s="136">
+      <c r="G72" s="123">
         <v>3</v>
       </c>
       <c r="H72" s="72"/>
     </row>
-    <row r="73" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="61" t="s">
         <v>305</v>
       </c>
-      <c r="B73" s="114"/>
+      <c r="B73" s="136"/>
       <c r="C73" s="73" t="s">
         <v>33</v>
       </c>
@@ -6689,11 +6697,11 @@
       </c>
       <c r="H73" s="72"/>
     </row>
-    <row r="74" spans="1:8" ht="47.25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="61" t="s">
         <v>306</v>
       </c>
-      <c r="B74" s="114"/>
+      <c r="B74" s="136"/>
       <c r="C74" s="73" t="s">
         <v>34</v>
       </c>
@@ -6709,11 +6717,11 @@
       </c>
       <c r="H74" s="72"/>
     </row>
-    <row r="75" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="61" t="s">
         <v>307</v>
       </c>
-      <c r="B75" s="114"/>
+      <c r="B75" s="136"/>
       <c r="C75" s="62" t="s">
         <v>428</v>
       </c>
@@ -6729,156 +6737,156 @@
       </c>
       <c r="H75" s="72"/>
     </row>
-    <row r="76" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="61" t="s">
         <v>308</v>
       </c>
-      <c r="B76" s="114"/>
+      <c r="B76" s="136"/>
       <c r="C76" s="62" t="s">
         <v>37</v>
       </c>
       <c r="D76" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="E76" s="133">
+      <c r="E76" s="120">
         <v>43757</v>
       </c>
-      <c r="F76" s="131" t="s">
+      <c r="F76" s="118" t="s">
         <v>443</v>
       </c>
-      <c r="G76" s="136">
+      <c r="G76" s="123">
         <v>1</v>
       </c>
       <c r="H76" s="72"/>
     </row>
-    <row r="77" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="61" t="s">
         <v>309</v>
       </c>
-      <c r="B77" s="114"/>
+      <c r="B77" s="136"/>
       <c r="C77" s="62" t="s">
         <v>38</v>
       </c>
       <c r="D77" s="63" t="s">
         <v>312</v>
       </c>
-      <c r="E77" s="133">
+      <c r="E77" s="120">
         <v>43757</v>
       </c>
-      <c r="F77" s="131" t="s">
+      <c r="F77" s="118" t="s">
         <v>443</v>
       </c>
-      <c r="G77" s="136">
+      <c r="G77" s="123">
         <v>3</v>
       </c>
       <c r="H77" s="72"/>
     </row>
-    <row r="78" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="B78" s="114"/>
+      <c r="B78" s="136"/>
       <c r="C78" s="62" t="s">
         <v>39</v>
       </c>
       <c r="D78" s="63" t="s">
         <v>326</v>
       </c>
-      <c r="E78" s="133">
+      <c r="E78" s="120">
         <v>43757</v>
       </c>
-      <c r="F78" s="131" t="s">
+      <c r="F78" s="118" t="s">
         <v>443</v>
       </c>
-      <c r="G78" s="136">
+      <c r="G78" s="123">
         <v>3</v>
       </c>
       <c r="H78" s="72"/>
     </row>
-    <row r="79" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="61" t="s">
         <v>313</v>
       </c>
-      <c r="B79" s="114"/>
+      <c r="B79" s="136"/>
       <c r="C79" s="62" t="s">
         <v>320</v>
       </c>
       <c r="D79" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="E79" s="133">
+      <c r="E79" s="120">
         <v>43757</v>
       </c>
-      <c r="F79" s="131" t="s">
+      <c r="F79" s="118" t="s">
         <v>443</v>
       </c>
-      <c r="G79" s="136">
+      <c r="G79" s="123">
         <v>3</v>
       </c>
       <c r="H79" s="58"/>
     </row>
-    <row r="80" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="61" t="s">
         <v>314</v>
       </c>
-      <c r="B80" s="114"/>
+      <c r="B80" s="136"/>
       <c r="C80" s="64" t="s">
         <v>203</v>
       </c>
       <c r="D80" s="65" t="s">
         <v>381</v>
       </c>
-      <c r="E80" s="141">
+      <c r="E80" s="128">
         <v>43767</v>
       </c>
-      <c r="F80" s="145" t="s">
+      <c r="F80" s="132" t="s">
         <v>443</v>
       </c>
-      <c r="G80" s="146">
+      <c r="G80" s="133">
         <v>1</v>
       </c>
       <c r="H80" s="58"/>
     </row>
-    <row r="81" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="61" t="s">
         <v>315</v>
       </c>
-      <c r="B81" s="114"/>
+      <c r="B81" s="136"/>
       <c r="C81" s="64" t="s">
         <v>42</v>
       </c>
       <c r="D81" s="65" t="s">
         <v>446</v>
       </c>
-      <c r="E81" s="141">
+      <c r="E81" s="128">
         <v>43767</v>
       </c>
-      <c r="F81" s="145" t="s">
+      <c r="F81" s="132" t="s">
         <v>443</v>
       </c>
-      <c r="G81" s="147">
+      <c r="G81" s="134">
         <v>3</v>
       </c>
       <c r="H81" s="58"/>
     </row>
-    <row r="82" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" ht="17.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="85" t="s">
         <v>316</v>
       </c>
-      <c r="B82" s="115"/>
+      <c r="B82" s="137"/>
       <c r="C82" s="75" t="s">
         <v>43</v>
       </c>
       <c r="D82" s="76" t="s">
         <v>380</v>
       </c>
-      <c r="E82" s="137">
+      <c r="E82" s="124">
         <v>43757</v>
       </c>
-      <c r="F82" s="138" t="s">
+      <c r="F82" s="125" t="s">
         <v>443</v>
       </c>
-      <c r="G82" s="139">
+      <c r="G82" s="126">
         <v>1</v>
       </c>
       <c r="H82" s="60"/>
@@ -6978,7 +6986,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H82"/>
+  <autoFilter ref="A1:H82">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="홍승표"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="11">
     <mergeCell ref="B71:B82"/>
     <mergeCell ref="B2:B4"/>

--- a/설계및정의서/기능리스트_AR 레이싱 게임 v0.1.xlsx
+++ b/설계및정의서/기능리스트_AR 레이싱 게임 v0.1.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\BitCamp_AR\설계및정의서\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
@@ -19,7 +14,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$G$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$H$82</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -30,7 +26,7 @@
     <author>kosta</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1" shapeId="0">
+    <comment ref="H1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -114,7 +110,7 @@
     <author>kosta</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -170,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="1" shapeId="0">
+    <comment ref="H1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1960,7 +1956,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="177" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
@@ -2883,6 +2879,45 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="16" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2947,45 +2982,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3025,9 +3021,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3076,7 +3069,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3111,7 +3104,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5116,11 +5109,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5165,7 +5157,7 @@
       <c r="A2" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="116" t="s">
         <v>110</v>
       </c>
       <c r="C2" s="90" t="s">
@@ -5187,7 +5179,7 @@
       <c r="A3" s="61" t="s">
         <v>261</v>
       </c>
-      <c r="B3" s="139"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="64" t="s">
         <v>384</v>
       </c>
@@ -5207,7 +5199,7 @@
       <c r="A4" s="61" t="s">
         <v>263</v>
       </c>
-      <c r="B4" s="139"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="64" t="s">
         <v>383</v>
       </c>
@@ -5227,7 +5219,7 @@
       <c r="A5" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="B5" s="139" t="s">
+      <c r="B5" s="117" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="64" t="s">
@@ -5252,7 +5244,7 @@
       <c r="A6" s="61" t="s">
         <v>265</v>
       </c>
-      <c r="B6" s="139"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="62" t="s">
         <v>77</v>
       </c>
@@ -5271,11 +5263,11 @@
       <c r="J6" s="55"/>
       <c r="K6" s="55"/>
     </row>
-    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="61" t="s">
         <v>266</v>
       </c>
-      <c r="B7" s="139"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="62" t="s">
         <v>376</v>
       </c>
@@ -5298,7 +5290,7 @@
       <c r="A8" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="139"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="64" t="s">
         <v>385</v>
       </c>
@@ -5321,7 +5313,7 @@
       <c r="A9" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="139"/>
+      <c r="B9" s="117"/>
       <c r="C9" s="64" t="s">
         <v>386</v>
       </c>
@@ -5344,7 +5336,7 @@
       <c r="A10" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="139"/>
+      <c r="B10" s="117"/>
       <c r="C10" s="62" t="s">
         <v>387</v>
       </c>
@@ -5363,11 +5355,11 @@
       <c r="J10" s="55"/>
       <c r="K10" s="55"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="139" t="s">
+      <c r="B11" s="117" t="s">
         <v>140</v>
       </c>
       <c r="C11" s="64" t="s">
@@ -5388,11 +5380,11 @@
       <c r="J11" s="55"/>
       <c r="K11" s="55"/>
     </row>
-    <row r="12" spans="1:11" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="139"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="64" t="s">
         <v>388</v>
       </c>
@@ -5415,7 +5407,7 @@
       <c r="A13" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="139"/>
+      <c r="B13" s="117"/>
       <c r="C13" s="64" t="s">
         <v>390</v>
       </c>
@@ -5435,7 +5427,7 @@
       <c r="A14" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="139"/>
+      <c r="B14" s="117"/>
       <c r="C14" s="64" t="s">
         <v>391</v>
       </c>
@@ -5455,7 +5447,7 @@
       <c r="A15" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="139"/>
+      <c r="B15" s="117"/>
       <c r="C15" s="62" t="s">
         <v>387</v>
       </c>
@@ -5475,7 +5467,7 @@
       <c r="A16" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="139" t="s">
+      <c r="B16" s="117" t="s">
         <v>146</v>
       </c>
       <c r="C16" s="64" t="s">
@@ -5497,7 +5489,7 @@
       <c r="A17" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="139"/>
+      <c r="B17" s="117"/>
       <c r="C17" s="64" t="s">
         <v>388</v>
       </c>
@@ -5517,7 +5509,7 @@
       <c r="A18" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="139"/>
+      <c r="B18" s="117"/>
       <c r="C18" s="64" t="s">
         <v>392</v>
       </c>
@@ -5537,7 +5529,7 @@
       <c r="A19" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="139"/>
+      <c r="B19" s="117"/>
       <c r="C19" s="64" t="s">
         <v>393</v>
       </c>
@@ -5557,7 +5549,7 @@
       <c r="A20" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="139"/>
+      <c r="B20" s="117"/>
       <c r="C20" s="64" t="s">
         <v>394</v>
       </c>
@@ -5577,7 +5569,7 @@
       <c r="A21" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="139"/>
+      <c r="B21" s="117"/>
       <c r="C21" s="64" t="s">
         <v>395</v>
       </c>
@@ -5597,7 +5589,7 @@
       <c r="A22" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="139"/>
+      <c r="B22" s="117"/>
       <c r="C22" s="62" t="s">
         <v>387</v>
       </c>
@@ -5617,7 +5609,7 @@
       <c r="A23" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="139" t="s">
+      <c r="B23" s="117" t="s">
         <v>79</v>
       </c>
       <c r="C23" s="62" t="s">
@@ -5639,7 +5631,7 @@
       <c r="A24" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="139"/>
+      <c r="B24" s="117"/>
       <c r="C24" s="62" t="s">
         <v>397</v>
       </c>
@@ -5659,7 +5651,7 @@
       <c r="A25" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="139"/>
+      <c r="B25" s="117"/>
       <c r="C25" s="64" t="s">
         <v>398</v>
       </c>
@@ -5679,7 +5671,7 @@
       <c r="A26" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="139"/>
+      <c r="B26" s="117"/>
       <c r="C26" s="64" t="s">
         <v>399</v>
       </c>
@@ -5699,7 +5691,7 @@
       <c r="A27" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="139"/>
+      <c r="B27" s="117"/>
       <c r="C27" s="64" t="s">
         <v>400</v>
       </c>
@@ -5719,7 +5711,7 @@
       <c r="A28" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="139"/>
+      <c r="B28" s="117"/>
       <c r="C28" s="62" t="s">
         <v>401</v>
       </c>
@@ -5739,7 +5731,7 @@
       <c r="A29" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="139"/>
+      <c r="B29" s="117"/>
       <c r="C29" s="62" t="s">
         <v>402</v>
       </c>
@@ -5759,7 +5751,7 @@
       <c r="A30" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="139"/>
+      <c r="B30" s="117"/>
       <c r="C30" s="62" t="s">
         <v>403</v>
       </c>
@@ -5779,7 +5771,7 @@
       <c r="A31" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="139"/>
+      <c r="B31" s="117"/>
       <c r="C31" s="62" t="s">
         <v>404</v>
       </c>
@@ -5799,7 +5791,7 @@
       <c r="A32" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="139"/>
+      <c r="B32" s="117"/>
       <c r="C32" s="62" t="s">
         <v>405</v>
       </c>
@@ -5819,7 +5811,7 @@
       <c r="A33" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="139"/>
+      <c r="B33" s="117"/>
       <c r="C33" s="62" t="s">
         <v>406</v>
       </c>
@@ -5839,7 +5831,7 @@
       <c r="A34" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="139"/>
+      <c r="B34" s="117"/>
       <c r="C34" s="62" t="s">
         <v>416</v>
       </c>
@@ -5859,7 +5851,7 @@
       <c r="A35" s="85" t="s">
         <v>267</v>
       </c>
-      <c r="B35" s="145"/>
+      <c r="B35" s="123"/>
       <c r="C35" s="75" t="s">
         <v>407</v>
       </c>
@@ -5875,11 +5867,11 @@
       </c>
       <c r="H35" s="101"/>
     </row>
-    <row r="36" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="81" t="s">
         <v>268</v>
       </c>
-      <c r="B36" s="146" t="s">
+      <c r="B36" s="124" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="90" t="s">
@@ -5888,22 +5880,22 @@
       <c r="D36" s="91" t="s">
         <v>321</v>
       </c>
-      <c r="E36" s="113">
+      <c r="E36" s="126">
         <v>43757</v>
       </c>
-      <c r="F36" s="114" t="s">
+      <c r="F36" s="127" t="s">
         <v>443</v>
       </c>
-      <c r="G36" s="115">
+      <c r="G36" s="128">
         <v>3</v>
       </c>
       <c r="H36" s="92"/>
     </row>
-    <row r="37" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="61" t="s">
         <v>269</v>
       </c>
-      <c r="B37" s="147"/>
+      <c r="B37" s="125"/>
       <c r="C37" s="64" t="s">
         <v>408</v>
       </c>
@@ -5921,11 +5913,11 @@
       </c>
       <c r="H37" s="66"/>
     </row>
-    <row r="38" spans="1:8" ht="32.25" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A38" s="61" t="s">
         <v>270</v>
       </c>
-      <c r="B38" s="147"/>
+      <c r="B38" s="125"/>
       <c r="C38" s="64" t="s">
         <v>387</v>
       </c>
@@ -5941,55 +5933,55 @@
       </c>
       <c r="H38" s="66"/>
     </row>
-    <row r="39" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="61" t="s">
         <v>271</v>
       </c>
-      <c r="B39" s="147"/>
+      <c r="B39" s="125"/>
       <c r="C39" s="64" t="s">
         <v>409</v>
       </c>
       <c r="D39" s="70" t="s">
         <v>352</v>
       </c>
-      <c r="E39" s="128">
+      <c r="E39" s="141">
         <v>43767</v>
       </c>
-      <c r="F39" s="132" t="s">
+      <c r="F39" s="145" t="s">
         <v>443</v>
       </c>
-      <c r="G39" s="130">
+      <c r="G39" s="143">
         <v>3</v>
       </c>
       <c r="H39" s="72"/>
     </row>
-    <row r="40" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="61" t="s">
         <v>272</v>
       </c>
-      <c r="B40" s="147"/>
+      <c r="B40" s="125"/>
       <c r="C40" s="64" t="s">
         <v>434</v>
       </c>
       <c r="D40" s="70" t="s">
         <v>351</v>
       </c>
-      <c r="E40" s="128">
+      <c r="E40" s="141">
         <v>43767</v>
       </c>
-      <c r="F40" s="132" t="s">
+      <c r="F40" s="145" t="s">
         <v>443</v>
       </c>
-      <c r="G40" s="130">
+      <c r="G40" s="143">
         <v>3</v>
       </c>
       <c r="H40" s="72"/>
     </row>
-    <row r="41" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="61" t="s">
         <v>273</v>
       </c>
-      <c r="B41" s="147"/>
+      <c r="B41" s="125"/>
       <c r="C41" s="64" t="s">
         <v>233</v>
       </c>
@@ -6007,11 +5999,11 @@
       </c>
       <c r="H41" s="72"/>
     </row>
-    <row r="42" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="B42" s="147"/>
+      <c r="B42" s="125"/>
       <c r="C42" s="62" t="s">
         <v>410</v>
       </c>
@@ -6029,11 +6021,11 @@
       </c>
       <c r="H42" s="72"/>
     </row>
-    <row r="43" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="61" t="s">
         <v>275</v>
       </c>
-      <c r="B43" s="147"/>
+      <c r="B43" s="125"/>
       <c r="C43" s="71" t="s">
         <v>411</v>
       </c>
@@ -6051,11 +6043,11 @@
       </c>
       <c r="H43" s="72"/>
     </row>
-    <row r="44" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="61" t="s">
         <v>276</v>
       </c>
-      <c r="B44" s="140" t="s">
+      <c r="B44" s="118" t="s">
         <v>262</v>
       </c>
       <c r="C44" s="62" t="s">
@@ -6075,11 +6067,11 @@
       </c>
       <c r="H44" s="72"/>
     </row>
-    <row r="45" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="61" t="s">
         <v>277</v>
       </c>
-      <c r="B45" s="140"/>
+      <c r="B45" s="118"/>
       <c r="C45" s="62" t="s">
         <v>387</v>
       </c>
@@ -6095,11 +6087,11 @@
       </c>
       <c r="H45" s="72"/>
     </row>
-    <row r="46" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="61" t="s">
         <v>278</v>
       </c>
-      <c r="B46" s="140"/>
+      <c r="B46" s="118"/>
       <c r="C46" s="62" t="s">
         <v>412</v>
       </c>
@@ -6117,11 +6109,11 @@
       </c>
       <c r="H46" s="72"/>
     </row>
-    <row r="47" spans="1:8" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="85" t="s">
         <v>279</v>
       </c>
-      <c r="B47" s="141"/>
+      <c r="B47" s="119"/>
       <c r="C47" s="75" t="s">
         <v>413</v>
       </c>
@@ -6143,7 +6135,7 @@
       <c r="A48" s="86" t="s">
         <v>280</v>
       </c>
-      <c r="B48" s="142" t="s">
+      <c r="B48" s="120" t="s">
         <v>206</v>
       </c>
       <c r="C48" s="87" t="s">
@@ -6152,13 +6144,13 @@
       <c r="D48" s="88" t="s">
         <v>323</v>
       </c>
-      <c r="E48" s="116">
+      <c r="E48" s="129">
         <v>43757</v>
       </c>
-      <c r="F48" s="117" t="s">
+      <c r="F48" s="130" t="s">
         <v>445</v>
       </c>
-      <c r="G48" s="115">
+      <c r="G48" s="128">
         <v>2</v>
       </c>
       <c r="H48" s="89"/>
@@ -6167,20 +6159,20 @@
       <c r="A49" s="61" t="s">
         <v>281</v>
       </c>
-      <c r="B49" s="143"/>
+      <c r="B49" s="121"/>
       <c r="C49" s="71" t="s">
         <v>414</v>
       </c>
       <c r="D49" s="67" t="s">
         <v>311</v>
       </c>
-      <c r="E49" s="116">
+      <c r="E49" s="129">
         <v>43757</v>
       </c>
-      <c r="F49" s="118" t="s">
+      <c r="F49" s="131" t="s">
         <v>442</v>
       </c>
-      <c r="G49" s="119">
+      <c r="G49" s="132">
         <v>2</v>
       </c>
       <c r="H49" s="72"/>
@@ -6189,7 +6181,7 @@
       <c r="A50" s="61" t="s">
         <v>282</v>
       </c>
-      <c r="B50" s="143"/>
+      <c r="B50" s="121"/>
       <c r="C50" s="62" t="s">
         <v>415</v>
       </c>
@@ -6209,20 +6201,20 @@
       <c r="A51" s="61" t="s">
         <v>283</v>
       </c>
-      <c r="B51" s="143"/>
+      <c r="B51" s="121"/>
       <c r="C51" s="62" t="s">
         <v>429</v>
       </c>
       <c r="D51" s="67" t="s">
         <v>344</v>
       </c>
-      <c r="E51" s="120">
+      <c r="E51" s="133">
         <v>43757</v>
       </c>
-      <c r="F51" s="117" t="s">
+      <c r="F51" s="130" t="s">
         <v>442</v>
       </c>
-      <c r="G51" s="119">
+      <c r="G51" s="132">
         <v>3</v>
       </c>
       <c r="H51" s="72"/>
@@ -6231,7 +6223,7 @@
       <c r="A52" s="61" t="s">
         <v>284</v>
       </c>
-      <c r="B52" s="143"/>
+      <c r="B52" s="121"/>
       <c r="C52" s="62" t="s">
         <v>435</v>
       </c>
@@ -6251,20 +6243,20 @@
       <c r="A53" s="61" t="s">
         <v>285</v>
       </c>
-      <c r="B53" s="143"/>
+      <c r="B53" s="121"/>
       <c r="C53" s="62" t="s">
         <v>430</v>
       </c>
       <c r="D53" s="67" t="s">
         <v>259</v>
       </c>
-      <c r="E53" s="121">
+      <c r="E53" s="134">
         <v>43757</v>
       </c>
-      <c r="F53" s="117" t="s">
+      <c r="F53" s="130" t="s">
         <v>442</v>
       </c>
-      <c r="G53" s="119">
+      <c r="G53" s="132">
         <v>3</v>
       </c>
       <c r="H53" s="72"/>
@@ -6273,7 +6265,7 @@
       <c r="A54" s="61" t="s">
         <v>286</v>
       </c>
-      <c r="B54" s="143" t="s">
+      <c r="B54" s="121" t="s">
         <v>436</v>
       </c>
       <c r="C54" s="71" t="s">
@@ -6282,7 +6274,7 @@
       <c r="D54" s="112" t="s">
         <v>342</v>
       </c>
-      <c r="E54" s="128">
+      <c r="E54" s="141">
         <v>43767</v>
       </c>
       <c r="F54" s="108" t="s">
@@ -6297,18 +6289,18 @@
       <c r="A55" s="61" t="s">
         <v>287</v>
       </c>
-      <c r="B55" s="143"/>
-      <c r="C55" s="127" t="s">
+      <c r="B55" s="121"/>
+      <c r="C55" s="140" t="s">
         <v>418</v>
       </c>
       <c r="D55" s="70" t="s">
         <v>341</v>
       </c>
-      <c r="E55" s="128"/>
-      <c r="F55" s="129" t="s">
+      <c r="E55" s="141"/>
+      <c r="F55" s="142" t="s">
         <v>442</v>
       </c>
-      <c r="G55" s="130">
+      <c r="G55" s="143">
         <v>2</v>
       </c>
       <c r="H55" s="72"/>
@@ -6317,7 +6309,7 @@
       <c r="A56" s="61" t="s">
         <v>288</v>
       </c>
-      <c r="B56" s="143"/>
+      <c r="B56" s="121"/>
       <c r="C56" s="71" t="s">
         <v>387</v>
       </c>
@@ -6337,20 +6329,20 @@
       <c r="A57" s="61" t="s">
         <v>289</v>
       </c>
-      <c r="B57" s="143"/>
-      <c r="C57" s="127" t="s">
+      <c r="B57" s="121"/>
+      <c r="C57" s="140" t="s">
         <v>419</v>
       </c>
       <c r="D57" s="70" t="s">
         <v>339</v>
       </c>
-      <c r="E57" s="128">
+      <c r="E57" s="141">
         <v>43767</v>
       </c>
-      <c r="F57" s="129" t="s">
+      <c r="F57" s="142" t="s">
         <v>442</v>
       </c>
-      <c r="G57" s="130">
+      <c r="G57" s="143">
         <v>3</v>
       </c>
       <c r="H57" s="72"/>
@@ -6359,20 +6351,20 @@
       <c r="A58" s="61" t="s">
         <v>290</v>
       </c>
-      <c r="B58" s="143"/>
-      <c r="C58" s="131" t="s">
+      <c r="B58" s="121"/>
+      <c r="C58" s="144" t="s">
         <v>431</v>
       </c>
       <c r="D58" s="70" t="s">
         <v>437</v>
       </c>
-      <c r="E58" s="128">
+      <c r="E58" s="141">
         <v>43767</v>
       </c>
-      <c r="F58" s="132" t="s">
+      <c r="F58" s="145" t="s">
         <v>442</v>
       </c>
-      <c r="G58" s="130">
+      <c r="G58" s="143">
         <v>3</v>
       </c>
       <c r="H58" s="72"/>
@@ -6381,20 +6373,20 @@
       <c r="A59" s="61" t="s">
         <v>291</v>
       </c>
-      <c r="B59" s="143"/>
-      <c r="C59" s="127" t="s">
+      <c r="B59" s="121"/>
+      <c r="C59" s="140" t="s">
         <v>420</v>
       </c>
       <c r="D59" s="70" t="s">
         <v>338</v>
       </c>
-      <c r="E59" s="128">
+      <c r="E59" s="141">
         <v>43767</v>
       </c>
-      <c r="F59" s="129" t="s">
+      <c r="F59" s="142" t="s">
         <v>442</v>
       </c>
-      <c r="G59" s="130">
+      <c r="G59" s="143">
         <v>3</v>
       </c>
       <c r="H59" s="72"/>
@@ -6403,18 +6395,18 @@
       <c r="A60" s="61" t="s">
         <v>292</v>
       </c>
-      <c r="B60" s="143"/>
-      <c r="C60" s="127" t="s">
+      <c r="B60" s="121"/>
+      <c r="C60" s="140" t="s">
         <v>421</v>
       </c>
       <c r="D60" s="70" t="s">
         <v>448</v>
       </c>
-      <c r="E60" s="128"/>
-      <c r="F60" s="132" t="s">
+      <c r="E60" s="141"/>
+      <c r="F60" s="145" t="s">
         <v>442</v>
       </c>
-      <c r="G60" s="130">
+      <c r="G60" s="143">
         <v>3</v>
       </c>
       <c r="H60" s="72"/>
@@ -6423,7 +6415,7 @@
       <c r="A61" s="61" t="s">
         <v>293</v>
       </c>
-      <c r="B61" s="143"/>
+      <c r="B61" s="121"/>
       <c r="C61" s="77" t="s">
         <v>432</v>
       </c>
@@ -6443,7 +6435,7 @@
       <c r="A62" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="B62" s="143"/>
+      <c r="B62" s="121"/>
       <c r="C62" s="71" t="s">
         <v>422</v>
       </c>
@@ -6463,7 +6455,7 @@
       <c r="A63" s="61" t="s">
         <v>295</v>
       </c>
-      <c r="B63" s="143"/>
+      <c r="B63" s="121"/>
       <c r="C63" s="71" t="s">
         <v>423</v>
       </c>
@@ -6483,7 +6475,7 @@
       <c r="A64" s="61" t="s">
         <v>296</v>
       </c>
-      <c r="B64" s="143"/>
+      <c r="B64" s="121"/>
       <c r="C64" s="77" t="s">
         <v>433</v>
       </c>
@@ -6503,18 +6495,18 @@
       <c r="A65" s="61" t="s">
         <v>297</v>
       </c>
-      <c r="B65" s="143"/>
-      <c r="C65" s="127" t="s">
+      <c r="B65" s="121"/>
+      <c r="C65" s="140" t="s">
         <v>424</v>
       </c>
       <c r="D65" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="E65" s="128"/>
-      <c r="F65" s="129" t="s">
+      <c r="E65" s="141"/>
+      <c r="F65" s="142" t="s">
         <v>442</v>
       </c>
-      <c r="G65" s="130">
+      <c r="G65" s="143">
         <v>2</v>
       </c>
       <c r="H65" s="72"/>
@@ -6523,7 +6515,7 @@
       <c r="A66" s="61" t="s">
         <v>298</v>
       </c>
-      <c r="B66" s="143" t="s">
+      <c r="B66" s="121" t="s">
         <v>176</v>
       </c>
       <c r="C66" s="62" t="s">
@@ -6547,7 +6539,7 @@
       <c r="A67" s="61" t="s">
         <v>299</v>
       </c>
-      <c r="B67" s="143"/>
+      <c r="B67" s="121"/>
       <c r="C67" s="62" t="s">
         <v>425</v>
       </c>
@@ -6569,7 +6561,7 @@
       <c r="A68" s="61" t="s">
         <v>300</v>
       </c>
-      <c r="B68" s="143"/>
+      <c r="B68" s="121"/>
       <c r="C68" s="62" t="s">
         <v>426</v>
       </c>
@@ -6591,7 +6583,7 @@
       <c r="A69" s="61" t="s">
         <v>301</v>
       </c>
-      <c r="B69" s="143"/>
+      <c r="B69" s="121"/>
       <c r="C69" s="62" t="s">
         <v>427</v>
       </c>
@@ -6609,11 +6601,11 @@
       </c>
       <c r="H69" s="72"/>
     </row>
-    <row r="70" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="B70" s="144"/>
+      <c r="B70" s="122"/>
       <c r="C70" s="79" t="s">
         <v>387</v>
       </c>
@@ -6631,11 +6623,11 @@
       </c>
       <c r="H70" s="80"/>
     </row>
-    <row r="71" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A71" s="81" t="s">
         <v>303</v>
       </c>
-      <c r="B71" s="135" t="s">
+      <c r="B71" s="113" t="s">
         <v>31</v>
       </c>
       <c r="C71" s="82" t="s">
@@ -6644,44 +6636,44 @@
       <c r="D71" s="83" t="s">
         <v>324</v>
       </c>
-      <c r="E71" s="122">
+      <c r="E71" s="135">
         <v>43757</v>
       </c>
-      <c r="F71" s="114" t="s">
+      <c r="F71" s="127" t="s">
         <v>443</v>
       </c>
-      <c r="G71" s="114">
+      <c r="G71" s="127">
         <v>3</v>
       </c>
       <c r="H71" s="84"/>
     </row>
-    <row r="72" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="61" t="s">
         <v>304</v>
       </c>
-      <c r="B72" s="136"/>
+      <c r="B72" s="114"/>
       <c r="C72" s="62" t="s">
         <v>196</v>
       </c>
       <c r="D72" s="63" t="s">
         <v>325</v>
       </c>
-      <c r="E72" s="120">
+      <c r="E72" s="133">
         <v>43757</v>
       </c>
-      <c r="F72" s="118" t="s">
+      <c r="F72" s="131" t="s">
         <v>443</v>
       </c>
-      <c r="G72" s="123">
+      <c r="G72" s="136">
         <v>3</v>
       </c>
       <c r="H72" s="72"/>
     </row>
-    <row r="73" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A73" s="61" t="s">
         <v>305</v>
       </c>
-      <c r="B73" s="136"/>
+      <c r="B73" s="114"/>
       <c r="C73" s="73" t="s">
         <v>33</v>
       </c>
@@ -6697,11 +6689,11 @@
       </c>
       <c r="H73" s="72"/>
     </row>
-    <row r="74" spans="1:8" ht="47.25" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A74" s="61" t="s">
         <v>306</v>
       </c>
-      <c r="B74" s="136"/>
+      <c r="B74" s="114"/>
       <c r="C74" s="73" t="s">
         <v>34</v>
       </c>
@@ -6717,11 +6709,11 @@
       </c>
       <c r="H74" s="72"/>
     </row>
-    <row r="75" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A75" s="61" t="s">
         <v>307</v>
       </c>
-      <c r="B75" s="136"/>
+      <c r="B75" s="114"/>
       <c r="C75" s="62" t="s">
         <v>428</v>
       </c>
@@ -6737,156 +6729,156 @@
       </c>
       <c r="H75" s="72"/>
     </row>
-    <row r="76" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="61" t="s">
         <v>308</v>
       </c>
-      <c r="B76" s="136"/>
+      <c r="B76" s="114"/>
       <c r="C76" s="62" t="s">
         <v>37</v>
       </c>
       <c r="D76" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="E76" s="120">
+      <c r="E76" s="133">
         <v>43757</v>
       </c>
-      <c r="F76" s="118" t="s">
+      <c r="F76" s="131" t="s">
         <v>443</v>
       </c>
-      <c r="G76" s="123">
+      <c r="G76" s="136">
         <v>1</v>
       </c>
       <c r="H76" s="72"/>
     </row>
-    <row r="77" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A77" s="61" t="s">
         <v>309</v>
       </c>
-      <c r="B77" s="136"/>
+      <c r="B77" s="114"/>
       <c r="C77" s="62" t="s">
         <v>38</v>
       </c>
       <c r="D77" s="63" t="s">
         <v>312</v>
       </c>
-      <c r="E77" s="120">
+      <c r="E77" s="133">
         <v>43757</v>
       </c>
-      <c r="F77" s="118" t="s">
+      <c r="F77" s="131" t="s">
         <v>443</v>
       </c>
-      <c r="G77" s="123">
+      <c r="G77" s="136">
         <v>3</v>
       </c>
       <c r="H77" s="72"/>
     </row>
-    <row r="78" spans="1:8" ht="31.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A78" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="B78" s="136"/>
+      <c r="B78" s="114"/>
       <c r="C78" s="62" t="s">
         <v>39</v>
       </c>
       <c r="D78" s="63" t="s">
         <v>326</v>
       </c>
-      <c r="E78" s="120">
+      <c r="E78" s="133">
         <v>43757</v>
       </c>
-      <c r="F78" s="118" t="s">
+      <c r="F78" s="131" t="s">
         <v>443</v>
       </c>
-      <c r="G78" s="123">
+      <c r="G78" s="136">
         <v>3</v>
       </c>
       <c r="H78" s="72"/>
     </row>
-    <row r="79" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="61" t="s">
         <v>313</v>
       </c>
-      <c r="B79" s="136"/>
+      <c r="B79" s="114"/>
       <c r="C79" s="62" t="s">
         <v>320</v>
       </c>
       <c r="D79" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="E79" s="120">
+      <c r="E79" s="133">
         <v>43757</v>
       </c>
-      <c r="F79" s="118" t="s">
+      <c r="F79" s="131" t="s">
         <v>443</v>
       </c>
-      <c r="G79" s="123">
+      <c r="G79" s="136">
         <v>3</v>
       </c>
       <c r="H79" s="58"/>
     </row>
-    <row r="80" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="61" t="s">
         <v>314</v>
       </c>
-      <c r="B80" s="136"/>
+      <c r="B80" s="114"/>
       <c r="C80" s="64" t="s">
         <v>203</v>
       </c>
       <c r="D80" s="65" t="s">
         <v>381</v>
       </c>
-      <c r="E80" s="128">
+      <c r="E80" s="141">
         <v>43767</v>
       </c>
-      <c r="F80" s="132" t="s">
+      <c r="F80" s="145" t="s">
         <v>443</v>
       </c>
-      <c r="G80" s="133">
+      <c r="G80" s="146">
         <v>1</v>
       </c>
       <c r="H80" s="58"/>
     </row>
-    <row r="81" spans="1:8" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="61" t="s">
         <v>315</v>
       </c>
-      <c r="B81" s="136"/>
+      <c r="B81" s="114"/>
       <c r="C81" s="64" t="s">
         <v>42</v>
       </c>
       <c r="D81" s="65" t="s">
         <v>446</v>
       </c>
-      <c r="E81" s="128">
+      <c r="E81" s="141">
         <v>43767</v>
       </c>
-      <c r="F81" s="132" t="s">
+      <c r="F81" s="145" t="s">
         <v>443</v>
       </c>
-      <c r="G81" s="134">
+      <c r="G81" s="147">
         <v>3</v>
       </c>
       <c r="H81" s="58"/>
     </row>
-    <row r="82" spans="1:8" ht="17.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="85" t="s">
         <v>316</v>
       </c>
-      <c r="B82" s="137"/>
+      <c r="B82" s="115"/>
       <c r="C82" s="75" t="s">
         <v>43</v>
       </c>
       <c r="D82" s="76" t="s">
         <v>380</v>
       </c>
-      <c r="E82" s="124">
+      <c r="E82" s="137">
         <v>43757</v>
       </c>
-      <c r="F82" s="125" t="s">
+      <c r="F82" s="138" t="s">
         <v>443</v>
       </c>
-      <c r="G82" s="126">
+      <c r="G82" s="139">
         <v>1</v>
       </c>
       <c r="H82" s="60"/>
@@ -6986,13 +6978,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H82">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="홍승표"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:H82"/>
   <mergeCells count="11">
     <mergeCell ref="B71:B82"/>
     <mergeCell ref="B2:B4"/>

--- a/설계및정의서/기능리스트_AR 레이싱 게임 v0.1.xlsx
+++ b/설계및정의서/기능리스트_AR 레이싱 게임 v0.1.xlsx
@@ -15,7 +15,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$H$82</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2867,9 +2866,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2879,45 +2875,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="16" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2982,6 +2939,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5111,8 +5110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5157,7 +5156,7 @@
       <c r="A2" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="138" t="s">
         <v>110</v>
       </c>
       <c r="C2" s="90" t="s">
@@ -5179,14 +5178,16 @@
       <c r="A3" s="61" t="s">
         <v>261</v>
       </c>
-      <c r="B3" s="117"/>
+      <c r="B3" s="139"/>
       <c r="C3" s="64" t="s">
         <v>384</v>
       </c>
       <c r="D3" s="65" t="s">
         <v>379</v>
       </c>
-      <c r="E3" s="68"/>
+      <c r="E3" s="134">
+        <v>43771</v>
+      </c>
       <c r="F3" s="104" t="s">
         <v>442</v>
       </c>
@@ -5199,14 +5200,16 @@
       <c r="A4" s="61" t="s">
         <v>263</v>
       </c>
-      <c r="B4" s="117"/>
+      <c r="B4" s="139"/>
       <c r="C4" s="64" t="s">
         <v>383</v>
       </c>
       <c r="D4" s="65" t="s">
         <v>378</v>
       </c>
-      <c r="E4" s="68"/>
+      <c r="E4" s="134">
+        <v>43771</v>
+      </c>
       <c r="F4" s="104" t="s">
         <v>442</v>
       </c>
@@ -5219,7 +5222,7 @@
       <c r="A5" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="139" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="64" t="s">
@@ -5228,7 +5231,9 @@
       <c r="D5" s="67" t="s">
         <v>377</v>
       </c>
-      <c r="E5" s="68"/>
+      <c r="E5" s="134">
+        <v>43771</v>
+      </c>
       <c r="F5" s="104" t="s">
         <v>442</v>
       </c>
@@ -5244,7 +5249,7 @@
       <c r="A6" s="61" t="s">
         <v>265</v>
       </c>
-      <c r="B6" s="117"/>
+      <c r="B6" s="139"/>
       <c r="C6" s="62" t="s">
         <v>77</v>
       </c>
@@ -5267,14 +5272,16 @@
       <c r="A7" s="61" t="s">
         <v>266</v>
       </c>
-      <c r="B7" s="117"/>
+      <c r="B7" s="139"/>
       <c r="C7" s="62" t="s">
         <v>376</v>
       </c>
       <c r="D7" s="63" t="s">
         <v>375</v>
       </c>
-      <c r="E7" s="68"/>
+      <c r="E7" s="134">
+        <v>43771</v>
+      </c>
       <c r="F7" s="104" t="s">
         <v>442</v>
       </c>
@@ -5290,14 +5297,16 @@
       <c r="A8" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="117"/>
+      <c r="B8" s="139"/>
       <c r="C8" s="64" t="s">
         <v>385</v>
       </c>
       <c r="D8" s="65" t="s">
         <v>370</v>
       </c>
-      <c r="E8" s="68"/>
+      <c r="E8" s="134">
+        <v>43771</v>
+      </c>
       <c r="F8" s="104" t="s">
         <v>442</v>
       </c>
@@ -5313,14 +5322,16 @@
       <c r="A9" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="117"/>
+      <c r="B9" s="139"/>
       <c r="C9" s="64" t="s">
         <v>386</v>
       </c>
       <c r="D9" s="65" t="s">
         <v>367</v>
       </c>
-      <c r="E9" s="68"/>
+      <c r="E9" s="134">
+        <v>43771</v>
+      </c>
       <c r="F9" s="104" t="s">
         <v>442</v>
       </c>
@@ -5336,14 +5347,16 @@
       <c r="A10" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="117"/>
+      <c r="B10" s="139"/>
       <c r="C10" s="62" t="s">
         <v>387</v>
       </c>
       <c r="D10" s="57" t="s">
         <v>340</v>
       </c>
-      <c r="E10" s="68"/>
+      <c r="E10" s="134">
+        <v>43771</v>
+      </c>
       <c r="F10" s="104" t="s">
         <v>442</v>
       </c>
@@ -5359,7 +5372,7 @@
       <c r="A11" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="117" t="s">
+      <c r="B11" s="139" t="s">
         <v>140</v>
       </c>
       <c r="C11" s="64" t="s">
@@ -5384,7 +5397,7 @@
       <c r="A12" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="117"/>
+      <c r="B12" s="139"/>
       <c r="C12" s="64" t="s">
         <v>388</v>
       </c>
@@ -5407,7 +5420,7 @@
       <c r="A13" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="117"/>
+      <c r="B13" s="139"/>
       <c r="C13" s="64" t="s">
         <v>390</v>
       </c>
@@ -5427,7 +5440,7 @@
       <c r="A14" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="117"/>
+      <c r="B14" s="139"/>
       <c r="C14" s="64" t="s">
         <v>391</v>
       </c>
@@ -5447,7 +5460,7 @@
       <c r="A15" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="117"/>
+      <c r="B15" s="139"/>
       <c r="C15" s="62" t="s">
         <v>387</v>
       </c>
@@ -5467,7 +5480,7 @@
       <c r="A16" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="117" t="s">
+      <c r="B16" s="139" t="s">
         <v>146</v>
       </c>
       <c r="C16" s="64" t="s">
@@ -5476,7 +5489,9 @@
       <c r="D16" s="65" t="s">
         <v>370</v>
       </c>
-      <c r="E16" s="68"/>
+      <c r="E16" s="134">
+        <v>43771</v>
+      </c>
       <c r="F16" s="104" t="s">
         <v>442</v>
       </c>
@@ -5489,14 +5504,16 @@
       <c r="A17" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="117"/>
+      <c r="B17" s="139"/>
       <c r="C17" s="64" t="s">
         <v>388</v>
       </c>
       <c r="D17" s="65" t="s">
         <v>369</v>
       </c>
-      <c r="E17" s="68"/>
+      <c r="E17" s="134">
+        <v>43771</v>
+      </c>
       <c r="F17" s="104" t="s">
         <v>442</v>
       </c>
@@ -5509,14 +5526,16 @@
       <c r="A18" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="117"/>
+      <c r="B18" s="139"/>
       <c r="C18" s="64" t="s">
         <v>392</v>
       </c>
       <c r="D18" s="65" t="s">
         <v>368</v>
       </c>
-      <c r="E18" s="68"/>
+      <c r="E18" s="134">
+        <v>43771</v>
+      </c>
       <c r="F18" s="104" t="s">
         <v>442</v>
       </c>
@@ -5529,7 +5548,7 @@
       <c r="A19" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="117"/>
+      <c r="B19" s="139"/>
       <c r="C19" s="64" t="s">
         <v>393</v>
       </c>
@@ -5549,7 +5568,7 @@
       <c r="A20" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="117"/>
+      <c r="B20" s="139"/>
       <c r="C20" s="64" t="s">
         <v>394</v>
       </c>
@@ -5569,7 +5588,7 @@
       <c r="A21" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="117"/>
+      <c r="B21" s="139"/>
       <c r="C21" s="64" t="s">
         <v>395</v>
       </c>
@@ -5589,14 +5608,16 @@
       <c r="A22" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="117"/>
+      <c r="B22" s="139"/>
       <c r="C22" s="62" t="s">
         <v>387</v>
       </c>
       <c r="D22" s="57" t="s">
         <v>340</v>
       </c>
-      <c r="E22" s="68"/>
+      <c r="E22" s="134">
+        <v>43771</v>
+      </c>
       <c r="F22" s="104" t="s">
         <v>442</v>
       </c>
@@ -5609,7 +5630,7 @@
       <c r="A23" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="117" t="s">
+      <c r="B23" s="139" t="s">
         <v>79</v>
       </c>
       <c r="C23" s="62" t="s">
@@ -5618,7 +5639,9 @@
       <c r="D23" s="63" t="s">
         <v>365</v>
       </c>
-      <c r="E23" s="68"/>
+      <c r="E23" s="134">
+        <v>43771</v>
+      </c>
       <c r="F23" s="104" t="s">
         <v>442</v>
       </c>
@@ -5631,14 +5654,16 @@
       <c r="A24" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="117"/>
+      <c r="B24" s="139"/>
       <c r="C24" s="62" t="s">
         <v>397</v>
       </c>
       <c r="D24" s="63" t="s">
         <v>364</v>
       </c>
-      <c r="E24" s="68"/>
+      <c r="E24" s="134">
+        <v>43771</v>
+      </c>
       <c r="F24" s="104" t="s">
         <v>442</v>
       </c>
@@ -5651,14 +5676,16 @@
       <c r="A25" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="117"/>
+      <c r="B25" s="139"/>
       <c r="C25" s="64" t="s">
         <v>398</v>
       </c>
       <c r="D25" s="65" t="s">
         <v>363</v>
       </c>
-      <c r="E25" s="68"/>
+      <c r="E25" s="134">
+        <v>43771</v>
+      </c>
       <c r="F25" s="104" t="s">
         <v>442</v>
       </c>
@@ -5671,14 +5698,16 @@
       <c r="A26" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="117"/>
+      <c r="B26" s="139"/>
       <c r="C26" s="64" t="s">
         <v>399</v>
       </c>
       <c r="D26" s="65" t="s">
         <v>362</v>
       </c>
-      <c r="E26" s="68"/>
+      <c r="E26" s="134">
+        <v>43771</v>
+      </c>
       <c r="F26" s="104" t="s">
         <v>442</v>
       </c>
@@ -5691,14 +5720,16 @@
       <c r="A27" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="117"/>
+      <c r="B27" s="139"/>
       <c r="C27" s="64" t="s">
         <v>400</v>
       </c>
       <c r="D27" s="65" t="s">
         <v>361</v>
       </c>
-      <c r="E27" s="68"/>
+      <c r="E27" s="134">
+        <v>43771</v>
+      </c>
       <c r="F27" s="104" t="s">
         <v>442</v>
       </c>
@@ -5711,14 +5742,16 @@
       <c r="A28" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="117"/>
+      <c r="B28" s="139"/>
       <c r="C28" s="62" t="s">
         <v>401</v>
       </c>
       <c r="D28" s="67" t="s">
         <v>360</v>
       </c>
-      <c r="E28" s="68"/>
+      <c r="E28" s="134">
+        <v>43771</v>
+      </c>
       <c r="F28" s="104" t="s">
         <v>442</v>
       </c>
@@ -5731,14 +5764,16 @@
       <c r="A29" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="117"/>
+      <c r="B29" s="139"/>
       <c r="C29" s="62" t="s">
         <v>402</v>
       </c>
       <c r="D29" s="67" t="s">
         <v>359</v>
       </c>
-      <c r="E29" s="68"/>
+      <c r="E29" s="134">
+        <v>43771</v>
+      </c>
       <c r="F29" s="104" t="s">
         <v>442</v>
       </c>
@@ -5751,14 +5786,16 @@
       <c r="A30" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="117"/>
+      <c r="B30" s="139"/>
       <c r="C30" s="62" t="s">
         <v>403</v>
       </c>
       <c r="D30" s="67" t="s">
         <v>358</v>
       </c>
-      <c r="E30" s="68"/>
+      <c r="E30" s="134">
+        <v>43771</v>
+      </c>
       <c r="F30" s="104" t="s">
         <v>442</v>
       </c>
@@ -5771,14 +5808,16 @@
       <c r="A31" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="117"/>
+      <c r="B31" s="139"/>
       <c r="C31" s="62" t="s">
         <v>404</v>
       </c>
       <c r="D31" s="67" t="s">
         <v>357</v>
       </c>
-      <c r="E31" s="68"/>
+      <c r="E31" s="134">
+        <v>43771</v>
+      </c>
       <c r="F31" s="104" t="s">
         <v>442</v>
       </c>
@@ -5791,14 +5830,16 @@
       <c r="A32" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="117"/>
+      <c r="B32" s="139"/>
       <c r="C32" s="62" t="s">
         <v>405</v>
       </c>
       <c r="D32" s="67" t="s">
         <v>356</v>
       </c>
-      <c r="E32" s="68"/>
+      <c r="E32" s="134">
+        <v>43771</v>
+      </c>
       <c r="F32" s="104" t="s">
         <v>442</v>
       </c>
@@ -5811,14 +5852,16 @@
       <c r="A33" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="117"/>
+      <c r="B33" s="139"/>
       <c r="C33" s="62" t="s">
         <v>406</v>
       </c>
       <c r="D33" s="67" t="s">
         <v>355</v>
       </c>
-      <c r="E33" s="68"/>
+      <c r="E33" s="134">
+        <v>43771</v>
+      </c>
       <c r="F33" s="104" t="s">
         <v>442</v>
       </c>
@@ -5831,14 +5874,16 @@
       <c r="A34" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="117"/>
+      <c r="B34" s="139"/>
       <c r="C34" s="62" t="s">
         <v>416</v>
       </c>
       <c r="D34" s="67" t="s">
         <v>354</v>
       </c>
-      <c r="E34" s="68"/>
+      <c r="E34" s="134">
+        <v>43771</v>
+      </c>
       <c r="F34" s="104" t="s">
         <v>442</v>
       </c>
@@ -5851,14 +5896,16 @@
       <c r="A35" s="85" t="s">
         <v>267</v>
       </c>
-      <c r="B35" s="123"/>
+      <c r="B35" s="145"/>
       <c r="C35" s="75" t="s">
         <v>407</v>
       </c>
       <c r="D35" s="59" t="s">
         <v>340</v>
       </c>
-      <c r="E35" s="109"/>
+      <c r="E35" s="134">
+        <v>43771</v>
+      </c>
       <c r="F35" s="104" t="s">
         <v>442</v>
       </c>
@@ -5871,7 +5918,7 @@
       <c r="A36" s="81" t="s">
         <v>268</v>
       </c>
-      <c r="B36" s="124" t="s">
+      <c r="B36" s="146" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="90" t="s">
@@ -5880,13 +5927,11 @@
       <c r="D36" s="91" t="s">
         <v>321</v>
       </c>
-      <c r="E36" s="126">
-        <v>43757</v>
-      </c>
-      <c r="F36" s="127" t="s">
+      <c r="E36" s="112"/>
+      <c r="F36" s="113" t="s">
         <v>443</v>
       </c>
-      <c r="G36" s="128">
+      <c r="G36" s="114">
         <v>3</v>
       </c>
       <c r="H36" s="92"/>
@@ -5895,16 +5940,14 @@
       <c r="A37" s="61" t="s">
         <v>269</v>
       </c>
-      <c r="B37" s="125"/>
+      <c r="B37" s="147"/>
       <c r="C37" s="64" t="s">
         <v>408</v>
       </c>
       <c r="D37" s="70" t="s">
         <v>322</v>
       </c>
-      <c r="E37" s="111">
-        <v>43767</v>
-      </c>
+      <c r="E37" s="110"/>
       <c r="F37" s="105" t="s">
         <v>443</v>
       </c>
@@ -5917,7 +5960,7 @@
       <c r="A38" s="61" t="s">
         <v>270</v>
       </c>
-      <c r="B38" s="125"/>
+      <c r="B38" s="147"/>
       <c r="C38" s="64" t="s">
         <v>387</v>
       </c>
@@ -5937,20 +5980,18 @@
       <c r="A39" s="61" t="s">
         <v>271</v>
       </c>
-      <c r="B39" s="125"/>
+      <c r="B39" s="147"/>
       <c r="C39" s="64" t="s">
         <v>409</v>
       </c>
       <c r="D39" s="70" t="s">
         <v>352</v>
       </c>
-      <c r="E39" s="141">
-        <v>43767</v>
-      </c>
-      <c r="F39" s="145" t="s">
+      <c r="E39" s="127"/>
+      <c r="F39" s="131" t="s">
         <v>443</v>
       </c>
-      <c r="G39" s="143">
+      <c r="G39" s="129">
         <v>3</v>
       </c>
       <c r="H39" s="72"/>
@@ -5959,20 +6000,18 @@
       <c r="A40" s="61" t="s">
         <v>272</v>
       </c>
-      <c r="B40" s="125"/>
+      <c r="B40" s="147"/>
       <c r="C40" s="64" t="s">
         <v>434</v>
       </c>
       <c r="D40" s="70" t="s">
         <v>351</v>
       </c>
-      <c r="E40" s="141">
-        <v>43767</v>
-      </c>
-      <c r="F40" s="145" t="s">
+      <c r="E40" s="127"/>
+      <c r="F40" s="131" t="s">
         <v>443</v>
       </c>
-      <c r="G40" s="143">
+      <c r="G40" s="129">
         <v>3</v>
       </c>
       <c r="H40" s="72"/>
@@ -5981,16 +6020,14 @@
       <c r="A41" s="61" t="s">
         <v>273</v>
       </c>
-      <c r="B41" s="125"/>
+      <c r="B41" s="147"/>
       <c r="C41" s="64" t="s">
         <v>233</v>
       </c>
       <c r="D41" s="70" t="s">
         <v>350</v>
       </c>
-      <c r="E41" s="111">
-        <v>43767</v>
-      </c>
+      <c r="E41" s="110"/>
       <c r="F41" s="105" t="s">
         <v>443</v>
       </c>
@@ -6003,16 +6040,14 @@
       <c r="A42" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="B42" s="125"/>
+      <c r="B42" s="147"/>
       <c r="C42" s="62" t="s">
         <v>410</v>
       </c>
       <c r="D42" s="67" t="s">
         <v>349</v>
       </c>
-      <c r="E42" s="111">
-        <v>43767</v>
-      </c>
+      <c r="E42" s="110"/>
       <c r="F42" s="105" t="s">
         <v>443</v>
       </c>
@@ -6025,16 +6060,14 @@
       <c r="A43" s="61" t="s">
         <v>275</v>
       </c>
-      <c r="B43" s="125"/>
+      <c r="B43" s="147"/>
       <c r="C43" s="71" t="s">
         <v>411</v>
       </c>
       <c r="D43" s="67" t="s">
         <v>348</v>
       </c>
-      <c r="E43" s="111">
-        <v>43767</v>
-      </c>
+      <c r="E43" s="110"/>
       <c r="F43" s="105" t="s">
         <v>443</v>
       </c>
@@ -6047,7 +6080,7 @@
       <c r="A44" s="61" t="s">
         <v>276</v>
       </c>
-      <c r="B44" s="118" t="s">
+      <c r="B44" s="140" t="s">
         <v>262</v>
       </c>
       <c r="C44" s="62" t="s">
@@ -6056,9 +6089,7 @@
       <c r="D44" s="57" t="s">
         <v>447</v>
       </c>
-      <c r="E44" s="111">
-        <v>43767</v>
-      </c>
+      <c r="E44" s="110"/>
       <c r="F44" s="105" t="s">
         <v>443</v>
       </c>
@@ -6071,7 +6102,7 @@
       <c r="A45" s="61" t="s">
         <v>277</v>
       </c>
-      <c r="B45" s="118"/>
+      <c r="B45" s="140"/>
       <c r="C45" s="62" t="s">
         <v>387</v>
       </c>
@@ -6091,14 +6122,14 @@
       <c r="A46" s="61" t="s">
         <v>278</v>
       </c>
-      <c r="B46" s="118"/>
+      <c r="B46" s="140"/>
       <c r="C46" s="62" t="s">
         <v>412</v>
       </c>
       <c r="D46" s="57" t="s">
         <v>347</v>
       </c>
-      <c r="E46" s="111">
+      <c r="E46" s="110">
         <v>43767</v>
       </c>
       <c r="F46" s="105" t="s">
@@ -6113,17 +6144,17 @@
       <c r="A47" s="85" t="s">
         <v>279</v>
       </c>
-      <c r="B47" s="119"/>
+      <c r="B47" s="141"/>
       <c r="C47" s="75" t="s">
         <v>413</v>
       </c>
       <c r="D47" s="59" t="s">
         <v>346</v>
       </c>
-      <c r="E47" s="111">
+      <c r="E47" s="110">
         <v>43767</v>
       </c>
-      <c r="F47" s="110" t="s">
+      <c r="F47" s="109" t="s">
         <v>443</v>
       </c>
       <c r="G47" s="103">
@@ -6135,7 +6166,7 @@
       <c r="A48" s="86" t="s">
         <v>280</v>
       </c>
-      <c r="B48" s="120" t="s">
+      <c r="B48" s="142" t="s">
         <v>206</v>
       </c>
       <c r="C48" s="87" t="s">
@@ -6144,13 +6175,13 @@
       <c r="D48" s="88" t="s">
         <v>323</v>
       </c>
-      <c r="E48" s="129">
+      <c r="E48" s="115">
         <v>43757</v>
       </c>
-      <c r="F48" s="130" t="s">
+      <c r="F48" s="116" t="s">
         <v>445</v>
       </c>
-      <c r="G48" s="128">
+      <c r="G48" s="114">
         <v>2</v>
       </c>
       <c r="H48" s="89"/>
@@ -6159,20 +6190,20 @@
       <c r="A49" s="61" t="s">
         <v>281</v>
       </c>
-      <c r="B49" s="121"/>
+      <c r="B49" s="143"/>
       <c r="C49" s="71" t="s">
         <v>414</v>
       </c>
       <c r="D49" s="67" t="s">
         <v>311</v>
       </c>
-      <c r="E49" s="129">
+      <c r="E49" s="115">
         <v>43757</v>
       </c>
-      <c r="F49" s="131" t="s">
+      <c r="F49" s="117" t="s">
         <v>442</v>
       </c>
-      <c r="G49" s="132">
+      <c r="G49" s="118">
         <v>2</v>
       </c>
       <c r="H49" s="72"/>
@@ -6181,7 +6212,7 @@
       <c r="A50" s="61" t="s">
         <v>282</v>
       </c>
-      <c r="B50" s="121"/>
+      <c r="B50" s="143"/>
       <c r="C50" s="62" t="s">
         <v>415</v>
       </c>
@@ -6201,20 +6232,20 @@
       <c r="A51" s="61" t="s">
         <v>283</v>
       </c>
-      <c r="B51" s="121"/>
+      <c r="B51" s="143"/>
       <c r="C51" s="62" t="s">
         <v>429</v>
       </c>
       <c r="D51" s="67" t="s">
         <v>344</v>
       </c>
-      <c r="E51" s="133">
+      <c r="E51" s="119">
         <v>43757</v>
       </c>
-      <c r="F51" s="130" t="s">
+      <c r="F51" s="116" t="s">
         <v>442</v>
       </c>
-      <c r="G51" s="132">
+      <c r="G51" s="118">
         <v>3</v>
       </c>
       <c r="H51" s="72"/>
@@ -6223,14 +6254,16 @@
       <c r="A52" s="61" t="s">
         <v>284</v>
       </c>
-      <c r="B52" s="121"/>
+      <c r="B52" s="143"/>
       <c r="C52" s="62" t="s">
         <v>435</v>
       </c>
       <c r="D52" s="67" t="s">
         <v>343</v>
       </c>
-      <c r="E52" s="105"/>
+      <c r="E52" s="134">
+        <v>43771</v>
+      </c>
       <c r="F52" s="105" t="s">
         <v>442</v>
       </c>
@@ -6243,20 +6276,20 @@
       <c r="A53" s="61" t="s">
         <v>285</v>
       </c>
-      <c r="B53" s="121"/>
+      <c r="B53" s="143"/>
       <c r="C53" s="62" t="s">
         <v>430</v>
       </c>
       <c r="D53" s="67" t="s">
         <v>259</v>
       </c>
-      <c r="E53" s="134">
+      <c r="E53" s="120">
         <v>43757</v>
       </c>
-      <c r="F53" s="130" t="s">
+      <c r="F53" s="116" t="s">
         <v>442</v>
       </c>
-      <c r="G53" s="132">
+      <c r="G53" s="118">
         <v>3</v>
       </c>
       <c r="H53" s="72"/>
@@ -6265,16 +6298,16 @@
       <c r="A54" s="61" t="s">
         <v>286</v>
       </c>
-      <c r="B54" s="121" t="s">
+      <c r="B54" s="143" t="s">
         <v>436</v>
       </c>
       <c r="C54" s="71" t="s">
         <v>417</v>
       </c>
-      <c r="D54" s="112" t="s">
+      <c r="D54" s="111" t="s">
         <v>342</v>
       </c>
-      <c r="E54" s="141">
+      <c r="E54" s="127">
         <v>43767</v>
       </c>
       <c r="F54" s="108" t="s">
@@ -6289,18 +6322,20 @@
       <c r="A55" s="61" t="s">
         <v>287</v>
       </c>
-      <c r="B55" s="121"/>
-      <c r="C55" s="140" t="s">
+      <c r="B55" s="143"/>
+      <c r="C55" s="126" t="s">
         <v>418</v>
       </c>
       <c r="D55" s="70" t="s">
         <v>341</v>
       </c>
-      <c r="E55" s="141"/>
-      <c r="F55" s="142" t="s">
+      <c r="E55" s="134">
+        <v>43771</v>
+      </c>
+      <c r="F55" s="128" t="s">
         <v>442</v>
       </c>
-      <c r="G55" s="143">
+      <c r="G55" s="129">
         <v>2</v>
       </c>
       <c r="H55" s="72"/>
@@ -6309,14 +6344,16 @@
       <c r="A56" s="61" t="s">
         <v>288</v>
       </c>
-      <c r="B56" s="121"/>
+      <c r="B56" s="143"/>
       <c r="C56" s="71" t="s">
         <v>387</v>
       </c>
       <c r="D56" s="67" t="s">
         <v>340</v>
       </c>
-      <c r="E56" s="105"/>
+      <c r="E56" s="134">
+        <v>43771</v>
+      </c>
       <c r="F56" s="105" t="s">
         <v>442</v>
       </c>
@@ -6329,20 +6366,20 @@
       <c r="A57" s="61" t="s">
         <v>289</v>
       </c>
-      <c r="B57" s="121"/>
-      <c r="C57" s="140" t="s">
+      <c r="B57" s="143"/>
+      <c r="C57" s="126" t="s">
         <v>419</v>
       </c>
       <c r="D57" s="70" t="s">
         <v>339</v>
       </c>
-      <c r="E57" s="141">
+      <c r="E57" s="127">
         <v>43767</v>
       </c>
-      <c r="F57" s="142" t="s">
+      <c r="F57" s="128" t="s">
         <v>442</v>
       </c>
-      <c r="G57" s="143">
+      <c r="G57" s="129">
         <v>3</v>
       </c>
       <c r="H57" s="72"/>
@@ -6351,20 +6388,20 @@
       <c r="A58" s="61" t="s">
         <v>290</v>
       </c>
-      <c r="B58" s="121"/>
-      <c r="C58" s="144" t="s">
+      <c r="B58" s="143"/>
+      <c r="C58" s="130" t="s">
         <v>431</v>
       </c>
       <c r="D58" s="70" t="s">
         <v>437</v>
       </c>
-      <c r="E58" s="141">
+      <c r="E58" s="127">
         <v>43767</v>
       </c>
-      <c r="F58" s="145" t="s">
+      <c r="F58" s="131" t="s">
         <v>442</v>
       </c>
-      <c r="G58" s="143">
+      <c r="G58" s="129">
         <v>3</v>
       </c>
       <c r="H58" s="72"/>
@@ -6373,20 +6410,20 @@
       <c r="A59" s="61" t="s">
         <v>291</v>
       </c>
-      <c r="B59" s="121"/>
-      <c r="C59" s="140" t="s">
+      <c r="B59" s="143"/>
+      <c r="C59" s="126" t="s">
         <v>420</v>
       </c>
       <c r="D59" s="70" t="s">
         <v>338</v>
       </c>
-      <c r="E59" s="141">
+      <c r="E59" s="127">
         <v>43767</v>
       </c>
-      <c r="F59" s="142" t="s">
+      <c r="F59" s="128" t="s">
         <v>442</v>
       </c>
-      <c r="G59" s="143">
+      <c r="G59" s="129">
         <v>3</v>
       </c>
       <c r="H59" s="72"/>
@@ -6395,18 +6432,18 @@
       <c r="A60" s="61" t="s">
         <v>292</v>
       </c>
-      <c r="B60" s="121"/>
-      <c r="C60" s="140" t="s">
+      <c r="B60" s="143"/>
+      <c r="C60" s="126" t="s">
         <v>421</v>
       </c>
       <c r="D60" s="70" t="s">
         <v>448</v>
       </c>
-      <c r="E60" s="141"/>
-      <c r="F60" s="145" t="s">
+      <c r="E60" s="127"/>
+      <c r="F60" s="131" t="s">
         <v>442</v>
       </c>
-      <c r="G60" s="143">
+      <c r="G60" s="129">
         <v>3</v>
       </c>
       <c r="H60" s="72"/>
@@ -6415,7 +6452,7 @@
       <c r="A61" s="61" t="s">
         <v>293</v>
       </c>
-      <c r="B61" s="121"/>
+      <c r="B61" s="143"/>
       <c r="C61" s="77" t="s">
         <v>432</v>
       </c>
@@ -6435,14 +6472,16 @@
       <c r="A62" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="B62" s="121"/>
+      <c r="B62" s="143"/>
       <c r="C62" s="71" t="s">
         <v>422</v>
       </c>
       <c r="D62" s="67" t="s">
         <v>336</v>
       </c>
-      <c r="E62" s="105"/>
+      <c r="E62" s="134">
+        <v>43771</v>
+      </c>
       <c r="F62" s="105" t="s">
         <v>442</v>
       </c>
@@ -6455,7 +6494,7 @@
       <c r="A63" s="61" t="s">
         <v>295</v>
       </c>
-      <c r="B63" s="121"/>
+      <c r="B63" s="143"/>
       <c r="C63" s="71" t="s">
         <v>423</v>
       </c>
@@ -6475,14 +6514,16 @@
       <c r="A64" s="61" t="s">
         <v>296</v>
       </c>
-      <c r="B64" s="121"/>
+      <c r="B64" s="143"/>
       <c r="C64" s="77" t="s">
         <v>433</v>
       </c>
       <c r="D64" s="67" t="s">
         <v>334</v>
       </c>
-      <c r="E64" s="105"/>
+      <c r="E64" s="134">
+        <v>43771</v>
+      </c>
       <c r="F64" s="105" t="s">
         <v>442</v>
       </c>
@@ -6495,18 +6536,20 @@
       <c r="A65" s="61" t="s">
         <v>297</v>
       </c>
-      <c r="B65" s="121"/>
-      <c r="C65" s="140" t="s">
+      <c r="B65" s="143"/>
+      <c r="C65" s="126" t="s">
         <v>424</v>
       </c>
       <c r="D65" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="E65" s="141"/>
-      <c r="F65" s="142" t="s">
+      <c r="E65" s="134">
+        <v>43771</v>
+      </c>
+      <c r="F65" s="128" t="s">
         <v>442</v>
       </c>
-      <c r="G65" s="143">
+      <c r="G65" s="129">
         <v>2</v>
       </c>
       <c r="H65" s="72"/>
@@ -6515,7 +6558,7 @@
       <c r="A66" s="61" t="s">
         <v>298</v>
       </c>
-      <c r="B66" s="121" t="s">
+      <c r="B66" s="143" t="s">
         <v>176</v>
       </c>
       <c r="C66" s="62" t="s">
@@ -6524,9 +6567,7 @@
       <c r="D66" t="s">
         <v>332</v>
       </c>
-      <c r="E66" s="111">
-        <v>43767</v>
-      </c>
+      <c r="E66" s="110"/>
       <c r="F66" s="105" t="s">
         <v>442</v>
       </c>
@@ -6539,16 +6580,14 @@
       <c r="A67" s="61" t="s">
         <v>299</v>
       </c>
-      <c r="B67" s="121"/>
+      <c r="B67" s="143"/>
       <c r="C67" s="62" t="s">
         <v>425</v>
       </c>
       <c r="D67" t="s">
         <v>331</v>
       </c>
-      <c r="E67" s="111">
-        <v>43767</v>
-      </c>
+      <c r="E67" s="110"/>
       <c r="F67" s="104" t="s">
         <v>442</v>
       </c>
@@ -6561,16 +6600,14 @@
       <c r="A68" s="61" t="s">
         <v>300</v>
       </c>
-      <c r="B68" s="121"/>
+      <c r="B68" s="143"/>
       <c r="C68" s="62" t="s">
         <v>426</v>
       </c>
       <c r="D68" t="s">
         <v>330</v>
       </c>
-      <c r="E68" s="111">
-        <v>43767</v>
-      </c>
+      <c r="E68" s="110"/>
       <c r="F68" s="105" t="s">
         <v>442</v>
       </c>
@@ -6583,16 +6620,14 @@
       <c r="A69" s="61" t="s">
         <v>301</v>
       </c>
-      <c r="B69" s="121"/>
+      <c r="B69" s="143"/>
       <c r="C69" s="62" t="s">
         <v>427</v>
       </c>
       <c r="D69" t="s">
         <v>328</v>
       </c>
-      <c r="E69" s="111">
-        <v>43767</v>
-      </c>
+      <c r="E69" s="110"/>
       <c r="F69" s="104" t="s">
         <v>442</v>
       </c>
@@ -6605,16 +6640,14 @@
       <c r="A70" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="B70" s="122"/>
+      <c r="B70" s="144"/>
       <c r="C70" s="79" t="s">
         <v>387</v>
       </c>
       <c r="D70" t="s">
         <v>329</v>
       </c>
-      <c r="E70" s="111">
-        <v>43767</v>
-      </c>
+      <c r="E70" s="110"/>
       <c r="F70" s="105" t="s">
         <v>442</v>
       </c>
@@ -6627,7 +6660,7 @@
       <c r="A71" s="81" t="s">
         <v>303</v>
       </c>
-      <c r="B71" s="113" t="s">
+      <c r="B71" s="135" t="s">
         <v>31</v>
       </c>
       <c r="C71" s="82" t="s">
@@ -6636,13 +6669,13 @@
       <c r="D71" s="83" t="s">
         <v>324</v>
       </c>
-      <c r="E71" s="135">
+      <c r="E71" s="121">
         <v>43757</v>
       </c>
-      <c r="F71" s="127" t="s">
+      <c r="F71" s="113" t="s">
         <v>443</v>
       </c>
-      <c r="G71" s="127">
+      <c r="G71" s="113">
         <v>3</v>
       </c>
       <c r="H71" s="84"/>
@@ -6651,20 +6684,20 @@
       <c r="A72" s="61" t="s">
         <v>304</v>
       </c>
-      <c r="B72" s="114"/>
+      <c r="B72" s="136"/>
       <c r="C72" s="62" t="s">
         <v>196</v>
       </c>
       <c r="D72" s="63" t="s">
         <v>325</v>
       </c>
-      <c r="E72" s="133">
+      <c r="E72" s="119">
         <v>43757</v>
       </c>
-      <c r="F72" s="131" t="s">
+      <c r="F72" s="117" t="s">
         <v>443</v>
       </c>
-      <c r="G72" s="136">
+      <c r="G72" s="122">
         <v>3</v>
       </c>
       <c r="H72" s="72"/>
@@ -6673,7 +6706,7 @@
       <c r="A73" s="61" t="s">
         <v>305</v>
       </c>
-      <c r="B73" s="114"/>
+      <c r="B73" s="136"/>
       <c r="C73" s="73" t="s">
         <v>33</v>
       </c>
@@ -6693,7 +6726,7 @@
       <c r="A74" s="61" t="s">
         <v>306</v>
       </c>
-      <c r="B74" s="114"/>
+      <c r="B74" s="136"/>
       <c r="C74" s="73" t="s">
         <v>34</v>
       </c>
@@ -6713,7 +6746,7 @@
       <c r="A75" s="61" t="s">
         <v>307</v>
       </c>
-      <c r="B75" s="114"/>
+      <c r="B75" s="136"/>
       <c r="C75" s="62" t="s">
         <v>428</v>
       </c>
@@ -6733,20 +6766,20 @@
       <c r="A76" s="61" t="s">
         <v>308</v>
       </c>
-      <c r="B76" s="114"/>
+      <c r="B76" s="136"/>
       <c r="C76" s="62" t="s">
         <v>37</v>
       </c>
       <c r="D76" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="E76" s="133">
+      <c r="E76" s="119">
         <v>43757</v>
       </c>
-      <c r="F76" s="131" t="s">
+      <c r="F76" s="117" t="s">
         <v>443</v>
       </c>
-      <c r="G76" s="136">
+      <c r="G76" s="122">
         <v>1</v>
       </c>
       <c r="H76" s="72"/>
@@ -6755,20 +6788,18 @@
       <c r="A77" s="61" t="s">
         <v>309</v>
       </c>
-      <c r="B77" s="114"/>
+      <c r="B77" s="136"/>
       <c r="C77" s="62" t="s">
         <v>38</v>
       </c>
       <c r="D77" s="63" t="s">
         <v>312</v>
       </c>
-      <c r="E77" s="133">
-        <v>43757</v>
-      </c>
-      <c r="F77" s="131" t="s">
+      <c r="E77" s="119"/>
+      <c r="F77" s="117" t="s">
         <v>443</v>
       </c>
-      <c r="G77" s="136">
+      <c r="G77" s="122">
         <v>3</v>
       </c>
       <c r="H77" s="72"/>
@@ -6777,20 +6808,20 @@
       <c r="A78" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="B78" s="114"/>
+      <c r="B78" s="136"/>
       <c r="C78" s="62" t="s">
         <v>39</v>
       </c>
       <c r="D78" s="63" t="s">
         <v>326</v>
       </c>
-      <c r="E78" s="133">
+      <c r="E78" s="119">
         <v>43757</v>
       </c>
-      <c r="F78" s="131" t="s">
+      <c r="F78" s="117" t="s">
         <v>443</v>
       </c>
-      <c r="G78" s="136">
+      <c r="G78" s="122">
         <v>3</v>
       </c>
       <c r="H78" s="72"/>
@@ -6799,20 +6830,20 @@
       <c r="A79" s="61" t="s">
         <v>313</v>
       </c>
-      <c r="B79" s="114"/>
+      <c r="B79" s="136"/>
       <c r="C79" s="62" t="s">
         <v>320</v>
       </c>
       <c r="D79" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="E79" s="133">
+      <c r="E79" s="119">
         <v>43757</v>
       </c>
-      <c r="F79" s="131" t="s">
+      <c r="F79" s="117" t="s">
         <v>443</v>
       </c>
-      <c r="G79" s="136">
+      <c r="G79" s="122">
         <v>3</v>
       </c>
       <c r="H79" s="58"/>
@@ -6821,20 +6852,18 @@
       <c r="A80" s="61" t="s">
         <v>314</v>
       </c>
-      <c r="B80" s="114"/>
+      <c r="B80" s="136"/>
       <c r="C80" s="64" t="s">
         <v>203</v>
       </c>
       <c r="D80" s="65" t="s">
         <v>381</v>
       </c>
-      <c r="E80" s="141">
-        <v>43767</v>
-      </c>
-      <c r="F80" s="145" t="s">
+      <c r="E80" s="127"/>
+      <c r="F80" s="131" t="s">
         <v>443</v>
       </c>
-      <c r="G80" s="146">
+      <c r="G80" s="132">
         <v>1</v>
       </c>
       <c r="H80" s="58"/>
@@ -6843,20 +6872,18 @@
       <c r="A81" s="61" t="s">
         <v>315</v>
       </c>
-      <c r="B81" s="114"/>
+      <c r="B81" s="136"/>
       <c r="C81" s="64" t="s">
         <v>42</v>
       </c>
       <c r="D81" s="65" t="s">
         <v>446</v>
       </c>
-      <c r="E81" s="141">
-        <v>43767</v>
-      </c>
-      <c r="F81" s="145" t="s">
+      <c r="E81" s="127"/>
+      <c r="F81" s="131" t="s">
         <v>443</v>
       </c>
-      <c r="G81" s="147">
+      <c r="G81" s="133">
         <v>3</v>
       </c>
       <c r="H81" s="58"/>
@@ -6865,20 +6892,20 @@
       <c r="A82" s="85" t="s">
         <v>316</v>
       </c>
-      <c r="B82" s="115"/>
+      <c r="B82" s="137"/>
       <c r="C82" s="75" t="s">
         <v>43</v>
       </c>
       <c r="D82" s="76" t="s">
         <v>380</v>
       </c>
-      <c r="E82" s="137">
+      <c r="E82" s="123">
         <v>43757</v>
       </c>
-      <c r="F82" s="138" t="s">
+      <c r="F82" s="124" t="s">
         <v>443</v>
       </c>
-      <c r="G82" s="139">
+      <c r="G82" s="125">
         <v>1</v>
       </c>
       <c r="H82" s="60"/>

--- a/설계및정의서/기능리스트_AR 레이싱 게임 v0.1.xlsx
+++ b/설계및정의서/기능리스트_AR 레이싱 게임 v0.1.xlsx
@@ -15,6 +15,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$H$82</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2866,6 +2867,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2875,6 +2879,45 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="16" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2939,48 +2982,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5110,8 +5111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5156,7 +5157,7 @@
       <c r="A2" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="116" t="s">
         <v>110</v>
       </c>
       <c r="C2" s="90" t="s">
@@ -5178,16 +5179,14 @@
       <c r="A3" s="61" t="s">
         <v>261</v>
       </c>
-      <c r="B3" s="139"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="64" t="s">
         <v>384</v>
       </c>
       <c r="D3" s="65" t="s">
         <v>379</v>
       </c>
-      <c r="E3" s="134">
-        <v>43771</v>
-      </c>
+      <c r="E3" s="68"/>
       <c r="F3" s="104" t="s">
         <v>442</v>
       </c>
@@ -5200,16 +5199,14 @@
       <c r="A4" s="61" t="s">
         <v>263</v>
       </c>
-      <c r="B4" s="139"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="64" t="s">
         <v>383</v>
       </c>
       <c r="D4" s="65" t="s">
         <v>378</v>
       </c>
-      <c r="E4" s="134">
-        <v>43771</v>
-      </c>
+      <c r="E4" s="68"/>
       <c r="F4" s="104" t="s">
         <v>442</v>
       </c>
@@ -5222,7 +5219,7 @@
       <c r="A5" s="61" t="s">
         <v>264</v>
       </c>
-      <c r="B5" s="139" t="s">
+      <c r="B5" s="117" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="64" t="s">
@@ -5231,9 +5228,7 @@
       <c r="D5" s="67" t="s">
         <v>377</v>
       </c>
-      <c r="E5" s="134">
-        <v>43771</v>
-      </c>
+      <c r="E5" s="68"/>
       <c r="F5" s="104" t="s">
         <v>442</v>
       </c>
@@ -5249,7 +5244,7 @@
       <c r="A6" s="61" t="s">
         <v>265</v>
       </c>
-      <c r="B6" s="139"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="62" t="s">
         <v>77</v>
       </c>
@@ -5272,16 +5267,14 @@
       <c r="A7" s="61" t="s">
         <v>266</v>
       </c>
-      <c r="B7" s="139"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="62" t="s">
         <v>376</v>
       </c>
       <c r="D7" s="63" t="s">
         <v>375</v>
       </c>
-      <c r="E7" s="134">
-        <v>43771</v>
-      </c>
+      <c r="E7" s="68"/>
       <c r="F7" s="104" t="s">
         <v>442</v>
       </c>
@@ -5297,16 +5290,14 @@
       <c r="A8" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="139"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="64" t="s">
         <v>385</v>
       </c>
       <c r="D8" s="65" t="s">
         <v>370</v>
       </c>
-      <c r="E8" s="134">
-        <v>43771</v>
-      </c>
+      <c r="E8" s="68"/>
       <c r="F8" s="104" t="s">
         <v>442</v>
       </c>
@@ -5322,16 +5313,14 @@
       <c r="A9" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="139"/>
+      <c r="B9" s="117"/>
       <c r="C9" s="64" t="s">
         <v>386</v>
       </c>
       <c r="D9" s="65" t="s">
         <v>367</v>
       </c>
-      <c r="E9" s="134">
-        <v>43771</v>
-      </c>
+      <c r="E9" s="68"/>
       <c r="F9" s="104" t="s">
         <v>442</v>
       </c>
@@ -5347,16 +5336,14 @@
       <c r="A10" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="139"/>
+      <c r="B10" s="117"/>
       <c r="C10" s="62" t="s">
         <v>387</v>
       </c>
       <c r="D10" s="57" t="s">
         <v>340</v>
       </c>
-      <c r="E10" s="134">
-        <v>43771</v>
-      </c>
+      <c r="E10" s="68"/>
       <c r="F10" s="104" t="s">
         <v>442</v>
       </c>
@@ -5372,7 +5359,7 @@
       <c r="A11" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="139" t="s">
+      <c r="B11" s="117" t="s">
         <v>140</v>
       </c>
       <c r="C11" s="64" t="s">
@@ -5397,7 +5384,7 @@
       <c r="A12" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="139"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="64" t="s">
         <v>388</v>
       </c>
@@ -5420,7 +5407,7 @@
       <c r="A13" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="139"/>
+      <c r="B13" s="117"/>
       <c r="C13" s="64" t="s">
         <v>390</v>
       </c>
@@ -5440,7 +5427,7 @@
       <c r="A14" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="139"/>
+      <c r="B14" s="117"/>
       <c r="C14" s="64" t="s">
         <v>391</v>
       </c>
@@ -5460,7 +5447,7 @@
       <c r="A15" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="139"/>
+      <c r="B15" s="117"/>
       <c r="C15" s="62" t="s">
         <v>387</v>
       </c>
@@ -5480,7 +5467,7 @@
       <c r="A16" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="139" t="s">
+      <c r="B16" s="117" t="s">
         <v>146</v>
       </c>
       <c r="C16" s="64" t="s">
@@ -5489,9 +5476,7 @@
       <c r="D16" s="65" t="s">
         <v>370</v>
       </c>
-      <c r="E16" s="134">
-        <v>43771</v>
-      </c>
+      <c r="E16" s="68"/>
       <c r="F16" s="104" t="s">
         <v>442</v>
       </c>
@@ -5504,16 +5489,14 @@
       <c r="A17" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="139"/>
+      <c r="B17" s="117"/>
       <c r="C17" s="64" t="s">
         <v>388</v>
       </c>
       <c r="D17" s="65" t="s">
         <v>369</v>
       </c>
-      <c r="E17" s="134">
-        <v>43771</v>
-      </c>
+      <c r="E17" s="68"/>
       <c r="F17" s="104" t="s">
         <v>442</v>
       </c>
@@ -5526,16 +5509,14 @@
       <c r="A18" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="139"/>
+      <c r="B18" s="117"/>
       <c r="C18" s="64" t="s">
         <v>392</v>
       </c>
       <c r="D18" s="65" t="s">
         <v>368</v>
       </c>
-      <c r="E18" s="134">
-        <v>43771</v>
-      </c>
+      <c r="E18" s="68"/>
       <c r="F18" s="104" t="s">
         <v>442</v>
       </c>
@@ -5548,7 +5529,7 @@
       <c r="A19" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="139"/>
+      <c r="B19" s="117"/>
       <c r="C19" s="64" t="s">
         <v>393</v>
       </c>
@@ -5568,7 +5549,7 @@
       <c r="A20" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="139"/>
+      <c r="B20" s="117"/>
       <c r="C20" s="64" t="s">
         <v>394</v>
       </c>
@@ -5588,7 +5569,7 @@
       <c r="A21" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="139"/>
+      <c r="B21" s="117"/>
       <c r="C21" s="64" t="s">
         <v>395</v>
       </c>
@@ -5608,16 +5589,14 @@
       <c r="A22" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="139"/>
+      <c r="B22" s="117"/>
       <c r="C22" s="62" t="s">
         <v>387</v>
       </c>
       <c r="D22" s="57" t="s">
         <v>340</v>
       </c>
-      <c r="E22" s="134">
-        <v>43771</v>
-      </c>
+      <c r="E22" s="68"/>
       <c r="F22" s="104" t="s">
         <v>442</v>
       </c>
@@ -5630,7 +5609,7 @@
       <c r="A23" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="139" t="s">
+      <c r="B23" s="117" t="s">
         <v>79</v>
       </c>
       <c r="C23" s="62" t="s">
@@ -5639,9 +5618,7 @@
       <c r="D23" s="63" t="s">
         <v>365</v>
       </c>
-      <c r="E23" s="134">
-        <v>43771</v>
-      </c>
+      <c r="E23" s="68"/>
       <c r="F23" s="104" t="s">
         <v>442</v>
       </c>
@@ -5654,16 +5631,14 @@
       <c r="A24" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="139"/>
+      <c r="B24" s="117"/>
       <c r="C24" s="62" t="s">
         <v>397</v>
       </c>
       <c r="D24" s="63" t="s">
         <v>364</v>
       </c>
-      <c r="E24" s="134">
-        <v>43771</v>
-      </c>
+      <c r="E24" s="68"/>
       <c r="F24" s="104" t="s">
         <v>442</v>
       </c>
@@ -5676,16 +5651,14 @@
       <c r="A25" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="139"/>
+      <c r="B25" s="117"/>
       <c r="C25" s="64" t="s">
         <v>398</v>
       </c>
       <c r="D25" s="65" t="s">
         <v>363</v>
       </c>
-      <c r="E25" s="134">
-        <v>43771</v>
-      </c>
+      <c r="E25" s="68"/>
       <c r="F25" s="104" t="s">
         <v>442</v>
       </c>
@@ -5698,16 +5671,14 @@
       <c r="A26" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="139"/>
+      <c r="B26" s="117"/>
       <c r="C26" s="64" t="s">
         <v>399</v>
       </c>
       <c r="D26" s="65" t="s">
         <v>362</v>
       </c>
-      <c r="E26" s="134">
-        <v>43771</v>
-      </c>
+      <c r="E26" s="68"/>
       <c r="F26" s="104" t="s">
         <v>442</v>
       </c>
@@ -5720,16 +5691,14 @@
       <c r="A27" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="139"/>
+      <c r="B27" s="117"/>
       <c r="C27" s="64" t="s">
         <v>400</v>
       </c>
       <c r="D27" s="65" t="s">
         <v>361</v>
       </c>
-      <c r="E27" s="134">
-        <v>43771</v>
-      </c>
+      <c r="E27" s="68"/>
       <c r="F27" s="104" t="s">
         <v>442</v>
       </c>
@@ -5742,16 +5711,14 @@
       <c r="A28" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="139"/>
+      <c r="B28" s="117"/>
       <c r="C28" s="62" t="s">
         <v>401</v>
       </c>
       <c r="D28" s="67" t="s">
         <v>360</v>
       </c>
-      <c r="E28" s="134">
-        <v>43771</v>
-      </c>
+      <c r="E28" s="68"/>
       <c r="F28" s="104" t="s">
         <v>442</v>
       </c>
@@ -5764,16 +5731,14 @@
       <c r="A29" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="139"/>
+      <c r="B29" s="117"/>
       <c r="C29" s="62" t="s">
         <v>402</v>
       </c>
       <c r="D29" s="67" t="s">
         <v>359</v>
       </c>
-      <c r="E29" s="134">
-        <v>43771</v>
-      </c>
+      <c r="E29" s="68"/>
       <c r="F29" s="104" t="s">
         <v>442</v>
       </c>
@@ -5786,16 +5751,14 @@
       <c r="A30" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="139"/>
+      <c r="B30" s="117"/>
       <c r="C30" s="62" t="s">
         <v>403</v>
       </c>
       <c r="D30" s="67" t="s">
         <v>358</v>
       </c>
-      <c r="E30" s="134">
-        <v>43771</v>
-      </c>
+      <c r="E30" s="68"/>
       <c r="F30" s="104" t="s">
         <v>442</v>
       </c>
@@ -5808,16 +5771,14 @@
       <c r="A31" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="139"/>
+      <c r="B31" s="117"/>
       <c r="C31" s="62" t="s">
         <v>404</v>
       </c>
       <c r="D31" s="67" t="s">
         <v>357</v>
       </c>
-      <c r="E31" s="134">
-        <v>43771</v>
-      </c>
+      <c r="E31" s="68"/>
       <c r="F31" s="104" t="s">
         <v>442</v>
       </c>
@@ -5830,16 +5791,14 @@
       <c r="A32" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="139"/>
+      <c r="B32" s="117"/>
       <c r="C32" s="62" t="s">
         <v>405</v>
       </c>
       <c r="D32" s="67" t="s">
         <v>356</v>
       </c>
-      <c r="E32" s="134">
-        <v>43771</v>
-      </c>
+      <c r="E32" s="68"/>
       <c r="F32" s="104" t="s">
         <v>442</v>
       </c>
@@ -5852,16 +5811,14 @@
       <c r="A33" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="139"/>
+      <c r="B33" s="117"/>
       <c r="C33" s="62" t="s">
         <v>406</v>
       </c>
       <c r="D33" s="67" t="s">
         <v>355</v>
       </c>
-      <c r="E33" s="134">
-        <v>43771</v>
-      </c>
+      <c r="E33" s="68"/>
       <c r="F33" s="104" t="s">
         <v>442</v>
       </c>
@@ -5874,16 +5831,14 @@
       <c r="A34" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="139"/>
+      <c r="B34" s="117"/>
       <c r="C34" s="62" t="s">
         <v>416</v>
       </c>
       <c r="D34" s="67" t="s">
         <v>354</v>
       </c>
-      <c r="E34" s="134">
-        <v>43771</v>
-      </c>
+      <c r="E34" s="68"/>
       <c r="F34" s="104" t="s">
         <v>442</v>
       </c>
@@ -5896,16 +5851,14 @@
       <c r="A35" s="85" t="s">
         <v>267</v>
       </c>
-      <c r="B35" s="145"/>
+      <c r="B35" s="123"/>
       <c r="C35" s="75" t="s">
         <v>407</v>
       </c>
       <c r="D35" s="59" t="s">
         <v>340</v>
       </c>
-      <c r="E35" s="134">
-        <v>43771</v>
-      </c>
+      <c r="E35" s="109"/>
       <c r="F35" s="104" t="s">
         <v>442</v>
       </c>
@@ -5918,7 +5871,7 @@
       <c r="A36" s="81" t="s">
         <v>268</v>
       </c>
-      <c r="B36" s="146" t="s">
+      <c r="B36" s="124" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="90" t="s">
@@ -5927,11 +5880,13 @@
       <c r="D36" s="91" t="s">
         <v>321</v>
       </c>
-      <c r="E36" s="112"/>
-      <c r="F36" s="113" t="s">
+      <c r="E36" s="126">
+        <v>43757</v>
+      </c>
+      <c r="F36" s="127" t="s">
         <v>443</v>
       </c>
-      <c r="G36" s="114">
+      <c r="G36" s="128">
         <v>3</v>
       </c>
       <c r="H36" s="92"/>
@@ -5940,14 +5895,16 @@
       <c r="A37" s="61" t="s">
         <v>269</v>
       </c>
-      <c r="B37" s="147"/>
+      <c r="B37" s="125"/>
       <c r="C37" s="64" t="s">
         <v>408</v>
       </c>
       <c r="D37" s="70" t="s">
         <v>322</v>
       </c>
-      <c r="E37" s="110"/>
+      <c r="E37" s="111">
+        <v>43767</v>
+      </c>
       <c r="F37" s="105" t="s">
         <v>443</v>
       </c>
@@ -5960,7 +5917,7 @@
       <c r="A38" s="61" t="s">
         <v>270</v>
       </c>
-      <c r="B38" s="147"/>
+      <c r="B38" s="125"/>
       <c r="C38" s="64" t="s">
         <v>387</v>
       </c>
@@ -5980,18 +5937,20 @@
       <c r="A39" s="61" t="s">
         <v>271</v>
       </c>
-      <c r="B39" s="147"/>
+      <c r="B39" s="125"/>
       <c r="C39" s="64" t="s">
         <v>409</v>
       </c>
       <c r="D39" s="70" t="s">
         <v>352</v>
       </c>
-      <c r="E39" s="127"/>
-      <c r="F39" s="131" t="s">
+      <c r="E39" s="141">
+        <v>43767</v>
+      </c>
+      <c r="F39" s="145" t="s">
         <v>443</v>
       </c>
-      <c r="G39" s="129">
+      <c r="G39" s="143">
         <v>3</v>
       </c>
       <c r="H39" s="72"/>
@@ -6000,18 +5959,20 @@
       <c r="A40" s="61" t="s">
         <v>272</v>
       </c>
-      <c r="B40" s="147"/>
+      <c r="B40" s="125"/>
       <c r="C40" s="64" t="s">
         <v>434</v>
       </c>
       <c r="D40" s="70" t="s">
         <v>351</v>
       </c>
-      <c r="E40" s="127"/>
-      <c r="F40" s="131" t="s">
+      <c r="E40" s="141">
+        <v>43767</v>
+      </c>
+      <c r="F40" s="145" t="s">
         <v>443</v>
       </c>
-      <c r="G40" s="129">
+      <c r="G40" s="143">
         <v>3</v>
       </c>
       <c r="H40" s="72"/>
@@ -6020,14 +5981,16 @@
       <c r="A41" s="61" t="s">
         <v>273</v>
       </c>
-      <c r="B41" s="147"/>
+      <c r="B41" s="125"/>
       <c r="C41" s="64" t="s">
         <v>233</v>
       </c>
       <c r="D41" s="70" t="s">
         <v>350</v>
       </c>
-      <c r="E41" s="110"/>
+      <c r="E41" s="111">
+        <v>43767</v>
+      </c>
       <c r="F41" s="105" t="s">
         <v>443</v>
       </c>
@@ -6040,14 +6003,16 @@
       <c r="A42" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="B42" s="147"/>
+      <c r="B42" s="125"/>
       <c r="C42" s="62" t="s">
         <v>410</v>
       </c>
       <c r="D42" s="67" t="s">
         <v>349</v>
       </c>
-      <c r="E42" s="110"/>
+      <c r="E42" s="111">
+        <v>43767</v>
+      </c>
       <c r="F42" s="105" t="s">
         <v>443</v>
       </c>
@@ -6060,14 +6025,16 @@
       <c r="A43" s="61" t="s">
         <v>275</v>
       </c>
-      <c r="B43" s="147"/>
+      <c r="B43" s="125"/>
       <c r="C43" s="71" t="s">
         <v>411</v>
       </c>
       <c r="D43" s="67" t="s">
         <v>348</v>
       </c>
-      <c r="E43" s="110"/>
+      <c r="E43" s="111">
+        <v>43767</v>
+      </c>
       <c r="F43" s="105" t="s">
         <v>443</v>
       </c>
@@ -6080,7 +6047,7 @@
       <c r="A44" s="61" t="s">
         <v>276</v>
       </c>
-      <c r="B44" s="140" t="s">
+      <c r="B44" s="118" t="s">
         <v>262</v>
       </c>
       <c r="C44" s="62" t="s">
@@ -6089,7 +6056,9 @@
       <c r="D44" s="57" t="s">
         <v>447</v>
       </c>
-      <c r="E44" s="110"/>
+      <c r="E44" s="111">
+        <v>43767</v>
+      </c>
       <c r="F44" s="105" t="s">
         <v>443</v>
       </c>
@@ -6102,7 +6071,7 @@
       <c r="A45" s="61" t="s">
         <v>277</v>
       </c>
-      <c r="B45" s="140"/>
+      <c r="B45" s="118"/>
       <c r="C45" s="62" t="s">
         <v>387</v>
       </c>
@@ -6122,14 +6091,14 @@
       <c r="A46" s="61" t="s">
         <v>278</v>
       </c>
-      <c r="B46" s="140"/>
+      <c r="B46" s="118"/>
       <c r="C46" s="62" t="s">
         <v>412</v>
       </c>
       <c r="D46" s="57" t="s">
         <v>347</v>
       </c>
-      <c r="E46" s="110">
+      <c r="E46" s="111">
         <v>43767</v>
       </c>
       <c r="F46" s="105" t="s">
@@ -6144,17 +6113,17 @@
       <c r="A47" s="85" t="s">
         <v>279</v>
       </c>
-      <c r="B47" s="141"/>
+      <c r="B47" s="119"/>
       <c r="C47" s="75" t="s">
         <v>413</v>
       </c>
       <c r="D47" s="59" t="s">
         <v>346</v>
       </c>
-      <c r="E47" s="110">
+      <c r="E47" s="111">
         <v>43767</v>
       </c>
-      <c r="F47" s="109" t="s">
+      <c r="F47" s="110" t="s">
         <v>443</v>
       </c>
       <c r="G47" s="103">
@@ -6166,7 +6135,7 @@
       <c r="A48" s="86" t="s">
         <v>280</v>
       </c>
-      <c r="B48" s="142" t="s">
+      <c r="B48" s="120" t="s">
         <v>206</v>
       </c>
       <c r="C48" s="87" t="s">
@@ -6175,13 +6144,13 @@
       <c r="D48" s="88" t="s">
         <v>323</v>
       </c>
-      <c r="E48" s="115">
+      <c r="E48" s="129">
         <v>43757</v>
       </c>
-      <c r="F48" s="116" t="s">
+      <c r="F48" s="130" t="s">
         <v>445</v>
       </c>
-      <c r="G48" s="114">
+      <c r="G48" s="128">
         <v>2</v>
       </c>
       <c r="H48" s="89"/>
@@ -6190,20 +6159,20 @@
       <c r="A49" s="61" t="s">
         <v>281</v>
       </c>
-      <c r="B49" s="143"/>
+      <c r="B49" s="121"/>
       <c r="C49" s="71" t="s">
         <v>414</v>
       </c>
       <c r="D49" s="67" t="s">
         <v>311</v>
       </c>
-      <c r="E49" s="115">
+      <c r="E49" s="129">
         <v>43757</v>
       </c>
-      <c r="F49" s="117" t="s">
+      <c r="F49" s="131" t="s">
         <v>442</v>
       </c>
-      <c r="G49" s="118">
+      <c r="G49" s="132">
         <v>2</v>
       </c>
       <c r="H49" s="72"/>
@@ -6212,7 +6181,7 @@
       <c r="A50" s="61" t="s">
         <v>282</v>
       </c>
-      <c r="B50" s="143"/>
+      <c r="B50" s="121"/>
       <c r="C50" s="62" t="s">
         <v>415</v>
       </c>
@@ -6232,20 +6201,20 @@
       <c r="A51" s="61" t="s">
         <v>283</v>
       </c>
-      <c r="B51" s="143"/>
+      <c r="B51" s="121"/>
       <c r="C51" s="62" t="s">
         <v>429</v>
       </c>
       <c r="D51" s="67" t="s">
         <v>344</v>
       </c>
-      <c r="E51" s="119">
+      <c r="E51" s="133">
         <v>43757</v>
       </c>
-      <c r="F51" s="116" t="s">
+      <c r="F51" s="130" t="s">
         <v>442</v>
       </c>
-      <c r="G51" s="118">
+      <c r="G51" s="132">
         <v>3</v>
       </c>
       <c r="H51" s="72"/>
@@ -6254,16 +6223,14 @@
       <c r="A52" s="61" t="s">
         <v>284</v>
       </c>
-      <c r="B52" s="143"/>
+      <c r="B52" s="121"/>
       <c r="C52" s="62" t="s">
         <v>435</v>
       </c>
       <c r="D52" s="67" t="s">
         <v>343</v>
       </c>
-      <c r="E52" s="134">
-        <v>43771</v>
-      </c>
+      <c r="E52" s="105"/>
       <c r="F52" s="105" t="s">
         <v>442</v>
       </c>
@@ -6276,20 +6243,20 @@
       <c r="A53" s="61" t="s">
         <v>285</v>
       </c>
-      <c r="B53" s="143"/>
+      <c r="B53" s="121"/>
       <c r="C53" s="62" t="s">
         <v>430</v>
       </c>
       <c r="D53" s="67" t="s">
         <v>259</v>
       </c>
-      <c r="E53" s="120">
+      <c r="E53" s="134">
         <v>43757</v>
       </c>
-      <c r="F53" s="116" t="s">
+      <c r="F53" s="130" t="s">
         <v>442</v>
       </c>
-      <c r="G53" s="118">
+      <c r="G53" s="132">
         <v>3</v>
       </c>
       <c r="H53" s="72"/>
@@ -6298,16 +6265,16 @@
       <c r="A54" s="61" t="s">
         <v>286</v>
       </c>
-      <c r="B54" s="143" t="s">
+      <c r="B54" s="121" t="s">
         <v>436</v>
       </c>
       <c r="C54" s="71" t="s">
         <v>417</v>
       </c>
-      <c r="D54" s="111" t="s">
+      <c r="D54" s="112" t="s">
         <v>342</v>
       </c>
-      <c r="E54" s="127">
+      <c r="E54" s="141">
         <v>43767</v>
       </c>
       <c r="F54" s="108" t="s">
@@ -6322,20 +6289,18 @@
       <c r="A55" s="61" t="s">
         <v>287</v>
       </c>
-      <c r="B55" s="143"/>
-      <c r="C55" s="126" t="s">
+      <c r="B55" s="121"/>
+      <c r="C55" s="140" t="s">
         <v>418</v>
       </c>
       <c r="D55" s="70" t="s">
         <v>341</v>
       </c>
-      <c r="E55" s="134">
-        <v>43771</v>
-      </c>
-      <c r="F55" s="128" t="s">
+      <c r="E55" s="141"/>
+      <c r="F55" s="142" t="s">
         <v>442</v>
       </c>
-      <c r="G55" s="129">
+      <c r="G55" s="143">
         <v>2</v>
       </c>
       <c r="H55" s="72"/>
@@ -6344,16 +6309,14 @@
       <c r="A56" s="61" t="s">
         <v>288</v>
       </c>
-      <c r="B56" s="143"/>
+      <c r="B56" s="121"/>
       <c r="C56" s="71" t="s">
         <v>387</v>
       </c>
       <c r="D56" s="67" t="s">
         <v>340</v>
       </c>
-      <c r="E56" s="134">
-        <v>43771</v>
-      </c>
+      <c r="E56" s="105"/>
       <c r="F56" s="105" t="s">
         <v>442</v>
       </c>
@@ -6366,20 +6329,20 @@
       <c r="A57" s="61" t="s">
         <v>289</v>
       </c>
-      <c r="B57" s="143"/>
-      <c r="C57" s="126" t="s">
+      <c r="B57" s="121"/>
+      <c r="C57" s="140" t="s">
         <v>419</v>
       </c>
       <c r="D57" s="70" t="s">
         <v>339</v>
       </c>
-      <c r="E57" s="127">
+      <c r="E57" s="141">
         <v>43767</v>
       </c>
-      <c r="F57" s="128" t="s">
+      <c r="F57" s="142" t="s">
         <v>442</v>
       </c>
-      <c r="G57" s="129">
+      <c r="G57" s="143">
         <v>3</v>
       </c>
       <c r="H57" s="72"/>
@@ -6388,20 +6351,20 @@
       <c r="A58" s="61" t="s">
         <v>290</v>
       </c>
-      <c r="B58" s="143"/>
-      <c r="C58" s="130" t="s">
+      <c r="B58" s="121"/>
+      <c r="C58" s="144" t="s">
         <v>431</v>
       </c>
       <c r="D58" s="70" t="s">
         <v>437</v>
       </c>
-      <c r="E58" s="127">
+      <c r="E58" s="141">
         <v>43767</v>
       </c>
-      <c r="F58" s="131" t="s">
+      <c r="F58" s="145" t="s">
         <v>442</v>
       </c>
-      <c r="G58" s="129">
+      <c r="G58" s="143">
         <v>3</v>
       </c>
       <c r="H58" s="72"/>
@@ -6410,20 +6373,20 @@
       <c r="A59" s="61" t="s">
         <v>291</v>
       </c>
-      <c r="B59" s="143"/>
-      <c r="C59" s="126" t="s">
+      <c r="B59" s="121"/>
+      <c r="C59" s="140" t="s">
         <v>420</v>
       </c>
       <c r="D59" s="70" t="s">
         <v>338</v>
       </c>
-      <c r="E59" s="127">
+      <c r="E59" s="141">
         <v>43767</v>
       </c>
-      <c r="F59" s="128" t="s">
+      <c r="F59" s="142" t="s">
         <v>442</v>
       </c>
-      <c r="G59" s="129">
+      <c r="G59" s="143">
         <v>3</v>
       </c>
       <c r="H59" s="72"/>
@@ -6432,18 +6395,18 @@
       <c r="A60" s="61" t="s">
         <v>292</v>
       </c>
-      <c r="B60" s="143"/>
-      <c r="C60" s="126" t="s">
+      <c r="B60" s="121"/>
+      <c r="C60" s="140" t="s">
         <v>421</v>
       </c>
       <c r="D60" s="70" t="s">
         <v>448</v>
       </c>
-      <c r="E60" s="127"/>
-      <c r="F60" s="131" t="s">
+      <c r="E60" s="141"/>
+      <c r="F60" s="145" t="s">
         <v>442</v>
       </c>
-      <c r="G60" s="129">
+      <c r="G60" s="143">
         <v>3</v>
       </c>
       <c r="H60" s="72"/>
@@ -6452,7 +6415,7 @@
       <c r="A61" s="61" t="s">
         <v>293</v>
       </c>
-      <c r="B61" s="143"/>
+      <c r="B61" s="121"/>
       <c r="C61" s="77" t="s">
         <v>432</v>
       </c>
@@ -6472,16 +6435,14 @@
       <c r="A62" s="61" t="s">
         <v>294</v>
       </c>
-      <c r="B62" s="143"/>
+      <c r="B62" s="121"/>
       <c r="C62" s="71" t="s">
         <v>422</v>
       </c>
       <c r="D62" s="67" t="s">
         <v>336</v>
       </c>
-      <c r="E62" s="134">
-        <v>43771</v>
-      </c>
+      <c r="E62" s="105"/>
       <c r="F62" s="105" t="s">
         <v>442</v>
       </c>
@@ -6494,7 +6455,7 @@
       <c r="A63" s="61" t="s">
         <v>295</v>
       </c>
-      <c r="B63" s="143"/>
+      <c r="B63" s="121"/>
       <c r="C63" s="71" t="s">
         <v>423</v>
       </c>
@@ -6514,16 +6475,14 @@
       <c r="A64" s="61" t="s">
         <v>296</v>
       </c>
-      <c r="B64" s="143"/>
+      <c r="B64" s="121"/>
       <c r="C64" s="77" t="s">
         <v>433</v>
       </c>
       <c r="D64" s="67" t="s">
         <v>334</v>
       </c>
-      <c r="E64" s="134">
-        <v>43771</v>
-      </c>
+      <c r="E64" s="105"/>
       <c r="F64" s="105" t="s">
         <v>442</v>
       </c>
@@ -6536,20 +6495,18 @@
       <c r="A65" s="61" t="s">
         <v>297</v>
       </c>
-      <c r="B65" s="143"/>
-      <c r="C65" s="126" t="s">
+      <c r="B65" s="121"/>
+      <c r="C65" s="140" t="s">
         <v>424</v>
       </c>
       <c r="D65" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="E65" s="134">
-        <v>43771</v>
-      </c>
-      <c r="F65" s="128" t="s">
+      <c r="E65" s="141"/>
+      <c r="F65" s="142" t="s">
         <v>442</v>
       </c>
-      <c r="G65" s="129">
+      <c r="G65" s="143">
         <v>2</v>
       </c>
       <c r="H65" s="72"/>
@@ -6558,7 +6515,7 @@
       <c r="A66" s="61" t="s">
         <v>298</v>
       </c>
-      <c r="B66" s="143" t="s">
+      <c r="B66" s="121" t="s">
         <v>176</v>
       </c>
       <c r="C66" s="62" t="s">
@@ -6567,7 +6524,9 @@
       <c r="D66" t="s">
         <v>332</v>
       </c>
-      <c r="E66" s="110"/>
+      <c r="E66" s="111">
+        <v>43767</v>
+      </c>
       <c r="F66" s="105" t="s">
         <v>442</v>
       </c>
@@ -6580,14 +6539,16 @@
       <c r="A67" s="61" t="s">
         <v>299</v>
       </c>
-      <c r="B67" s="143"/>
+      <c r="B67" s="121"/>
       <c r="C67" s="62" t="s">
         <v>425</v>
       </c>
       <c r="D67" t="s">
         <v>331</v>
       </c>
-      <c r="E67" s="110"/>
+      <c r="E67" s="111">
+        <v>43767</v>
+      </c>
       <c r="F67" s="104" t="s">
         <v>442</v>
       </c>
@@ -6600,14 +6561,16 @@
       <c r="A68" s="61" t="s">
         <v>300</v>
       </c>
-      <c r="B68" s="143"/>
+      <c r="B68" s="121"/>
       <c r="C68" s="62" t="s">
         <v>426</v>
       </c>
       <c r="D68" t="s">
         <v>330</v>
       </c>
-      <c r="E68" s="110"/>
+      <c r="E68" s="111">
+        <v>43767</v>
+      </c>
       <c r="F68" s="105" t="s">
         <v>442</v>
       </c>
@@ -6620,14 +6583,16 @@
       <c r="A69" s="61" t="s">
         <v>301</v>
       </c>
-      <c r="B69" s="143"/>
+      <c r="B69" s="121"/>
       <c r="C69" s="62" t="s">
         <v>427</v>
       </c>
       <c r="D69" t="s">
         <v>328</v>
       </c>
-      <c r="E69" s="110"/>
+      <c r="E69" s="111">
+        <v>43767</v>
+      </c>
       <c r="F69" s="104" t="s">
         <v>442</v>
       </c>
@@ -6640,14 +6605,16 @@
       <c r="A70" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="B70" s="144"/>
+      <c r="B70" s="122"/>
       <c r="C70" s="79" t="s">
         <v>387</v>
       </c>
       <c r="D70" t="s">
         <v>329</v>
       </c>
-      <c r="E70" s="110"/>
+      <c r="E70" s="111">
+        <v>43767</v>
+      </c>
       <c r="F70" s="105" t="s">
         <v>442</v>
       </c>
@@ -6660,7 +6627,7 @@
       <c r="A71" s="81" t="s">
         <v>303</v>
       </c>
-      <c r="B71" s="135" t="s">
+      <c r="B71" s="113" t="s">
         <v>31</v>
       </c>
       <c r="C71" s="82" t="s">
@@ -6669,13 +6636,13 @@
       <c r="D71" s="83" t="s">
         <v>324</v>
       </c>
-      <c r="E71" s="121">
+      <c r="E71" s="135">
         <v>43757</v>
       </c>
-      <c r="F71" s="113" t="s">
+      <c r="F71" s="127" t="s">
         <v>443</v>
       </c>
-      <c r="G71" s="113">
+      <c r="G71" s="127">
         <v>3</v>
       </c>
       <c r="H71" s="84"/>
@@ -6684,20 +6651,20 @@
       <c r="A72" s="61" t="s">
         <v>304</v>
       </c>
-      <c r="B72" s="136"/>
+      <c r="B72" s="114"/>
       <c r="C72" s="62" t="s">
         <v>196</v>
       </c>
       <c r="D72" s="63" t="s">
         <v>325</v>
       </c>
-      <c r="E72" s="119">
+      <c r="E72" s="133">
         <v>43757</v>
       </c>
-      <c r="F72" s="117" t="s">
+      <c r="F72" s="131" t="s">
         <v>443</v>
       </c>
-      <c r="G72" s="122">
+      <c r="G72" s="136">
         <v>3</v>
       </c>
       <c r="H72" s="72"/>
@@ -6706,7 +6673,7 @@
       <c r="A73" s="61" t="s">
         <v>305</v>
       </c>
-      <c r="B73" s="136"/>
+      <c r="B73" s="114"/>
       <c r="C73" s="73" t="s">
         <v>33</v>
       </c>
@@ -6726,7 +6693,7 @@
       <c r="A74" s="61" t="s">
         <v>306</v>
       </c>
-      <c r="B74" s="136"/>
+      <c r="B74" s="114"/>
       <c r="C74" s="73" t="s">
         <v>34</v>
       </c>
@@ -6746,7 +6713,7 @@
       <c r="A75" s="61" t="s">
         <v>307</v>
       </c>
-      <c r="B75" s="136"/>
+      <c r="B75" s="114"/>
       <c r="C75" s="62" t="s">
         <v>428</v>
       </c>
@@ -6766,20 +6733,20 @@
       <c r="A76" s="61" t="s">
         <v>308</v>
       </c>
-      <c r="B76" s="136"/>
+      <c r="B76" s="114"/>
       <c r="C76" s="62" t="s">
         <v>37</v>
       </c>
       <c r="D76" s="63" t="s">
         <v>200</v>
       </c>
-      <c r="E76" s="119">
+      <c r="E76" s="133">
         <v>43757</v>
       </c>
-      <c r="F76" s="117" t="s">
+      <c r="F76" s="131" t="s">
         <v>443</v>
       </c>
-      <c r="G76" s="122">
+      <c r="G76" s="136">
         <v>1</v>
       </c>
       <c r="H76" s="72"/>
@@ -6788,18 +6755,20 @@
       <c r="A77" s="61" t="s">
         <v>309</v>
       </c>
-      <c r="B77" s="136"/>
+      <c r="B77" s="114"/>
       <c r="C77" s="62" t="s">
         <v>38</v>
       </c>
       <c r="D77" s="63" t="s">
         <v>312</v>
       </c>
-      <c r="E77" s="119"/>
-      <c r="F77" s="117" t="s">
+      <c r="E77" s="133">
+        <v>43757</v>
+      </c>
+      <c r="F77" s="131" t="s">
         <v>443</v>
       </c>
-      <c r="G77" s="122">
+      <c r="G77" s="136">
         <v>3</v>
       </c>
       <c r="H77" s="72"/>
@@ -6808,20 +6777,20 @@
       <c r="A78" s="61" t="s">
         <v>310</v>
       </c>
-      <c r="B78" s="136"/>
+      <c r="B78" s="114"/>
       <c r="C78" s="62" t="s">
         <v>39</v>
       </c>
       <c r="D78" s="63" t="s">
         <v>326</v>
       </c>
-      <c r="E78" s="119">
+      <c r="E78" s="133">
         <v>43757</v>
       </c>
-      <c r="F78" s="117" t="s">
+      <c r="F78" s="131" t="s">
         <v>443</v>
       </c>
-      <c r="G78" s="122">
+      <c r="G78" s="136">
         <v>3</v>
       </c>
       <c r="H78" s="72"/>
@@ -6830,20 +6799,20 @@
       <c r="A79" s="61" t="s">
         <v>313</v>
       </c>
-      <c r="B79" s="136"/>
+      <c r="B79" s="114"/>
       <c r="C79" s="62" t="s">
         <v>320</v>
       </c>
       <c r="D79" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="E79" s="119">
+      <c r="E79" s="133">
         <v>43757</v>
       </c>
-      <c r="F79" s="117" t="s">
+      <c r="F79" s="131" t="s">
         <v>443</v>
       </c>
-      <c r="G79" s="122">
+      <c r="G79" s="136">
         <v>3</v>
       </c>
       <c r="H79" s="58"/>
@@ -6852,18 +6821,20 @@
       <c r="A80" s="61" t="s">
         <v>314</v>
       </c>
-      <c r="B80" s="136"/>
+      <c r="B80" s="114"/>
       <c r="C80" s="64" t="s">
         <v>203</v>
       </c>
       <c r="D80" s="65" t="s">
         <v>381</v>
       </c>
-      <c r="E80" s="127"/>
-      <c r="F80" s="131" t="s">
+      <c r="E80" s="141">
+        <v>43767</v>
+      </c>
+      <c r="F80" s="145" t="s">
         <v>443</v>
       </c>
-      <c r="G80" s="132">
+      <c r="G80" s="146">
         <v>1</v>
       </c>
       <c r="H80" s="58"/>
@@ -6872,18 +6843,20 @@
       <c r="A81" s="61" t="s">
         <v>315</v>
       </c>
-      <c r="B81" s="136"/>
+      <c r="B81" s="114"/>
       <c r="C81" s="64" t="s">
         <v>42</v>
       </c>
       <c r="D81" s="65" t="s">
         <v>446</v>
       </c>
-      <c r="E81" s="127"/>
-      <c r="F81" s="131" t="s">
+      <c r="E81" s="141">
+        <v>43767</v>
+      </c>
+      <c r="F81" s="145" t="s">
         <v>443</v>
       </c>
-      <c r="G81" s="133">
+      <c r="G81" s="147">
         <v>3</v>
       </c>
       <c r="H81" s="58"/>
@@ -6892,20 +6865,20 @@
       <c r="A82" s="85" t="s">
         <v>316</v>
       </c>
-      <c r="B82" s="137"/>
+      <c r="B82" s="115"/>
       <c r="C82" s="75" t="s">
         <v>43</v>
       </c>
       <c r="D82" s="76" t="s">
         <v>380</v>
       </c>
-      <c r="E82" s="123">
+      <c r="E82" s="137">
         <v>43757</v>
       </c>
-      <c r="F82" s="124" t="s">
+      <c r="F82" s="138" t="s">
         <v>443</v>
       </c>
-      <c r="G82" s="125">
+      <c r="G82" s="139">
         <v>1</v>
       </c>
       <c r="H82" s="60"/>
